--- a/assets/downloads/Boleta_Template.xlsx
+++ b/assets/downloads/Boleta_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\probusinees-intranet\assets\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DEC2C72-3CBD-47F7-8F76-06C7EF4814DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4DA715-888B-4012-A380-EC5C9DCA22EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6624" yWindow="4188" windowWidth="16512" windowHeight="8148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$L$109</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -83,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="122">
   <si>
     <t>VALOR UNITARIO</t>
   </si>
@@ -1038,7 +1037,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1096,9 +1095,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1190,12 +1186,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="173" fontId="18" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1251,6 +1241,17 @@
     <xf numFmtId="168" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="172" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="172" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="172" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1335,6 +1336,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Millares" xfId="3" builtinId="3"/>
@@ -2620,8 +2627,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B1:L109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4"/>
@@ -2641,1143 +2648,1142 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="18">
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="2:12" ht="18">
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="39"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="E7" s="111" t="s">
+      <c r="E7" s="113" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="30"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="109">
+      <c r="J8" s="111">
         <f>+'2'!F7</f>
         <v>8</v>
       </c>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="115">
+      <c r="F9" s="117">
         <f ca="1">+TODAY()</f>
-        <v>45427</v>
-      </c>
-      <c r="G9" s="116"/>
-      <c r="H9" s="30"/>
+        <v>45435</v>
+      </c>
+      <c r="G9" s="118"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="110">
+      <c r="J9" s="112">
         <f>+'2'!F8</f>
         <v>116</v>
       </c>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="45">
         <v>40828284</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="69" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="71"/>
-      <c r="H10" s="30"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="77">
+      <c r="J10" s="74">
         <v>0</v>
       </c>
-      <c r="K10" s="77">
+      <c r="K10" s="74">
         <v>0</v>
       </c>
-      <c r="L10" s="77">
+      <c r="L10" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="47">
         <v>969094294</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="64"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="63"/>
       <c r="I11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="113">
+      <c r="J11" s="115">
         <f>+'2'!F9</f>
         <v>1.1879999999999999</v>
       </c>
-      <c r="K11" s="113"/>
-      <c r="L11" s="113"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="35" t="s">
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="35" t="s">
+      <c r="L13" s="34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="K14" s="44">
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="K14" s="43">
         <f>'2'!F13</f>
         <v>944.03</v>
       </c>
-      <c r="L14" s="33" t="s">
+      <c r="L14" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="45">
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="44">
         <f>'2'!F16+'2'!F19</f>
         <v>299.47999999999996</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="37" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="44">
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="43">
         <f>SUM(K14:K15)</f>
         <v>1243.51</v>
       </c>
-      <c r="L16" s="33" t="s">
+      <c r="L16" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="112" t="s">
+      <c r="B19" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="35" t="s">
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="K19" s="35" t="s">
+      <c r="K19" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="35" t="s">
+      <c r="L19" s="34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="56">
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="55">
         <f>MAX('2'!C26:E26)</f>
         <v>0.04</v>
       </c>
-      <c r="K20" s="44">
+      <c r="K20" s="43">
         <f>'2'!F27</f>
         <v>33.510475726407002</v>
       </c>
-      <c r="L20" s="33" t="s">
+      <c r="L20" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="56">
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="55">
         <v>0.16</v>
       </c>
-      <c r="K21" s="44">
+      <c r="K21" s="43">
         <f>'2'!F28</f>
         <v>204.32327611622512</v>
       </c>
-      <c r="L21" s="33" t="s">
+      <c r="L21" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="56">
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="55">
         <v>0.02</v>
       </c>
-      <c r="K22" s="44">
+      <c r="K22" s="43">
         <f>'2'!F29</f>
         <v>25.54040951452814</v>
       </c>
-      <c r="L22" s="33" t="s">
+      <c r="L22" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="95">
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="92">
         <f>SUM(K20:K22)</f>
         <v>263.37416135716029</v>
       </c>
-      <c r="L23" s="94" t="s">
+      <c r="L23" s="91" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="33"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="32"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="57" t="s">
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="K25" s="45">
+      <c r="K25" s="44">
         <f>'2'!F30</f>
         <v>52.74094564750061</v>
       </c>
-      <c r="L25" s="38" t="s">
+      <c r="L25" s="37" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="K26" s="44">
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="K26" s="43">
         <f>K23+K25</f>
         <v>316.1151070046609</v>
       </c>
-      <c r="L26" s="33" t="s">
+      <c r="L26" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="15.6">
-      <c r="B28" s="114" t="s">
+      <c r="B28" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76" t="s">
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="L28" s="76" t="s">
+      <c r="L28" s="73" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44">
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43">
         <f>K14</f>
         <v>944.03</v>
       </c>
-      <c r="L29" s="33" t="s">
+      <c r="L29" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44">
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43">
         <f>+'2'!K22</f>
         <v>415.79999999999995</v>
       </c>
-      <c r="L30" s="33" t="s">
+      <c r="L30" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45">
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44">
         <f>K26</f>
         <v>316.1151070046609</v>
       </c>
-      <c r="L31" s="38" t="s">
+      <c r="L31" s="37" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44">
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43">
         <f>SUM(K29:K31)</f>
         <v>1675.9451070046607</v>
       </c>
-      <c r="L32" s="33" t="s">
+      <c r="L32" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="32"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="33"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="32"/>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="106" t="s">
+      <c r="B34" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="107"/>
-      <c r="L34" s="108"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="109"/>
+      <c r="K34" s="109"/>
+      <c r="L34" s="110"/>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="99" t="s">
+      <c r="C35" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="100"/>
-      <c r="E35" s="101"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="103"/>
       <c r="F35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="99" t="s">
+      <c r="G35" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="H35" s="101"/>
+      <c r="H35" s="103"/>
       <c r="I35" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J35" s="66" t="s">
+      <c r="J35" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="96" t="s">
+      <c r="K35" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="L35" s="96"/>
+      <c r="L35" s="98"/>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="54">
+      <c r="B36" s="53">
         <v>1</v>
       </c>
-      <c r="C36" s="99" t="str">
+      <c r="C36" s="101" t="str">
         <f>+'2'!$C$6</f>
         <v xml:space="preserve">Kids Car Seat Belt Pillow </v>
       </c>
-      <c r="D36" s="100"/>
-      <c r="E36" s="101"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="103"/>
       <c r="F36" s="7">
         <f>+'2'!$C$45</f>
         <v>100</v>
       </c>
-      <c r="G36" s="102">
+      <c r="G36" s="104">
         <f>+'2'!$C$10</f>
         <v>6.36</v>
       </c>
-      <c r="H36" s="103"/>
-      <c r="I36" s="67">
+      <c r="H36" s="105"/>
+      <c r="I36" s="66">
         <f>+'2'!$C$46</f>
         <v>11.424505892807643</v>
       </c>
-      <c r="J36" s="67">
+      <c r="J36" s="66">
         <f t="shared" ref="J36:J38" si="0">+F36*I36</f>
         <v>1142.4505892807642</v>
       </c>
-      <c r="K36" s="96">
+      <c r="K36" s="98">
         <f t="shared" ref="K36" si="1">I36*3.7</f>
         <v>42.270671803388282</v>
       </c>
-      <c r="L36" s="96"/>
+      <c r="L36" s="98"/>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="54">
+      <c r="B37" s="53">
         <v>2</v>
       </c>
-      <c r="C37" s="99" t="str">
+      <c r="C37" s="101" t="str">
         <f>+'2'!$D$6</f>
         <v>Car Headrest</v>
       </c>
-      <c r="D37" s="100"/>
-      <c r="E37" s="101"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="103"/>
       <c r="F37" s="7">
         <f>+'2'!$D$45</f>
         <v>1</v>
       </c>
-      <c r="G37" s="102">
+      <c r="G37" s="104">
         <f>+'2'!$D$10</f>
         <v>8.0299999999999994</v>
       </c>
-      <c r="H37" s="103"/>
-      <c r="I37" s="67">
+      <c r="H37" s="105"/>
+      <c r="I37" s="66">
         <f>+'2'!$D$46</f>
         <v>13.907609574791055</v>
       </c>
-      <c r="J37" s="67">
+      <c r="J37" s="66">
         <f t="shared" si="0"/>
         <v>13.907609574791055</v>
       </c>
-      <c r="K37" s="96">
+      <c r="K37" s="98">
         <f t="shared" ref="K37:K38" si="2">I37*3.7</f>
         <v>51.458155426726904</v>
       </c>
-      <c r="L37" s="96"/>
+      <c r="L37" s="98"/>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="54">
+      <c r="B38" s="53">
         <v>3</v>
       </c>
-      <c r="C38" s="99" t="str">
+      <c r="C38" s="101" t="str">
         <f>+'2'!$E$6</f>
         <v>Bluetooth sleep mask</v>
       </c>
-      <c r="D38" s="100"/>
-      <c r="E38" s="101"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="103"/>
       <c r="F38" s="7">
         <f>+'2'!$E$45</f>
         <v>50</v>
       </c>
-      <c r="G38" s="102">
+      <c r="G38" s="104">
         <f>+'2'!$E$10</f>
         <v>6</v>
       </c>
-      <c r="H38" s="103"/>
-      <c r="I38" s="67">
+      <c r="H38" s="105"/>
+      <c r="I38" s="66">
         <f>+'2'!$E$46</f>
         <v>10.391738162982108</v>
       </c>
-      <c r="J38" s="67">
+      <c r="J38" s="66">
         <f t="shared" si="0"/>
         <v>519.5869081491054</v>
       </c>
-      <c r="K38" s="118">
+      <c r="K38" s="120">
         <f t="shared" si="2"/>
         <v>38.449431203033804</v>
       </c>
-      <c r="L38" s="119"/>
+      <c r="L38" s="121"/>
     </row>
     <row r="39" spans="2:12" ht="15.6">
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="57" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="42">
+      <c r="F39" s="41">
         <f>+SUM(F36:F38)</f>
         <v>151</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="J39" s="68">
+      <c r="J39" s="67">
         <f>+SUM(J36:J38)</f>
         <v>1675.9451070046607</v>
       </c>
-      <c r="K39" s="69"/>
-      <c r="L39" s="70"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="94"/>
     </row>
     <row r="40" spans="2:12" ht="15.6">
-      <c r="B40" s="58"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="42"/>
+      <c r="F40" s="41"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="J40" s="80"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="70"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="94"/>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="95"/>
+      <c r="L41" s="96"/>
     </row>
     <row r="42" spans="2:12" ht="18">
-      <c r="B42" s="78" t="s">
+      <c r="B42" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
     </row>
     <row r="43" spans="2:12" ht="18">
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
     </row>
     <row r="44" spans="2:12" ht="18">
-      <c r="B44" s="79" t="s">
+      <c r="B44" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
     </row>
     <row r="45" spans="2:12" ht="18">
-      <c r="B45" s="79" t="s">
+      <c r="B45" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
     </row>
     <row r="46" spans="2:12" ht="18">
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
     </row>
     <row r="47" spans="2:12" ht="18">
-      <c r="B47" s="79" t="s">
+      <c r="B47" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
     </row>
     <row r="50" spans="2:12" ht="18">
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="29"/>
     </row>
     <row r="51" spans="2:12" ht="18">
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="29"/>
     </row>
     <row r="53" spans="2:12">
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
     </row>
     <row r="55" spans="2:12" ht="21">
-      <c r="B55" s="117" t="s">
+      <c r="B55" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="117"/>
-      <c r="D55" s="117"/>
-      <c r="E55" s="117"/>
-      <c r="F55" s="117"/>
-      <c r="G55" s="117"/>
-      <c r="H55" s="117"/>
-      <c r="I55" s="117"/>
-      <c r="J55" s="117"/>
-      <c r="K55" s="117"/>
-      <c r="L55" s="117"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="119"/>
+      <c r="E55" s="119"/>
+      <c r="F55" s="119"/>
+      <c r="G55" s="119"/>
+      <c r="H55" s="119"/>
+      <c r="I55" s="119"/>
+      <c r="J55" s="119"/>
+      <c r="K55" s="119"/>
+      <c r="L55" s="119"/>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="47" t="s">
+      <c r="B59" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="47" t="s">
+      <c r="B60" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="47" t="s">
+      <c r="B62" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="47" t="s">
+      <c r="B63" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
     </row>
     <row r="64" spans="2:12">
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
     </row>
     <row r="65" spans="2:11">
-      <c r="B65" s="47" t="s">
+      <c r="B65" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
     </row>
     <row r="66" spans="2:11">
-      <c r="B66" s="47" t="s">
+      <c r="B66" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
     </row>
     <row r="67" spans="2:11">
-      <c r="B67" s="47" t="s">
+      <c r="B67" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
     </row>
     <row r="68" spans="2:11">
-      <c r="B68" s="47" t="s">
+      <c r="B68" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
     </row>
     <row r="69" spans="2:11">
-      <c r="B69" s="47" t="s">
+      <c r="B69" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
     </row>
     <row r="70" spans="2:11">
-      <c r="B70" s="47" t="s">
+      <c r="B70" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
     </row>
     <row r="71" spans="2:11">
-      <c r="B71" s="47" t="s">
+      <c r="B71" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
     </row>
     <row r="72" spans="2:11">
-      <c r="B72" s="47" t="s">
+      <c r="B72" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="30"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
     </row>
     <row r="76" spans="2:11">
-      <c r="B76" s="47" t="s">
+      <c r="B76" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="30"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="30"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="29"/>
     </row>
     <row r="77" spans="2:11">
-      <c r="B77" s="47" t="s">
+      <c r="B77" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="30"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="29"/>
     </row>
     <row r="78" spans="2:11">
-      <c r="B78" s="47" t="s">
+      <c r="B78" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="30"/>
-      <c r="I78" s="30"/>
-      <c r="J78" s="30"/>
-      <c r="K78" s="30"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="29"/>
     </row>
     <row r="79" spans="2:11">
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="30"/>
-      <c r="I79" s="30"/>
-      <c r="J79" s="30"/>
-      <c r="K79" s="30"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
     </row>
     <row r="80" spans="2:11">
-      <c r="B80" s="47" t="s">
+      <c r="B80" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C80" s="30"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="30"/>
-      <c r="I80" s="30"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="30"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="29"/>
     </row>
     <row r="81" spans="2:11">
-      <c r="B81" s="34" t="s">
+      <c r="B81" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="30"/>
-      <c r="K81" s="30"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
+      <c r="K81" s="29"/>
     </row>
     <row r="82" spans="2:11">
-      <c r="B82" s="47" t="s">
+      <c r="B82" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="30"/>
-      <c r="K82" s="30"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="29"/>
     </row>
     <row r="83" spans="2:11">
-      <c r="B83" s="47" t="s">
+      <c r="B83" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="30"/>
-      <c r="F83" s="30"/>
-      <c r="G83" s="30"/>
-      <c r="H83" s="30"/>
-      <c r="I83" s="30"/>
-      <c r="J83" s="30"/>
-      <c r="K83" s="30"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="29"/>
+      <c r="K83" s="29"/>
     </row>
     <row r="84" spans="2:11">
-      <c r="B84" s="47" t="s">
+      <c r="B84" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="30"/>
-      <c r="J84" s="30"/>
-      <c r="K84" s="30"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="29"/>
     </row>
     <row r="85" spans="2:11">
-      <c r="B85" s="47" t="s">
+      <c r="B85" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="30"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="30"/>
-      <c r="J85" s="30"/>
-      <c r="K85" s="30"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="29"/>
     </row>
     <row r="86" spans="2:11">
-      <c r="B86" s="47" t="s">
+      <c r="B86" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="30"/>
-      <c r="F86" s="30"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="30"/>
-      <c r="I86" s="30"/>
-      <c r="J86" s="30"/>
-      <c r="K86" s="30"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="29"/>
+      <c r="K86" s="29"/>
     </row>
     <row r="90" spans="2:11">
-      <c r="B90" s="47" t="s">
+      <c r="B90" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
     </row>
     <row r="91" spans="2:11">
-      <c r="B91" s="47" t="s">
+      <c r="B91" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="30"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
     </row>
     <row r="92" spans="2:11">
-      <c r="B92" s="47" t="s">
+      <c r="B92" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="C92" s="30"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="30"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
     </row>
     <row r="100" spans="3:11">
-      <c r="C100" s="40"/>
+      <c r="C100" s="39"/>
     </row>
     <row r="101" spans="3:11" ht="15.6">
-      <c r="C101" s="41"/>
+      <c r="C101" s="40"/>
     </row>
     <row r="102" spans="3:11" ht="15.6">
-      <c r="C102" s="41"/>
+      <c r="C102" s="40"/>
     </row>
     <row r="104" spans="3:11">
-      <c r="D104" s="42"/>
-      <c r="I104" s="42"/>
-      <c r="J104" s="42"/>
-      <c r="K104" s="42"/>
+      <c r="D104" s="41"/>
+      <c r="I104" s="41"/>
+      <c r="J104" s="41"/>
+      <c r="K104" s="41"/>
     </row>
     <row r="105" spans="3:11">
-      <c r="D105" s="42"/>
-      <c r="I105" s="42"/>
-      <c r="J105" s="42"/>
-      <c r="K105" s="42"/>
+      <c r="D105" s="41"/>
+      <c r="I105" s="41"/>
+      <c r="J105" s="41"/>
+      <c r="K105" s="41"/>
     </row>
     <row r="107" spans="3:11">
       <c r="D107" s="2"/>
@@ -3786,7 +3792,7 @@
       <c r="K107" s="2"/>
     </row>
     <row r="109" spans="3:11" ht="15.6">
-      <c r="C109" s="43"/>
+      <c r="C109" s="42"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -3818,21 +3824,15 @@
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="G36:H36"/>
   </mergeCells>
-  <dataValidations count="5">
+  <dataValidations count="3">
     <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="VERIFICAR NÚMERO DE TELEFONO" error="Verifica que tenga 9 digitos sin espacio" sqref="J8:L8" xr:uid="{CC0405B2-A74A-4E8F-BF03-C34BEE695B67}">
       <formula1>(LEN(C11)=9)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="COMPROBAR CANTIDAD DE CAJAS" error="Se debe ingresar la cantidad de cajas" sqref="J11" xr:uid="{3C2F8455-5D0D-41B0-BE98-F91BBC4383D3}">
-      <formula1>J8&gt;0</formula1>
     </dataValidation>
     <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="INGRESO APELLIDOS" error="Ingresa los apellidos del cliente" sqref="C10" xr:uid="{F51947C3-10E8-4E93-BD41-F6C41D0D7075}">
       <formula1>C9&lt;&gt;0</formula1>
     </dataValidation>
     <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="INGRESA EL NOMBRE" error="Ingresa al menos 1 nombre del cliente" sqref="C9" xr:uid="{A5DB9636-5F0C-4D38-B418-FB4E28963B0E}">
       <formula1>C8&lt;&gt;0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11" xr:uid="{543061A4-B74B-4C59-A4B0-2AF20D851021}">
-      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -3856,8 +3856,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A3:AG49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -3874,29 +3874,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:32">
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
     </row>
     <row r="6" spans="2:32" ht="15" customHeight="1">
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="88" t="s">
+      <c r="F6" s="85" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
       <c r="E7" s="7">
         <v>1</v>
       </c>
-      <c r="F7" s="86">
+      <c r="F7" s="83">
         <f>SUM(C7:E7)</f>
         <v>8</v>
       </c>
@@ -3920,38 +3920,38 @@
       <c r="B8" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="84">
+      <c r="C8" s="81">
         <v>110</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84">
+      <c r="D8" s="81"/>
+      <c r="E8" s="81">
         <v>6</v>
       </c>
-      <c r="F8" s="87">
+      <c r="F8" s="84">
         <f>SUM(C8:E8)</f>
         <v>116</v>
       </c>
-      <c r="J8" s="120" t="s">
+      <c r="J8" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="K8" s="120"/>
-      <c r="M8" s="120" t="s">
+      <c r="K8" s="122"/>
+      <c r="M8" s="122" t="s">
         <v>110</v>
       </c>
-      <c r="N8" s="120"/>
+      <c r="N8" s="122"/>
     </row>
     <row r="9" spans="2:32" ht="15" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="83">
+      <c r="C9" s="80">
         <v>1.1539999999999999</v>
       </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83">
+      <c r="D9" s="80"/>
+      <c r="E9" s="80">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="F9" s="85">
+      <c r="F9" s="82">
         <f>SUM(C9:E9)</f>
         <v>1.1879999999999999</v>
       </c>
@@ -3978,31 +3978,31 @@
       <c r="AF9"/>
     </row>
     <row r="10" spans="2:32" ht="15" customHeight="1">
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="82">
+      <c r="C10" s="79">
         <v>6.36</v>
       </c>
-      <c r="D10" s="82">
+      <c r="D10" s="79">
         <v>8.0299999999999994</v>
       </c>
-      <c r="E10" s="82">
+      <c r="E10" s="79">
         <v>6</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="J10" s="73" t="s">
+      <c r="J10" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="K10" s="90">
+      <c r="K10" s="87">
         <v>250</v>
       </c>
-      <c r="M10" s="73" t="s">
+      <c r="M10" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="N10" s="90">
+      <c r="N10" s="87">
         <v>250</v>
       </c>
       <c r="Y10"/>
@@ -4015,23 +4015,23 @@
       <c r="AF10"/>
     </row>
     <row r="11" spans="2:32" ht="15" hidden="1" customHeight="1">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="1"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="J11" s="73">
+      <c r="J11" s="70">
         <v>0.1</v>
       </c>
-      <c r="K11" s="90"/>
-      <c r="M11" s="73">
+      <c r="K11" s="87"/>
+      <c r="M11" s="70">
         <v>0.1</v>
       </c>
-      <c r="N11" s="90"/>
+      <c r="N11" s="87"/>
       <c r="Y11"/>
       <c r="Z11"/>
       <c r="AA11"/>
@@ -4042,7 +4042,7 @@
       <c r="AF11"/>
     </row>
     <row r="12" spans="2:32">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="7">
@@ -4054,21 +4054,21 @@
       <c r="E12" s="7">
         <v>50</v>
       </c>
-      <c r="F12" s="86">
+      <c r="F12" s="83">
         <f>SUM(C12:E12)</f>
         <v>151</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="J12" s="73" t="s">
+      <c r="J12" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="K12" s="90">
+      <c r="K12" s="87">
         <v>350</v>
       </c>
-      <c r="M12" s="73" t="s">
+      <c r="M12" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="N12" s="90">
+      <c r="N12" s="87">
         <v>325</v>
       </c>
       <c r="Y12"/>
@@ -4101,16 +4101,16 @@
         <v>944.03</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="J13" s="73" t="s">
+      <c r="J13" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="K13" s="90">
+      <c r="K13" s="87">
         <v>350</v>
       </c>
-      <c r="M13" s="73" t="s">
+      <c r="M13" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="N13" s="90">
+      <c r="N13" s="87">
         <v>325</v>
       </c>
       <c r="Y13"/>
@@ -4123,34 +4123,34 @@
       <c r="AF13"/>
     </row>
     <row r="14" spans="2:32" ht="16.5" hidden="1" customHeight="1">
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="51">
         <f>(MAX(C10:C11))*C12</f>
         <v>636</v>
       </c>
-      <c r="D14" s="52">
+      <c r="D14" s="51">
         <f t="shared" ref="D14:E14" si="1">(MAX(D10:D11))*D12</f>
         <v>8.0299999999999994</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="51">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="51">
         <f>SUM(C14:E14)</f>
         <v>944.03</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="J14" s="73">
+      <c r="J14" s="70">
         <v>0.1</v>
       </c>
-      <c r="K14" s="90"/>
-      <c r="M14" s="73">
+      <c r="K14" s="87"/>
+      <c r="M14" s="70">
         <v>0.1</v>
       </c>
-      <c r="N14" s="90"/>
+      <c r="N14" s="87"/>
       <c r="Y14"/>
       <c r="Z14"/>
       <c r="AA14"/>
@@ -4179,17 +4179,17 @@
       <c r="F15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="J15" s="73" t="s">
+      <c r="G15" s="28"/>
+      <c r="J15" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="K15" s="90">
+      <c r="K15" s="87">
         <v>325</v>
       </c>
-      <c r="M15" s="73" t="s">
+      <c r="M15" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="N15" s="90">
+      <c r="N15" s="87">
         <v>300</v>
       </c>
       <c r="Y15"/>
@@ -4202,7 +4202,7 @@
       <c r="AF15"/>
     </row>
     <row r="16" spans="2:32">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="6">
@@ -4217,21 +4217,21 @@
         <f>$F$16*E15</f>
         <v>79.281378769742474</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="27">
         <f>+J25</f>
         <v>249.47999999999996</v>
       </c>
-      <c r="G16" s="74"/>
-      <c r="J16" s="73" t="s">
+      <c r="G16" s="71"/>
+      <c r="J16" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="K16" s="90">
+      <c r="K16" s="87">
         <v>300</v>
       </c>
-      <c r="M16" s="73" t="s">
+      <c r="M16" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="N16" s="90">
+      <c r="N16" s="87">
         <v>275</v>
       </c>
       <c r="Y16"/>
@@ -4264,16 +4264,16 @@
         <v>1193.51</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="J17" s="73" t="s">
+      <c r="J17" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="90">
+      <c r="K17" s="87">
         <v>280</v>
       </c>
-      <c r="M17" s="73" t="s">
+      <c r="M17" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="N17" s="90">
+      <c r="N17" s="87">
         <v>250</v>
       </c>
       <c r="W17"/>
@@ -4288,22 +4288,22 @@
       <c r="AF17"/>
     </row>
     <row r="18" spans="1:33" ht="14.25" hidden="1" customHeight="1">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="51">
         <f t="shared" ref="C18:E18" si="3">C14+C16</f>
         <v>804.07652299185406</v>
       </c>
-      <c r="D18" s="52">
+      <c r="D18" s="51">
         <f t="shared" si="3"/>
         <v>10.15209823840344</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="51">
         <f t="shared" si="3"/>
         <v>379.28137876974245</v>
       </c>
-      <c r="F18" s="52">
+      <c r="F18" s="51">
         <f>SUM(C18:E18)</f>
         <v>1193.51</v>
       </c>
@@ -4318,7 +4318,7 @@
       <c r="AF18"/>
     </row>
     <row r="19" spans="1:33" ht="14.25" customHeight="1">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="6">
@@ -4333,7 +4333,7 @@
         <f>$F$19*E15</f>
         <v>15.889325551094775</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="27">
         <f>IF(F13&lt;5000,50,100)</f>
         <v>50</v>
       </c>
@@ -4384,16 +4384,16 @@
       <c r="AF20"/>
     </row>
     <row r="21" spans="1:33" ht="18.75" hidden="1" customHeight="1">
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="52">
+      <c r="C21" s="51">
         <f>C18+C19</f>
         <v>837.76189316017496</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52">
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51">
         <f>SUM(C21:E21)</f>
         <v>837.76189316017496</v>
       </c>
@@ -4401,24 +4401,24 @@
       <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:33">
-      <c r="J22" s="91">
+      <c r="J22" s="88">
         <f>+F9</f>
         <v>1.1879999999999999</v>
       </c>
-      <c r="K22" s="92">
+      <c r="K22" s="89">
         <f>J22*K13</f>
         <v>415.79999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:33">
-      <c r="B23" s="121" t="s">
+      <c r="B23" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="121"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
     </row>
     <row r="24" spans="1:33">
       <c r="J24" s="9" t="s">
@@ -4429,11 +4429,11 @@
       </c>
     </row>
     <row r="25" spans="1:33">
-      <c r="J25" s="92">
+      <c r="J25" s="89">
         <f>K22*60%</f>
         <v>249.47999999999996</v>
       </c>
-      <c r="K25" s="92">
+      <c r="K25" s="89">
         <f>K22*40%</f>
         <v>166.32</v>
       </c>
@@ -4651,7 +4651,7 @@
       <c r="W32" s="12"/>
       <c r="X32" s="12"/>
     </row>
-    <row r="33" spans="2:32">
+    <row r="33" spans="1:32">
       <c r="Y33"/>
       <c r="Z33"/>
       <c r="AA33"/>
@@ -4661,22 +4661,22 @@
       <c r="AE33"/>
       <c r="AF33"/>
     </row>
-    <row r="34" spans="2:32">
+    <row r="34" spans="1:32">
       <c r="AD34"/>
       <c r="AE34"/>
       <c r="AF34"/>
     </row>
-    <row r="35" spans="2:32">
-      <c r="B35" s="123" t="s">
+    <row r="35" spans="1:32">
+      <c r="B35" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="123"/>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-    </row>
-    <row r="37" spans="2:32">
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
+    </row>
+    <row r="37" spans="1:32">
       <c r="C37" s="21">
         <f>+C15</f>
         <v>0.67370740336641843</v>
@@ -4694,8 +4694,8 @@
       </c>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:32">
-      <c r="B38" s="27" t="s">
+    <row r="38" spans="1:32">
+      <c r="B38" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="23">
@@ -4710,13 +4710,13 @@
         <f>$F$38*E37</f>
         <v>52.854252513161654</v>
       </c>
-      <c r="F38" s="28">
+      <c r="F38" s="27">
         <f>+K25</f>
         <v>166.32</v>
       </c>
-      <c r="G38" s="74"/>
-    </row>
-    <row r="39" spans="2:32">
+      <c r="G38" s="71"/>
+    </row>
+    <row r="39" spans="1:32">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -4731,7 +4731,7 @@
       <c r="AE39"/>
       <c r="AF39"/>
     </row>
-    <row r="40" spans="2:32">
+    <row r="40" spans="1:32">
       <c r="Y40"/>
       <c r="Z40"/>
       <c r="AA40"/>
@@ -4741,18 +4741,18 @@
       <c r="AE40"/>
       <c r="AF40"/>
     </row>
-    <row r="41" spans="2:32" s="1" customFormat="1">
-      <c r="B41" s="89" t="s">
+    <row r="41" spans="1:32" s="1" customFormat="1">
+      <c r="B41" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="89"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-    </row>
-    <row r="43" spans="2:32">
-      <c r="B43" s="26" t="s">
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="86"/>
+    </row>
+    <row r="43" spans="1:32">
+      <c r="B43" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="7" t="str">
@@ -4769,8 +4769,8 @@
       </c>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:32">
-      <c r="B44" s="27" t="s">
+    <row r="44" spans="1:32">
+      <c r="B44" s="26" t="s">
         <v>19</v>
       </c>
       <c r="C44" s="23">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="2:32">
+    <row r="45" spans="1:32">
       <c r="B45" s="5" t="s">
         <v>1</v>
       </c>
@@ -4817,7 +4817,7 @@
       <c r="AE45"/>
       <c r="AF45"/>
     </row>
-    <row r="46" spans="2:32">
+    <row r="46" spans="1:32">
       <c r="B46" s="22" t="s">
         <v>18</v>
       </c>
@@ -4843,33 +4843,44 @@
       <c r="AE46"/>
       <c r="AF46"/>
     </row>
-    <row r="47" spans="2:32">
-      <c r="B47" s="5" t="s">
+    <row r="47" spans="1:32" s="129" customFormat="1">
+      <c r="A47" s="126"/>
+      <c r="B47" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="25">
+      <c r="C47" s="97">
         <f>C46*$K$31</f>
         <v>42.270671803388282</v>
       </c>
-      <c r="D47" s="25">
+      <c r="D47" s="97">
         <f t="shared" ref="D47:E47" si="8">D46*$K$31</f>
         <v>51.458155426726904</v>
       </c>
-      <c r="E47" s="25">
+      <c r="E47" s="97">
         <f t="shared" si="8"/>
         <v>38.449431203033804</v>
       </c>
-      <c r="G47" s="1"/>
-      <c r="Y47"/>
-      <c r="Z47"/>
-      <c r="AA47"/>
-      <c r="AB47"/>
-      <c r="AC47"/>
-      <c r="AD47"/>
-      <c r="AE47"/>
-      <c r="AF47"/>
-    </row>
-    <row r="48" spans="2:32">
+      <c r="F47" s="128"/>
+      <c r="G47" s="126"/>
+      <c r="H47" s="126"/>
+      <c r="I47" s="126"/>
+      <c r="J47" s="126"/>
+      <c r="K47" s="126"/>
+      <c r="L47" s="126"/>
+      <c r="M47" s="126"/>
+      <c r="N47" s="126"/>
+      <c r="O47" s="126"/>
+      <c r="P47" s="126"/>
+      <c r="Q47" s="126"/>
+      <c r="R47" s="126"/>
+      <c r="S47" s="126"/>
+      <c r="T47" s="126"/>
+      <c r="U47" s="126"/>
+      <c r="V47" s="126"/>
+      <c r="W47" s="126"/>
+      <c r="X47" s="126"/>
+    </row>
+    <row r="48" spans="1:32">
       <c r="Y48"/>
       <c r="Z48"/>
       <c r="AA48"/>

--- a/assets/downloads/Boleta_Template.xlsx
+++ b/assets/downloads/Boleta_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\probusinees-intranet\assets\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4DA715-888B-4012-A380-EC5C9DCA22EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831B021A-28F5-4906-9311-4CD9EC766461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -1037,7 +1037,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1252,8 +1252,76 @@
     <xf numFmtId="172" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="172" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1261,69 +1329,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1336,12 +1341,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Millares" xfId="3" builtinId="3"/>
@@ -2177,56 +2176,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>469445</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>403887</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>36400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Imagen 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:alphaModFix amt="15000"/>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="9411"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="945695" y="13051518"/>
-          <a:ext cx="6639947" cy="6050757"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>970642</xdr:colOff>
       <xdr:row>94</xdr:row>
@@ -2627,7 +2576,7 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B1:L109"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="K36" sqref="K36:L41"/>
     </sheetView>
   </sheetViews>
@@ -2660,16 +2609,16 @@
       <c r="L2" s="29"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
       <c r="K4" s="38"/>
     </row>
     <row r="6" spans="2:12">
@@ -2680,11 +2629,11 @@
       <c r="H6" s="64"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="E7" s="113" t="s">
+      <c r="E7" s="117" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="31" t="s">
@@ -2704,12 +2653,12 @@
       <c r="I8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="111">
+      <c r="J8" s="115">
         <f>+'2'!F7</f>
         <v>8</v>
       </c>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="31" t="s">
@@ -2721,21 +2670,21 @@
       <c r="E9" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="117">
+      <c r="F9" s="121">
         <f ca="1">+TODAY()</f>
-        <v>45435</v>
-      </c>
-      <c r="G9" s="118"/>
+        <v>45439</v>
+      </c>
+      <c r="G9" s="122"/>
       <c r="H9" s="29"/>
       <c r="I9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="112">
+      <c r="J9" s="116">
         <f>+'2'!F8</f>
         <v>116</v>
       </c>
-      <c r="K9" s="112"/>
-      <c r="L9" s="112"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="31" t="s">
@@ -2780,21 +2729,21 @@
       <c r="I11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="115">
+      <c r="J11" s="119">
         <f>+'2'!F9</f>
         <v>1.1879999999999999</v>
       </c>
-      <c r="K11" s="115"/>
-      <c r="L11" s="115"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
       <c r="G13" s="52"/>
       <c r="H13" s="52"/>
       <c r="I13" s="54"/>
@@ -2807,11 +2756,11 @@
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
@@ -2825,11 +2774,11 @@
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
       <c r="E15" s="36"/>
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
@@ -2891,13 +2840,13 @@
       <c r="L18" s="29"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
       <c r="G19" s="52"/>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
@@ -3053,13 +3002,13 @@
       </c>
     </row>
     <row r="28" spans="2:12" ht="15.6">
-      <c r="B28" s="116" t="s">
+      <c r="B28" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="116"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
       <c r="G28" s="72"/>
       <c r="H28" s="72"/>
       <c r="I28" s="73"/>
@@ -3165,19 +3114,19 @@
       <c r="L33" s="32"/>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="108" t="s">
+      <c r="B34" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="109"/>
-      <c r="K34" s="109"/>
-      <c r="L34" s="110"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="113"/>
+      <c r="L34" s="114"/>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="53" t="s">
@@ -3201,10 +3150,10 @@
       <c r="J35" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="98" t="s">
+      <c r="K35" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="L35" s="98"/>
+      <c r="L35" s="107"/>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="53">
@@ -3233,11 +3182,11 @@
         <f t="shared" ref="J36:J38" si="0">+F36*I36</f>
         <v>1142.4505892807642</v>
       </c>
-      <c r="K36" s="98">
+      <c r="K36" s="107">
         <f t="shared" ref="K36" si="1">I36*3.7</f>
         <v>42.270671803388282</v>
       </c>
-      <c r="L36" s="98"/>
+      <c r="L36" s="107"/>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="53">
@@ -3266,11 +3215,11 @@
         <f t="shared" si="0"/>
         <v>13.907609574791055</v>
       </c>
-      <c r="K37" s="98">
+      <c r="K37" s="107">
         <f t="shared" ref="K37:K38" si="2">I37*3.7</f>
         <v>51.458155426726904</v>
       </c>
-      <c r="L37" s="98"/>
+      <c r="L37" s="107"/>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="53">
@@ -3299,11 +3248,11 @@
         <f t="shared" si="0"/>
         <v>519.5869081491054</v>
       </c>
-      <c r="K38" s="120">
+      <c r="K38" s="108">
         <f t="shared" si="2"/>
         <v>38.449431203033804</v>
       </c>
-      <c r="L38" s="121"/>
+      <c r="L38" s="109"/>
     </row>
     <row r="39" spans="2:12" ht="15.6">
       <c r="B39" s="57" t="s">
@@ -3464,19 +3413,19 @@
       <c r="K53" s="38"/>
     </row>
     <row r="55" spans="2:12" ht="21">
-      <c r="B55" s="119" t="s">
+      <c r="B55" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="119"/>
-      <c r="D55" s="119"/>
-      <c r="E55" s="119"/>
-      <c r="F55" s="119"/>
-      <c r="G55" s="119"/>
-      <c r="H55" s="119"/>
-      <c r="I55" s="119"/>
-      <c r="J55" s="119"/>
-      <c r="K55" s="119"/>
-      <c r="L55" s="119"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="106"/>
+      <c r="F55" s="106"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="106"/>
+      <c r="I55" s="106"/>
+      <c r="J55" s="106"/>
+      <c r="K55" s="106"/>
+      <c r="L55" s="106"/>
     </row>
     <row r="59" spans="2:12">
       <c r="B59" s="46" t="s">
@@ -3797,13 +3746,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="26">
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B55:L55"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="G36:H36"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G35:H35"/>
@@ -3818,11 +3765,13 @@
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B55:L55"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="VERIFICAR NÚMERO DE TELEFONO" error="Verifica que tenga 9 digitos sin espacio" sqref="J8:L8" xr:uid="{CC0405B2-A74A-4E8F-BF03-C34BEE695B67}">
@@ -3856,7 +3805,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A3:AG49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
@@ -3874,14 +3823,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:32">
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
     </row>
     <row r="6" spans="2:32" ht="15" customHeight="1">
       <c r="B6" s="85" t="s">
@@ -3931,14 +3880,14 @@
         <f>SUM(C8:E8)</f>
         <v>116</v>
       </c>
-      <c r="J8" s="122" t="s">
+      <c r="J8" s="125" t="s">
         <v>84</v>
       </c>
-      <c r="K8" s="122"/>
-      <c r="M8" s="122" t="s">
+      <c r="K8" s="125"/>
+      <c r="M8" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="N8" s="122"/>
+      <c r="N8" s="125"/>
     </row>
     <row r="9" spans="2:32" ht="15" customHeight="1">
       <c r="B9" s="5" t="s">
@@ -4411,14 +4360,14 @@
       </c>
     </row>
     <row r="23" spans="1:33">
-      <c r="B23" s="123" t="s">
+      <c r="B23" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="126"/>
     </row>
     <row r="24" spans="1:33">
       <c r="J24" s="9" t="s">
@@ -4667,14 +4616,14 @@
       <c r="AF34"/>
     </row>
     <row r="35" spans="1:32">
-      <c r="B35" s="125" t="s">
+      <c r="B35" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="128"/>
+      <c r="G35" s="128"/>
     </row>
     <row r="37" spans="1:32">
       <c r="C37" s="21">
@@ -4843,9 +4792,9 @@
       <c r="AE46"/>
       <c r="AF46"/>
     </row>
-    <row r="47" spans="1:32" s="129" customFormat="1">
-      <c r="A47" s="126"/>
-      <c r="B47" s="127" t="s">
+    <row r="47" spans="1:32" s="100" customFormat="1">
+      <c r="A47" s="96"/>
+      <c r="B47" s="98" t="s">
         <v>20</v>
       </c>
       <c r="C47" s="97">
@@ -4860,25 +4809,25 @@
         <f t="shared" si="8"/>
         <v>38.449431203033804</v>
       </c>
-      <c r="F47" s="128"/>
-      <c r="G47" s="126"/>
-      <c r="H47" s="126"/>
-      <c r="I47" s="126"/>
-      <c r="J47" s="126"/>
-      <c r="K47" s="126"/>
-      <c r="L47" s="126"/>
-      <c r="M47" s="126"/>
-      <c r="N47" s="126"/>
-      <c r="O47" s="126"/>
-      <c r="P47" s="126"/>
-      <c r="Q47" s="126"/>
-      <c r="R47" s="126"/>
-      <c r="S47" s="126"/>
-      <c r="T47" s="126"/>
-      <c r="U47" s="126"/>
-      <c r="V47" s="126"/>
-      <c r="W47" s="126"/>
-      <c r="X47" s="126"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="96"/>
+      <c r="J47" s="96"/>
+      <c r="K47" s="96"/>
+      <c r="L47" s="96"/>
+      <c r="M47" s="96"/>
+      <c r="N47" s="96"/>
+      <c r="O47" s="96"/>
+      <c r="P47" s="96"/>
+      <c r="Q47" s="96"/>
+      <c r="R47" s="96"/>
+      <c r="S47" s="96"/>
+      <c r="T47" s="96"/>
+      <c r="U47" s="96"/>
+      <c r="V47" s="96"/>
+      <c r="W47" s="96"/>
+      <c r="X47" s="96"/>
     </row>
     <row r="48" spans="1:32">
       <c r="Y48"/>

--- a/assets/downloads/Boleta_Template.xlsx
+++ b/assets/downloads/Boleta_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\probusinees-intranet\assets\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831B021A-28F5-4906-9311-4CD9EC766461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEDC7A5-C734-4A06-B939-4224713D8E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1257,6 +1257,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1270,18 +1279,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1323,11 +1320,14 @@
     <xf numFmtId="14" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2174,50 +2174,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>970642</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>439808</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>195956</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagen 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2367642" y="19554825"/>
-          <a:ext cx="3761670" cy="2796281"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -2305,6 +2261,50 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>414152</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>180107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352926</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>177579</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D6B73D-ECE3-0CF5-9019-607B3F36EC7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1841170" y="17609125"/>
+          <a:ext cx="4289101" cy="3280999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2576,8 +2576,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B1:L109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36:L41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A83" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M115" sqref="M115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4"/>
@@ -2609,16 +2609,16 @@
       <c r="L2" s="29"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
       <c r="K4" s="38"/>
     </row>
     <row r="6" spans="2:12">
@@ -2629,11 +2629,11 @@
       <c r="H6" s="64"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="E7" s="117" t="s">
+      <c r="E7" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="31" t="s">
@@ -2653,12 +2653,12 @@
       <c r="I8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="115">
+      <c r="J8" s="114">
         <f>+'2'!F7</f>
         <v>8</v>
       </c>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="31" t="s">
@@ -2670,21 +2670,21 @@
       <c r="E9" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="121">
+      <c r="F9" s="120">
         <f ca="1">+TODAY()</f>
-        <v>45439</v>
-      </c>
-      <c r="G9" s="122"/>
+        <v>45455</v>
+      </c>
+      <c r="G9" s="121"/>
       <c r="H9" s="29"/>
       <c r="I9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="116">
+      <c r="J9" s="115">
         <f>+'2'!F8</f>
         <v>116</v>
       </c>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="31" t="s">
@@ -2729,21 +2729,21 @@
       <c r="I11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="119">
+      <c r="J11" s="118">
         <f>+'2'!F9</f>
         <v>1.1879999999999999</v>
       </c>
-      <c r="K11" s="119"/>
-      <c r="L11" s="119"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="118"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="118" t="s">
+      <c r="B13" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
       <c r="G13" s="52"/>
       <c r="H13" s="52"/>
       <c r="I13" s="54"/>
@@ -2756,11 +2756,11 @@
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
@@ -2774,11 +2774,11 @@
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
       <c r="E15" s="36"/>
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
@@ -2840,13 +2840,13 @@
       <c r="L18" s="29"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="118" t="s">
+      <c r="B19" s="117" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
       <c r="G19" s="52"/>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
@@ -3002,13 +3002,13 @@
       </c>
     </row>
     <row r="28" spans="2:12" ht="15.6">
-      <c r="B28" s="120" t="s">
+      <c r="B28" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
       <c r="G28" s="72"/>
       <c r="H28" s="72"/>
       <c r="I28" s="73"/>
@@ -3114,66 +3114,66 @@
       <c r="L33" s="32"/>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="112" t="s">
+      <c r="B34" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="113"/>
-      <c r="L34" s="114"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="112"/>
+      <c r="H34" s="112"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="112"/>
+      <c r="K34" s="112"/>
+      <c r="L34" s="113"/>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="101" t="s">
+      <c r="C35" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="102"/>
-      <c r="E35" s="103"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="106"/>
       <c r="F35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="101" t="s">
+      <c r="G35" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="H35" s="103"/>
+      <c r="H35" s="106"/>
       <c r="I35" s="5" t="s">
         <v>78</v>
       </c>
       <c r="J35" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="107" t="s">
+      <c r="K35" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="L35" s="107"/>
+      <c r="L35" s="101"/>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="53">
         <v>1</v>
       </c>
-      <c r="C36" s="101" t="str">
+      <c r="C36" s="104" t="str">
         <f>+'2'!$C$6</f>
         <v xml:space="preserve">Kids Car Seat Belt Pillow </v>
       </c>
-      <c r="D36" s="102"/>
-      <c r="E36" s="103"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="106"/>
       <c r="F36" s="7">
         <f>+'2'!$C$45</f>
         <v>100</v>
       </c>
-      <c r="G36" s="104">
+      <c r="G36" s="107">
         <f>+'2'!$C$10</f>
         <v>6.36</v>
       </c>
-      <c r="H36" s="105"/>
+      <c r="H36" s="108"/>
       <c r="I36" s="66">
         <f>+'2'!$C$46</f>
         <v>11.424505892807643</v>
@@ -3182,31 +3182,31 @@
         <f t="shared" ref="J36:J38" si="0">+F36*I36</f>
         <v>1142.4505892807642</v>
       </c>
-      <c r="K36" s="107">
+      <c r="K36" s="101">
         <f t="shared" ref="K36" si="1">I36*3.7</f>
         <v>42.270671803388282</v>
       </c>
-      <c r="L36" s="107"/>
+      <c r="L36" s="101"/>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="53">
         <v>2</v>
       </c>
-      <c r="C37" s="101" t="str">
+      <c r="C37" s="104" t="str">
         <f>+'2'!$D$6</f>
         <v>Car Headrest</v>
       </c>
-      <c r="D37" s="102"/>
-      <c r="E37" s="103"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="106"/>
       <c r="F37" s="7">
         <f>+'2'!$D$45</f>
         <v>1</v>
       </c>
-      <c r="G37" s="104">
+      <c r="G37" s="107">
         <f>+'2'!$D$10</f>
         <v>8.0299999999999994</v>
       </c>
-      <c r="H37" s="105"/>
+      <c r="H37" s="108"/>
       <c r="I37" s="66">
         <f>+'2'!$D$46</f>
         <v>13.907609574791055</v>
@@ -3215,31 +3215,31 @@
         <f t="shared" si="0"/>
         <v>13.907609574791055</v>
       </c>
-      <c r="K37" s="107">
+      <c r="K37" s="101">
         <f t="shared" ref="K37:K38" si="2">I37*3.7</f>
         <v>51.458155426726904</v>
       </c>
-      <c r="L37" s="107"/>
+      <c r="L37" s="101"/>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="53">
         <v>3</v>
       </c>
-      <c r="C38" s="101" t="str">
+      <c r="C38" s="104" t="str">
         <f>+'2'!$E$6</f>
         <v>Bluetooth sleep mask</v>
       </c>
-      <c r="D38" s="102"/>
-      <c r="E38" s="103"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="106"/>
       <c r="F38" s="7">
         <f>+'2'!$E$45</f>
         <v>50</v>
       </c>
-      <c r="G38" s="104">
+      <c r="G38" s="107">
         <f>+'2'!$E$10</f>
         <v>6</v>
       </c>
-      <c r="H38" s="105"/>
+      <c r="H38" s="108"/>
       <c r="I38" s="66">
         <f>+'2'!$E$46</f>
         <v>10.391738162982108</v>
@@ -3248,11 +3248,11 @@
         <f t="shared" si="0"/>
         <v>519.5869081491054</v>
       </c>
-      <c r="K38" s="108">
+      <c r="K38" s="123">
         <f t="shared" si="2"/>
         <v>38.449431203033804</v>
       </c>
-      <c r="L38" s="109"/>
+      <c r="L38" s="124"/>
     </row>
     <row r="39" spans="2:12" ht="15.6">
       <c r="B39" s="57" t="s">
@@ -3413,19 +3413,19 @@
       <c r="K53" s="38"/>
     </row>
     <row r="55" spans="2:12" ht="21">
-      <c r="B55" s="106" t="s">
+      <c r="B55" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="106"/>
-      <c r="D55" s="106"/>
-      <c r="E55" s="106"/>
-      <c r="F55" s="106"/>
-      <c r="G55" s="106"/>
-      <c r="H55" s="106"/>
-      <c r="I55" s="106"/>
-      <c r="J55" s="106"/>
-      <c r="K55" s="106"/>
-      <c r="L55" s="106"/>
+      <c r="C55" s="122"/>
+      <c r="D55" s="122"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="122"/>
+      <c r="G55" s="122"/>
+      <c r="H55" s="122"/>
+      <c r="I55" s="122"/>
+      <c r="J55" s="122"/>
+      <c r="K55" s="122"/>
+      <c r="L55" s="122"/>
     </row>
     <row r="59" spans="2:12">
       <c r="B59" s="46" t="s">
@@ -3746,11 +3746,13 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="26">
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B55:L55"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G35:H35"/>
@@ -3765,13 +3767,11 @@
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B55:L55"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="G36:H36"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="VERIFICAR NÚMERO DE TELEFONO" error="Verifica que tenga 9 digitos sin espacio" sqref="J8:L8" xr:uid="{CC0405B2-A74A-4E8F-BF03-C34BEE695B67}">

--- a/assets/downloads/Boleta_Template.xlsx
+++ b/assets/downloads/Boleta_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\probusinees-intranet\assets\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEDC7A5-C734-4A06-B939-4224713D8E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B53EC56-F23C-40EB-B81A-D8478C1FA382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="124">
   <si>
     <t>VALOR UNITARIO</t>
   </si>
@@ -332,9 +332,6 @@
   </si>
   <si>
     <t>CIF CALZADO</t>
-  </si>
-  <si>
-    <t>MEDIDA</t>
   </si>
   <si>
     <t>3.5%</t>
@@ -571,6 +568,15 @@
   </si>
   <si>
     <t>COTIZACION N002</t>
+  </si>
+  <si>
+    <t>GRUPO PRO BUSINESS S.A.C.</t>
+  </si>
+  <si>
+    <t>RUC: 20603287721</t>
+  </si>
+  <si>
+    <t>MEDIDA:</t>
   </si>
 </sst>
 </file>
@@ -702,21 +708,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -786,6 +777,22 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF500B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1037,7 +1044,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1106,35 +1113,23 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1143,9 +1138,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1164,46 +1156,34 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="18" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="16" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1223,7 +1203,7 @@
     <xf numFmtId="171" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1234,7 +1214,6 @@
     <xf numFmtId="175" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1244,7 +1223,7 @@
     <xf numFmtId="172" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="172" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1257,62 +1236,49 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="170" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1320,14 +1286,53 @@
     <xf numFmtId="14" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1340,6 +1345,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1934,156 +1947,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180943</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>747934</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>49331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>192976</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>26326</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Imagen 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:alphaModFix amt="10000"/>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8928100" y="1997043"/>
-          <a:ext cx="7774876" cy="7185983"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>607219</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>218434</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>94305</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="CuadroTexto 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3290094" y="10568781"/>
-          <a:ext cx="3437090" cy="1082524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="2000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>GRUPO PRO BUSINESS S.A.C.</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="es-PE" sz="2000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="es-PE" sz="2000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF500B"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>RUC: 20603287721</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-PE" sz="2000" b="0">
-            <a:solidFill>
-              <a:srgbClr val="FF500B"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>813593</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>747941</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>130194</xdr:rowOff>
+      <xdr:colOff>980456</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>10321</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2099,7 +1972,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:alphaModFix/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -2113,8 +1986,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2210593" y="10493375"/>
-          <a:ext cx="1220223" cy="1193819"/>
+          <a:off x="1232843" y="9484276"/>
+          <a:ext cx="1230049" cy="1152481"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2126,22 +1999,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>587375</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>390938</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>878910</xdr:colOff>
+      <xdr:colOff>636091</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>146069</xdr:rowOff>
+      <xdr:rowOff>119562</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Imagen 23">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3F637EC-442B-46AC-870C-C4D3EB12097D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2150,7 +2023,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:alphaModFix/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -2164,8 +2037,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1063625" y="0"/>
-          <a:ext cx="1212285" cy="1193819"/>
+          <a:off x="881268" y="251789"/>
+          <a:ext cx="1239066" cy="1166486"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2174,114 +2047,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>389090</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>34774</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="CuadroTexto 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2714625" y="0"/>
-          <a:ext cx="3437090" cy="1082524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="2000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>GRUPO PRO BUSINESS S.A.C.</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="es-PE" sz="2000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="es-PE" sz="2000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF500B"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>RUC: 20603287721</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-PE" sz="2000" b="0">
-            <a:solidFill>
-              <a:srgbClr val="FF500B"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>414152</xdr:colOff>
+      <xdr:colOff>424642</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>180107</xdr:rowOff>
+      <xdr:rowOff>83129</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>352926</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>867182</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>177579</xdr:rowOff>
+      <xdr:rowOff>22626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="6" name="Imagen 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D6B73D-ECE3-0CF5-9019-607B3F36EC7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96966518-B9F7-81FA-8E05-896AC346DC40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2290,15 +2074,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1841170" y="17609125"/>
-          <a:ext cx="4289101" cy="3280999"/>
+          <a:off x="1902922" y="17967269"/>
+          <a:ext cx="4153480" cy="3277057"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2574,242 +2358,290 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="B1:L109"/>
+  <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A83" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M115" sqref="M115"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="0.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" style="1" customWidth="1"/>
-    <col min="10" max="11" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="0.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.44140625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="18">
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="29"/>
-    </row>
-    <row r="2" spans="2:12" ht="18">
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="29"/>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="38"/>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="E7" s="116" t="s">
+    <row r="1" spans="1:12" ht="18" customHeight="1">
+      <c r="A1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+    </row>
+    <row r="2" spans="1:12" ht="18" customHeight="1">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+    </row>
+    <row r="3" spans="1:12" ht="25.8">
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="E3" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="58" t="s">
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+    </row>
+    <row r="4" spans="1:12" ht="25.8">
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="E4" s="117" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="35"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="E7" s="123" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="133"/>
+      <c r="E8" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="1" t="s">
+      <c r="G8" s="90"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="114">
+      <c r="J8" s="121">
         <f>+'2'!F7</f>
         <v>8</v>
       </c>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="120">
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="133"/>
+      <c r="E9" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="107">
         <f ca="1">+TODAY()</f>
         <v>45455</v>
       </c>
-      <c r="G9" s="121"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="1" t="s">
+      <c r="G9" s="108"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="115">
+      <c r="J9" s="122">
         <f>+'2'!F8</f>
         <v>116</v>
       </c>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="31" t="s">
+      <c r="K9" s="122"/>
+      <c r="L9" s="122"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="39">
         <v>40828284</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="D10" s="133"/>
+      <c r="E10" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="74">
+      <c r="G10" s="88"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="129" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" s="87">
         <v>0</v>
       </c>
-      <c r="K10" s="74">
-        <v>0</v>
-      </c>
-      <c r="L10" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="31" t="s">
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="40">
         <v>969094294</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="D11" s="134"/>
+      <c r="E11" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="63"/>
-      <c r="I11" s="1" t="s">
+      <c r="F11" s="91"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="118">
+      <c r="J11" s="114">
         <f>+'2'!F9</f>
         <v>1.1879999999999999</v>
       </c>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="117" t="s">
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="34" t="s">
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="34" t="s">
+      <c r="L13" s="32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="103" t="s">
+    <row r="14" spans="1:12">
+      <c r="B14" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="K14" s="43">
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="37">
         <f>'2'!F13</f>
         <v>944.03</v>
       </c>
-      <c r="L14" s="32" t="s">
+      <c r="L14" s="31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="102" t="s">
+    <row r="15" spans="1:12">
+      <c r="B15" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="44">
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="38">
         <f>'2'!F16+'2'!F19</f>
         <v>299.47999999999996</v>
       </c>
-      <c r="L15" s="37" t="s">
+      <c r="L15" s="34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="31" t="s">
+    <row r="16" spans="1:12">
+      <c r="B16" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="43">
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="37">
         <f>SUM(K14:K15)</f>
         <v>1243.51</v>
       </c>
-      <c r="L16" s="32" t="s">
+      <c r="L16" s="31" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2840,451 +2672,461 @@
       <c r="L18" s="29"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="117" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="34" t="s">
+      <c r="B19" s="124" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="K19" s="34" t="s">
+      <c r="K19" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="34" t="s">
+      <c r="L19" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="55">
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="47">
         <f>MAX('2'!C26:E26)</f>
         <v>0.04</v>
       </c>
-      <c r="K20" s="43">
+      <c r="K20" s="37">
         <f>'2'!F27</f>
         <v>33.510475726407002</v>
       </c>
-      <c r="L20" s="32" t="s">
+      <c r="L20" s="31" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="55">
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="47">
         <v>0.16</v>
       </c>
-      <c r="K21" s="43">
+      <c r="K21" s="37">
         <f>'2'!F28</f>
         <v>204.32327611622512</v>
       </c>
-      <c r="L21" s="32" t="s">
+      <c r="L21" s="31" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="55">
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="47">
         <v>0.02</v>
       </c>
-      <c r="K22" s="43">
+      <c r="K22" s="37">
         <f>'2'!F29</f>
         <v>25.54040951452814</v>
       </c>
-      <c r="L22" s="32" t="s">
+      <c r="L22" s="31" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="92">
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="76">
         <f>SUM(K20:K22)</f>
         <v>263.37416135716029</v>
       </c>
-      <c r="L23" s="91" t="s">
+      <c r="L23" s="75" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="32"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="31"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="K25" s="44">
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" s="38">
         <f>'2'!F30</f>
         <v>52.74094564750061</v>
       </c>
-      <c r="L25" s="37" t="s">
+      <c r="L25" s="34" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="K26" s="43">
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="K26" s="37">
         <f>K23+K25</f>
         <v>316.1151070046609</v>
       </c>
-      <c r="L26" s="32" t="s">
+      <c r="L26" s="31" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+    </row>
     <row r="28" spans="2:12" ht="15.6">
-      <c r="B28" s="119" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73" t="s">
+      <c r="B28" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="L28" s="73" t="s">
+      <c r="L28" s="60" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43">
+      <c r="B29" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="37">
         <f>K14</f>
         <v>944.03</v>
       </c>
-      <c r="L29" s="32" t="s">
+      <c r="L29" s="31" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43">
+      <c r="B30" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="37">
         <f>+'2'!K22</f>
         <v>415.79999999999995</v>
       </c>
-      <c r="L30" s="32" t="s">
+      <c r="L30" s="31" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44">
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="38">
         <f>K26</f>
         <v>316.1151070046609</v>
       </c>
-      <c r="L31" s="37" t="s">
+      <c r="L31" s="34" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43">
+      <c r="B32" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="37">
         <f>SUM(K29:K31)</f>
         <v>1675.9451070046607</v>
       </c>
-      <c r="L32" s="32" t="s">
+      <c r="L32" s="31" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="31"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="32"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="111" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="112"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="112"/>
-      <c r="K34" s="112"/>
-      <c r="L34" s="113"/>
+      <c r="B34" s="118" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="119"/>
+      <c r="H34" s="119"/>
+      <c r="I34" s="119"/>
+      <c r="J34" s="119"/>
+      <c r="K34" s="119"/>
+      <c r="L34" s="120"/>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="104" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="105"/>
-      <c r="E35" s="106"/>
+      <c r="C35" s="109" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="110"/>
+      <c r="E35" s="111"/>
       <c r="F35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="H35" s="106"/>
+      <c r="G35" s="109" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" s="111"/>
       <c r="I35" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J35" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="J35" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" s="101" t="s">
-        <v>79</v>
-      </c>
-      <c r="L35" s="101"/>
+      <c r="L35" s="115"/>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="53">
+      <c r="B36" s="46">
         <v>1</v>
       </c>
-      <c r="C36" s="104" t="str">
+      <c r="C36" s="109" t="str">
         <f>+'2'!$C$6</f>
         <v xml:space="preserve">Kids Car Seat Belt Pillow </v>
       </c>
-      <c r="D36" s="105"/>
-      <c r="E36" s="106"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="111"/>
       <c r="F36" s="7">
         <f>+'2'!$C$45</f>
         <v>100</v>
       </c>
-      <c r="G36" s="107">
+      <c r="G36" s="112">
         <f>+'2'!$C$10</f>
         <v>6.36</v>
       </c>
-      <c r="H36" s="108"/>
-      <c r="I36" s="66">
+      <c r="H36" s="113"/>
+      <c r="I36" s="55">
         <f>+'2'!$C$46</f>
         <v>11.424505892807643</v>
       </c>
-      <c r="J36" s="66">
+      <c r="J36" s="55">
         <f t="shared" ref="J36:J38" si="0">+F36*I36</f>
         <v>1142.4505892807642</v>
       </c>
-      <c r="K36" s="101">
+      <c r="K36" s="115">
         <f t="shared" ref="K36" si="1">I36*3.7</f>
         <v>42.270671803388282</v>
       </c>
-      <c r="L36" s="101"/>
+      <c r="L36" s="115"/>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="53">
+      <c r="B37" s="46">
         <v>2</v>
       </c>
-      <c r="C37" s="104" t="str">
+      <c r="C37" s="109" t="str">
         <f>+'2'!$D$6</f>
         <v>Car Headrest</v>
       </c>
-      <c r="D37" s="105"/>
-      <c r="E37" s="106"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="111"/>
       <c r="F37" s="7">
         <f>+'2'!$D$45</f>
         <v>1</v>
       </c>
-      <c r="G37" s="107">
+      <c r="G37" s="112">
         <f>+'2'!$D$10</f>
         <v>8.0299999999999994</v>
       </c>
-      <c r="H37" s="108"/>
-      <c r="I37" s="66">
+      <c r="H37" s="113"/>
+      <c r="I37" s="55">
         <f>+'2'!$D$46</f>
         <v>13.907609574791055</v>
       </c>
-      <c r="J37" s="66">
+      <c r="J37" s="55">
         <f t="shared" si="0"/>
         <v>13.907609574791055</v>
       </c>
-      <c r="K37" s="101">
+      <c r="K37" s="115">
         <f t="shared" ref="K37:K38" si="2">I37*3.7</f>
         <v>51.458155426726904</v>
       </c>
-      <c r="L37" s="101"/>
+      <c r="L37" s="115"/>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="53">
+      <c r="B38" s="46">
         <v>3</v>
       </c>
-      <c r="C38" s="104" t="str">
+      <c r="C38" s="109" t="str">
         <f>+'2'!$E$6</f>
         <v>Bluetooth sleep mask</v>
       </c>
-      <c r="D38" s="105"/>
-      <c r="E38" s="106"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="111"/>
       <c r="F38" s="7">
         <f>+'2'!$E$45</f>
         <v>50</v>
       </c>
-      <c r="G38" s="107">
+      <c r="G38" s="112">
         <f>+'2'!$E$10</f>
         <v>6</v>
       </c>
-      <c r="H38" s="108"/>
-      <c r="I38" s="66">
+      <c r="H38" s="113"/>
+      <c r="I38" s="55">
         <f>+'2'!$E$46</f>
         <v>10.391738162982108</v>
       </c>
-      <c r="J38" s="66">
+      <c r="J38" s="55">
         <f t="shared" si="0"/>
         <v>519.5869081491054</v>
       </c>
-      <c r="K38" s="123">
+      <c r="K38" s="103">
         <f t="shared" si="2"/>
         <v>38.449431203033804</v>
       </c>
-      <c r="L38" s="124"/>
+      <c r="L38" s="104"/>
     </row>
     <row r="39" spans="2:12" ht="15.6">
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="49" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="41">
+      <c r="F39" s="36">
         <f>+SUM(F36:F38)</f>
         <v>151</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="J39" s="67">
+      <c r="J39" s="56">
         <f>+SUM(J36:J38)</f>
         <v>1675.9451070046607</v>
       </c>
-      <c r="K39" s="93"/>
-      <c r="L39" s="94"/>
+      <c r="K39" s="77"/>
+      <c r="L39" s="78"/>
     </row>
     <row r="40" spans="2:12" ht="15.6">
-      <c r="B40" s="57"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="41"/>
+      <c r="F40" s="36"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="93"/>
-      <c r="L40" s="94"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="78"/>
     </row>
     <row r="41" spans="2:12">
       <c r="B41" s="29"/>
@@ -3296,11 +3138,11 @@
       <c r="H41" s="29"/>
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
-      <c r="K41" s="95"/>
-      <c r="L41" s="96"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="80"/>
     </row>
     <row r="42" spans="2:12" ht="18">
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="61" t="s">
         <v>53</v>
       </c>
       <c r="C42" s="29"/>
@@ -3314,464 +3156,1068 @@
       <c r="K42" s="29"/>
     </row>
     <row r="43" spans="2:12" ht="18">
-      <c r="B43" s="76" t="s">
+      <c r="B43" s="105" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="105"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+      <c r="I43" s="105"/>
+      <c r="J43" s="105"/>
+      <c r="K43" s="105"/>
+      <c r="L43" s="105"/>
+    </row>
+    <row r="44" spans="2:12" ht="18">
+      <c r="B44" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-    </row>
-    <row r="44" spans="2:12" ht="18">
-      <c r="B44" s="76" t="s">
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="105"/>
+      <c r="J44" s="105"/>
+      <c r="K44" s="105"/>
+      <c r="L44" s="105"/>
+    </row>
+    <row r="45" spans="2:12" ht="18">
+      <c r="B45" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-    </row>
-    <row r="45" spans="2:12" ht="18">
-      <c r="B45" s="76" t="s">
+      <c r="C45" s="105"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="105"/>
+      <c r="J45" s="105"/>
+      <c r="K45" s="105"/>
+      <c r="L45" s="105"/>
+    </row>
+    <row r="46" spans="2:12" ht="18">
+      <c r="B46" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-    </row>
-    <row r="46" spans="2:12" ht="18">
-      <c r="B46" s="76" t="s">
+      <c r="C46" s="105"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="105"/>
+      <c r="J46" s="105"/>
+      <c r="K46" s="105"/>
+      <c r="L46" s="105"/>
+    </row>
+    <row r="47" spans="2:12" ht="18">
+      <c r="B47" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-    </row>
-    <row r="47" spans="2:12" ht="18">
-      <c r="B47" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
+      <c r="I47" s="105"/>
+      <c r="J47" s="105"/>
+      <c r="K47" s="105"/>
+      <c r="L47" s="105"/>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-    </row>
-    <row r="50" spans="2:12" ht="18">
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="29"/>
-    </row>
-    <row r="51" spans="2:12" ht="18">
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="29"/>
+      <c r="B48" s="130"/>
+      <c r="C48" s="130"/>
+      <c r="D48" s="130"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="130"/>
+      <c r="G48" s="130"/>
+      <c r="H48" s="130"/>
+      <c r="I48" s="130"/>
+      <c r="J48" s="130"/>
+      <c r="K48" s="130"/>
+      <c r="L48" s="130"/>
+    </row>
+    <row r="49" spans="2:12">
+      <c r="B49" s="102"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="129"/>
+      <c r="G49" s="129"/>
+      <c r="H49" s="129"/>
+      <c r="I49" s="129"/>
+      <c r="J49" s="129"/>
+      <c r="K49" s="129"/>
+      <c r="L49" s="129"/>
+    </row>
+    <row r="50" spans="2:12" ht="18" customHeight="1">
+      <c r="B50" s="102"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="131" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" s="131"/>
+      <c r="F50" s="131"/>
+      <c r="G50" s="131"/>
+      <c r="H50" s="131"/>
+      <c r="I50" s="131"/>
+      <c r="J50" s="131"/>
+      <c r="K50" s="131"/>
+      <c r="L50" s="131"/>
+    </row>
+    <row r="51" spans="2:12" ht="18" customHeight="1">
+      <c r="B51" s="102"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="117" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="117"/>
+      <c r="F51" s="117"/>
+      <c r="G51" s="117"/>
+      <c r="H51" s="117"/>
+      <c r="I51" s="117"/>
+      <c r="J51" s="102"/>
+      <c r="K51" s="102"/>
+      <c r="L51" s="102"/>
+    </row>
+    <row r="52" spans="2:12">
+      <c r="B52" s="102"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="129"/>
+      <c r="E52" s="129"/>
+      <c r="F52" s="129"/>
+      <c r="G52" s="129"/>
+      <c r="H52" s="129"/>
+      <c r="I52" s="129"/>
+      <c r="J52" s="129"/>
+      <c r="K52" s="129"/>
+      <c r="L52" s="129"/>
     </row>
     <row r="53" spans="2:12">
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="129"/>
+      <c r="E53" s="129"/>
+      <c r="F53" s="129"/>
+      <c r="G53" s="129"/>
+      <c r="H53" s="129"/>
+      <c r="I53" s="129"/>
+      <c r="J53" s="129"/>
+      <c r="K53" s="129"/>
+      <c r="L53" s="129"/>
+    </row>
+    <row r="54" spans="2:12">
+      <c r="B54" s="102"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="129"/>
+      <c r="E54" s="129"/>
+      <c r="F54" s="129"/>
+      <c r="G54" s="129"/>
+      <c r="H54" s="129"/>
+      <c r="I54" s="129"/>
+      <c r="J54" s="129"/>
+      <c r="K54" s="129"/>
+      <c r="L54" s="129"/>
     </row>
     <row r="55" spans="2:12" ht="21">
-      <c r="B55" s="122" t="s">
+      <c r="B55" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="122"/>
-      <c r="D55" s="122"/>
-      <c r="E55" s="122"/>
-      <c r="F55" s="122"/>
-      <c r="G55" s="122"/>
-      <c r="H55" s="122"/>
-      <c r="I55" s="122"/>
-      <c r="J55" s="122"/>
-      <c r="K55" s="122"/>
-      <c r="L55" s="122"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="106"/>
+      <c r="F55" s="106"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="106"/>
+      <c r="I55" s="106"/>
+      <c r="J55" s="106"/>
+      <c r="K55" s="106"/>
+      <c r="L55" s="106"/>
+    </row>
+    <row r="56" spans="2:12">
+      <c r="B56" s="86"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="86"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="86"/>
+      <c r="G56" s="86"/>
+      <c r="H56" s="86"/>
+      <c r="I56" s="86"/>
+      <c r="J56" s="86"/>
+      <c r="K56" s="86"/>
+      <c r="L56" s="86"/>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="46" t="s">
+      <c r="B59" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
+      <c r="C59" s="100"/>
+      <c r="D59" s="100"/>
+      <c r="E59" s="100"/>
+      <c r="F59" s="100"/>
+      <c r="G59" s="100"/>
+      <c r="H59" s="100"/>
+      <c r="I59" s="100"/>
+      <c r="J59" s="100"/>
+      <c r="K59" s="100"/>
+      <c r="L59" s="100"/>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="46" t="s">
+      <c r="B60" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
+      <c r="C60" s="100"/>
+      <c r="D60" s="100"/>
+      <c r="E60" s="100"/>
+      <c r="F60" s="100"/>
+      <c r="G60" s="100"/>
+      <c r="H60" s="100"/>
+      <c r="I60" s="100"/>
+      <c r="J60" s="100"/>
+      <c r="K60" s="100"/>
+      <c r="L60" s="100"/>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
+      <c r="C61" s="99"/>
+      <c r="D61" s="99"/>
+      <c r="E61" s="99"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="99"/>
+      <c r="H61" s="99"/>
+      <c r="I61" s="99"/>
+      <c r="J61" s="99"/>
+      <c r="K61" s="99"/>
+      <c r="L61" s="99"/>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="46" t="s">
+      <c r="B62" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="100"/>
+      <c r="E62" s="100"/>
+      <c r="F62" s="100"/>
+      <c r="G62" s="100"/>
+      <c r="H62" s="100"/>
+      <c r="I62" s="100"/>
+      <c r="J62" s="100"/>
+      <c r="K62" s="100"/>
+      <c r="L62" s="100"/>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
+      <c r="C63" s="100"/>
+      <c r="D63" s="100"/>
+      <c r="E63" s="100"/>
+      <c r="F63" s="100"/>
+      <c r="G63" s="100"/>
+      <c r="H63" s="100"/>
+      <c r="I63" s="100"/>
+      <c r="J63" s="100"/>
+      <c r="K63" s="100"/>
+      <c r="L63" s="100"/>
     </row>
     <row r="64" spans="2:12">
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-    </row>
-    <row r="65" spans="2:11">
-      <c r="B65" s="46" t="s">
+      <c r="C64" s="99"/>
+      <c r="D64" s="99"/>
+      <c r="E64" s="99"/>
+      <c r="F64" s="99"/>
+      <c r="G64" s="99"/>
+      <c r="H64" s="99"/>
+      <c r="I64" s="99"/>
+      <c r="J64" s="99"/>
+      <c r="K64" s="99"/>
+      <c r="L64" s="99"/>
+    </row>
+    <row r="65" spans="2:12">
+      <c r="B65" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-    </row>
-    <row r="66" spans="2:11">
-      <c r="B66" s="46" t="s">
+      <c r="C65" s="100"/>
+      <c r="D65" s="100"/>
+      <c r="E65" s="100"/>
+      <c r="F65" s="100"/>
+      <c r="G65" s="100"/>
+      <c r="H65" s="100"/>
+      <c r="I65" s="100"/>
+      <c r="J65" s="100"/>
+      <c r="K65" s="100"/>
+      <c r="L65" s="100"/>
+    </row>
+    <row r="66" spans="2:12">
+      <c r="B66" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-    </row>
-    <row r="67" spans="2:11">
-      <c r="B67" s="46" t="s">
+      <c r="C66" s="100"/>
+      <c r="D66" s="100"/>
+      <c r="E66" s="100"/>
+      <c r="F66" s="100"/>
+      <c r="G66" s="100"/>
+      <c r="H66" s="100"/>
+      <c r="I66" s="100"/>
+      <c r="J66" s="100"/>
+      <c r="K66" s="100"/>
+      <c r="L66" s="100"/>
+    </row>
+    <row r="67" spans="2:12">
+      <c r="B67" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-    </row>
-    <row r="68" spans="2:11">
-      <c r="B68" s="46" t="s">
+      <c r="C67" s="100"/>
+      <c r="D67" s="100"/>
+      <c r="E67" s="100"/>
+      <c r="F67" s="100"/>
+      <c r="G67" s="100"/>
+      <c r="H67" s="100"/>
+      <c r="I67" s="100"/>
+      <c r="J67" s="100"/>
+      <c r="K67" s="100"/>
+      <c r="L67" s="100"/>
+    </row>
+    <row r="68" spans="2:12">
+      <c r="B68" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-    </row>
-    <row r="69" spans="2:11">
-      <c r="B69" s="46" t="s">
+      <c r="C68" s="100"/>
+      <c r="D68" s="100"/>
+      <c r="E68" s="100"/>
+      <c r="F68" s="100"/>
+      <c r="G68" s="100"/>
+      <c r="H68" s="100"/>
+      <c r="I68" s="100"/>
+      <c r="J68" s="100"/>
+      <c r="K68" s="100"/>
+      <c r="L68" s="100"/>
+    </row>
+    <row r="69" spans="2:12">
+      <c r="B69" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-    </row>
-    <row r="70" spans="2:11">
-      <c r="B70" s="46" t="s">
+      <c r="C69" s="100"/>
+      <c r="D69" s="100"/>
+      <c r="E69" s="100"/>
+      <c r="F69" s="100"/>
+      <c r="G69" s="100"/>
+      <c r="H69" s="100"/>
+      <c r="I69" s="100"/>
+      <c r="J69" s="100"/>
+      <c r="K69" s="100"/>
+      <c r="L69" s="100"/>
+    </row>
+    <row r="70" spans="2:12">
+      <c r="B70" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-    </row>
-    <row r="71" spans="2:11">
-      <c r="B71" s="46" t="s">
+      <c r="C70" s="100"/>
+      <c r="D70" s="100"/>
+      <c r="E70" s="100"/>
+      <c r="F70" s="100"/>
+      <c r="G70" s="100"/>
+      <c r="H70" s="100"/>
+      <c r="I70" s="100"/>
+      <c r="J70" s="100"/>
+      <c r="K70" s="100"/>
+      <c r="L70" s="100"/>
+    </row>
+    <row r="71" spans="2:12">
+      <c r="B71" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-    </row>
-    <row r="72" spans="2:11">
-      <c r="B72" s="46" t="s">
+      <c r="C71" s="100"/>
+      <c r="D71" s="100"/>
+      <c r="E71" s="100"/>
+      <c r="F71" s="100"/>
+      <c r="G71" s="100"/>
+      <c r="H71" s="100"/>
+      <c r="I71" s="100"/>
+      <c r="J71" s="100"/>
+      <c r="K71" s="100"/>
+      <c r="L71" s="100"/>
+    </row>
+    <row r="72" spans="2:12">
+      <c r="B72" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-    </row>
-    <row r="76" spans="2:11">
-      <c r="B76" s="46" t="s">
+      <c r="C72" s="100"/>
+      <c r="D72" s="100"/>
+      <c r="E72" s="100"/>
+      <c r="F72" s="100"/>
+      <c r="G72" s="100"/>
+      <c r="H72" s="100"/>
+      <c r="I72" s="100"/>
+      <c r="J72" s="100"/>
+      <c r="K72" s="100"/>
+      <c r="L72" s="100"/>
+    </row>
+    <row r="73" spans="2:12">
+      <c r="B73" s="86"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="86"/>
+      <c r="E73" s="86"/>
+      <c r="F73" s="86"/>
+      <c r="G73" s="86"/>
+      <c r="H73" s="86"/>
+      <c r="I73" s="86"/>
+      <c r="J73" s="86"/>
+      <c r="K73" s="86"/>
+      <c r="L73" s="86"/>
+    </row>
+    <row r="76" spans="2:12">
+      <c r="B76" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="29"/>
-      <c r="K76" s="29"/>
-    </row>
-    <row r="77" spans="2:11">
-      <c r="B77" s="46" t="s">
+      <c r="C76" s="100"/>
+      <c r="D76" s="100"/>
+      <c r="E76" s="100"/>
+      <c r="F76" s="100"/>
+      <c r="G76" s="100"/>
+      <c r="H76" s="100"/>
+      <c r="I76" s="100"/>
+      <c r="J76" s="100"/>
+      <c r="K76" s="100"/>
+      <c r="L76" s="100"/>
+    </row>
+    <row r="77" spans="2:12">
+      <c r="B77" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="29"/>
-    </row>
-    <row r="78" spans="2:11">
-      <c r="B78" s="46" t="s">
+      <c r="C77" s="100"/>
+      <c r="D77" s="100"/>
+      <c r="E77" s="100"/>
+      <c r="F77" s="100"/>
+      <c r="G77" s="100"/>
+      <c r="H77" s="100"/>
+      <c r="I77" s="100"/>
+      <c r="J77" s="100"/>
+      <c r="K77" s="100"/>
+      <c r="L77" s="100"/>
+    </row>
+    <row r="78" spans="2:12">
+      <c r="B78" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="29"/>
-    </row>
-    <row r="79" spans="2:11">
-      <c r="B79" s="33" t="s">
+      <c r="C78" s="100"/>
+      <c r="D78" s="100"/>
+      <c r="E78" s="100"/>
+      <c r="F78" s="100"/>
+      <c r="G78" s="100"/>
+      <c r="H78" s="100"/>
+      <c r="I78" s="100"/>
+      <c r="J78" s="100"/>
+      <c r="K78" s="100"/>
+      <c r="L78" s="100"/>
+    </row>
+    <row r="79" spans="2:12">
+      <c r="B79" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="29"/>
-    </row>
-    <row r="80" spans="2:11">
-      <c r="B80" s="46" t="s">
+      <c r="C79" s="95"/>
+      <c r="D79" s="95"/>
+      <c r="E79" s="95"/>
+      <c r="F79" s="95"/>
+      <c r="G79" s="95"/>
+      <c r="H79" s="95"/>
+      <c r="I79" s="95"/>
+      <c r="J79" s="95"/>
+      <c r="K79" s="95"/>
+      <c r="L79" s="95"/>
+    </row>
+    <row r="80" spans="2:12">
+      <c r="B80" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="29"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="29"/>
-    </row>
-    <row r="81" spans="2:11">
-      <c r="B81" s="33" t="s">
+      <c r="C80" s="100"/>
+      <c r="D80" s="100"/>
+      <c r="E80" s="100"/>
+      <c r="F80" s="100"/>
+      <c r="G80" s="100"/>
+      <c r="H80" s="100"/>
+      <c r="I80" s="100"/>
+      <c r="J80" s="100"/>
+      <c r="K80" s="100"/>
+      <c r="L80" s="100"/>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="B81" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="29"/>
-      <c r="K81" s="29"/>
-    </row>
-    <row r="82" spans="2:11">
-      <c r="B82" s="46" t="s">
+      <c r="C81" s="95"/>
+      <c r="D81" s="95"/>
+      <c r="E81" s="95"/>
+      <c r="F81" s="95"/>
+      <c r="G81" s="95"/>
+      <c r="H81" s="95"/>
+      <c r="I81" s="95"/>
+      <c r="J81" s="95"/>
+      <c r="K81" s="95"/>
+      <c r="L81" s="95"/>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="B82" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="29"/>
-      <c r="K82" s="29"/>
-    </row>
-    <row r="83" spans="2:11">
-      <c r="B83" s="46" t="s">
+      <c r="C82" s="100"/>
+      <c r="D82" s="100"/>
+      <c r="E82" s="100"/>
+      <c r="F82" s="100"/>
+      <c r="G82" s="100"/>
+      <c r="H82" s="100"/>
+      <c r="I82" s="100"/>
+      <c r="J82" s="100"/>
+      <c r="K82" s="100"/>
+      <c r="L82" s="100"/>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="B83" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="29"/>
-      <c r="K83" s="29"/>
-    </row>
-    <row r="84" spans="2:11">
-      <c r="B84" s="46" t="s">
+      <c r="C83" s="100"/>
+      <c r="D83" s="100"/>
+      <c r="E83" s="100"/>
+      <c r="F83" s="100"/>
+      <c r="G83" s="100"/>
+      <c r="H83" s="100"/>
+      <c r="I83" s="100"/>
+      <c r="J83" s="100"/>
+      <c r="K83" s="100"/>
+      <c r="L83" s="100"/>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="B84" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="29"/>
-      <c r="K84" s="29"/>
-    </row>
-    <row r="85" spans="2:11">
-      <c r="B85" s="46" t="s">
+      <c r="C84" s="100"/>
+      <c r="D84" s="100"/>
+      <c r="E84" s="100"/>
+      <c r="F84" s="100"/>
+      <c r="G84" s="100"/>
+      <c r="H84" s="100"/>
+      <c r="I84" s="100"/>
+      <c r="J84" s="100"/>
+      <c r="K84" s="100"/>
+      <c r="L84" s="100"/>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="B85" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="29"/>
-      <c r="K85" s="29"/>
-    </row>
-    <row r="86" spans="2:11">
-      <c r="B86" s="46" t="s">
+      <c r="C85" s="100"/>
+      <c r="D85" s="100"/>
+      <c r="E85" s="100"/>
+      <c r="F85" s="100"/>
+      <c r="G85" s="100"/>
+      <c r="H85" s="100"/>
+      <c r="I85" s="100"/>
+      <c r="J85" s="100"/>
+      <c r="K85" s="100"/>
+      <c r="L85" s="100"/>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="B86" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="29"/>
-      <c r="K86" s="29"/>
-    </row>
-    <row r="90" spans="2:11">
-      <c r="B90" s="46" t="s">
+      <c r="C86" s="100"/>
+      <c r="D86" s="100"/>
+      <c r="E86" s="100"/>
+      <c r="F86" s="100"/>
+      <c r="G86" s="100"/>
+      <c r="H86" s="100"/>
+      <c r="I86" s="100"/>
+      <c r="J86" s="100"/>
+      <c r="K86" s="100"/>
+      <c r="L86" s="100"/>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="85"/>
+      <c r="B90" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="C90" s="101"/>
+      <c r="D90" s="101"/>
+      <c r="E90" s="101"/>
+      <c r="F90" s="101"/>
+      <c r="G90" s="101"/>
+      <c r="H90" s="101"/>
+      <c r="I90" s="101"/>
+      <c r="J90" s="101"/>
+      <c r="K90" s="101"/>
+      <c r="L90" s="101"/>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="85"/>
+      <c r="B91" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-    </row>
-    <row r="91" spans="2:11">
-      <c r="B91" s="46" t="s">
+      <c r="C91" s="100"/>
+      <c r="D91" s="100"/>
+      <c r="E91" s="100"/>
+      <c r="F91" s="100"/>
+      <c r="G91" s="100"/>
+      <c r="H91" s="100"/>
+      <c r="I91" s="100"/>
+      <c r="J91" s="100"/>
+      <c r="K91" s="100"/>
+      <c r="L91" s="100"/>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="85"/>
+      <c r="B92" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-    </row>
-    <row r="92" spans="2:11">
-      <c r="B92" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-    </row>
-    <row r="100" spans="3:11">
-      <c r="C100" s="39"/>
-    </row>
-    <row r="101" spans="3:11" ht="15.6">
-      <c r="C101" s="40"/>
-    </row>
-    <row r="102" spans="3:11" ht="15.6">
-      <c r="C102" s="40"/>
-    </row>
-    <row r="104" spans="3:11">
-      <c r="D104" s="41"/>
-      <c r="I104" s="41"/>
-      <c r="J104" s="41"/>
-      <c r="K104" s="41"/>
-    </row>
-    <row r="105" spans="3:11">
-      <c r="D105" s="41"/>
-      <c r="I105" s="41"/>
-      <c r="J105" s="41"/>
-      <c r="K105" s="41"/>
-    </row>
-    <row r="107" spans="3:11">
-      <c r="D107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-    </row>
-    <row r="109" spans="3:11" ht="15.6">
-      <c r="C109" s="42"/>
+      <c r="C92" s="101"/>
+      <c r="D92" s="101"/>
+      <c r="E92" s="101"/>
+      <c r="F92" s="101"/>
+      <c r="G92" s="101"/>
+      <c r="H92" s="101"/>
+      <c r="I92" s="101"/>
+      <c r="J92" s="101"/>
+      <c r="K92" s="101"/>
+      <c r="L92" s="101"/>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="B93" s="129"/>
+      <c r="C93" s="129"/>
+      <c r="D93" s="129"/>
+      <c r="E93" s="129"/>
+      <c r="F93" s="129"/>
+      <c r="G93" s="129"/>
+      <c r="H93" s="129"/>
+      <c r="I93" s="129"/>
+      <c r="J93" s="129"/>
+      <c r="K93" s="129"/>
+      <c r="L93" s="129"/>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="B94" s="129"/>
+      <c r="C94" s="102"/>
+      <c r="D94" s="102"/>
+      <c r="E94" s="102"/>
+      <c r="F94" s="102"/>
+      <c r="G94" s="102"/>
+      <c r="H94" s="102"/>
+      <c r="I94" s="102"/>
+      <c r="J94" s="129"/>
+      <c r="K94" s="129"/>
+      <c r="L94" s="129"/>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="B95" s="129"/>
+      <c r="C95" s="102"/>
+      <c r="D95" s="102"/>
+      <c r="E95" s="102"/>
+      <c r="F95" s="102"/>
+      <c r="G95" s="102"/>
+      <c r="H95" s="102"/>
+      <c r="I95" s="102"/>
+      <c r="J95" s="129"/>
+      <c r="K95" s="129"/>
+      <c r="L95" s="129"/>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="B96" s="129"/>
+      <c r="C96" s="102"/>
+      <c r="D96" s="102"/>
+      <c r="E96" s="102"/>
+      <c r="F96" s="102"/>
+      <c r="G96" s="102"/>
+      <c r="H96" s="102"/>
+      <c r="I96" s="102"/>
+      <c r="J96" s="129"/>
+      <c r="K96" s="129"/>
+      <c r="L96" s="129"/>
+    </row>
+    <row r="97" spans="2:12">
+      <c r="B97" s="129"/>
+      <c r="C97" s="102"/>
+      <c r="D97" s="102"/>
+      <c r="E97" s="102"/>
+      <c r="F97" s="102"/>
+      <c r="G97" s="102"/>
+      <c r="H97" s="102"/>
+      <c r="I97" s="102"/>
+      <c r="J97" s="129"/>
+      <c r="K97" s="129"/>
+      <c r="L97" s="129"/>
+    </row>
+    <row r="98" spans="2:12">
+      <c r="B98" s="129"/>
+      <c r="C98" s="102"/>
+      <c r="D98" s="102"/>
+      <c r="E98" s="102"/>
+      <c r="F98" s="102"/>
+      <c r="G98" s="102"/>
+      <c r="H98" s="102"/>
+      <c r="I98" s="102"/>
+      <c r="J98" s="129"/>
+      <c r="K98" s="129"/>
+      <c r="L98" s="129"/>
+    </row>
+    <row r="99" spans="2:12">
+      <c r="B99" s="129"/>
+      <c r="C99" s="102"/>
+      <c r="D99" s="102"/>
+      <c r="E99" s="102"/>
+      <c r="F99" s="102"/>
+      <c r="G99" s="102"/>
+      <c r="H99" s="102"/>
+      <c r="I99" s="102"/>
+      <c r="J99" s="129"/>
+      <c r="K99" s="129"/>
+      <c r="L99" s="129"/>
+    </row>
+    <row r="100" spans="2:12">
+      <c r="B100" s="129"/>
+      <c r="C100" s="102"/>
+      <c r="D100" s="102"/>
+      <c r="E100" s="102"/>
+      <c r="F100" s="102"/>
+      <c r="G100" s="102"/>
+      <c r="H100" s="102"/>
+      <c r="I100" s="102"/>
+      <c r="J100" s="129"/>
+      <c r="K100" s="129"/>
+      <c r="L100" s="129"/>
+    </row>
+    <row r="101" spans="2:12" ht="15.6" customHeight="1">
+      <c r="B101" s="129"/>
+      <c r="C101" s="102"/>
+      <c r="D101" s="102"/>
+      <c r="E101" s="102"/>
+      <c r="F101" s="102"/>
+      <c r="G101" s="102"/>
+      <c r="H101" s="102"/>
+      <c r="I101" s="102"/>
+      <c r="J101" s="129"/>
+      <c r="K101" s="129"/>
+      <c r="L101" s="129"/>
+    </row>
+    <row r="102" spans="2:12" ht="15.6" customHeight="1">
+      <c r="B102" s="129"/>
+      <c r="C102" s="102"/>
+      <c r="D102" s="102"/>
+      <c r="E102" s="102"/>
+      <c r="F102" s="102"/>
+      <c r="G102" s="102"/>
+      <c r="H102" s="102"/>
+      <c r="I102" s="102"/>
+      <c r="J102" s="129"/>
+      <c r="K102" s="129"/>
+      <c r="L102" s="129"/>
+    </row>
+    <row r="103" spans="2:12">
+      <c r="B103" s="129"/>
+      <c r="C103" s="102"/>
+      <c r="D103" s="102"/>
+      <c r="E103" s="102"/>
+      <c r="F103" s="102"/>
+      <c r="G103" s="102"/>
+      <c r="H103" s="102"/>
+      <c r="I103" s="102"/>
+      <c r="J103" s="129"/>
+      <c r="K103" s="129"/>
+      <c r="L103" s="129"/>
+    </row>
+    <row r="104" spans="2:12">
+      <c r="B104" s="129"/>
+      <c r="C104" s="129"/>
+      <c r="D104" s="129"/>
+      <c r="E104" s="129"/>
+      <c r="F104" s="129"/>
+      <c r="G104" s="129"/>
+      <c r="H104" s="129"/>
+      <c r="I104" s="129"/>
+      <c r="J104" s="129"/>
+      <c r="K104" s="129"/>
+      <c r="L104" s="129"/>
+    </row>
+    <row r="105" spans="2:12">
+      <c r="B105" s="129"/>
+      <c r="C105" s="129"/>
+      <c r="D105" s="129"/>
+      <c r="E105" s="129"/>
+      <c r="F105" s="129"/>
+      <c r="G105" s="129"/>
+      <c r="H105" s="129"/>
+      <c r="I105" s="129"/>
+      <c r="J105" s="129"/>
+      <c r="K105" s="129"/>
+      <c r="L105" s="129"/>
+    </row>
+    <row r="106" spans="2:12">
+      <c r="B106" s="129"/>
+      <c r="C106" s="129"/>
+      <c r="D106" s="129"/>
+      <c r="E106" s="129"/>
+      <c r="F106" s="129"/>
+      <c r="G106" s="129"/>
+      <c r="H106" s="129"/>
+      <c r="I106" s="129"/>
+      <c r="J106" s="129"/>
+      <c r="K106" s="129"/>
+      <c r="L106" s="129"/>
+    </row>
+    <row r="107" spans="2:12">
+      <c r="B107" s="129"/>
+      <c r="C107" s="129"/>
+      <c r="D107" s="129"/>
+      <c r="E107" s="129"/>
+      <c r="F107" s="129"/>
+      <c r="G107" s="129"/>
+      <c r="H107" s="129"/>
+      <c r="I107" s="129"/>
+      <c r="J107" s="129"/>
+      <c r="K107" s="129"/>
+      <c r="L107" s="129"/>
+    </row>
+    <row r="108" spans="2:12">
+      <c r="B108" s="129"/>
+      <c r="C108" s="129"/>
+      <c r="D108" s="129"/>
+      <c r="E108" s="129"/>
+      <c r="F108" s="129"/>
+      <c r="G108" s="129"/>
+      <c r="H108" s="129"/>
+      <c r="I108" s="129"/>
+      <c r="J108" s="129"/>
+      <c r="K108" s="129"/>
+      <c r="L108" s="129"/>
+    </row>
+    <row r="109" spans="2:12" ht="15.6" customHeight="1">
+      <c r="B109" s="129"/>
+      <c r="C109" s="129"/>
+      <c r="D109" s="129"/>
+      <c r="E109" s="129"/>
+      <c r="F109" s="129"/>
+      <c r="G109" s="129"/>
+      <c r="H109" s="129"/>
+      <c r="I109" s="129"/>
+      <c r="J109" s="129"/>
+      <c r="K109" s="129"/>
+      <c r="L109" s="129"/>
+    </row>
+    <row r="110" spans="2:12">
+      <c r="B110" s="129"/>
+      <c r="C110" s="129"/>
+      <c r="D110" s="129"/>
+      <c r="E110" s="129"/>
+      <c r="F110" s="129"/>
+      <c r="G110" s="129"/>
+      <c r="H110" s="129"/>
+      <c r="I110" s="129"/>
+      <c r="J110" s="129"/>
+      <c r="K110" s="129"/>
+      <c r="L110" s="129"/>
+    </row>
+    <row r="111" spans="2:12">
+      <c r="B111" s="129"/>
+      <c r="C111" s="129"/>
+      <c r="D111" s="129"/>
+      <c r="E111" s="129"/>
+      <c r="F111" s="129"/>
+      <c r="G111" s="129"/>
+      <c r="H111" s="129"/>
+      <c r="I111" s="129"/>
+      <c r="J111" s="129"/>
+      <c r="K111" s="129"/>
+      <c r="L111" s="129"/>
+    </row>
+    <row r="112" spans="2:12">
+      <c r="B112" s="129"/>
+      <c r="C112" s="129"/>
+      <c r="D112" s="129"/>
+      <c r="E112" s="129"/>
+      <c r="F112" s="129"/>
+      <c r="G112" s="129"/>
+      <c r="H112" s="129"/>
+      <c r="I112" s="129"/>
+      <c r="J112" s="129"/>
+      <c r="K112" s="129"/>
+      <c r="L112" s="129"/>
+    </row>
+    <row r="113" spans="2:12">
+      <c r="B113" s="129"/>
+      <c r="C113" s="129"/>
+      <c r="D113" s="129"/>
+      <c r="E113" s="129"/>
+      <c r="F113" s="129"/>
+      <c r="G113" s="129"/>
+      <c r="H113" s="129"/>
+      <c r="I113" s="129"/>
+      <c r="J113" s="129"/>
+      <c r="K113" s="129"/>
+      <c r="L113" s="129"/>
+    </row>
+    <row r="114" spans="2:12">
+      <c r="B114" s="129"/>
+      <c r="C114" s="129"/>
+      <c r="D114" s="129"/>
+      <c r="E114" s="129"/>
+      <c r="F114" s="129"/>
+      <c r="G114" s="129"/>
+      <c r="H114" s="129"/>
+      <c r="I114" s="129"/>
+      <c r="J114" s="129"/>
+      <c r="K114" s="129"/>
+      <c r="L114" s="129"/>
+    </row>
+    <row r="115" spans="2:12">
+      <c r="B115" s="129"/>
+      <c r="C115" s="129"/>
+      <c r="D115" s="129"/>
+      <c r="E115" s="129"/>
+      <c r="F115" s="129"/>
+      <c r="G115" s="129"/>
+      <c r="H115" s="129"/>
+      <c r="I115" s="129"/>
+      <c r="J115" s="129"/>
+      <c r="K115" s="129"/>
+      <c r="L115" s="129"/>
+    </row>
+    <row r="116" spans="2:12">
+      <c r="B116" s="129"/>
+      <c r="C116" s="129"/>
+      <c r="D116" s="129"/>
+      <c r="E116" s="129"/>
+      <c r="F116" s="129"/>
+      <c r="G116" s="129"/>
+      <c r="H116" s="129"/>
+      <c r="I116" s="129"/>
+      <c r="J116" s="129"/>
+      <c r="K116" s="129"/>
+      <c r="L116" s="129"/>
+    </row>
+    <row r="117" spans="2:12">
+      <c r="B117" s="129"/>
+      <c r="C117" s="129"/>
+      <c r="D117" s="129"/>
+      <c r="E117" s="129"/>
+      <c r="F117" s="129"/>
+      <c r="G117" s="129"/>
+      <c r="H117" s="129"/>
+      <c r="I117" s="129"/>
+      <c r="J117" s="129"/>
+      <c r="K117" s="129"/>
+      <c r="L117" s="129"/>
+    </row>
+    <row r="118" spans="2:12">
+      <c r="B118" s="129"/>
+      <c r="C118" s="129"/>
+      <c r="D118" s="129"/>
+      <c r="E118" s="129"/>
+      <c r="F118" s="129"/>
+      <c r="G118" s="129"/>
+      <c r="H118" s="129"/>
+      <c r="I118" s="129"/>
+      <c r="J118" s="129"/>
+      <c r="K118" s="129"/>
+      <c r="L118" s="129"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="26">
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B55:L55"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:J4"/>
+  <mergeCells count="88">
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="B49:C54"/>
+    <mergeCell ref="C94:I103"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="D50:L50"/>
+    <mergeCell ref="D51:I51"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="G36:H36"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="B34:L34"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="K35:L35"/>
     <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B13:F13"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="G37:H37"/>
     <mergeCell ref="J11:L11"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B44:L44"/>
+    <mergeCell ref="B45:L45"/>
+    <mergeCell ref="B46:L46"/>
+    <mergeCell ref="B47:L47"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="B60:L60"/>
+    <mergeCell ref="B61:L61"/>
+    <mergeCell ref="B56:L56"/>
+    <mergeCell ref="B55:L55"/>
+    <mergeCell ref="B2:C6"/>
+    <mergeCell ref="B79:L79"/>
+    <mergeCell ref="B80:L80"/>
+    <mergeCell ref="B86:L86"/>
+    <mergeCell ref="B81:L81"/>
+    <mergeCell ref="B82:L82"/>
+    <mergeCell ref="B83:L83"/>
+    <mergeCell ref="B84:L84"/>
+    <mergeCell ref="B85:L85"/>
+    <mergeCell ref="B72:L72"/>
+    <mergeCell ref="B73:L73"/>
+    <mergeCell ref="B76:L76"/>
+    <mergeCell ref="B77:L77"/>
+    <mergeCell ref="B78:L78"/>
+    <mergeCell ref="B67:L67"/>
+    <mergeCell ref="B68:L68"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B91:L91"/>
+    <mergeCell ref="B90:L90"/>
+    <mergeCell ref="B92:L92"/>
+    <mergeCell ref="B69:L69"/>
+    <mergeCell ref="B70:L70"/>
+    <mergeCell ref="B71:L71"/>
+    <mergeCell ref="B62:L62"/>
+    <mergeCell ref="B63:L63"/>
+    <mergeCell ref="B64:L64"/>
+    <mergeCell ref="B65:L65"/>
+    <mergeCell ref="B66:L66"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="B43:L43"/>
+    <mergeCell ref="B59:L59"/>
+    <mergeCell ref="B33:L33"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="VERIFICAR NÚMERO DE TELEFONO" error="Verifica que tenga 9 digitos sin espacio" sqref="J8:L8" xr:uid="{CC0405B2-A74A-4E8F-BF03-C34BEE695B67}">
@@ -3833,25 +4279,25 @@
       <c r="G3" s="127"/>
     </row>
     <row r="6" spans="2:32" ht="15" customHeight="1">
-      <c r="B6" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="85" t="s">
+      <c r="B6" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="E6" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="85" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="70" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:32" ht="15" customHeight="1">
       <c r="B7" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="7">
         <v>7</v>
@@ -3860,59 +4306,59 @@
       <c r="E7" s="7">
         <v>1</v>
       </c>
-      <c r="F7" s="83">
+      <c r="F7" s="68">
         <f>SUM(C7:E7)</f>
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:32" ht="15" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="81">
+        <v>95</v>
+      </c>
+      <c r="C8" s="66">
         <v>110</v>
       </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81">
+      <c r="D8" s="66"/>
+      <c r="E8" s="66">
         <v>6</v>
       </c>
-      <c r="F8" s="84">
+      <c r="F8" s="69">
         <f>SUM(C8:E8)</f>
         <v>116</v>
       </c>
       <c r="J8" s="125" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K8" s="125"/>
       <c r="M8" s="125" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N8" s="125"/>
     </row>
     <row r="9" spans="2:32" ht="15" customHeight="1">
       <c r="B9" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="80">
+        <v>87</v>
+      </c>
+      <c r="C9" s="65">
         <v>1.1539999999999999</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80">
+      <c r="D9" s="65"/>
+      <c r="E9" s="65">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="67">
         <f>SUM(C9:E9)</f>
         <v>1.1879999999999999</v>
       </c>
       <c r="G9" s="1"/>
       <c r="J9" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>54</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>54</v>
@@ -3927,31 +4373,31 @@
       <c r="AF9"/>
     </row>
     <row r="10" spans="2:32" ht="15" customHeight="1">
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="79">
+      <c r="C10" s="64">
         <v>6.36</v>
       </c>
-      <c r="D10" s="79">
+      <c r="D10" s="64">
         <v>8.0299999999999994</v>
       </c>
-      <c r="E10" s="79">
+      <c r="E10" s="64">
         <v>6</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="J10" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="K10" s="87">
+      <c r="J10" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="72">
         <v>250</v>
       </c>
-      <c r="M10" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="N10" s="87">
+      <c r="M10" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="N10" s="72">
         <v>250</v>
       </c>
       <c r="Y10"/>
@@ -3964,23 +4410,23 @@
       <c r="AF10"/>
     </row>
     <row r="11" spans="2:32" ht="15" hidden="1" customHeight="1">
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
       <c r="F11" s="1"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="J11" s="70">
+      <c r="J11" s="58">
         <v>0.1</v>
       </c>
-      <c r="K11" s="87"/>
-      <c r="M11" s="70">
+      <c r="K11" s="72"/>
+      <c r="M11" s="58">
         <v>0.1</v>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="72"/>
       <c r="Y11"/>
       <c r="Z11"/>
       <c r="AA11"/>
@@ -4003,21 +4449,21 @@
       <c r="E12" s="7">
         <v>50</v>
       </c>
-      <c r="F12" s="83">
+      <c r="F12" s="68">
         <f>SUM(C12:E12)</f>
         <v>151</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="J12" s="70" t="s">
-        <v>117</v>
-      </c>
-      <c r="K12" s="87">
+      <c r="J12" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" s="72">
         <v>350</v>
       </c>
-      <c r="M12" s="70" t="s">
-        <v>117</v>
-      </c>
-      <c r="N12" s="87">
+      <c r="M12" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12" s="72">
         <v>325</v>
       </c>
       <c r="Y12"/>
@@ -4050,16 +4496,16 @@
         <v>944.03</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="J13" s="70" t="s">
-        <v>118</v>
-      </c>
-      <c r="K13" s="87">
+      <c r="J13" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" s="72">
         <v>350</v>
       </c>
-      <c r="M13" s="70" t="s">
-        <v>118</v>
-      </c>
-      <c r="N13" s="87">
+      <c r="M13" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="N13" s="72">
         <v>325</v>
       </c>
       <c r="Y13"/>
@@ -4072,34 +4518,34 @@
       <c r="AF13"/>
     </row>
     <row r="14" spans="2:32" ht="16.5" hidden="1" customHeight="1">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="44">
         <f>(MAX(C10:C11))*C12</f>
         <v>636</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="44">
         <f t="shared" ref="D14:E14" si="1">(MAX(D10:D11))*D12</f>
         <v>8.0299999999999994</v>
       </c>
-      <c r="E14" s="51">
+      <c r="E14" s="44">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F14" s="44">
         <f>SUM(C14:E14)</f>
         <v>944.03</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="J14" s="70">
+      <c r="J14" s="58">
         <v>0.1</v>
       </c>
-      <c r="K14" s="87"/>
-      <c r="M14" s="70">
+      <c r="K14" s="72"/>
+      <c r="M14" s="58">
         <v>0.1</v>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="72"/>
       <c r="Y14"/>
       <c r="Z14"/>
       <c r="AA14"/>
@@ -4129,16 +4575,16 @@
         <v>8</v>
       </c>
       <c r="G15" s="28"/>
-      <c r="J15" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="K15" s="87">
+      <c r="J15" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" s="72">
         <v>325</v>
       </c>
-      <c r="M15" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="N15" s="87">
+      <c r="M15" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="N15" s="72">
         <v>300</v>
       </c>
       <c r="Y15"/>
@@ -4170,17 +4616,17 @@
         <f>+J25</f>
         <v>249.47999999999996</v>
       </c>
-      <c r="G16" s="71"/>
-      <c r="J16" s="70" t="s">
-        <v>120</v>
-      </c>
-      <c r="K16" s="87">
+      <c r="G16" s="59"/>
+      <c r="J16" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="72">
         <v>300</v>
       </c>
-      <c r="M16" s="70" t="s">
-        <v>120</v>
-      </c>
-      <c r="N16" s="87">
+      <c r="M16" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="N16" s="72">
         <v>275</v>
       </c>
       <c r="Y16"/>
@@ -4213,16 +4659,16 @@
         <v>1193.51</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="J17" s="70" t="s">
-        <v>112</v>
-      </c>
-      <c r="K17" s="87">
+      <c r="J17" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="72">
         <v>280</v>
       </c>
-      <c r="M17" s="70" t="s">
-        <v>112</v>
-      </c>
-      <c r="N17" s="87">
+      <c r="M17" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="N17" s="72">
         <v>250</v>
       </c>
       <c r="W17"/>
@@ -4237,22 +4683,22 @@
       <c r="AF17"/>
     </row>
     <row r="18" spans="1:33" ht="14.25" hidden="1" customHeight="1">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C18" s="44">
         <f t="shared" ref="C18:E18" si="3">C14+C16</f>
         <v>804.07652299185406</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D18" s="44">
         <f t="shared" si="3"/>
         <v>10.15209823840344</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="44">
         <f t="shared" si="3"/>
         <v>379.28137876974245</v>
       </c>
-      <c r="F18" s="51">
+      <c r="F18" s="44">
         <f>SUM(C18:E18)</f>
         <v>1193.51</v>
       </c>
@@ -4318,10 +4764,10 @@
       </c>
       <c r="G20" s="1"/>
       <c r="J20" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y20"/>
       <c r="Z20"/>
@@ -4333,16 +4779,16 @@
       <c r="AF20"/>
     </row>
     <row r="21" spans="1:33" ht="18.75" hidden="1" customHeight="1">
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C21" s="44">
         <f>C18+C19</f>
         <v>837.76189316017496</v>
       </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51">
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44">
         <f>SUM(C21:E21)</f>
         <v>837.76189316017496</v>
       </c>
@@ -4350,11 +4796,11 @@
       <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:33">
-      <c r="J22" s="88">
+      <c r="J22" s="73">
         <f>+F9</f>
         <v>1.1879999999999999</v>
       </c>
-      <c r="K22" s="89">
+      <c r="K22" s="74">
         <f>J22*K13</f>
         <v>415.79999999999995</v>
       </c>
@@ -4371,18 +4817,18 @@
     </row>
     <row r="24" spans="1:33">
       <c r="J24" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K24" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="K24" s="9" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="25" spans="1:33">
-      <c r="J25" s="89">
+      <c r="J25" s="74">
         <f>K22*60%</f>
         <v>249.47999999999996</v>
       </c>
-      <c r="K25" s="89">
+      <c r="K25" s="74">
         <f>K22*40%</f>
         <v>166.32</v>
       </c>
@@ -4555,7 +5001,7 @@
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K31" s="5">
         <v>3.7</v>
@@ -4663,7 +5109,7 @@
         <f>+K25</f>
         <v>166.32</v>
       </c>
-      <c r="G38" s="71"/>
+      <c r="G38" s="59"/>
     </row>
     <row r="39" spans="1:32">
       <c r="C39" s="4"/>
@@ -4691,14 +5137,14 @@
       <c r="AF40"/>
     </row>
     <row r="41" spans="1:32" s="1" customFormat="1">
-      <c r="B41" s="86" t="s">
+      <c r="B41" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="86"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="86"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
     </row>
     <row r="43" spans="1:32">
       <c r="B43" s="25" t="s">
@@ -4792,42 +5238,42 @@
       <c r="AE46"/>
       <c r="AF46"/>
     </row>
-    <row r="47" spans="1:32" s="100" customFormat="1">
-      <c r="A47" s="96"/>
-      <c r="B47" s="98" t="s">
+    <row r="47" spans="1:32" s="84" customFormat="1">
+      <c r="A47" s="80"/>
+      <c r="B47" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="97">
+      <c r="C47" s="81">
         <f>C46*$K$31</f>
         <v>42.270671803388282</v>
       </c>
-      <c r="D47" s="97">
+      <c r="D47" s="81">
         <f t="shared" ref="D47:E47" si="8">D46*$K$31</f>
         <v>51.458155426726904</v>
       </c>
-      <c r="E47" s="97">
+      <c r="E47" s="81">
         <f t="shared" si="8"/>
         <v>38.449431203033804</v>
       </c>
-      <c r="F47" s="99"/>
-      <c r="G47" s="96"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="96"/>
-      <c r="J47" s="96"/>
-      <c r="K47" s="96"/>
-      <c r="L47" s="96"/>
-      <c r="M47" s="96"/>
-      <c r="N47" s="96"/>
-      <c r="O47" s="96"/>
-      <c r="P47" s="96"/>
-      <c r="Q47" s="96"/>
-      <c r="R47" s="96"/>
-      <c r="S47" s="96"/>
-      <c r="T47" s="96"/>
-      <c r="U47" s="96"/>
-      <c r="V47" s="96"/>
-      <c r="W47" s="96"/>
-      <c r="X47" s="96"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="80"/>
+      <c r="K47" s="80"/>
+      <c r="L47" s="80"/>
+      <c r="M47" s="80"/>
+      <c r="N47" s="80"/>
+      <c r="O47" s="80"/>
+      <c r="P47" s="80"/>
+      <c r="Q47" s="80"/>
+      <c r="R47" s="80"/>
+      <c r="S47" s="80"/>
+      <c r="T47" s="80"/>
+      <c r="U47" s="80"/>
+      <c r="V47" s="80"/>
+      <c r="W47" s="80"/>
+      <c r="X47" s="80"/>
     </row>
     <row r="48" spans="1:32">
       <c r="Y48"/>
@@ -4857,7 +5303,7 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B35:G35"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <cellWatches>

--- a/assets/downloads/Boleta_Template.xlsx
+++ b/assets/downloads/Boleta_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\probusinees-intranet\assets\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B53EC56-F23C-40EB-B81A-D8478C1FA382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5416F6E-056E-46AF-9EE8-5E9B730B7D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1044,7 +1044,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1239,80 +1239,92 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="170" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1327,12 +1339,6 @@
     </xf>
     <xf numFmtId="171" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1345,14 +1351,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2056,7 +2054,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>867182</xdr:colOff>
+      <xdr:colOff>242342</xdr:colOff>
       <xdr:row>111</xdr:row>
       <xdr:rowOff>22626</xdr:rowOff>
     </xdr:to>
@@ -2358,78 +2356,78 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:L118"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="0.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" style="1" customWidth="1"/>
     <col min="8" max="8" width="0.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1">
-      <c r="A1" s="86"/>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
+      <c r="A1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
       <c r="B2" s="102"/>
       <c r="C2" s="102"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
     </row>
     <row r="3" spans="1:12" ht="25.8">
       <c r="B3" s="102"/>
       <c r="C3" s="102"/>
-      <c r="E3" s="116" t="s">
+      <c r="E3" s="123" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
     </row>
     <row r="4" spans="1:12" ht="25.8">
       <c r="B4" s="102"/>
       <c r="C4" s="102"/>
-      <c r="E4" s="117" t="s">
+      <c r="E4" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
       <c r="K4" s="35"/>
     </row>
     <row r="5" spans="1:12">
@@ -2445,11 +2443,11 @@
       <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="E7" s="123" t="s">
+      <c r="E7" s="114" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="30" t="s">
@@ -2458,24 +2456,24 @@
       <c r="C8" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="133"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="89" t="s">
+      <c r="F8" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="90"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="129" t="s">
+      <c r="G8" s="120"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="121">
+      <c r="J8" s="127">
         <f>+'2'!F7</f>
         <v>8</v>
       </c>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="30" t="s">
@@ -2484,25 +2482,25 @@
       <c r="C9" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="133"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="107">
+      <c r="F9" s="116">
         <f ca="1">+TODAY()</f>
-        <v>45455</v>
-      </c>
-      <c r="G9" s="108"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="129" t="s">
+        <v>45456</v>
+      </c>
+      <c r="G9" s="117"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="122">
+      <c r="J9" s="128">
         <f>+'2'!F8</f>
         <v>116</v>
       </c>
-      <c r="K9" s="122"/>
-      <c r="L9" s="122"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="30" t="s">
@@ -2511,23 +2509,23 @@
       <c r="C10" s="39">
         <v>40828284</v>
       </c>
-      <c r="D10" s="133"/>
+      <c r="D10" s="87"/>
       <c r="E10" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="86" t="s">
+      <c r="F10" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="88"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="129" t="s">
+      <c r="G10" s="118"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J10" s="87">
+      <c r="J10" s="105">
         <v>0</v>
       </c>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="30" t="s">
@@ -2536,48 +2534,48 @@
       <c r="C11" s="40">
         <v>969094294</v>
       </c>
-      <c r="D11" s="134"/>
+      <c r="D11" s="88"/>
       <c r="E11" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="91"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="129" t="s">
+      <c r="F11" s="92"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="114">
+      <c r="J11" s="112">
         <f>+'2'!F9</f>
         <v>1.1879999999999999</v>
       </c>
-      <c r="K11" s="114"/>
-      <c r="L11" s="114"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="112"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
       <c r="K13" s="32" t="s">
         <v>34</v>
       </c>
@@ -2586,17 +2584,17 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
       <c r="K14" s="37">
         <f>'2'!F13</f>
         <v>944.03</v>
@@ -2606,17 +2604,17 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
       <c r="K15" s="38">
         <f>'2'!F16+'2'!F19</f>
         <v>299.47999999999996</v>
@@ -2626,17 +2624,17 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
       <c r="K16" s="37">
         <f>SUM(K14:K15)</f>
         <v>1243.51</v>
@@ -2672,13 +2670,13 @@
       <c r="L18" s="29"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="124"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
@@ -2693,16 +2691,16 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
       <c r="J20" s="47">
         <f>MAX('2'!C26:E26)</f>
         <v>0.04</v>
@@ -2716,16 +2714,16 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="99" t="s">
+      <c r="B21" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
       <c r="J21" s="47">
         <v>0.16</v>
       </c>
@@ -2738,16 +2736,16 @@
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
       <c r="J22" s="47">
         <v>0.02</v>
       </c>
@@ -2760,16 +2758,16 @@
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
       <c r="J23" s="75"/>
       <c r="K23" s="76">
         <f>SUM(K20:K22)</f>
@@ -2780,29 +2778,29 @@
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
       <c r="J24" s="2"/>
       <c r="K24" s="33"/>
       <c r="L24" s="31"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
       <c r="J25" s="48" t="s">
         <v>76</v>
       </c>
@@ -2815,16 +2813,16 @@
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="96" t="s">
+      <c r="B26" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="96"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
       <c r="K26" s="37">
         <f>K23+K25</f>
         <v>316.1151070046609</v>
@@ -2834,14 +2832,14 @@
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
     </row>
     <row r="28" spans="2:12" ht="15.6">
       <c r="B28" s="98" t="s">
@@ -2863,17 +2861,17 @@
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="99" t="s">
+      <c r="B29" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
       <c r="K29" s="37">
         <f>K14</f>
         <v>944.03</v>
@@ -2883,17 +2881,17 @@
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="99" t="s">
+      <c r="B30" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
       <c r="K30" s="37">
         <f>+'2'!K22</f>
         <v>415.79999999999995</v>
@@ -2903,17 +2901,17 @@
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="91" t="s">
+      <c r="B31" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="91"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
       <c r="K31" s="38">
         <f>K26</f>
         <v>316.1151070046609</v>
@@ -2923,17 +2921,17 @@
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="96" t="s">
+      <c r="B32" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="96"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="96"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="97"/>
       <c r="K32" s="37">
         <f>SUM(K29:K31)</f>
         <v>1675.9451070046607</v>
@@ -2943,79 +2941,79 @@
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="93"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="93"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="118" t="s">
+      <c r="B34" s="124" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="119"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="119"/>
-      <c r="K34" s="119"/>
-      <c r="L34" s="120"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="125"/>
+      <c r="H34" s="125"/>
+      <c r="I34" s="125"/>
+      <c r="J34" s="125"/>
+      <c r="K34" s="125"/>
+      <c r="L34" s="126"/>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="109" t="s">
+      <c r="C35" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="110"/>
-      <c r="E35" s="111"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="108"/>
       <c r="F35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="109" t="s">
+      <c r="G35" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="H35" s="111"/>
+      <c r="H35" s="108"/>
       <c r="I35" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J35" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="115" t="s">
+      <c r="K35" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="L35" s="115"/>
+      <c r="L35" s="111"/>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="46">
         <v>1</v>
       </c>
-      <c r="C36" s="109" t="str">
+      <c r="C36" s="106" t="str">
         <f>+'2'!$C$6</f>
         <v xml:space="preserve">Kids Car Seat Belt Pillow </v>
       </c>
-      <c r="D36" s="110"/>
-      <c r="E36" s="111"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="108"/>
       <c r="F36" s="7">
         <f>+'2'!$C$45</f>
         <v>100</v>
       </c>
-      <c r="G36" s="112">
+      <c r="G36" s="109">
         <f>+'2'!$C$10</f>
         <v>6.36</v>
       </c>
-      <c r="H36" s="113"/>
+      <c r="H36" s="110"/>
       <c r="I36" s="55">
         <f>+'2'!$C$46</f>
         <v>11.424505892807643</v>
@@ -3024,31 +3022,31 @@
         <f t="shared" ref="J36:J38" si="0">+F36*I36</f>
         <v>1142.4505892807642</v>
       </c>
-      <c r="K36" s="115">
+      <c r="K36" s="111">
         <f t="shared" ref="K36" si="1">I36*3.7</f>
         <v>42.270671803388282</v>
       </c>
-      <c r="L36" s="115"/>
+      <c r="L36" s="111"/>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="46">
         <v>2</v>
       </c>
-      <c r="C37" s="109" t="str">
+      <c r="C37" s="106" t="str">
         <f>+'2'!$D$6</f>
         <v>Car Headrest</v>
       </c>
-      <c r="D37" s="110"/>
-      <c r="E37" s="111"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="108"/>
       <c r="F37" s="7">
         <f>+'2'!$D$45</f>
         <v>1</v>
       </c>
-      <c r="G37" s="112">
+      <c r="G37" s="109">
         <f>+'2'!$D$10</f>
         <v>8.0299999999999994</v>
       </c>
-      <c r="H37" s="113"/>
+      <c r="H37" s="110"/>
       <c r="I37" s="55">
         <f>+'2'!$D$46</f>
         <v>13.907609574791055</v>
@@ -3057,31 +3055,31 @@
         <f t="shared" si="0"/>
         <v>13.907609574791055</v>
       </c>
-      <c r="K37" s="115">
+      <c r="K37" s="111">
         <f t="shared" ref="K37:K38" si="2">I37*3.7</f>
         <v>51.458155426726904</v>
       </c>
-      <c r="L37" s="115"/>
+      <c r="L37" s="111"/>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="46">
         <v>3</v>
       </c>
-      <c r="C38" s="109" t="str">
+      <c r="C38" s="106" t="str">
         <f>+'2'!$E$6</f>
         <v>Bluetooth sleep mask</v>
       </c>
-      <c r="D38" s="110"/>
-      <c r="E38" s="111"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="108"/>
       <c r="F38" s="7">
         <f>+'2'!$E$45</f>
         <v>50</v>
       </c>
-      <c r="G38" s="112">
+      <c r="G38" s="109">
         <f>+'2'!$E$10</f>
         <v>6</v>
       </c>
-      <c r="H38" s="113"/>
+      <c r="H38" s="110"/>
       <c r="I38" s="55">
         <f>+'2'!$E$46</f>
         <v>10.391738162982108</v>
@@ -3090,11 +3088,11 @@
         <f t="shared" si="0"/>
         <v>519.5869081491054</v>
       </c>
-      <c r="K38" s="103">
+      <c r="K38" s="93">
         <f t="shared" si="2"/>
         <v>38.449431203033804</v>
       </c>
-      <c r="L38" s="104"/>
+      <c r="L38" s="94"/>
     </row>
     <row r="39" spans="2:12" ht="15.6">
       <c r="B39" s="49" t="s">
@@ -3156,132 +3154,123 @@
       <c r="K42" s="29"/>
     </row>
     <row r="43" spans="2:12" ht="18">
-      <c r="B43" s="105" t="s">
+      <c r="B43" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="105"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="105"/>
-      <c r="J43" s="105"/>
-      <c r="K43" s="105"/>
-      <c r="L43" s="105"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
     </row>
     <row r="44" spans="2:12" ht="18">
-      <c r="B44" s="105" t="s">
+      <c r="B44" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="105"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="105"/>
-      <c r="J44" s="105"/>
-      <c r="K44" s="105"/>
-      <c r="L44" s="105"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="95"/>
+      <c r="L44" s="95"/>
     </row>
     <row r="45" spans="2:12" ht="18">
-      <c r="B45" s="105" t="s">
+      <c r="B45" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="105"/>
-      <c r="J45" s="105"/>
-      <c r="K45" s="105"/>
-      <c r="L45" s="105"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="95"/>
+      <c r="K45" s="95"/>
+      <c r="L45" s="95"/>
     </row>
     <row r="46" spans="2:12" ht="18">
-      <c r="B46" s="105" t="s">
+      <c r="B46" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="105"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="105"/>
-      <c r="J46" s="105"/>
-      <c r="K46" s="105"/>
-      <c r="L46" s="105"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="95"/>
+      <c r="K46" s="95"/>
+      <c r="L46" s="95"/>
     </row>
     <row r="47" spans="2:12" ht="18">
-      <c r="B47" s="105" t="s">
+      <c r="B47" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="105"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="105"/>
-      <c r="H47" s="105"/>
-      <c r="I47" s="105"/>
-      <c r="J47" s="105"/>
-      <c r="K47" s="105"/>
-      <c r="L47" s="105"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="95"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="95"/>
+      <c r="L47" s="95"/>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="130"/>
-      <c r="C48" s="130"/>
-      <c r="D48" s="130"/>
-      <c r="E48" s="130"/>
-      <c r="F48" s="130"/>
-      <c r="G48" s="130"/>
-      <c r="H48" s="130"/>
-      <c r="I48" s="130"/>
-      <c r="J48" s="130"/>
-      <c r="K48" s="130"/>
-      <c r="L48" s="130"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
     </row>
     <row r="49" spans="2:12">
       <c r="B49" s="102"/>
       <c r="C49" s="102"/>
-      <c r="D49" s="129"/>
-      <c r="E49" s="129"/>
-      <c r="F49" s="129"/>
-      <c r="G49" s="129"/>
-      <c r="H49" s="129"/>
-      <c r="I49" s="129"/>
-      <c r="J49" s="129"/>
-      <c r="K49" s="129"/>
-      <c r="L49" s="129"/>
     </row>
     <row r="50" spans="2:12" ht="18" customHeight="1">
       <c r="B50" s="102"/>
       <c r="C50" s="102"/>
-      <c r="D50" s="131" t="s">
+      <c r="D50" s="121" t="s">
         <v>121</v>
       </c>
-      <c r="E50" s="131"/>
-      <c r="F50" s="131"/>
-      <c r="G50" s="131"/>
-      <c r="H50" s="131"/>
-      <c r="I50" s="131"/>
-      <c r="J50" s="131"/>
-      <c r="K50" s="131"/>
-      <c r="L50" s="131"/>
+      <c r="E50" s="121"/>
+      <c r="F50" s="121"/>
+      <c r="G50" s="121"/>
+      <c r="H50" s="121"/>
+      <c r="I50" s="121"/>
+      <c r="J50" s="121"/>
+      <c r="K50" s="121"/>
+      <c r="L50" s="121"/>
     </row>
     <row r="51" spans="2:12" ht="18" customHeight="1">
       <c r="B51" s="102"/>
       <c r="C51" s="102"/>
-      <c r="D51" s="117" t="s">
+      <c r="D51" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="E51" s="117"/>
-      <c r="F51" s="117"/>
-      <c r="G51" s="117"/>
-      <c r="H51" s="117"/>
-      <c r="I51" s="117"/>
+      <c r="E51" s="122"/>
+      <c r="F51" s="122"/>
+      <c r="G51" s="122"/>
+      <c r="H51" s="122"/>
+      <c r="I51" s="122"/>
       <c r="J51" s="102"/>
       <c r="K51" s="102"/>
       <c r="L51" s="102"/>
@@ -3289,521 +3278,480 @@
     <row r="52" spans="2:12">
       <c r="B52" s="102"/>
       <c r="C52" s="102"/>
-      <c r="D52" s="129"/>
-      <c r="E52" s="129"/>
-      <c r="F52" s="129"/>
-      <c r="G52" s="129"/>
-      <c r="H52" s="129"/>
-      <c r="I52" s="129"/>
-      <c r="J52" s="129"/>
-      <c r="K52" s="129"/>
-      <c r="L52" s="129"/>
     </row>
     <row r="53" spans="2:12">
       <c r="B53" s="102"/>
       <c r="C53" s="102"/>
-      <c r="D53" s="129"/>
-      <c r="E53" s="129"/>
-      <c r="F53" s="129"/>
-      <c r="G53" s="129"/>
-      <c r="H53" s="129"/>
-      <c r="I53" s="129"/>
-      <c r="J53" s="129"/>
-      <c r="K53" s="129"/>
-      <c r="L53" s="129"/>
     </row>
     <row r="54" spans="2:12">
       <c r="B54" s="102"/>
       <c r="C54" s="102"/>
-      <c r="D54" s="129"/>
-      <c r="E54" s="129"/>
-      <c r="F54" s="129"/>
-      <c r="G54" s="129"/>
-      <c r="H54" s="129"/>
-      <c r="I54" s="129"/>
-      <c r="J54" s="129"/>
-      <c r="K54" s="129"/>
-      <c r="L54" s="129"/>
     </row>
     <row r="55" spans="2:12" ht="21">
-      <c r="B55" s="106" t="s">
+      <c r="B55" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="106"/>
-      <c r="D55" s="106"/>
-      <c r="E55" s="106"/>
-      <c r="F55" s="106"/>
-      <c r="G55" s="106"/>
-      <c r="H55" s="106"/>
-      <c r="I55" s="106"/>
-      <c r="J55" s="106"/>
-      <c r="K55" s="106"/>
-      <c r="L55" s="106"/>
+      <c r="C55" s="101"/>
+      <c r="D55" s="101"/>
+      <c r="E55" s="101"/>
+      <c r="F55" s="101"/>
+      <c r="G55" s="101"/>
+      <c r="H55" s="101"/>
+      <c r="I55" s="101"/>
+      <c r="J55" s="101"/>
+      <c r="K55" s="101"/>
+      <c r="L55" s="101"/>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="86"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="86"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="86"/>
-      <c r="H56" s="86"/>
-      <c r="I56" s="86"/>
-      <c r="J56" s="86"/>
-      <c r="K56" s="86"/>
-      <c r="L56" s="86"/>
+      <c r="B56" s="99"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="99"/>
+      <c r="G56" s="99"/>
+      <c r="H56" s="99"/>
+      <c r="I56" s="99"/>
+      <c r="J56" s="99"/>
+      <c r="K56" s="99"/>
+      <c r="L56" s="99"/>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="100" t="s">
+      <c r="B59" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="100"/>
-      <c r="D59" s="100"/>
-      <c r="E59" s="100"/>
-      <c r="F59" s="100"/>
-      <c r="G59" s="100"/>
-      <c r="H59" s="100"/>
-      <c r="I59" s="100"/>
-      <c r="J59" s="100"/>
-      <c r="K59" s="100"/>
-      <c r="L59" s="100"/>
+      <c r="C59" s="90"/>
+      <c r="D59" s="90"/>
+      <c r="E59" s="90"/>
+      <c r="F59" s="90"/>
+      <c r="G59" s="90"/>
+      <c r="H59" s="90"/>
+      <c r="I59" s="90"/>
+      <c r="J59" s="90"/>
+      <c r="K59" s="90"/>
+      <c r="L59" s="90"/>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="100" t="s">
+      <c r="B60" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="100"/>
-      <c r="D60" s="100"/>
-      <c r="E60" s="100"/>
-      <c r="F60" s="100"/>
-      <c r="G60" s="100"/>
-      <c r="H60" s="100"/>
-      <c r="I60" s="100"/>
-      <c r="J60" s="100"/>
-      <c r="K60" s="100"/>
-      <c r="L60" s="100"/>
+      <c r="C60" s="90"/>
+      <c r="D60" s="90"/>
+      <c r="E60" s="90"/>
+      <c r="F60" s="90"/>
+      <c r="G60" s="90"/>
+      <c r="H60" s="90"/>
+      <c r="I60" s="90"/>
+      <c r="J60" s="90"/>
+      <c r="K60" s="90"/>
+      <c r="L60" s="90"/>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="99" t="s">
+      <c r="B61" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="99"/>
-      <c r="D61" s="99"/>
-      <c r="E61" s="99"/>
-      <c r="F61" s="99"/>
-      <c r="G61" s="99"/>
-      <c r="H61" s="99"/>
-      <c r="I61" s="99"/>
-      <c r="J61" s="99"/>
-      <c r="K61" s="99"/>
-      <c r="L61" s="99"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="91"/>
+      <c r="E61" s="91"/>
+      <c r="F61" s="91"/>
+      <c r="G61" s="91"/>
+      <c r="H61" s="91"/>
+      <c r="I61" s="91"/>
+      <c r="J61" s="91"/>
+      <c r="K61" s="91"/>
+      <c r="L61" s="91"/>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="100" t="s">
+      <c r="B62" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="100"/>
-      <c r="D62" s="100"/>
-      <c r="E62" s="100"/>
-      <c r="F62" s="100"/>
-      <c r="G62" s="100"/>
-      <c r="H62" s="100"/>
-      <c r="I62" s="100"/>
-      <c r="J62" s="100"/>
-      <c r="K62" s="100"/>
-      <c r="L62" s="100"/>
+      <c r="C62" s="90"/>
+      <c r="D62" s="90"/>
+      <c r="E62" s="90"/>
+      <c r="F62" s="90"/>
+      <c r="G62" s="90"/>
+      <c r="H62" s="90"/>
+      <c r="I62" s="90"/>
+      <c r="J62" s="90"/>
+      <c r="K62" s="90"/>
+      <c r="L62" s="90"/>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="100" t="s">
+      <c r="B63" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="100"/>
-      <c r="D63" s="100"/>
-      <c r="E63" s="100"/>
-      <c r="F63" s="100"/>
-      <c r="G63" s="100"/>
-      <c r="H63" s="100"/>
-      <c r="I63" s="100"/>
-      <c r="J63" s="100"/>
-      <c r="K63" s="100"/>
-      <c r="L63" s="100"/>
+      <c r="C63" s="90"/>
+      <c r="D63" s="90"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="90"/>
+      <c r="H63" s="90"/>
+      <c r="I63" s="90"/>
+      <c r="J63" s="90"/>
+      <c r="K63" s="90"/>
+      <c r="L63" s="90"/>
     </row>
     <row r="64" spans="2:12">
-      <c r="B64" s="99" t="s">
+      <c r="B64" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="99"/>
-      <c r="D64" s="99"/>
-      <c r="E64" s="99"/>
-      <c r="F64" s="99"/>
-      <c r="G64" s="99"/>
-      <c r="H64" s="99"/>
-      <c r="I64" s="99"/>
-      <c r="J64" s="99"/>
-      <c r="K64" s="99"/>
-      <c r="L64" s="99"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="91"/>
+      <c r="E64" s="91"/>
+      <c r="F64" s="91"/>
+      <c r="G64" s="91"/>
+      <c r="H64" s="91"/>
+      <c r="I64" s="91"/>
+      <c r="J64" s="91"/>
+      <c r="K64" s="91"/>
+      <c r="L64" s="91"/>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="100" t="s">
+      <c r="B65" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="C65" s="100"/>
-      <c r="D65" s="100"/>
-      <c r="E65" s="100"/>
-      <c r="F65" s="100"/>
-      <c r="G65" s="100"/>
-      <c r="H65" s="100"/>
-      <c r="I65" s="100"/>
-      <c r="J65" s="100"/>
-      <c r="K65" s="100"/>
-      <c r="L65" s="100"/>
+      <c r="C65" s="90"/>
+      <c r="D65" s="90"/>
+      <c r="E65" s="90"/>
+      <c r="F65" s="90"/>
+      <c r="G65" s="90"/>
+      <c r="H65" s="90"/>
+      <c r="I65" s="90"/>
+      <c r="J65" s="90"/>
+      <c r="K65" s="90"/>
+      <c r="L65" s="90"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="100" t="s">
+      <c r="B66" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="100"/>
-      <c r="D66" s="100"/>
-      <c r="E66" s="100"/>
-      <c r="F66" s="100"/>
-      <c r="G66" s="100"/>
-      <c r="H66" s="100"/>
-      <c r="I66" s="100"/>
-      <c r="J66" s="100"/>
-      <c r="K66" s="100"/>
-      <c r="L66" s="100"/>
+      <c r="C66" s="90"/>
+      <c r="D66" s="90"/>
+      <c r="E66" s="90"/>
+      <c r="F66" s="90"/>
+      <c r="G66" s="90"/>
+      <c r="H66" s="90"/>
+      <c r="I66" s="90"/>
+      <c r="J66" s="90"/>
+      <c r="K66" s="90"/>
+      <c r="L66" s="90"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="100" t="s">
+      <c r="B67" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="100"/>
-      <c r="D67" s="100"/>
-      <c r="E67" s="100"/>
-      <c r="F67" s="100"/>
-      <c r="G67" s="100"/>
-      <c r="H67" s="100"/>
-      <c r="I67" s="100"/>
-      <c r="J67" s="100"/>
-      <c r="K67" s="100"/>
-      <c r="L67" s="100"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="90"/>
+      <c r="E67" s="90"/>
+      <c r="F67" s="90"/>
+      <c r="G67" s="90"/>
+      <c r="H67" s="90"/>
+      <c r="I67" s="90"/>
+      <c r="J67" s="90"/>
+      <c r="K67" s="90"/>
+      <c r="L67" s="90"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="100" t="s">
+      <c r="B68" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="100"/>
-      <c r="D68" s="100"/>
-      <c r="E68" s="100"/>
-      <c r="F68" s="100"/>
-      <c r="G68" s="100"/>
-      <c r="H68" s="100"/>
-      <c r="I68" s="100"/>
-      <c r="J68" s="100"/>
-      <c r="K68" s="100"/>
-      <c r="L68" s="100"/>
+      <c r="C68" s="90"/>
+      <c r="D68" s="90"/>
+      <c r="E68" s="90"/>
+      <c r="F68" s="90"/>
+      <c r="G68" s="90"/>
+      <c r="H68" s="90"/>
+      <c r="I68" s="90"/>
+      <c r="J68" s="90"/>
+      <c r="K68" s="90"/>
+      <c r="L68" s="90"/>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="100" t="s">
+      <c r="B69" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="100"/>
-      <c r="D69" s="100"/>
-      <c r="E69" s="100"/>
-      <c r="F69" s="100"/>
-      <c r="G69" s="100"/>
-      <c r="H69" s="100"/>
-      <c r="I69" s="100"/>
-      <c r="J69" s="100"/>
-      <c r="K69" s="100"/>
-      <c r="L69" s="100"/>
+      <c r="C69" s="90"/>
+      <c r="D69" s="90"/>
+      <c r="E69" s="90"/>
+      <c r="F69" s="90"/>
+      <c r="G69" s="90"/>
+      <c r="H69" s="90"/>
+      <c r="I69" s="90"/>
+      <c r="J69" s="90"/>
+      <c r="K69" s="90"/>
+      <c r="L69" s="90"/>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="100" t="s">
+      <c r="B70" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="C70" s="100"/>
-      <c r="D70" s="100"/>
-      <c r="E70" s="100"/>
-      <c r="F70" s="100"/>
-      <c r="G70" s="100"/>
-      <c r="H70" s="100"/>
-      <c r="I70" s="100"/>
-      <c r="J70" s="100"/>
-      <c r="K70" s="100"/>
-      <c r="L70" s="100"/>
+      <c r="C70" s="90"/>
+      <c r="D70" s="90"/>
+      <c r="E70" s="90"/>
+      <c r="F70" s="90"/>
+      <c r="G70" s="90"/>
+      <c r="H70" s="90"/>
+      <c r="I70" s="90"/>
+      <c r="J70" s="90"/>
+      <c r="K70" s="90"/>
+      <c r="L70" s="90"/>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="100" t="s">
+      <c r="B71" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="C71" s="100"/>
-      <c r="D71" s="100"/>
-      <c r="E71" s="100"/>
-      <c r="F71" s="100"/>
-      <c r="G71" s="100"/>
-      <c r="H71" s="100"/>
-      <c r="I71" s="100"/>
-      <c r="J71" s="100"/>
-      <c r="K71" s="100"/>
-      <c r="L71" s="100"/>
+      <c r="C71" s="90"/>
+      <c r="D71" s="90"/>
+      <c r="E71" s="90"/>
+      <c r="F71" s="90"/>
+      <c r="G71" s="90"/>
+      <c r="H71" s="90"/>
+      <c r="I71" s="90"/>
+      <c r="J71" s="90"/>
+      <c r="K71" s="90"/>
+      <c r="L71" s="90"/>
     </row>
     <row r="72" spans="2:12">
-      <c r="B72" s="100" t="s">
+      <c r="B72" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="C72" s="100"/>
-      <c r="D72" s="100"/>
-      <c r="E72" s="100"/>
-      <c r="F72" s="100"/>
-      <c r="G72" s="100"/>
-      <c r="H72" s="100"/>
-      <c r="I72" s="100"/>
-      <c r="J72" s="100"/>
-      <c r="K72" s="100"/>
-      <c r="L72" s="100"/>
+      <c r="C72" s="90"/>
+      <c r="D72" s="90"/>
+      <c r="E72" s="90"/>
+      <c r="F72" s="90"/>
+      <c r="G72" s="90"/>
+      <c r="H72" s="90"/>
+      <c r="I72" s="90"/>
+      <c r="J72" s="90"/>
+      <c r="K72" s="90"/>
+      <c r="L72" s="90"/>
     </row>
     <row r="73" spans="2:12">
-      <c r="B73" s="86"/>
-      <c r="C73" s="86"/>
-      <c r="D73" s="86"/>
-      <c r="E73" s="86"/>
-      <c r="F73" s="86"/>
-      <c r="G73" s="86"/>
-      <c r="H73" s="86"/>
-      <c r="I73" s="86"/>
-      <c r="J73" s="86"/>
-      <c r="K73" s="86"/>
-      <c r="L73" s="86"/>
+      <c r="B73" s="99"/>
+      <c r="C73" s="99"/>
+      <c r="D73" s="99"/>
+      <c r="E73" s="99"/>
+      <c r="F73" s="99"/>
+      <c r="G73" s="99"/>
+      <c r="H73" s="99"/>
+      <c r="I73" s="99"/>
+      <c r="J73" s="99"/>
+      <c r="K73" s="99"/>
+      <c r="L73" s="99"/>
     </row>
     <row r="76" spans="2:12">
-      <c r="B76" s="100" t="s">
+      <c r="B76" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="C76" s="100"/>
-      <c r="D76" s="100"/>
-      <c r="E76" s="100"/>
-      <c r="F76" s="100"/>
-      <c r="G76" s="100"/>
-      <c r="H76" s="100"/>
-      <c r="I76" s="100"/>
-      <c r="J76" s="100"/>
-      <c r="K76" s="100"/>
-      <c r="L76" s="100"/>
+      <c r="C76" s="90"/>
+      <c r="D76" s="90"/>
+      <c r="E76" s="90"/>
+      <c r="F76" s="90"/>
+      <c r="G76" s="90"/>
+      <c r="H76" s="90"/>
+      <c r="I76" s="90"/>
+      <c r="J76" s="90"/>
+      <c r="K76" s="90"/>
+      <c r="L76" s="90"/>
     </row>
     <row r="77" spans="2:12">
-      <c r="B77" s="100" t="s">
+      <c r="B77" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="C77" s="100"/>
-      <c r="D77" s="100"/>
-      <c r="E77" s="100"/>
-      <c r="F77" s="100"/>
-      <c r="G77" s="100"/>
-      <c r="H77" s="100"/>
-      <c r="I77" s="100"/>
-      <c r="J77" s="100"/>
-      <c r="K77" s="100"/>
-      <c r="L77" s="100"/>
+      <c r="C77" s="90"/>
+      <c r="D77" s="90"/>
+      <c r="E77" s="90"/>
+      <c r="F77" s="90"/>
+      <c r="G77" s="90"/>
+      <c r="H77" s="90"/>
+      <c r="I77" s="90"/>
+      <c r="J77" s="90"/>
+      <c r="K77" s="90"/>
+      <c r="L77" s="90"/>
     </row>
     <row r="78" spans="2:12">
-      <c r="B78" s="100" t="s">
+      <c r="B78" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="C78" s="100"/>
-      <c r="D78" s="100"/>
-      <c r="E78" s="100"/>
-      <c r="F78" s="100"/>
-      <c r="G78" s="100"/>
-      <c r="H78" s="100"/>
-      <c r="I78" s="100"/>
-      <c r="J78" s="100"/>
-      <c r="K78" s="100"/>
-      <c r="L78" s="100"/>
+      <c r="C78" s="90"/>
+      <c r="D78" s="90"/>
+      <c r="E78" s="90"/>
+      <c r="F78" s="90"/>
+      <c r="G78" s="90"/>
+      <c r="H78" s="90"/>
+      <c r="I78" s="90"/>
+      <c r="J78" s="90"/>
+      <c r="K78" s="90"/>
+      <c r="L78" s="90"/>
     </row>
     <row r="79" spans="2:12">
-      <c r="B79" s="95" t="s">
+      <c r="B79" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="C79" s="95"/>
-      <c r="D79" s="95"/>
-      <c r="E79" s="95"/>
-      <c r="F79" s="95"/>
-      <c r="G79" s="95"/>
-      <c r="H79" s="95"/>
-      <c r="I79" s="95"/>
-      <c r="J79" s="95"/>
-      <c r="K79" s="95"/>
-      <c r="L79" s="95"/>
+      <c r="C79" s="100"/>
+      <c r="D79" s="100"/>
+      <c r="E79" s="100"/>
+      <c r="F79" s="100"/>
+      <c r="G79" s="100"/>
+      <c r="H79" s="100"/>
+      <c r="I79" s="100"/>
+      <c r="J79" s="100"/>
+      <c r="K79" s="100"/>
+      <c r="L79" s="100"/>
     </row>
     <row r="80" spans="2:12">
-      <c r="B80" s="100" t="s">
+      <c r="B80" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="C80" s="100"/>
-      <c r="D80" s="100"/>
-      <c r="E80" s="100"/>
-      <c r="F80" s="100"/>
-      <c r="G80" s="100"/>
-      <c r="H80" s="100"/>
-      <c r="I80" s="100"/>
-      <c r="J80" s="100"/>
-      <c r="K80" s="100"/>
-      <c r="L80" s="100"/>
+      <c r="C80" s="90"/>
+      <c r="D80" s="90"/>
+      <c r="E80" s="90"/>
+      <c r="F80" s="90"/>
+      <c r="G80" s="90"/>
+      <c r="H80" s="90"/>
+      <c r="I80" s="90"/>
+      <c r="J80" s="90"/>
+      <c r="K80" s="90"/>
+      <c r="L80" s="90"/>
     </row>
     <row r="81" spans="1:12">
-      <c r="B81" s="95" t="s">
+      <c r="B81" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="C81" s="95"/>
-      <c r="D81" s="95"/>
-      <c r="E81" s="95"/>
-      <c r="F81" s="95"/>
-      <c r="G81" s="95"/>
-      <c r="H81" s="95"/>
-      <c r="I81" s="95"/>
-      <c r="J81" s="95"/>
-      <c r="K81" s="95"/>
-      <c r="L81" s="95"/>
+      <c r="C81" s="100"/>
+      <c r="D81" s="100"/>
+      <c r="E81" s="100"/>
+      <c r="F81" s="100"/>
+      <c r="G81" s="100"/>
+      <c r="H81" s="100"/>
+      <c r="I81" s="100"/>
+      <c r="J81" s="100"/>
+      <c r="K81" s="100"/>
+      <c r="L81" s="100"/>
     </row>
     <row r="82" spans="1:12">
-      <c r="B82" s="100" t="s">
+      <c r="B82" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="C82" s="100"/>
-      <c r="D82" s="100"/>
-      <c r="E82" s="100"/>
-      <c r="F82" s="100"/>
-      <c r="G82" s="100"/>
-      <c r="H82" s="100"/>
-      <c r="I82" s="100"/>
-      <c r="J82" s="100"/>
-      <c r="K82" s="100"/>
-      <c r="L82" s="100"/>
+      <c r="C82" s="90"/>
+      <c r="D82" s="90"/>
+      <c r="E82" s="90"/>
+      <c r="F82" s="90"/>
+      <c r="G82" s="90"/>
+      <c r="H82" s="90"/>
+      <c r="I82" s="90"/>
+      <c r="J82" s="90"/>
+      <c r="K82" s="90"/>
+      <c r="L82" s="90"/>
     </row>
     <row r="83" spans="1:12">
-      <c r="B83" s="100" t="s">
+      <c r="B83" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="C83" s="100"/>
-      <c r="D83" s="100"/>
-      <c r="E83" s="100"/>
-      <c r="F83" s="100"/>
-      <c r="G83" s="100"/>
-      <c r="H83" s="100"/>
-      <c r="I83" s="100"/>
-      <c r="J83" s="100"/>
-      <c r="K83" s="100"/>
-      <c r="L83" s="100"/>
+      <c r="C83" s="90"/>
+      <c r="D83" s="90"/>
+      <c r="E83" s="90"/>
+      <c r="F83" s="90"/>
+      <c r="G83" s="90"/>
+      <c r="H83" s="90"/>
+      <c r="I83" s="90"/>
+      <c r="J83" s="90"/>
+      <c r="K83" s="90"/>
+      <c r="L83" s="90"/>
     </row>
     <row r="84" spans="1:12">
-      <c r="B84" s="100" t="s">
+      <c r="B84" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="C84" s="100"/>
-      <c r="D84" s="100"/>
-      <c r="E84" s="100"/>
-      <c r="F84" s="100"/>
-      <c r="G84" s="100"/>
-      <c r="H84" s="100"/>
-      <c r="I84" s="100"/>
-      <c r="J84" s="100"/>
-      <c r="K84" s="100"/>
-      <c r="L84" s="100"/>
+      <c r="C84" s="90"/>
+      <c r="D84" s="90"/>
+      <c r="E84" s="90"/>
+      <c r="F84" s="90"/>
+      <c r="G84" s="90"/>
+      <c r="H84" s="90"/>
+      <c r="I84" s="90"/>
+      <c r="J84" s="90"/>
+      <c r="K84" s="90"/>
+      <c r="L84" s="90"/>
     </row>
     <row r="85" spans="1:12">
-      <c r="B85" s="100" t="s">
+      <c r="B85" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="C85" s="100"/>
-      <c r="D85" s="100"/>
-      <c r="E85" s="100"/>
-      <c r="F85" s="100"/>
-      <c r="G85" s="100"/>
-      <c r="H85" s="100"/>
-      <c r="I85" s="100"/>
-      <c r="J85" s="100"/>
-      <c r="K85" s="100"/>
-      <c r="L85" s="100"/>
+      <c r="C85" s="90"/>
+      <c r="D85" s="90"/>
+      <c r="E85" s="90"/>
+      <c r="F85" s="90"/>
+      <c r="G85" s="90"/>
+      <c r="H85" s="90"/>
+      <c r="I85" s="90"/>
+      <c r="J85" s="90"/>
+      <c r="K85" s="90"/>
+      <c r="L85" s="90"/>
     </row>
     <row r="86" spans="1:12">
-      <c r="B86" s="100" t="s">
+      <c r="B86" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="C86" s="100"/>
-      <c r="D86" s="100"/>
-      <c r="E86" s="100"/>
-      <c r="F86" s="100"/>
-      <c r="G86" s="100"/>
-      <c r="H86" s="100"/>
-      <c r="I86" s="100"/>
-      <c r="J86" s="100"/>
-      <c r="K86" s="100"/>
-      <c r="L86" s="100"/>
+      <c r="C86" s="90"/>
+      <c r="D86" s="90"/>
+      <c r="E86" s="90"/>
+      <c r="F86" s="90"/>
+      <c r="G86" s="90"/>
+      <c r="H86" s="90"/>
+      <c r="I86" s="90"/>
+      <c r="J86" s="90"/>
+      <c r="K86" s="90"/>
+      <c r="L86" s="90"/>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="85"/>
-      <c r="B90" s="101" t="s">
+      <c r="B90" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="C90" s="101"/>
-      <c r="D90" s="101"/>
-      <c r="E90" s="101"/>
-      <c r="F90" s="101"/>
-      <c r="G90" s="101"/>
-      <c r="H90" s="101"/>
-      <c r="I90" s="101"/>
-      <c r="J90" s="101"/>
-      <c r="K90" s="101"/>
-      <c r="L90" s="101"/>
+      <c r="C90" s="89"/>
+      <c r="D90" s="89"/>
+      <c r="E90" s="89"/>
+      <c r="F90" s="89"/>
+      <c r="G90" s="89"/>
+      <c r="H90" s="89"/>
+      <c r="I90" s="89"/>
+      <c r="J90" s="89"/>
+      <c r="K90" s="89"/>
+      <c r="L90" s="89"/>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="85"/>
-      <c r="B91" s="100" t="s">
+      <c r="B91" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="C91" s="100"/>
-      <c r="D91" s="100"/>
-      <c r="E91" s="100"/>
-      <c r="F91" s="100"/>
-      <c r="G91" s="100"/>
-      <c r="H91" s="100"/>
-      <c r="I91" s="100"/>
-      <c r="J91" s="100"/>
-      <c r="K91" s="100"/>
-      <c r="L91" s="100"/>
+      <c r="C91" s="90"/>
+      <c r="D91" s="90"/>
+      <c r="E91" s="90"/>
+      <c r="F91" s="90"/>
+      <c r="G91" s="90"/>
+      <c r="H91" s="90"/>
+      <c r="I91" s="90"/>
+      <c r="J91" s="90"/>
+      <c r="K91" s="90"/>
+      <c r="L91" s="90"/>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="85"/>
-      <c r="B92" s="101" t="s">
+      <c r="B92" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="C92" s="101"/>
-      <c r="D92" s="101"/>
-      <c r="E92" s="101"/>
-      <c r="F92" s="101"/>
-      <c r="G92" s="101"/>
-      <c r="H92" s="101"/>
-      <c r="I92" s="101"/>
-      <c r="J92" s="101"/>
-      <c r="K92" s="101"/>
-      <c r="L92" s="101"/>
-    </row>
-    <row r="93" spans="1:12">
-      <c r="B93" s="129"/>
-      <c r="C93" s="129"/>
-      <c r="D93" s="129"/>
-      <c r="E93" s="129"/>
-      <c r="F93" s="129"/>
-      <c r="G93" s="129"/>
-      <c r="H93" s="129"/>
-      <c r="I93" s="129"/>
-      <c r="J93" s="129"/>
-      <c r="K93" s="129"/>
-      <c r="L93" s="129"/>
+      <c r="C92" s="89"/>
+      <c r="D92" s="89"/>
+      <c r="E92" s="89"/>
+      <c r="F92" s="89"/>
+      <c r="G92" s="89"/>
+      <c r="H92" s="89"/>
+      <c r="I92" s="89"/>
+      <c r="J92" s="89"/>
+      <c r="K92" s="89"/>
+      <c r="L92" s="89"/>
     </row>
     <row r="94" spans="1:12">
-      <c r="B94" s="129"/>
       <c r="C94" s="102"/>
       <c r="D94" s="102"/>
       <c r="E94" s="102"/>
@@ -3811,12 +3759,8 @@
       <c r="G94" s="102"/>
       <c r="H94" s="102"/>
       <c r="I94" s="102"/>
-      <c r="J94" s="129"/>
-      <c r="K94" s="129"/>
-      <c r="L94" s="129"/>
     </row>
     <row r="95" spans="1:12">
-      <c r="B95" s="129"/>
       <c r="C95" s="102"/>
       <c r="D95" s="102"/>
       <c r="E95" s="102"/>
@@ -3824,12 +3768,8 @@
       <c r="G95" s="102"/>
       <c r="H95" s="102"/>
       <c r="I95" s="102"/>
-      <c r="J95" s="129"/>
-      <c r="K95" s="129"/>
-      <c r="L95" s="129"/>
     </row>
     <row r="96" spans="1:12">
-      <c r="B96" s="129"/>
       <c r="C96" s="102"/>
       <c r="D96" s="102"/>
       <c r="E96" s="102"/>
@@ -3837,12 +3777,8 @@
       <c r="G96" s="102"/>
       <c r="H96" s="102"/>
       <c r="I96" s="102"/>
-      <c r="J96" s="129"/>
-      <c r="K96" s="129"/>
-      <c r="L96" s="129"/>
-    </row>
-    <row r="97" spans="2:12">
-      <c r="B97" s="129"/>
+    </row>
+    <row r="97" spans="3:9">
       <c r="C97" s="102"/>
       <c r="D97" s="102"/>
       <c r="E97" s="102"/>
@@ -3850,12 +3786,8 @@
       <c r="G97" s="102"/>
       <c r="H97" s="102"/>
       <c r="I97" s="102"/>
-      <c r="J97" s="129"/>
-      <c r="K97" s="129"/>
-      <c r="L97" s="129"/>
-    </row>
-    <row r="98" spans="2:12">
-      <c r="B98" s="129"/>
+    </row>
+    <row r="98" spans="3:9">
       <c r="C98" s="102"/>
       <c r="D98" s="102"/>
       <c r="E98" s="102"/>
@@ -3863,12 +3795,8 @@
       <c r="G98" s="102"/>
       <c r="H98" s="102"/>
       <c r="I98" s="102"/>
-      <c r="J98" s="129"/>
-      <c r="K98" s="129"/>
-      <c r="L98" s="129"/>
-    </row>
-    <row r="99" spans="2:12">
-      <c r="B99" s="129"/>
+    </row>
+    <row r="99" spans="3:9">
       <c r="C99" s="102"/>
       <c r="D99" s="102"/>
       <c r="E99" s="102"/>
@@ -3876,12 +3804,8 @@
       <c r="G99" s="102"/>
       <c r="H99" s="102"/>
       <c r="I99" s="102"/>
-      <c r="J99" s="129"/>
-      <c r="K99" s="129"/>
-      <c r="L99" s="129"/>
-    </row>
-    <row r="100" spans="2:12">
-      <c r="B100" s="129"/>
+    </row>
+    <row r="100" spans="3:9">
       <c r="C100" s="102"/>
       <c r="D100" s="102"/>
       <c r="E100" s="102"/>
@@ -3889,12 +3813,8 @@
       <c r="G100" s="102"/>
       <c r="H100" s="102"/>
       <c r="I100" s="102"/>
-      <c r="J100" s="129"/>
-      <c r="K100" s="129"/>
-      <c r="L100" s="129"/>
-    </row>
-    <row r="101" spans="2:12" ht="15.6" customHeight="1">
-      <c r="B101" s="129"/>
+    </row>
+    <row r="101" spans="3:9" ht="15.6" customHeight="1">
       <c r="C101" s="102"/>
       <c r="D101" s="102"/>
       <c r="E101" s="102"/>
@@ -3902,12 +3822,8 @@
       <c r="G101" s="102"/>
       <c r="H101" s="102"/>
       <c r="I101" s="102"/>
-      <c r="J101" s="129"/>
-      <c r="K101" s="129"/>
-      <c r="L101" s="129"/>
-    </row>
-    <row r="102" spans="2:12" ht="15.6" customHeight="1">
-      <c r="B102" s="129"/>
+    </row>
+    <row r="102" spans="3:9" ht="15.6" customHeight="1">
       <c r="C102" s="102"/>
       <c r="D102" s="102"/>
       <c r="E102" s="102"/>
@@ -3915,12 +3831,8 @@
       <c r="G102" s="102"/>
       <c r="H102" s="102"/>
       <c r="I102" s="102"/>
-      <c r="J102" s="129"/>
-      <c r="K102" s="129"/>
-      <c r="L102" s="129"/>
-    </row>
-    <row r="103" spans="2:12">
-      <c r="B103" s="129"/>
+    </row>
+    <row r="103" spans="3:9">
       <c r="C103" s="102"/>
       <c r="D103" s="102"/>
       <c r="E103" s="102"/>
@@ -3928,205 +3840,8 @@
       <c r="G103" s="102"/>
       <c r="H103" s="102"/>
       <c r="I103" s="102"/>
-      <c r="J103" s="129"/>
-      <c r="K103" s="129"/>
-      <c r="L103" s="129"/>
-    </row>
-    <row r="104" spans="2:12">
-      <c r="B104" s="129"/>
-      <c r="C104" s="129"/>
-      <c r="D104" s="129"/>
-      <c r="E104" s="129"/>
-      <c r="F104" s="129"/>
-      <c r="G104" s="129"/>
-      <c r="H104" s="129"/>
-      <c r="I104" s="129"/>
-      <c r="J104" s="129"/>
-      <c r="K104" s="129"/>
-      <c r="L104" s="129"/>
-    </row>
-    <row r="105" spans="2:12">
-      <c r="B105" s="129"/>
-      <c r="C105" s="129"/>
-      <c r="D105" s="129"/>
-      <c r="E105" s="129"/>
-      <c r="F105" s="129"/>
-      <c r="G105" s="129"/>
-      <c r="H105" s="129"/>
-      <c r="I105" s="129"/>
-      <c r="J105" s="129"/>
-      <c r="K105" s="129"/>
-      <c r="L105" s="129"/>
-    </row>
-    <row r="106" spans="2:12">
-      <c r="B106" s="129"/>
-      <c r="C106" s="129"/>
-      <c r="D106" s="129"/>
-      <c r="E106" s="129"/>
-      <c r="F106" s="129"/>
-      <c r="G106" s="129"/>
-      <c r="H106" s="129"/>
-      <c r="I106" s="129"/>
-      <c r="J106" s="129"/>
-      <c r="K106" s="129"/>
-      <c r="L106" s="129"/>
-    </row>
-    <row r="107" spans="2:12">
-      <c r="B107" s="129"/>
-      <c r="C107" s="129"/>
-      <c r="D107" s="129"/>
-      <c r="E107" s="129"/>
-      <c r="F107" s="129"/>
-      <c r="G107" s="129"/>
-      <c r="H107" s="129"/>
-      <c r="I107" s="129"/>
-      <c r="J107" s="129"/>
-      <c r="K107" s="129"/>
-      <c r="L107" s="129"/>
-    </row>
-    <row r="108" spans="2:12">
-      <c r="B108" s="129"/>
-      <c r="C108" s="129"/>
-      <c r="D108" s="129"/>
-      <c r="E108" s="129"/>
-      <c r="F108" s="129"/>
-      <c r="G108" s="129"/>
-      <c r="H108" s="129"/>
-      <c r="I108" s="129"/>
-      <c r="J108" s="129"/>
-      <c r="K108" s="129"/>
-      <c r="L108" s="129"/>
-    </row>
-    <row r="109" spans="2:12" ht="15.6" customHeight="1">
-      <c r="B109" s="129"/>
-      <c r="C109" s="129"/>
-      <c r="D109" s="129"/>
-      <c r="E109" s="129"/>
-      <c r="F109" s="129"/>
-      <c r="G109" s="129"/>
-      <c r="H109" s="129"/>
-      <c r="I109" s="129"/>
-      <c r="J109" s="129"/>
-      <c r="K109" s="129"/>
-      <c r="L109" s="129"/>
-    </row>
-    <row r="110" spans="2:12">
-      <c r="B110" s="129"/>
-      <c r="C110" s="129"/>
-      <c r="D110" s="129"/>
-      <c r="E110" s="129"/>
-      <c r="F110" s="129"/>
-      <c r="G110" s="129"/>
-      <c r="H110" s="129"/>
-      <c r="I110" s="129"/>
-      <c r="J110" s="129"/>
-      <c r="K110" s="129"/>
-      <c r="L110" s="129"/>
-    </row>
-    <row r="111" spans="2:12">
-      <c r="B111" s="129"/>
-      <c r="C111" s="129"/>
-      <c r="D111" s="129"/>
-      <c r="E111" s="129"/>
-      <c r="F111" s="129"/>
-      <c r="G111" s="129"/>
-      <c r="H111" s="129"/>
-      <c r="I111" s="129"/>
-      <c r="J111" s="129"/>
-      <c r="K111" s="129"/>
-      <c r="L111" s="129"/>
-    </row>
-    <row r="112" spans="2:12">
-      <c r="B112" s="129"/>
-      <c r="C112" s="129"/>
-      <c r="D112" s="129"/>
-      <c r="E112" s="129"/>
-      <c r="F112" s="129"/>
-      <c r="G112" s="129"/>
-      <c r="H112" s="129"/>
-      <c r="I112" s="129"/>
-      <c r="J112" s="129"/>
-      <c r="K112" s="129"/>
-      <c r="L112" s="129"/>
-    </row>
-    <row r="113" spans="2:12">
-      <c r="B113" s="129"/>
-      <c r="C113" s="129"/>
-      <c r="D113" s="129"/>
-      <c r="E113" s="129"/>
-      <c r="F113" s="129"/>
-      <c r="G113" s="129"/>
-      <c r="H113" s="129"/>
-      <c r="I113" s="129"/>
-      <c r="J113" s="129"/>
-      <c r="K113" s="129"/>
-      <c r="L113" s="129"/>
-    </row>
-    <row r="114" spans="2:12">
-      <c r="B114" s="129"/>
-      <c r="C114" s="129"/>
-      <c r="D114" s="129"/>
-      <c r="E114" s="129"/>
-      <c r="F114" s="129"/>
-      <c r="G114" s="129"/>
-      <c r="H114" s="129"/>
-      <c r="I114" s="129"/>
-      <c r="J114" s="129"/>
-      <c r="K114" s="129"/>
-      <c r="L114" s="129"/>
-    </row>
-    <row r="115" spans="2:12">
-      <c r="B115" s="129"/>
-      <c r="C115" s="129"/>
-      <c r="D115" s="129"/>
-      <c r="E115" s="129"/>
-      <c r="F115" s="129"/>
-      <c r="G115" s="129"/>
-      <c r="H115" s="129"/>
-      <c r="I115" s="129"/>
-      <c r="J115" s="129"/>
-      <c r="K115" s="129"/>
-      <c r="L115" s="129"/>
-    </row>
-    <row r="116" spans="2:12">
-      <c r="B116" s="129"/>
-      <c r="C116" s="129"/>
-      <c r="D116" s="129"/>
-      <c r="E116" s="129"/>
-      <c r="F116" s="129"/>
-      <c r="G116" s="129"/>
-      <c r="H116" s="129"/>
-      <c r="I116" s="129"/>
-      <c r="J116" s="129"/>
-      <c r="K116" s="129"/>
-      <c r="L116" s="129"/>
-    </row>
-    <row r="117" spans="2:12">
-      <c r="B117" s="129"/>
-      <c r="C117" s="129"/>
-      <c r="D117" s="129"/>
-      <c r="E117" s="129"/>
-      <c r="F117" s="129"/>
-      <c r="G117" s="129"/>
-      <c r="H117" s="129"/>
-      <c r="I117" s="129"/>
-      <c r="J117" s="129"/>
-      <c r="K117" s="129"/>
-      <c r="L117" s="129"/>
-    </row>
-    <row r="118" spans="2:12">
-      <c r="B118" s="129"/>
-      <c r="C118" s="129"/>
-      <c r="D118" s="129"/>
-      <c r="E118" s="129"/>
-      <c r="F118" s="129"/>
-      <c r="G118" s="129"/>
-      <c r="H118" s="129"/>
-      <c r="I118" s="129"/>
-      <c r="J118" s="129"/>
-      <c r="K118" s="129"/>
-      <c r="L118" s="129"/>
-    </row>
+    </row>
+    <row r="109" spans="3:9" ht="15.6" customHeight="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="88">
@@ -4146,45 +3861,62 @@
     <mergeCell ref="B34:L34"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="J9:L9"/>
-    <mergeCell ref="K35:L35"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="B44:L44"/>
     <mergeCell ref="B45:L45"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K35:L35"/>
     <mergeCell ref="B46:L46"/>
     <mergeCell ref="B47:L47"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="K37:L37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="G37:H37"/>
     <mergeCell ref="B60:L60"/>
     <mergeCell ref="B61:L61"/>
     <mergeCell ref="B56:L56"/>
     <mergeCell ref="B55:L55"/>
     <mergeCell ref="B2:C6"/>
-    <mergeCell ref="B79:L79"/>
-    <mergeCell ref="B80:L80"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="J10:L10"/>
     <mergeCell ref="B86:L86"/>
     <mergeCell ref="B81:L81"/>
     <mergeCell ref="B82:L82"/>
     <mergeCell ref="B83:L83"/>
     <mergeCell ref="B84:L84"/>
     <mergeCell ref="B85:L85"/>
-    <mergeCell ref="B72:L72"/>
-    <mergeCell ref="B73:L73"/>
-    <mergeCell ref="B76:L76"/>
-    <mergeCell ref="B77:L77"/>
-    <mergeCell ref="B78:L78"/>
-    <mergeCell ref="B67:L67"/>
-    <mergeCell ref="B68:L68"/>
     <mergeCell ref="B25:I25"/>
     <mergeCell ref="B24:I24"/>
     <mergeCell ref="B91:L91"/>
     <mergeCell ref="B90:L90"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="B43:L43"/>
+    <mergeCell ref="B59:L59"/>
+    <mergeCell ref="B33:L33"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B72:L72"/>
+    <mergeCell ref="B73:L73"/>
     <mergeCell ref="B92:L92"/>
     <mergeCell ref="B69:L69"/>
     <mergeCell ref="B70:L70"/>
@@ -4194,30 +3926,13 @@
     <mergeCell ref="B64:L64"/>
     <mergeCell ref="B65:L65"/>
     <mergeCell ref="B66:L66"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="B43:L43"/>
-    <mergeCell ref="B59:L59"/>
-    <mergeCell ref="B33:L33"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B67:L67"/>
+    <mergeCell ref="B68:L68"/>
+    <mergeCell ref="B76:L76"/>
+    <mergeCell ref="B77:L77"/>
+    <mergeCell ref="B78:L78"/>
+    <mergeCell ref="B79:L79"/>
+    <mergeCell ref="B80:L80"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="VERIFICAR NÚMERO DE TELEFONO" error="Verifica que tenga 9 digitos sin espacio" sqref="J8:L8" xr:uid="{CC0405B2-A74A-4E8F-BF03-C34BEE695B67}">
@@ -4269,14 +3984,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:32">
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
     </row>
     <row r="6" spans="2:32" ht="15" customHeight="1">
       <c r="B6" s="70" t="s">
@@ -4326,14 +4041,14 @@
         <f>SUM(C8:E8)</f>
         <v>116</v>
       </c>
-      <c r="J8" s="125" t="s">
+      <c r="J8" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="K8" s="125"/>
-      <c r="M8" s="125" t="s">
+      <c r="K8" s="129"/>
+      <c r="M8" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="N8" s="125"/>
+      <c r="N8" s="129"/>
     </row>
     <row r="9" spans="2:32" ht="15" customHeight="1">
       <c r="B9" s="5" t="s">
@@ -4806,14 +4521,14 @@
       </c>
     </row>
     <row r="23" spans="1:33">
-      <c r="B23" s="126" t="s">
+      <c r="B23" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="126"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="130"/>
     </row>
     <row r="24" spans="1:33">
       <c r="J24" s="9" t="s">
@@ -5062,14 +4777,14 @@
       <c r="AF34"/>
     </row>
     <row r="35" spans="1:32">
-      <c r="B35" s="128" t="s">
+      <c r="B35" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="128"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="128"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="132"/>
+      <c r="G35" s="132"/>
     </row>
     <row r="37" spans="1:32">
       <c r="C37" s="21">

--- a/assets/downloads/Boleta_Template.xlsx
+++ b/assets/downloads/Boleta_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\probusinees-intranet\assets\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5416F6E-056E-46AF-9EE8-5E9B730B7D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9F3B29-6382-496B-A923-9DE9E8249F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="125">
   <si>
     <t>VALOR UNITARIO</t>
   </si>
@@ -578,6 +578,9 @@
   <si>
     <t>MEDIDA:</t>
   </si>
+  <si>
+    <t xml:space="preserve">         RUC: 20603287721</t>
+  </si>
 </sst>
 </file>
 
@@ -598,7 +601,7 @@
     <numFmt numFmtId="174" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="175" formatCode="_-[$$-80A]* #,##0.000_-;\-[$$-80A]* #,##0.000_-;_-[$$-80A]* &quot;-&quot;???_-;_-@_-"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -789,6 +792,14 @@
     <font>
       <b/>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1044,7 +1055,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1244,67 +1255,65 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1322,9 +1331,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1338,6 +1344,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="171" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1350,6 +1359,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1943,152 +1958,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>747934</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>49331</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>980456</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>10321</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Imagen 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:alphaModFix/>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1232843" y="9484276"/>
-          <a:ext cx="1230049" cy="1152481"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>390938</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>636091</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>119562</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3F637EC-442B-46AC-870C-C4D3EB12097D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:alphaModFix/>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="881268" y="251789"/>
-          <a:ext cx="1239066" cy="1166486"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>424642</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>83129</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>242342</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>22626</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96966518-B9F7-81FA-8E05-896AC346DC40}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1902922" y="17967269"/>
-          <a:ext cx="4153480" cy="3277057"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2358,96 +2227,104 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="0.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="0.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" style="1" customWidth="1"/>
     <col min="13" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1">
-      <c r="A1" s="99"/>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
+      <c r="A1" s="94"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
     </row>
     <row r="3" spans="1:12" ht="25.8">
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="E3" s="123" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="E3" s="133" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
     </row>
     <row r="4" spans="1:12" ht="25.8">
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="E4" s="122" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="E4" s="134" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
       <c r="K4" s="35"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="89"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
       <c r="D6" s="53"/>
       <c r="F6" s="53"/>
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="E7" s="114" t="s">
+      <c r="A7" s="92"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="E7" s="128" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="30" t="s">
@@ -2468,12 +2345,12 @@
       <c r="I8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="127">
+      <c r="J8" s="126">
         <f>+'2'!F7</f>
         <v>8</v>
       </c>
-      <c r="K8" s="127"/>
-      <c r="L8" s="127"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="30" t="s">
@@ -2488,19 +2365,19 @@
       </c>
       <c r="F9" s="116">
         <f ca="1">+TODAY()</f>
-        <v>45456</v>
+        <v>45457</v>
       </c>
       <c r="G9" s="117"/>
       <c r="H9" s="86"/>
       <c r="I9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="128">
+      <c r="J9" s="127">
         <f>+'2'!F8</f>
         <v>116</v>
       </c>
-      <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="30" t="s">
@@ -2513,7 +2390,7 @@
       <c r="E10" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="99" t="s">
+      <c r="F10" s="94" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="118"/>
@@ -2521,11 +2398,11 @@
       <c r="I10" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J10" s="105">
+      <c r="J10" s="111">
         <v>0</v>
       </c>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="30" t="s">
@@ -2538,44 +2415,44 @@
       <c r="E11" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="113"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="112"/>
       <c r="H11" s="86"/>
       <c r="I11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="112">
+      <c r="J11" s="104">
         <f>+'2'!F9</f>
         <v>1.1879999999999999</v>
       </c>
-      <c r="K11" s="112"/>
-      <c r="L11" s="112"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
       <c r="K13" s="32" t="s">
         <v>34</v>
       </c>
@@ -2584,17 +2461,17 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
       <c r="K14" s="37">
         <f>'2'!F13</f>
         <v>944.03</v>
@@ -2604,17 +2481,17 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="B15" s="104" t="s">
+      <c r="B15" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
       <c r="K15" s="38">
         <f>'2'!F16+'2'!F19</f>
         <v>299.47999999999996</v>
@@ -2624,17 +2501,17 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
       <c r="K16" s="37">
         <f>SUM(K14:K15)</f>
         <v>1243.51</v>
@@ -2691,16 +2568,16 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
       <c r="J20" s="47">
         <f>MAX('2'!C26:E26)</f>
         <v>0.04</v>
@@ -2714,16 +2591,16 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
       <c r="J21" s="47">
         <v>0.16</v>
       </c>
@@ -2736,16 +2613,16 @@
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="92" t="s">
+      <c r="B22" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
       <c r="J22" s="47">
         <v>0.02</v>
       </c>
@@ -2758,16 +2635,16 @@
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="97" t="s">
+      <c r="B23" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
       <c r="J23" s="75"/>
       <c r="K23" s="76">
         <f>SUM(K20:K22)</f>
@@ -2778,29 +2655,29 @@
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
       <c r="J24" s="2"/>
       <c r="K24" s="33"/>
       <c r="L24" s="31"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="109"/>
       <c r="J25" s="48" t="s">
         <v>76</v>
       </c>
@@ -2813,16 +2690,16 @@
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="97"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
       <c r="K26" s="37">
         <f>K23+K25</f>
         <v>316.1151070046609</v>
@@ -2832,27 +2709,27 @@
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
     </row>
     <row r="28" spans="2:12" ht="15.6">
-      <c r="B28" s="98" t="s">
+      <c r="B28" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
       <c r="K28" s="60" t="s">
         <v>34</v>
       </c>
@@ -2861,17 +2738,17 @@
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
       <c r="K29" s="37">
         <f>K14</f>
         <v>944.03</v>
@@ -2881,17 +2758,17 @@
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="91" t="s">
+      <c r="B30" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
       <c r="K30" s="37">
         <f>+'2'!K22</f>
         <v>415.79999999999995</v>
@@ -2901,17 +2778,17 @@
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="92" t="s">
+      <c r="B31" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
       <c r="K31" s="38">
         <f>K26</f>
         <v>316.1151070046609</v>
@@ -2921,17 +2798,17 @@
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="97" t="s">
+      <c r="B32" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="107"/>
       <c r="K32" s="37">
         <f>SUM(K29:K31)</f>
         <v>1675.9451070046607</v>
@@ -2941,79 +2818,79 @@
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="96"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="96"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="113"/>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="124" t="s">
+      <c r="B34" s="123" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="125"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="125"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="125"/>
-      <c r="J34" s="125"/>
-      <c r="K34" s="125"/>
-      <c r="L34" s="126"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="124"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="124"/>
+      <c r="H34" s="124"/>
+      <c r="I34" s="124"/>
+      <c r="J34" s="124"/>
+      <c r="K34" s="124"/>
+      <c r="L34" s="125"/>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="106" t="s">
+      <c r="C35" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="107"/>
-      <c r="E35" s="108"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="98"/>
       <c r="F35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="106" t="s">
+      <c r="G35" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="H35" s="108"/>
+      <c r="H35" s="98"/>
       <c r="I35" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J35" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="111" t="s">
+      <c r="K35" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="L35" s="111"/>
+      <c r="L35" s="110"/>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="46">
         <v>1</v>
       </c>
-      <c r="C36" s="106" t="str">
+      <c r="C36" s="96" t="str">
         <f>+'2'!$C$6</f>
         <v xml:space="preserve">Kids Car Seat Belt Pillow </v>
       </c>
-      <c r="D36" s="107"/>
-      <c r="E36" s="108"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="98"/>
       <c r="F36" s="7">
         <f>+'2'!$C$45</f>
         <v>100</v>
       </c>
-      <c r="G36" s="109">
+      <c r="G36" s="101">
         <f>+'2'!$C$10</f>
         <v>6.36</v>
       </c>
-      <c r="H36" s="110"/>
+      <c r="H36" s="102"/>
       <c r="I36" s="55">
         <f>+'2'!$C$46</f>
         <v>11.424505892807643</v>
@@ -3022,31 +2899,31 @@
         <f t="shared" ref="J36:J38" si="0">+F36*I36</f>
         <v>1142.4505892807642</v>
       </c>
-      <c r="K36" s="111">
+      <c r="K36" s="110">
         <f t="shared" ref="K36" si="1">I36*3.7</f>
         <v>42.270671803388282</v>
       </c>
-      <c r="L36" s="111"/>
+      <c r="L36" s="110"/>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="46">
         <v>2</v>
       </c>
-      <c r="C37" s="106" t="str">
+      <c r="C37" s="96" t="str">
         <f>+'2'!$D$6</f>
         <v>Car Headrest</v>
       </c>
-      <c r="D37" s="107"/>
-      <c r="E37" s="108"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="98"/>
       <c r="F37" s="7">
         <f>+'2'!$D$45</f>
         <v>1</v>
       </c>
-      <c r="G37" s="109">
+      <c r="G37" s="101">
         <f>+'2'!$D$10</f>
         <v>8.0299999999999994</v>
       </c>
-      <c r="H37" s="110"/>
+      <c r="H37" s="102"/>
       <c r="I37" s="55">
         <f>+'2'!$D$46</f>
         <v>13.907609574791055</v>
@@ -3055,31 +2932,31 @@
         <f t="shared" si="0"/>
         <v>13.907609574791055</v>
       </c>
-      <c r="K37" s="111">
+      <c r="K37" s="110">
         <f t="shared" ref="K37:K38" si="2">I37*3.7</f>
         <v>51.458155426726904</v>
       </c>
-      <c r="L37" s="111"/>
+      <c r="L37" s="110"/>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="46">
         <v>3</v>
       </c>
-      <c r="C38" s="106" t="str">
+      <c r="C38" s="96" t="str">
         <f>+'2'!$E$6</f>
         <v>Bluetooth sleep mask</v>
       </c>
-      <c r="D38" s="107"/>
-      <c r="E38" s="108"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="98"/>
       <c r="F38" s="7">
         <f>+'2'!$E$45</f>
         <v>50</v>
       </c>
-      <c r="G38" s="109">
+      <c r="G38" s="101">
         <f>+'2'!$E$10</f>
         <v>6</v>
       </c>
-      <c r="H38" s="110"/>
+      <c r="H38" s="102"/>
       <c r="I38" s="55">
         <f>+'2'!$E$46</f>
         <v>10.391738162982108</v>
@@ -3088,11 +2965,11 @@
         <f t="shared" si="0"/>
         <v>519.5869081491054</v>
       </c>
-      <c r="K38" s="93">
+      <c r="K38" s="99">
         <f t="shared" si="2"/>
         <v>38.449431203033804</v>
       </c>
-      <c r="L38" s="94"/>
+      <c r="L38" s="100"/>
     </row>
     <row r="39" spans="2:12" ht="15.6">
       <c r="B39" s="49" t="s">
@@ -3242,12 +3119,12 @@
       <c r="L48" s="29"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="102"/>
-      <c r="C49" s="102"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="92"/>
     </row>
     <row r="50" spans="2:12" ht="18" customHeight="1">
-      <c r="B50" s="102"/>
-      <c r="C50" s="102"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="92"/>
       <c r="D50" s="121" t="s">
         <v>121</v>
       </c>
@@ -3261,8 +3138,8 @@
       <c r="L50" s="121"/>
     </row>
     <row r="51" spans="2:12" ht="18" customHeight="1">
-      <c r="B51" s="102"/>
-      <c r="C51" s="102"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="92"/>
       <c r="D51" s="122" t="s">
         <v>122</v>
       </c>
@@ -3271,582 +3148,586 @@
       <c r="G51" s="122"/>
       <c r="H51" s="122"/>
       <c r="I51" s="122"/>
-      <c r="J51" s="102"/>
-      <c r="K51" s="102"/>
-      <c r="L51" s="102"/>
+      <c r="J51" s="92"/>
+      <c r="K51" s="92"/>
+      <c r="L51" s="92"/>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="102"/>
-      <c r="C52" s="102"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="92"/>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="102"/>
-      <c r="C53" s="102"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="92"/>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="102"/>
-      <c r="C54" s="102"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="92"/>
     </row>
     <row r="55" spans="2:12" ht="21">
-      <c r="B55" s="101" t="s">
+      <c r="B55" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="101"/>
-      <c r="D55" s="101"/>
-      <c r="E55" s="101"/>
-      <c r="F55" s="101"/>
-      <c r="G55" s="101"/>
-      <c r="H55" s="101"/>
-      <c r="I55" s="101"/>
-      <c r="J55" s="101"/>
-      <c r="K55" s="101"/>
-      <c r="L55" s="101"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="105"/>
+      <c r="E55" s="105"/>
+      <c r="F55" s="105"/>
+      <c r="G55" s="105"/>
+      <c r="H55" s="105"/>
+      <c r="I55" s="105"/>
+      <c r="J55" s="105"/>
+      <c r="K55" s="105"/>
+      <c r="L55" s="105"/>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="99"/>
-      <c r="C56" s="99"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="99"/>
-      <c r="F56" s="99"/>
-      <c r="G56" s="99"/>
-      <c r="H56" s="99"/>
-      <c r="I56" s="99"/>
-      <c r="J56" s="99"/>
-      <c r="K56" s="99"/>
-      <c r="L56" s="99"/>
+      <c r="B56" s="94"/>
+      <c r="C56" s="94"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="94"/>
+      <c r="F56" s="94"/>
+      <c r="G56" s="94"/>
+      <c r="H56" s="94"/>
+      <c r="I56" s="94"/>
+      <c r="J56" s="94"/>
+      <c r="K56" s="94"/>
+      <c r="L56" s="94"/>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="90" t="s">
+      <c r="B59" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="90"/>
-      <c r="D59" s="90"/>
-      <c r="E59" s="90"/>
-      <c r="F59" s="90"/>
-      <c r="G59" s="90"/>
-      <c r="H59" s="90"/>
-      <c r="I59" s="90"/>
-      <c r="J59" s="90"/>
-      <c r="K59" s="90"/>
-      <c r="L59" s="90"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="91"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="91"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="91"/>
+      <c r="I59" s="91"/>
+      <c r="J59" s="91"/>
+      <c r="K59" s="91"/>
+      <c r="L59" s="91"/>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="90" t="s">
+      <c r="B60" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="90"/>
-      <c r="D60" s="90"/>
-      <c r="E60" s="90"/>
-      <c r="F60" s="90"/>
-      <c r="G60" s="90"/>
-      <c r="H60" s="90"/>
-      <c r="I60" s="90"/>
-      <c r="J60" s="90"/>
-      <c r="K60" s="90"/>
-      <c r="L60" s="90"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="91"/>
+      <c r="E60" s="91"/>
+      <c r="F60" s="91"/>
+      <c r="G60" s="91"/>
+      <c r="H60" s="91"/>
+      <c r="I60" s="91"/>
+      <c r="J60" s="91"/>
+      <c r="K60" s="91"/>
+      <c r="L60" s="91"/>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="91" t="s">
+      <c r="B61" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="91"/>
-      <c r="D61" s="91"/>
-      <c r="E61" s="91"/>
-      <c r="F61" s="91"/>
-      <c r="G61" s="91"/>
-      <c r="H61" s="91"/>
-      <c r="I61" s="91"/>
-      <c r="J61" s="91"/>
-      <c r="K61" s="91"/>
-      <c r="L61" s="91"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="93"/>
+      <c r="E61" s="93"/>
+      <c r="F61" s="93"/>
+      <c r="G61" s="93"/>
+      <c r="H61" s="93"/>
+      <c r="I61" s="93"/>
+      <c r="J61" s="93"/>
+      <c r="K61" s="93"/>
+      <c r="L61" s="93"/>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="90" t="s">
+      <c r="B62" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="90"/>
-      <c r="D62" s="90"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="90"/>
-      <c r="H62" s="90"/>
-      <c r="I62" s="90"/>
-      <c r="J62" s="90"/>
-      <c r="K62" s="90"/>
-      <c r="L62" s="90"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="91"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="91"/>
+      <c r="G62" s="91"/>
+      <c r="H62" s="91"/>
+      <c r="I62" s="91"/>
+      <c r="J62" s="91"/>
+      <c r="K62" s="91"/>
+      <c r="L62" s="91"/>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="90" t="s">
+      <c r="B63" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="90"/>
-      <c r="D63" s="90"/>
-      <c r="E63" s="90"/>
-      <c r="F63" s="90"/>
-      <c r="G63" s="90"/>
-      <c r="H63" s="90"/>
-      <c r="I63" s="90"/>
-      <c r="J63" s="90"/>
-      <c r="K63" s="90"/>
-      <c r="L63" s="90"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="91"/>
+      <c r="E63" s="91"/>
+      <c r="F63" s="91"/>
+      <c r="G63" s="91"/>
+      <c r="H63" s="91"/>
+      <c r="I63" s="91"/>
+      <c r="J63" s="91"/>
+      <c r="K63" s="91"/>
+      <c r="L63" s="91"/>
     </row>
     <row r="64" spans="2:12">
-      <c r="B64" s="91" t="s">
+      <c r="B64" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="91"/>
-      <c r="D64" s="91"/>
-      <c r="E64" s="91"/>
-      <c r="F64" s="91"/>
-      <c r="G64" s="91"/>
-      <c r="H64" s="91"/>
-      <c r="I64" s="91"/>
-      <c r="J64" s="91"/>
-      <c r="K64" s="91"/>
-      <c r="L64" s="91"/>
+      <c r="C64" s="93"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="93"/>
+      <c r="F64" s="93"/>
+      <c r="G64" s="93"/>
+      <c r="H64" s="93"/>
+      <c r="I64" s="93"/>
+      <c r="J64" s="93"/>
+      <c r="K64" s="93"/>
+      <c r="L64" s="93"/>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="90" t="s">
+      <c r="B65" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C65" s="90"/>
-      <c r="D65" s="90"/>
-      <c r="E65" s="90"/>
-      <c r="F65" s="90"/>
-      <c r="G65" s="90"/>
-      <c r="H65" s="90"/>
-      <c r="I65" s="90"/>
-      <c r="J65" s="90"/>
-      <c r="K65" s="90"/>
-      <c r="L65" s="90"/>
+      <c r="C65" s="91"/>
+      <c r="D65" s="91"/>
+      <c r="E65" s="91"/>
+      <c r="F65" s="91"/>
+      <c r="G65" s="91"/>
+      <c r="H65" s="91"/>
+      <c r="I65" s="91"/>
+      <c r="J65" s="91"/>
+      <c r="K65" s="91"/>
+      <c r="L65" s="91"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="90" t="s">
+      <c r="B66" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="90"/>
-      <c r="D66" s="90"/>
-      <c r="E66" s="90"/>
-      <c r="F66" s="90"/>
-      <c r="G66" s="90"/>
-      <c r="H66" s="90"/>
-      <c r="I66" s="90"/>
-      <c r="J66" s="90"/>
-      <c r="K66" s="90"/>
-      <c r="L66" s="90"/>
+      <c r="C66" s="91"/>
+      <c r="D66" s="91"/>
+      <c r="E66" s="91"/>
+      <c r="F66" s="91"/>
+      <c r="G66" s="91"/>
+      <c r="H66" s="91"/>
+      <c r="I66" s="91"/>
+      <c r="J66" s="91"/>
+      <c r="K66" s="91"/>
+      <c r="L66" s="91"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="90" t="s">
+      <c r="B67" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="90"/>
-      <c r="D67" s="90"/>
-      <c r="E67" s="90"/>
-      <c r="F67" s="90"/>
-      <c r="G67" s="90"/>
-      <c r="H67" s="90"/>
-      <c r="I67" s="90"/>
-      <c r="J67" s="90"/>
-      <c r="K67" s="90"/>
-      <c r="L67" s="90"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="91"/>
+      <c r="E67" s="91"/>
+      <c r="F67" s="91"/>
+      <c r="G67" s="91"/>
+      <c r="H67" s="91"/>
+      <c r="I67" s="91"/>
+      <c r="J67" s="91"/>
+      <c r="K67" s="91"/>
+      <c r="L67" s="91"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="90" t="s">
+      <c r="B68" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="90"/>
-      <c r="D68" s="90"/>
-      <c r="E68" s="90"/>
-      <c r="F68" s="90"/>
-      <c r="G68" s="90"/>
-      <c r="H68" s="90"/>
-      <c r="I68" s="90"/>
-      <c r="J68" s="90"/>
-      <c r="K68" s="90"/>
-      <c r="L68" s="90"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="91"/>
+      <c r="E68" s="91"/>
+      <c r="F68" s="91"/>
+      <c r="G68" s="91"/>
+      <c r="H68" s="91"/>
+      <c r="I68" s="91"/>
+      <c r="J68" s="91"/>
+      <c r="K68" s="91"/>
+      <c r="L68" s="91"/>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="90" t="s">
+      <c r="B69" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="90"/>
-      <c r="D69" s="90"/>
-      <c r="E69" s="90"/>
-      <c r="F69" s="90"/>
-      <c r="G69" s="90"/>
-      <c r="H69" s="90"/>
-      <c r="I69" s="90"/>
-      <c r="J69" s="90"/>
-      <c r="K69" s="90"/>
-      <c r="L69" s="90"/>
+      <c r="C69" s="91"/>
+      <c r="D69" s="91"/>
+      <c r="E69" s="91"/>
+      <c r="F69" s="91"/>
+      <c r="G69" s="91"/>
+      <c r="H69" s="91"/>
+      <c r="I69" s="91"/>
+      <c r="J69" s="91"/>
+      <c r="K69" s="91"/>
+      <c r="L69" s="91"/>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="90" t="s">
+      <c r="B70" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="C70" s="90"/>
-      <c r="D70" s="90"/>
-      <c r="E70" s="90"/>
-      <c r="F70" s="90"/>
-      <c r="G70" s="90"/>
-      <c r="H70" s="90"/>
-      <c r="I70" s="90"/>
-      <c r="J70" s="90"/>
-      <c r="K70" s="90"/>
-      <c r="L70" s="90"/>
+      <c r="C70" s="91"/>
+      <c r="D70" s="91"/>
+      <c r="E70" s="91"/>
+      <c r="F70" s="91"/>
+      <c r="G70" s="91"/>
+      <c r="H70" s="91"/>
+      <c r="I70" s="91"/>
+      <c r="J70" s="91"/>
+      <c r="K70" s="91"/>
+      <c r="L70" s="91"/>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="90" t="s">
+      <c r="B71" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="C71" s="90"/>
-      <c r="D71" s="90"/>
-      <c r="E71" s="90"/>
-      <c r="F71" s="90"/>
-      <c r="G71" s="90"/>
-      <c r="H71" s="90"/>
-      <c r="I71" s="90"/>
-      <c r="J71" s="90"/>
-      <c r="K71" s="90"/>
-      <c r="L71" s="90"/>
+      <c r="C71" s="91"/>
+      <c r="D71" s="91"/>
+      <c r="E71" s="91"/>
+      <c r="F71" s="91"/>
+      <c r="G71" s="91"/>
+      <c r="H71" s="91"/>
+      <c r="I71" s="91"/>
+      <c r="J71" s="91"/>
+      <c r="K71" s="91"/>
+      <c r="L71" s="91"/>
     </row>
     <row r="72" spans="2:12">
-      <c r="B72" s="90" t="s">
+      <c r="B72" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="C72" s="90"/>
-      <c r="D72" s="90"/>
-      <c r="E72" s="90"/>
-      <c r="F72" s="90"/>
-      <c r="G72" s="90"/>
-      <c r="H72" s="90"/>
-      <c r="I72" s="90"/>
-      <c r="J72" s="90"/>
-      <c r="K72" s="90"/>
-      <c r="L72" s="90"/>
+      <c r="C72" s="91"/>
+      <c r="D72" s="91"/>
+      <c r="E72" s="91"/>
+      <c r="F72" s="91"/>
+      <c r="G72" s="91"/>
+      <c r="H72" s="91"/>
+      <c r="I72" s="91"/>
+      <c r="J72" s="91"/>
+      <c r="K72" s="91"/>
+      <c r="L72" s="91"/>
     </row>
     <row r="73" spans="2:12">
-      <c r="B73" s="99"/>
-      <c r="C73" s="99"/>
-      <c r="D73" s="99"/>
-      <c r="E73" s="99"/>
-      <c r="F73" s="99"/>
-      <c r="G73" s="99"/>
-      <c r="H73" s="99"/>
-      <c r="I73" s="99"/>
-      <c r="J73" s="99"/>
-      <c r="K73" s="99"/>
-      <c r="L73" s="99"/>
+      <c r="B73" s="94"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="94"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="94"/>
+      <c r="H73" s="94"/>
+      <c r="I73" s="94"/>
+      <c r="J73" s="94"/>
+      <c r="K73" s="94"/>
+      <c r="L73" s="94"/>
     </row>
     <row r="76" spans="2:12">
-      <c r="B76" s="90" t="s">
+      <c r="B76" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="C76" s="90"/>
-      <c r="D76" s="90"/>
-      <c r="E76" s="90"/>
-      <c r="F76" s="90"/>
-      <c r="G76" s="90"/>
-      <c r="H76" s="90"/>
-      <c r="I76" s="90"/>
-      <c r="J76" s="90"/>
-      <c r="K76" s="90"/>
-      <c r="L76" s="90"/>
+      <c r="C76" s="91"/>
+      <c r="D76" s="91"/>
+      <c r="E76" s="91"/>
+      <c r="F76" s="91"/>
+      <c r="G76" s="91"/>
+      <c r="H76" s="91"/>
+      <c r="I76" s="91"/>
+      <c r="J76" s="91"/>
+      <c r="K76" s="91"/>
+      <c r="L76" s="91"/>
     </row>
     <row r="77" spans="2:12">
-      <c r="B77" s="90" t="s">
+      <c r="B77" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="C77" s="90"/>
-      <c r="D77" s="90"/>
-      <c r="E77" s="90"/>
-      <c r="F77" s="90"/>
-      <c r="G77" s="90"/>
-      <c r="H77" s="90"/>
-      <c r="I77" s="90"/>
-      <c r="J77" s="90"/>
-      <c r="K77" s="90"/>
-      <c r="L77" s="90"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="91"/>
+      <c r="E77" s="91"/>
+      <c r="F77" s="91"/>
+      <c r="G77" s="91"/>
+      <c r="H77" s="91"/>
+      <c r="I77" s="91"/>
+      <c r="J77" s="91"/>
+      <c r="K77" s="91"/>
+      <c r="L77" s="91"/>
     </row>
     <row r="78" spans="2:12">
-      <c r="B78" s="90" t="s">
+      <c r="B78" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="C78" s="90"/>
-      <c r="D78" s="90"/>
-      <c r="E78" s="90"/>
-      <c r="F78" s="90"/>
-      <c r="G78" s="90"/>
-      <c r="H78" s="90"/>
-      <c r="I78" s="90"/>
-      <c r="J78" s="90"/>
-      <c r="K78" s="90"/>
-      <c r="L78" s="90"/>
+      <c r="C78" s="91"/>
+      <c r="D78" s="91"/>
+      <c r="E78" s="91"/>
+      <c r="F78" s="91"/>
+      <c r="G78" s="91"/>
+      <c r="H78" s="91"/>
+      <c r="I78" s="91"/>
+      <c r="J78" s="91"/>
+      <c r="K78" s="91"/>
+      <c r="L78" s="91"/>
     </row>
     <row r="79" spans="2:12">
-      <c r="B79" s="100" t="s">
+      <c r="B79" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="C79" s="100"/>
-      <c r="D79" s="100"/>
-      <c r="E79" s="100"/>
-      <c r="F79" s="100"/>
-      <c r="G79" s="100"/>
-      <c r="H79" s="100"/>
-      <c r="I79" s="100"/>
-      <c r="J79" s="100"/>
-      <c r="K79" s="100"/>
-      <c r="L79" s="100"/>
+      <c r="C79" s="90"/>
+      <c r="D79" s="90"/>
+      <c r="E79" s="90"/>
+      <c r="F79" s="90"/>
+      <c r="G79" s="90"/>
+      <c r="H79" s="90"/>
+      <c r="I79" s="90"/>
+      <c r="J79" s="90"/>
+      <c r="K79" s="90"/>
+      <c r="L79" s="90"/>
     </row>
     <row r="80" spans="2:12">
-      <c r="B80" s="90" t="s">
+      <c r="B80" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="C80" s="90"/>
-      <c r="D80" s="90"/>
-      <c r="E80" s="90"/>
-      <c r="F80" s="90"/>
-      <c r="G80" s="90"/>
-      <c r="H80" s="90"/>
-      <c r="I80" s="90"/>
-      <c r="J80" s="90"/>
-      <c r="K80" s="90"/>
-      <c r="L80" s="90"/>
+      <c r="C80" s="91"/>
+      <c r="D80" s="91"/>
+      <c r="E80" s="91"/>
+      <c r="F80" s="91"/>
+      <c r="G80" s="91"/>
+      <c r="H80" s="91"/>
+      <c r="I80" s="91"/>
+      <c r="J80" s="91"/>
+      <c r="K80" s="91"/>
+      <c r="L80" s="91"/>
     </row>
     <row r="81" spans="1:12">
-      <c r="B81" s="100" t="s">
+      <c r="B81" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="C81" s="100"/>
-      <c r="D81" s="100"/>
-      <c r="E81" s="100"/>
-      <c r="F81" s="100"/>
-      <c r="G81" s="100"/>
-      <c r="H81" s="100"/>
-      <c r="I81" s="100"/>
-      <c r="J81" s="100"/>
-      <c r="K81" s="100"/>
-      <c r="L81" s="100"/>
+      <c r="C81" s="90"/>
+      <c r="D81" s="90"/>
+      <c r="E81" s="90"/>
+      <c r="F81" s="90"/>
+      <c r="G81" s="90"/>
+      <c r="H81" s="90"/>
+      <c r="I81" s="90"/>
+      <c r="J81" s="90"/>
+      <c r="K81" s="90"/>
+      <c r="L81" s="90"/>
     </row>
     <row r="82" spans="1:12">
-      <c r="B82" s="90" t="s">
+      <c r="B82" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="C82" s="90"/>
-      <c r="D82" s="90"/>
-      <c r="E82" s="90"/>
-      <c r="F82" s="90"/>
-      <c r="G82" s="90"/>
-      <c r="H82" s="90"/>
-      <c r="I82" s="90"/>
-      <c r="J82" s="90"/>
-      <c r="K82" s="90"/>
-      <c r="L82" s="90"/>
+      <c r="C82" s="91"/>
+      <c r="D82" s="91"/>
+      <c r="E82" s="91"/>
+      <c r="F82" s="91"/>
+      <c r="G82" s="91"/>
+      <c r="H82" s="91"/>
+      <c r="I82" s="91"/>
+      <c r="J82" s="91"/>
+      <c r="K82" s="91"/>
+      <c r="L82" s="91"/>
     </row>
     <row r="83" spans="1:12">
-      <c r="B83" s="90" t="s">
+      <c r="B83" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="C83" s="90"/>
-      <c r="D83" s="90"/>
-      <c r="E83" s="90"/>
-      <c r="F83" s="90"/>
-      <c r="G83" s="90"/>
-      <c r="H83" s="90"/>
-      <c r="I83" s="90"/>
-      <c r="J83" s="90"/>
-      <c r="K83" s="90"/>
-      <c r="L83" s="90"/>
+      <c r="C83" s="91"/>
+      <c r="D83" s="91"/>
+      <c r="E83" s="91"/>
+      <c r="F83" s="91"/>
+      <c r="G83" s="91"/>
+      <c r="H83" s="91"/>
+      <c r="I83" s="91"/>
+      <c r="J83" s="91"/>
+      <c r="K83" s="91"/>
+      <c r="L83" s="91"/>
     </row>
     <row r="84" spans="1:12">
-      <c r="B84" s="90" t="s">
+      <c r="B84" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="C84" s="90"/>
-      <c r="D84" s="90"/>
-      <c r="E84" s="90"/>
-      <c r="F84" s="90"/>
-      <c r="G84" s="90"/>
-      <c r="H84" s="90"/>
-      <c r="I84" s="90"/>
-      <c r="J84" s="90"/>
-      <c r="K84" s="90"/>
-      <c r="L84" s="90"/>
+      <c r="C84" s="91"/>
+      <c r="D84" s="91"/>
+      <c r="E84" s="91"/>
+      <c r="F84" s="91"/>
+      <c r="G84" s="91"/>
+      <c r="H84" s="91"/>
+      <c r="I84" s="91"/>
+      <c r="J84" s="91"/>
+      <c r="K84" s="91"/>
+      <c r="L84" s="91"/>
     </row>
     <row r="85" spans="1:12">
-      <c r="B85" s="90" t="s">
+      <c r="B85" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="C85" s="90"/>
-      <c r="D85" s="90"/>
-      <c r="E85" s="90"/>
-      <c r="F85" s="90"/>
-      <c r="G85" s="90"/>
-      <c r="H85" s="90"/>
-      <c r="I85" s="90"/>
-      <c r="J85" s="90"/>
-      <c r="K85" s="90"/>
-      <c r="L85" s="90"/>
+      <c r="C85" s="91"/>
+      <c r="D85" s="91"/>
+      <c r="E85" s="91"/>
+      <c r="F85" s="91"/>
+      <c r="G85" s="91"/>
+      <c r="H85" s="91"/>
+      <c r="I85" s="91"/>
+      <c r="J85" s="91"/>
+      <c r="K85" s="91"/>
+      <c r="L85" s="91"/>
     </row>
     <row r="86" spans="1:12">
-      <c r="B86" s="90" t="s">
+      <c r="B86" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="C86" s="90"/>
-      <c r="D86" s="90"/>
-      <c r="E86" s="90"/>
-      <c r="F86" s="90"/>
-      <c r="G86" s="90"/>
-      <c r="H86" s="90"/>
-      <c r="I86" s="90"/>
-      <c r="J86" s="90"/>
-      <c r="K86" s="90"/>
-      <c r="L86" s="90"/>
+      <c r="C86" s="91"/>
+      <c r="D86" s="91"/>
+      <c r="E86" s="91"/>
+      <c r="F86" s="91"/>
+      <c r="G86" s="91"/>
+      <c r="H86" s="91"/>
+      <c r="I86" s="91"/>
+      <c r="J86" s="91"/>
+      <c r="K86" s="91"/>
+      <c r="L86" s="91"/>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="85"/>
-      <c r="B90" s="89" t="s">
+      <c r="B90" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="C90" s="89"/>
-      <c r="D90" s="89"/>
-      <c r="E90" s="89"/>
-      <c r="F90" s="89"/>
-      <c r="G90" s="89"/>
-      <c r="H90" s="89"/>
-      <c r="I90" s="89"/>
-      <c r="J90" s="89"/>
-      <c r="K90" s="89"/>
-      <c r="L90" s="89"/>
+      <c r="C90" s="103"/>
+      <c r="D90" s="103"/>
+      <c r="E90" s="103"/>
+      <c r="F90" s="103"/>
+      <c r="G90" s="103"/>
+      <c r="H90" s="103"/>
+      <c r="I90" s="103"/>
+      <c r="J90" s="103"/>
+      <c r="K90" s="103"/>
+      <c r="L90" s="103"/>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="85"/>
-      <c r="B91" s="90" t="s">
+      <c r="B91" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="C91" s="90"/>
-      <c r="D91" s="90"/>
-      <c r="E91" s="90"/>
-      <c r="F91" s="90"/>
-      <c r="G91" s="90"/>
-      <c r="H91" s="90"/>
-      <c r="I91" s="90"/>
-      <c r="J91" s="90"/>
-      <c r="K91" s="90"/>
-      <c r="L91" s="90"/>
+      <c r="C91" s="91"/>
+      <c r="D91" s="91"/>
+      <c r="E91" s="91"/>
+      <c r="F91" s="91"/>
+      <c r="G91" s="91"/>
+      <c r="H91" s="91"/>
+      <c r="I91" s="91"/>
+      <c r="J91" s="91"/>
+      <c r="K91" s="91"/>
+      <c r="L91" s="91"/>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="85"/>
-      <c r="B92" s="89" t="s">
+      <c r="B92" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="C92" s="89"/>
-      <c r="D92" s="89"/>
-      <c r="E92" s="89"/>
-      <c r="F92" s="89"/>
-      <c r="G92" s="89"/>
-      <c r="H92" s="89"/>
-      <c r="I92" s="89"/>
-      <c r="J92" s="89"/>
-      <c r="K92" s="89"/>
-      <c r="L92" s="89"/>
+      <c r="C92" s="103"/>
+      <c r="D92" s="103"/>
+      <c r="E92" s="103"/>
+      <c r="F92" s="103"/>
+      <c r="G92" s="103"/>
+      <c r="H92" s="103"/>
+      <c r="I92" s="103"/>
+      <c r="J92" s="103"/>
+      <c r="K92" s="103"/>
+      <c r="L92" s="103"/>
     </row>
     <row r="94" spans="1:12">
-      <c r="C94" s="102"/>
-      <c r="D94" s="102"/>
-      <c r="E94" s="102"/>
-      <c r="F94" s="102"/>
-      <c r="G94" s="102"/>
-      <c r="H94" s="102"/>
-      <c r="I94" s="102"/>
+      <c r="C94" s="92"/>
+      <c r="D94" s="92"/>
+      <c r="E94" s="92"/>
+      <c r="F94" s="92"/>
+      <c r="G94" s="92"/>
+      <c r="H94" s="92"/>
+      <c r="I94" s="92"/>
     </row>
     <row r="95" spans="1:12">
-      <c r="C95" s="102"/>
-      <c r="D95" s="102"/>
-      <c r="E95" s="102"/>
-      <c r="F95" s="102"/>
-      <c r="G95" s="102"/>
-      <c r="H95" s="102"/>
-      <c r="I95" s="102"/>
+      <c r="C95" s="92"/>
+      <c r="D95" s="92"/>
+      <c r="E95" s="92"/>
+      <c r="F95" s="92"/>
+      <c r="G95" s="92"/>
+      <c r="H95" s="92"/>
+      <c r="I95" s="92"/>
     </row>
     <row r="96" spans="1:12">
-      <c r="C96" s="102"/>
-      <c r="D96" s="102"/>
-      <c r="E96" s="102"/>
-      <c r="F96" s="102"/>
-      <c r="G96" s="102"/>
-      <c r="H96" s="102"/>
-      <c r="I96" s="102"/>
+      <c r="C96" s="92"/>
+      <c r="D96" s="92"/>
+      <c r="E96" s="92"/>
+      <c r="F96" s="92"/>
+      <c r="G96" s="92"/>
+      <c r="H96" s="92"/>
+      <c r="I96" s="92"/>
     </row>
     <row r="97" spans="3:9">
-      <c r="C97" s="102"/>
-      <c r="D97" s="102"/>
-      <c r="E97" s="102"/>
-      <c r="F97" s="102"/>
-      <c r="G97" s="102"/>
-      <c r="H97" s="102"/>
-      <c r="I97" s="102"/>
+      <c r="C97" s="92"/>
+      <c r="D97" s="92"/>
+      <c r="E97" s="92"/>
+      <c r="F97" s="92"/>
+      <c r="G97" s="92"/>
+      <c r="H97" s="92"/>
+      <c r="I97" s="92"/>
     </row>
     <row r="98" spans="3:9">
-      <c r="C98" s="102"/>
-      <c r="D98" s="102"/>
-      <c r="E98" s="102"/>
-      <c r="F98" s="102"/>
-      <c r="G98" s="102"/>
-      <c r="H98" s="102"/>
-      <c r="I98" s="102"/>
+      <c r="C98" s="92"/>
+      <c r="D98" s="92"/>
+      <c r="E98" s="92"/>
+      <c r="F98" s="92"/>
+      <c r="G98" s="92"/>
+      <c r="H98" s="92"/>
+      <c r="I98" s="92"/>
     </row>
     <row r="99" spans="3:9">
-      <c r="C99" s="102"/>
-      <c r="D99" s="102"/>
-      <c r="E99" s="102"/>
-      <c r="F99" s="102"/>
-      <c r="G99" s="102"/>
-      <c r="H99" s="102"/>
-      <c r="I99" s="102"/>
+      <c r="C99" s="92"/>
+      <c r="D99" s="92"/>
+      <c r="E99" s="92"/>
+      <c r="F99" s="92"/>
+      <c r="G99" s="92"/>
+      <c r="H99" s="92"/>
+      <c r="I99" s="92"/>
     </row>
     <row r="100" spans="3:9">
-      <c r="C100" s="102"/>
-      <c r="D100" s="102"/>
-      <c r="E100" s="102"/>
-      <c r="F100" s="102"/>
-      <c r="G100" s="102"/>
-      <c r="H100" s="102"/>
-      <c r="I100" s="102"/>
+      <c r="C100" s="92"/>
+      <c r="D100" s="92"/>
+      <c r="E100" s="92"/>
+      <c r="F100" s="92"/>
+      <c r="G100" s="92"/>
+      <c r="H100" s="92"/>
+      <c r="I100" s="92"/>
     </row>
     <row r="101" spans="3:9" ht="15.6" customHeight="1">
-      <c r="C101" s="102"/>
-      <c r="D101" s="102"/>
-      <c r="E101" s="102"/>
-      <c r="F101" s="102"/>
-      <c r="G101" s="102"/>
-      <c r="H101" s="102"/>
-      <c r="I101" s="102"/>
+      <c r="C101" s="92"/>
+      <c r="D101" s="92"/>
+      <c r="E101" s="92"/>
+      <c r="F101" s="92"/>
+      <c r="G101" s="92"/>
+      <c r="H101" s="92"/>
+      <c r="I101" s="92"/>
     </row>
     <row r="102" spans="3:9" ht="15.6" customHeight="1">
-      <c r="C102" s="102"/>
-      <c r="D102" s="102"/>
-      <c r="E102" s="102"/>
-      <c r="F102" s="102"/>
-      <c r="G102" s="102"/>
-      <c r="H102" s="102"/>
-      <c r="I102" s="102"/>
+      <c r="C102" s="92"/>
+      <c r="D102" s="92"/>
+      <c r="E102" s="92"/>
+      <c r="F102" s="92"/>
+      <c r="G102" s="92"/>
+      <c r="H102" s="92"/>
+      <c r="I102" s="92"/>
     </row>
     <row r="103" spans="3:9">
-      <c r="C103" s="102"/>
-      <c r="D103" s="102"/>
-      <c r="E103" s="102"/>
-      <c r="F103" s="102"/>
-      <c r="G103" s="102"/>
-      <c r="H103" s="102"/>
-      <c r="I103" s="102"/>
+      <c r="C103" s="92"/>
+      <c r="D103" s="92"/>
+      <c r="E103" s="92"/>
+      <c r="F103" s="92"/>
+      <c r="G103" s="92"/>
+      <c r="H103" s="92"/>
+      <c r="I103" s="92"/>
     </row>
     <row r="109" spans="3:9" ht="15.6" customHeight="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="88">
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="B49:C54"/>
+  <mergeCells count="90">
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="B2:C6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="C94:I103"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="E2:L2"/>
@@ -3860,30 +3741,30 @@
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="B34:L34"/>
     <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="B46:L46"/>
     <mergeCell ref="B44:L44"/>
     <mergeCell ref="B45:L45"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="K35:L35"/>
-    <mergeCell ref="B46:L46"/>
-    <mergeCell ref="B47:L47"/>
-    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B33:L33"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B26:I26"/>
     <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B12:L12"/>
     <mergeCell ref="K37:L37"/>
     <mergeCell ref="C37:E37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B60:L60"/>
-    <mergeCell ref="B61:L61"/>
-    <mergeCell ref="B56:L56"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="B49:C54"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="C35:E35"/>
     <mergeCell ref="B55:L55"/>
-    <mergeCell ref="B2:C6"/>
     <mergeCell ref="B13:J13"/>
     <mergeCell ref="B14:J14"/>
     <mergeCell ref="B16:J16"/>
@@ -3893,30 +3774,12 @@
     <mergeCell ref="B20:I20"/>
     <mergeCell ref="B21:I21"/>
     <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="J10:L10"/>
     <mergeCell ref="B86:L86"/>
     <mergeCell ref="B81:L81"/>
     <mergeCell ref="B82:L82"/>
     <mergeCell ref="B83:L83"/>
     <mergeCell ref="B84:L84"/>
     <mergeCell ref="B85:L85"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B91:L91"/>
-    <mergeCell ref="B90:L90"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="B43:L43"/>
-    <mergeCell ref="B59:L59"/>
-    <mergeCell ref="B33:L33"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B72:L72"/>
-    <mergeCell ref="B73:L73"/>
     <mergeCell ref="B92:L92"/>
     <mergeCell ref="B69:L69"/>
     <mergeCell ref="B70:L70"/>
@@ -3931,8 +3794,24 @@
     <mergeCell ref="B76:L76"/>
     <mergeCell ref="B77:L77"/>
     <mergeCell ref="B78:L78"/>
+    <mergeCell ref="B91:L91"/>
+    <mergeCell ref="B90:L90"/>
     <mergeCell ref="B79:L79"/>
     <mergeCell ref="B80:L80"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="B61:L61"/>
+    <mergeCell ref="B56:L56"/>
+    <mergeCell ref="B47:L47"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="B43:L43"/>
+    <mergeCell ref="B59:L59"/>
+    <mergeCell ref="B72:L72"/>
+    <mergeCell ref="B73:L73"/>
+    <mergeCell ref="B60:L60"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="J11:L11"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="VERIFICAR NÚMERO DE TELEFONO" error="Verifica que tenga 9 digitos sin espacio" sqref="J8:L8" xr:uid="{CC0405B2-A74A-4E8F-BF03-C34BEE695B67}">
@@ -3966,7 +3845,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A3:AG49"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>

--- a/assets/downloads/Boleta_Template.xlsx
+++ b/assets/downloads/Boleta_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\probusinees-intranet\assets\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9F3B29-6382-496B-A923-9DE9E8249F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76BA5F1-EDE3-4BEB-8052-852A82637DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -570,9 +570,6 @@
     <t>COTIZACION N002</t>
   </si>
   <si>
-    <t>GRUPO PRO BUSINESS S.A.C.</t>
-  </si>
-  <si>
     <t>RUC: 20603287721</t>
   </si>
   <si>
@@ -580,6 +577,9 @@
   </si>
   <si>
     <t xml:space="preserve">         RUC: 20603287721</t>
+  </si>
+  <si>
+    <t>GRUPO PROBUSINESS S.A.C.</t>
   </si>
 </sst>
 </file>
@@ -1256,67 +1256,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="171" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1324,6 +1271,7 @@
     <xf numFmtId="14" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1331,6 +1279,30 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1343,10 +1315,44 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1359,12 +1365,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1958,6 +1958,123 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>402772</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1209675" cy="1190625"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F785BEEA-318A-43D1-AD57-F1658C8479D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="892629" y="293914"/>
+          <a:ext cx="1209675" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>500743</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>206828</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1209675" cy="1190625"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3DBF9F4-6E54-4AF7-BADF-00CA56991176}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990600" y="9339942"/>
+          <a:ext cx="1209675" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4152900" cy="3276600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{798532EB-EFB3-4DA3-B19C-57E6C70BA2F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1730828" y="18124714"/>
+          <a:ext cx="4152900" cy="3276600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2227,8 +2344,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50:L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4"/>
@@ -2249,82 +2366,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1">
-      <c r="A1" s="94"/>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
+      <c r="A1" s="95"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
     </row>
     <row r="3" spans="1:12" ht="25.8">
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="E3" s="133" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="E3" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
     </row>
     <row r="4" spans="1:12" ht="25.8">
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="E4" s="134" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="E4" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
       <c r="K4" s="35"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="89"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="53"/>
       <c r="F6" s="53"/>
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="92"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="E7" s="128" t="s">
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="E7" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="30" t="s">
@@ -2337,20 +2454,20 @@
       <c r="E8" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="119" t="s">
+      <c r="F8" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="120"/>
+      <c r="G8" s="98"/>
       <c r="H8" s="86"/>
       <c r="I8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="126">
+      <c r="J8" s="112">
         <f>+'2'!F7</f>
         <v>8</v>
       </c>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="30" t="s">
@@ -2363,21 +2480,21 @@
       <c r="E9" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="116">
+      <c r="F9" s="93">
         <f ca="1">+TODAY()</f>
-        <v>45457</v>
-      </c>
-      <c r="G9" s="117"/>
+        <v>45460</v>
+      </c>
+      <c r="G9" s="94"/>
       <c r="H9" s="86"/>
       <c r="I9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="127">
+      <c r="J9" s="90">
         <f>+'2'!F8</f>
         <v>116</v>
       </c>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="30" t="s">
@@ -2390,19 +2507,19 @@
       <c r="E10" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="94" t="s">
+      <c r="F10" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="118"/>
+      <c r="G10" s="96"/>
       <c r="H10" s="86"/>
       <c r="I10" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J10" s="111">
+        <v>122</v>
+      </c>
+      <c r="J10" s="113">
         <v>0</v>
       </c>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="113"/>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="30" t="s">
@@ -2415,44 +2532,44 @@
       <c r="E11" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="109"/>
-      <c r="G11" s="112"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="116"/>
       <c r="H11" s="86"/>
       <c r="I11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="104">
+      <c r="J11" s="130">
         <f>+'2'!F9</f>
         <v>1.1879999999999999</v>
       </c>
-      <c r="K11" s="104"/>
-      <c r="L11" s="104"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="130"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13" s="106" t="s">
+      <c r="B13" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
       <c r="K13" s="32" t="s">
         <v>34</v>
       </c>
@@ -2461,17 +2578,17 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="124"/>
       <c r="K14" s="37">
         <f>'2'!F13</f>
         <v>944.03</v>
@@ -2481,17 +2598,17 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="125"/>
       <c r="K15" s="38">
         <f>'2'!F16+'2'!F19</f>
         <v>299.47999999999996</v>
@@ -2501,17 +2618,17 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
       <c r="K16" s="37">
         <f>SUM(K14:K15)</f>
         <v>1243.51</v>
@@ -2547,13 +2664,13 @@
       <c r="L18" s="29"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="121" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
@@ -2568,16 +2685,16 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
       <c r="J20" s="47">
         <f>MAX('2'!C26:E26)</f>
         <v>0.04</v>
@@ -2591,16 +2708,16 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
       <c r="J21" s="47">
         <v>0.16</v>
       </c>
@@ -2613,16 +2730,16 @@
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="109" t="s">
+      <c r="B22" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
       <c r="J22" s="47">
         <v>0.02</v>
       </c>
@@ -2635,16 +2752,16 @@
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="107" t="s">
+      <c r="B23" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
       <c r="J23" s="75"/>
       <c r="K23" s="76">
         <f>SUM(K20:K22)</f>
@@ -2655,29 +2772,29 @@
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
       <c r="J24" s="2"/>
       <c r="K24" s="33"/>
       <c r="L24" s="31"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="109" t="s">
+      <c r="B25" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="109"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
       <c r="J25" s="48" t="s">
         <v>76</v>
       </c>
@@ -2690,16 +2807,16 @@
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="107" t="s">
+      <c r="B26" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="119"/>
       <c r="K26" s="37">
         <f>K23+K25</f>
         <v>316.1151070046609</v>
@@ -2709,27 +2826,27 @@
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
     </row>
     <row r="28" spans="2:12" ht="15.6">
-      <c r="B28" s="114" t="s">
+      <c r="B28" s="120" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="114"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="120"/>
       <c r="K28" s="60" t="s">
         <v>34</v>
       </c>
@@ -2738,17 +2855,17 @@
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="93" t="s">
+      <c r="B29" s="117" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="93"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="117"/>
       <c r="K29" s="37">
         <f>K14</f>
         <v>944.03</v>
@@ -2758,17 +2875,17 @@
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="93" t="s">
+      <c r="B30" s="117" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="117"/>
       <c r="K30" s="37">
         <f>+'2'!K22</f>
         <v>415.79999999999995</v>
@@ -2778,17 +2895,17 @@
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="109" t="s">
+      <c r="B31" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="115"/>
+      <c r="J31" s="115"/>
       <c r="K31" s="38">
         <f>K26</f>
         <v>316.1151070046609</v>
@@ -2798,17 +2915,17 @@
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="107" t="s">
+      <c r="B32" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="107"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="119"/>
+      <c r="J32" s="119"/>
       <c r="K32" s="37">
         <f>SUM(K29:K31)</f>
         <v>1675.9451070046607</v>
@@ -2818,79 +2935,79 @@
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="113"/>
-      <c r="L33" s="113"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="118"/>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="123" t="s">
+      <c r="B34" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="124"/>
-      <c r="D34" s="124"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="124"/>
-      <c r="H34" s="124"/>
-      <c r="I34" s="124"/>
-      <c r="J34" s="124"/>
-      <c r="K34" s="124"/>
-      <c r="L34" s="125"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="110"/>
+      <c r="L34" s="111"/>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="96" t="s">
+      <c r="C35" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="97"/>
-      <c r="E35" s="98"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="106"/>
       <c r="F35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="96" t="s">
+      <c r="G35" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="H35" s="98"/>
+      <c r="H35" s="106"/>
       <c r="I35" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J35" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="110" t="s">
+      <c r="K35" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="L35" s="110"/>
+      <c r="L35" s="103"/>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="46">
         <v>1</v>
       </c>
-      <c r="C36" s="96" t="str">
+      <c r="C36" s="104" t="str">
         <f>+'2'!$C$6</f>
         <v xml:space="preserve">Kids Car Seat Belt Pillow </v>
       </c>
-      <c r="D36" s="97"/>
-      <c r="E36" s="98"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="106"/>
       <c r="F36" s="7">
         <f>+'2'!$C$45</f>
         <v>100</v>
       </c>
-      <c r="G36" s="101">
+      <c r="G36" s="107">
         <f>+'2'!$C$10</f>
         <v>6.36</v>
       </c>
-      <c r="H36" s="102"/>
+      <c r="H36" s="108"/>
       <c r="I36" s="55">
         <f>+'2'!$C$46</f>
         <v>11.424505892807643</v>
@@ -2899,31 +3016,31 @@
         <f t="shared" ref="J36:J38" si="0">+F36*I36</f>
         <v>1142.4505892807642</v>
       </c>
-      <c r="K36" s="110">
+      <c r="K36" s="103">
         <f t="shared" ref="K36" si="1">I36*3.7</f>
         <v>42.270671803388282</v>
       </c>
-      <c r="L36" s="110"/>
+      <c r="L36" s="103"/>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="46">
         <v>2</v>
       </c>
-      <c r="C37" s="96" t="str">
+      <c r="C37" s="104" t="str">
         <f>+'2'!$D$6</f>
         <v>Car Headrest</v>
       </c>
-      <c r="D37" s="97"/>
-      <c r="E37" s="98"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="106"/>
       <c r="F37" s="7">
         <f>+'2'!$D$45</f>
         <v>1</v>
       </c>
-      <c r="G37" s="101">
+      <c r="G37" s="107">
         <f>+'2'!$D$10</f>
         <v>8.0299999999999994</v>
       </c>
-      <c r="H37" s="102"/>
+      <c r="H37" s="108"/>
       <c r="I37" s="55">
         <f>+'2'!$D$46</f>
         <v>13.907609574791055</v>
@@ -2932,31 +3049,31 @@
         <f t="shared" si="0"/>
         <v>13.907609574791055</v>
       </c>
-      <c r="K37" s="110">
+      <c r="K37" s="103">
         <f t="shared" ref="K37:K38" si="2">I37*3.7</f>
         <v>51.458155426726904</v>
       </c>
-      <c r="L37" s="110"/>
+      <c r="L37" s="103"/>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="46">
         <v>3</v>
       </c>
-      <c r="C38" s="96" t="str">
+      <c r="C38" s="104" t="str">
         <f>+'2'!$E$6</f>
         <v>Bluetooth sleep mask</v>
       </c>
-      <c r="D38" s="97"/>
-      <c r="E38" s="98"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="106"/>
       <c r="F38" s="7">
         <f>+'2'!$E$45</f>
         <v>50</v>
       </c>
-      <c r="G38" s="101">
+      <c r="G38" s="107">
         <f>+'2'!$E$10</f>
         <v>6</v>
       </c>
-      <c r="H38" s="102"/>
+      <c r="H38" s="108"/>
       <c r="I38" s="55">
         <f>+'2'!$E$46</f>
         <v>10.391738162982108</v>
@@ -2965,11 +3082,11 @@
         <f t="shared" si="0"/>
         <v>519.5869081491054</v>
       </c>
-      <c r="K38" s="99">
+      <c r="K38" s="128">
         <f t="shared" si="2"/>
         <v>38.449431203033804</v>
       </c>
-      <c r="L38" s="100"/>
+      <c r="L38" s="129"/>
     </row>
     <row r="39" spans="2:12" ht="15.6">
       <c r="B39" s="49" t="s">
@@ -3031,79 +3148,79 @@
       <c r="K42" s="29"/>
     </row>
     <row r="43" spans="2:12" ht="18">
-      <c r="B43" s="95" t="s">
+      <c r="B43" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="95"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="95"/>
-      <c r="H43" s="95"/>
-      <c r="I43" s="95"/>
-      <c r="J43" s="95"/>
-      <c r="K43" s="95"/>
-      <c r="L43" s="95"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="114"/>
     </row>
     <row r="44" spans="2:12" ht="18">
-      <c r="B44" s="95" t="s">
+      <c r="B44" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="95"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="114"/>
+      <c r="K44" s="114"/>
+      <c r="L44" s="114"/>
     </row>
     <row r="45" spans="2:12" ht="18">
-      <c r="B45" s="95" t="s">
+      <c r="B45" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="95"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="95"/>
-      <c r="H45" s="95"/>
-      <c r="I45" s="95"/>
-      <c r="J45" s="95"/>
-      <c r="K45" s="95"/>
-      <c r="L45" s="95"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114"/>
+      <c r="K45" s="114"/>
+      <c r="L45" s="114"/>
     </row>
     <row r="46" spans="2:12" ht="18">
-      <c r="B46" s="95" t="s">
+      <c r="B46" s="114" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="95"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="95"/>
-      <c r="G46" s="95"/>
-      <c r="H46" s="95"/>
-      <c r="I46" s="95"/>
-      <c r="J46" s="95"/>
-      <c r="K46" s="95"/>
-      <c r="L46" s="95"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="114"/>
+      <c r="K46" s="114"/>
+      <c r="L46" s="114"/>
     </row>
     <row r="47" spans="2:12" ht="18">
-      <c r="B47" s="95" t="s">
+      <c r="B47" s="114" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="95"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="95"/>
-      <c r="H47" s="95"/>
-      <c r="I47" s="95"/>
-      <c r="J47" s="95"/>
-      <c r="K47" s="95"/>
-      <c r="L47" s="95"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="114"/>
+      <c r="J47" s="114"/>
+      <c r="K47" s="114"/>
+      <c r="L47" s="114"/>
     </row>
     <row r="48" spans="2:12">
       <c r="B48" s="29"/>
@@ -3118,616 +3235,678 @@
       <c r="K48" s="29"/>
       <c r="L48" s="29"/>
     </row>
-    <row r="49" spans="2:12">
-      <c r="B49" s="92"/>
-      <c r="C49" s="92"/>
-    </row>
-    <row r="50" spans="2:12" ht="18" customHeight="1">
-      <c r="B50" s="92"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="121" t="s">
+    <row r="49" spans="2:12" ht="9" customHeight="1">
+      <c r="B49" s="91"/>
+      <c r="C49" s="91"/>
+    </row>
+    <row r="50" spans="2:12" ht="31.8" customHeight="1">
+      <c r="B50" s="91"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" s="99"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="99"/>
+      <c r="H50" s="99"/>
+      <c r="I50" s="99"/>
+      <c r="J50" s="99"/>
+      <c r="K50" s="99"/>
+      <c r="L50" s="99"/>
+    </row>
+    <row r="51" spans="2:12" ht="18" customHeight="1">
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="E50" s="121"/>
-      <c r="F50" s="121"/>
-      <c r="G50" s="121"/>
-      <c r="H50" s="121"/>
-      <c r="I50" s="121"/>
-      <c r="J50" s="121"/>
-      <c r="K50" s="121"/>
-      <c r="L50" s="121"/>
-    </row>
-    <row r="51" spans="2:12" ht="18" customHeight="1">
-      <c r="B51" s="92"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="122" t="s">
-        <v>122</v>
-      </c>
-      <c r="E51" s="122"/>
-      <c r="F51" s="122"/>
-      <c r="G51" s="122"/>
-      <c r="H51" s="122"/>
-      <c r="I51" s="122"/>
-      <c r="J51" s="92"/>
-      <c r="K51" s="92"/>
-      <c r="L51" s="92"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="100"/>
+      <c r="J51" s="91"/>
+      <c r="K51" s="91"/>
+      <c r="L51" s="91"/>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="92"/>
-      <c r="C52" s="92"/>
+      <c r="B52" s="91"/>
+      <c r="C52" s="91"/>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="92"/>
-      <c r="C53" s="92"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="92"/>
-      <c r="C54" s="92"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="91"/>
     </row>
     <row r="55" spans="2:12" ht="21">
-      <c r="B55" s="105" t="s">
+      <c r="B55" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="105"/>
-      <c r="D55" s="105"/>
-      <c r="E55" s="105"/>
-      <c r="F55" s="105"/>
-      <c r="G55" s="105"/>
-      <c r="H55" s="105"/>
-      <c r="I55" s="105"/>
-      <c r="J55" s="105"/>
-      <c r="K55" s="105"/>
-      <c r="L55" s="105"/>
+      <c r="C55" s="122"/>
+      <c r="D55" s="122"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="122"/>
+      <c r="G55" s="122"/>
+      <c r="H55" s="122"/>
+      <c r="I55" s="122"/>
+      <c r="J55" s="122"/>
+      <c r="K55" s="122"/>
+      <c r="L55" s="122"/>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="94"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="94"/>
-      <c r="G56" s="94"/>
-      <c r="H56" s="94"/>
-      <c r="I56" s="94"/>
-      <c r="J56" s="94"/>
-      <c r="K56" s="94"/>
-      <c r="L56" s="94"/>
+      <c r="B56" s="95"/>
+      <c r="C56" s="95"/>
+      <c r="D56" s="95"/>
+      <c r="E56" s="95"/>
+      <c r="F56" s="95"/>
+      <c r="G56" s="95"/>
+      <c r="H56" s="95"/>
+      <c r="I56" s="95"/>
+      <c r="J56" s="95"/>
+      <c r="K56" s="95"/>
+      <c r="L56" s="95"/>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="91" t="s">
+      <c r="B59" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="91"/>
-      <c r="D59" s="91"/>
-      <c r="E59" s="91"/>
-      <c r="F59" s="91"/>
-      <c r="G59" s="91"/>
-      <c r="H59" s="91"/>
-      <c r="I59" s="91"/>
-      <c r="J59" s="91"/>
-      <c r="K59" s="91"/>
-      <c r="L59" s="91"/>
+      <c r="C59" s="126"/>
+      <c r="D59" s="126"/>
+      <c r="E59" s="126"/>
+      <c r="F59" s="126"/>
+      <c r="G59" s="126"/>
+      <c r="H59" s="126"/>
+      <c r="I59" s="126"/>
+      <c r="J59" s="126"/>
+      <c r="K59" s="126"/>
+      <c r="L59" s="126"/>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="91" t="s">
+      <c r="B60" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="91"/>
-      <c r="D60" s="91"/>
-      <c r="E60" s="91"/>
-      <c r="F60" s="91"/>
-      <c r="G60" s="91"/>
-      <c r="H60" s="91"/>
-      <c r="I60" s="91"/>
-      <c r="J60" s="91"/>
-      <c r="K60" s="91"/>
-      <c r="L60" s="91"/>
+      <c r="C60" s="126"/>
+      <c r="D60" s="126"/>
+      <c r="E60" s="126"/>
+      <c r="F60" s="126"/>
+      <c r="G60" s="126"/>
+      <c r="H60" s="126"/>
+      <c r="I60" s="126"/>
+      <c r="J60" s="126"/>
+      <c r="K60" s="126"/>
+      <c r="L60" s="126"/>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="93" t="s">
+      <c r="B61" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="93"/>
-      <c r="D61" s="93"/>
-      <c r="E61" s="93"/>
-      <c r="F61" s="93"/>
-      <c r="G61" s="93"/>
-      <c r="H61" s="93"/>
-      <c r="I61" s="93"/>
-      <c r="J61" s="93"/>
-      <c r="K61" s="93"/>
-      <c r="L61" s="93"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="117"/>
+      <c r="E61" s="117"/>
+      <c r="F61" s="117"/>
+      <c r="G61" s="117"/>
+      <c r="H61" s="117"/>
+      <c r="I61" s="117"/>
+      <c r="J61" s="117"/>
+      <c r="K61" s="117"/>
+      <c r="L61" s="117"/>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="91" t="s">
+      <c r="B62" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="91"/>
-      <c r="D62" s="91"/>
-      <c r="E62" s="91"/>
-      <c r="F62" s="91"/>
-      <c r="G62" s="91"/>
-      <c r="H62" s="91"/>
-      <c r="I62" s="91"/>
-      <c r="J62" s="91"/>
-      <c r="K62" s="91"/>
-      <c r="L62" s="91"/>
+      <c r="C62" s="126"/>
+      <c r="D62" s="126"/>
+      <c r="E62" s="126"/>
+      <c r="F62" s="126"/>
+      <c r="G62" s="126"/>
+      <c r="H62" s="126"/>
+      <c r="I62" s="126"/>
+      <c r="J62" s="126"/>
+      <c r="K62" s="126"/>
+      <c r="L62" s="126"/>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="91" t="s">
+      <c r="B63" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="91"/>
-      <c r="D63" s="91"/>
-      <c r="E63" s="91"/>
-      <c r="F63" s="91"/>
-      <c r="G63" s="91"/>
-      <c r="H63" s="91"/>
-      <c r="I63" s="91"/>
-      <c r="J63" s="91"/>
-      <c r="K63" s="91"/>
-      <c r="L63" s="91"/>
+      <c r="C63" s="126"/>
+      <c r="D63" s="126"/>
+      <c r="E63" s="126"/>
+      <c r="F63" s="126"/>
+      <c r="G63" s="126"/>
+      <c r="H63" s="126"/>
+      <c r="I63" s="126"/>
+      <c r="J63" s="126"/>
+      <c r="K63" s="126"/>
+      <c r="L63" s="126"/>
     </row>
     <row r="64" spans="2:12">
-      <c r="B64" s="93" t="s">
+      <c r="B64" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="93"/>
-      <c r="D64" s="93"/>
-      <c r="E64" s="93"/>
-      <c r="F64" s="93"/>
-      <c r="G64" s="93"/>
-      <c r="H64" s="93"/>
-      <c r="I64" s="93"/>
-      <c r="J64" s="93"/>
-      <c r="K64" s="93"/>
-      <c r="L64" s="93"/>
+      <c r="C64" s="117"/>
+      <c r="D64" s="117"/>
+      <c r="E64" s="117"/>
+      <c r="F64" s="117"/>
+      <c r="G64" s="117"/>
+      <c r="H64" s="117"/>
+      <c r="I64" s="117"/>
+      <c r="J64" s="117"/>
+      <c r="K64" s="117"/>
+      <c r="L64" s="117"/>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="91" t="s">
+      <c r="B65" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="C65" s="91"/>
-      <c r="D65" s="91"/>
-      <c r="E65" s="91"/>
-      <c r="F65" s="91"/>
-      <c r="G65" s="91"/>
-      <c r="H65" s="91"/>
-      <c r="I65" s="91"/>
-      <c r="J65" s="91"/>
-      <c r="K65" s="91"/>
-      <c r="L65" s="91"/>
+      <c r="C65" s="126"/>
+      <c r="D65" s="126"/>
+      <c r="E65" s="126"/>
+      <c r="F65" s="126"/>
+      <c r="G65" s="126"/>
+      <c r="H65" s="126"/>
+      <c r="I65" s="126"/>
+      <c r="J65" s="126"/>
+      <c r="K65" s="126"/>
+      <c r="L65" s="126"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="91" t="s">
+      <c r="B66" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="91"/>
-      <c r="D66" s="91"/>
-      <c r="E66" s="91"/>
-      <c r="F66" s="91"/>
-      <c r="G66" s="91"/>
-      <c r="H66" s="91"/>
-      <c r="I66" s="91"/>
-      <c r="J66" s="91"/>
-      <c r="K66" s="91"/>
-      <c r="L66" s="91"/>
+      <c r="C66" s="126"/>
+      <c r="D66" s="126"/>
+      <c r="E66" s="126"/>
+      <c r="F66" s="126"/>
+      <c r="G66" s="126"/>
+      <c r="H66" s="126"/>
+      <c r="I66" s="126"/>
+      <c r="J66" s="126"/>
+      <c r="K66" s="126"/>
+      <c r="L66" s="126"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="91" t="s">
+      <c r="B67" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="91"/>
-      <c r="D67" s="91"/>
-      <c r="E67" s="91"/>
-      <c r="F67" s="91"/>
-      <c r="G67" s="91"/>
-      <c r="H67" s="91"/>
-      <c r="I67" s="91"/>
-      <c r="J67" s="91"/>
-      <c r="K67" s="91"/>
-      <c r="L67" s="91"/>
+      <c r="C67" s="126"/>
+      <c r="D67" s="126"/>
+      <c r="E67" s="126"/>
+      <c r="F67" s="126"/>
+      <c r="G67" s="126"/>
+      <c r="H67" s="126"/>
+      <c r="I67" s="126"/>
+      <c r="J67" s="126"/>
+      <c r="K67" s="126"/>
+      <c r="L67" s="126"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="91" t="s">
+      <c r="B68" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="91"/>
-      <c r="D68" s="91"/>
-      <c r="E68" s="91"/>
-      <c r="F68" s="91"/>
-      <c r="G68" s="91"/>
-      <c r="H68" s="91"/>
-      <c r="I68" s="91"/>
-      <c r="J68" s="91"/>
-      <c r="K68" s="91"/>
-      <c r="L68" s="91"/>
+      <c r="C68" s="126"/>
+      <c r="D68" s="126"/>
+      <c r="E68" s="126"/>
+      <c r="F68" s="126"/>
+      <c r="G68" s="126"/>
+      <c r="H68" s="126"/>
+      <c r="I68" s="126"/>
+      <c r="J68" s="126"/>
+      <c r="K68" s="126"/>
+      <c r="L68" s="126"/>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="91" t="s">
+      <c r="B69" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="91"/>
-      <c r="D69" s="91"/>
-      <c r="E69" s="91"/>
-      <c r="F69" s="91"/>
-      <c r="G69" s="91"/>
-      <c r="H69" s="91"/>
-      <c r="I69" s="91"/>
-      <c r="J69" s="91"/>
-      <c r="K69" s="91"/>
-      <c r="L69" s="91"/>
+      <c r="C69" s="126"/>
+      <c r="D69" s="126"/>
+      <c r="E69" s="126"/>
+      <c r="F69" s="126"/>
+      <c r="G69" s="126"/>
+      <c r="H69" s="126"/>
+      <c r="I69" s="126"/>
+      <c r="J69" s="126"/>
+      <c r="K69" s="126"/>
+      <c r="L69" s="126"/>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="91" t="s">
+      <c r="B70" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="C70" s="91"/>
-      <c r="D70" s="91"/>
-      <c r="E70" s="91"/>
-      <c r="F70" s="91"/>
-      <c r="G70" s="91"/>
-      <c r="H70" s="91"/>
-      <c r="I70" s="91"/>
-      <c r="J70" s="91"/>
-      <c r="K70" s="91"/>
-      <c r="L70" s="91"/>
+      <c r="C70" s="126"/>
+      <c r="D70" s="126"/>
+      <c r="E70" s="126"/>
+      <c r="F70" s="126"/>
+      <c r="G70" s="126"/>
+      <c r="H70" s="126"/>
+      <c r="I70" s="126"/>
+      <c r="J70" s="126"/>
+      <c r="K70" s="126"/>
+      <c r="L70" s="126"/>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="91" t="s">
+      <c r="B71" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="C71" s="91"/>
-      <c r="D71" s="91"/>
-      <c r="E71" s="91"/>
-      <c r="F71" s="91"/>
-      <c r="G71" s="91"/>
-      <c r="H71" s="91"/>
-      <c r="I71" s="91"/>
-      <c r="J71" s="91"/>
-      <c r="K71" s="91"/>
-      <c r="L71" s="91"/>
+      <c r="C71" s="126"/>
+      <c r="D71" s="126"/>
+      <c r="E71" s="126"/>
+      <c r="F71" s="126"/>
+      <c r="G71" s="126"/>
+      <c r="H71" s="126"/>
+      <c r="I71" s="126"/>
+      <c r="J71" s="126"/>
+      <c r="K71" s="126"/>
+      <c r="L71" s="126"/>
     </row>
     <row r="72" spans="2:12">
-      <c r="B72" s="91" t="s">
+      <c r="B72" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="C72" s="91"/>
-      <c r="D72" s="91"/>
-      <c r="E72" s="91"/>
-      <c r="F72" s="91"/>
-      <c r="G72" s="91"/>
-      <c r="H72" s="91"/>
-      <c r="I72" s="91"/>
-      <c r="J72" s="91"/>
-      <c r="K72" s="91"/>
-      <c r="L72" s="91"/>
+      <c r="C72" s="126"/>
+      <c r="D72" s="126"/>
+      <c r="E72" s="126"/>
+      <c r="F72" s="126"/>
+      <c r="G72" s="126"/>
+      <c r="H72" s="126"/>
+      <c r="I72" s="126"/>
+      <c r="J72" s="126"/>
+      <c r="K72" s="126"/>
+      <c r="L72" s="126"/>
     </row>
     <row r="73" spans="2:12">
-      <c r="B73" s="94"/>
-      <c r="C73" s="94"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="94"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="94"/>
-      <c r="H73" s="94"/>
-      <c r="I73" s="94"/>
-      <c r="J73" s="94"/>
-      <c r="K73" s="94"/>
-      <c r="L73" s="94"/>
+      <c r="B73" s="95"/>
+      <c r="C73" s="95"/>
+      <c r="D73" s="95"/>
+      <c r="E73" s="95"/>
+      <c r="F73" s="95"/>
+      <c r="G73" s="95"/>
+      <c r="H73" s="95"/>
+      <c r="I73" s="95"/>
+      <c r="J73" s="95"/>
+      <c r="K73" s="95"/>
+      <c r="L73" s="95"/>
     </row>
     <row r="76" spans="2:12">
-      <c r="B76" s="91" t="s">
+      <c r="B76" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="C76" s="91"/>
-      <c r="D76" s="91"/>
-      <c r="E76" s="91"/>
-      <c r="F76" s="91"/>
-      <c r="G76" s="91"/>
-      <c r="H76" s="91"/>
-      <c r="I76" s="91"/>
-      <c r="J76" s="91"/>
-      <c r="K76" s="91"/>
-      <c r="L76" s="91"/>
+      <c r="C76" s="126"/>
+      <c r="D76" s="126"/>
+      <c r="E76" s="126"/>
+      <c r="F76" s="126"/>
+      <c r="G76" s="126"/>
+      <c r="H76" s="126"/>
+      <c r="I76" s="126"/>
+      <c r="J76" s="126"/>
+      <c r="K76" s="126"/>
+      <c r="L76" s="126"/>
     </row>
     <row r="77" spans="2:12">
-      <c r="B77" s="91" t="s">
+      <c r="B77" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="C77" s="91"/>
-      <c r="D77" s="91"/>
-      <c r="E77" s="91"/>
-      <c r="F77" s="91"/>
-      <c r="G77" s="91"/>
-      <c r="H77" s="91"/>
-      <c r="I77" s="91"/>
-      <c r="J77" s="91"/>
-      <c r="K77" s="91"/>
-      <c r="L77" s="91"/>
+      <c r="C77" s="126"/>
+      <c r="D77" s="126"/>
+      <c r="E77" s="126"/>
+      <c r="F77" s="126"/>
+      <c r="G77" s="126"/>
+      <c r="H77" s="126"/>
+      <c r="I77" s="126"/>
+      <c r="J77" s="126"/>
+      <c r="K77" s="126"/>
+      <c r="L77" s="126"/>
     </row>
     <row r="78" spans="2:12">
-      <c r="B78" s="91" t="s">
+      <c r="B78" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="C78" s="91"/>
-      <c r="D78" s="91"/>
-      <c r="E78" s="91"/>
-      <c r="F78" s="91"/>
-      <c r="G78" s="91"/>
-      <c r="H78" s="91"/>
-      <c r="I78" s="91"/>
-      <c r="J78" s="91"/>
-      <c r="K78" s="91"/>
-      <c r="L78" s="91"/>
+      <c r="C78" s="126"/>
+      <c r="D78" s="126"/>
+      <c r="E78" s="126"/>
+      <c r="F78" s="126"/>
+      <c r="G78" s="126"/>
+      <c r="H78" s="126"/>
+      <c r="I78" s="126"/>
+      <c r="J78" s="126"/>
+      <c r="K78" s="126"/>
+      <c r="L78" s="126"/>
     </row>
     <row r="79" spans="2:12">
-      <c r="B79" s="90" t="s">
+      <c r="B79" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="C79" s="90"/>
-      <c r="D79" s="90"/>
-      <c r="E79" s="90"/>
-      <c r="F79" s="90"/>
-      <c r="G79" s="90"/>
-      <c r="H79" s="90"/>
-      <c r="I79" s="90"/>
-      <c r="J79" s="90"/>
-      <c r="K79" s="90"/>
-      <c r="L79" s="90"/>
+      <c r="C79" s="124"/>
+      <c r="D79" s="124"/>
+      <c r="E79" s="124"/>
+      <c r="F79" s="124"/>
+      <c r="G79" s="124"/>
+      <c r="H79" s="124"/>
+      <c r="I79" s="124"/>
+      <c r="J79" s="124"/>
+      <c r="K79" s="124"/>
+      <c r="L79" s="124"/>
     </row>
     <row r="80" spans="2:12">
-      <c r="B80" s="91" t="s">
+      <c r="B80" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="C80" s="91"/>
-      <c r="D80" s="91"/>
-      <c r="E80" s="91"/>
-      <c r="F80" s="91"/>
-      <c r="G80" s="91"/>
-      <c r="H80" s="91"/>
-      <c r="I80" s="91"/>
-      <c r="J80" s="91"/>
-      <c r="K80" s="91"/>
-      <c r="L80" s="91"/>
+      <c r="C80" s="126"/>
+      <c r="D80" s="126"/>
+      <c r="E80" s="126"/>
+      <c r="F80" s="126"/>
+      <c r="G80" s="126"/>
+      <c r="H80" s="126"/>
+      <c r="I80" s="126"/>
+      <c r="J80" s="126"/>
+      <c r="K80" s="126"/>
+      <c r="L80" s="126"/>
     </row>
     <row r="81" spans="1:12">
-      <c r="B81" s="90" t="s">
+      <c r="B81" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="C81" s="90"/>
-      <c r="D81" s="90"/>
-      <c r="E81" s="90"/>
-      <c r="F81" s="90"/>
-      <c r="G81" s="90"/>
-      <c r="H81" s="90"/>
-      <c r="I81" s="90"/>
-      <c r="J81" s="90"/>
-      <c r="K81" s="90"/>
-      <c r="L81" s="90"/>
+      <c r="C81" s="124"/>
+      <c r="D81" s="124"/>
+      <c r="E81" s="124"/>
+      <c r="F81" s="124"/>
+      <c r="G81" s="124"/>
+      <c r="H81" s="124"/>
+      <c r="I81" s="124"/>
+      <c r="J81" s="124"/>
+      <c r="K81" s="124"/>
+      <c r="L81" s="124"/>
     </row>
     <row r="82" spans="1:12">
-      <c r="B82" s="91" t="s">
+      <c r="B82" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="C82" s="91"/>
-      <c r="D82" s="91"/>
-      <c r="E82" s="91"/>
-      <c r="F82" s="91"/>
-      <c r="G82" s="91"/>
-      <c r="H82" s="91"/>
-      <c r="I82" s="91"/>
-      <c r="J82" s="91"/>
-      <c r="K82" s="91"/>
-      <c r="L82" s="91"/>
+      <c r="C82" s="126"/>
+      <c r="D82" s="126"/>
+      <c r="E82" s="126"/>
+      <c r="F82" s="126"/>
+      <c r="G82" s="126"/>
+      <c r="H82" s="126"/>
+      <c r="I82" s="126"/>
+      <c r="J82" s="126"/>
+      <c r="K82" s="126"/>
+      <c r="L82" s="126"/>
     </row>
     <row r="83" spans="1:12">
-      <c r="B83" s="91" t="s">
+      <c r="B83" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="C83" s="91"/>
-      <c r="D83" s="91"/>
-      <c r="E83" s="91"/>
-      <c r="F83" s="91"/>
-      <c r="G83" s="91"/>
-      <c r="H83" s="91"/>
-      <c r="I83" s="91"/>
-      <c r="J83" s="91"/>
-      <c r="K83" s="91"/>
-      <c r="L83" s="91"/>
+      <c r="C83" s="126"/>
+      <c r="D83" s="126"/>
+      <c r="E83" s="126"/>
+      <c r="F83" s="126"/>
+      <c r="G83" s="126"/>
+      <c r="H83" s="126"/>
+      <c r="I83" s="126"/>
+      <c r="J83" s="126"/>
+      <c r="K83" s="126"/>
+      <c r="L83" s="126"/>
     </row>
     <row r="84" spans="1:12">
-      <c r="B84" s="91" t="s">
+      <c r="B84" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="C84" s="91"/>
-      <c r="D84" s="91"/>
-      <c r="E84" s="91"/>
-      <c r="F84" s="91"/>
-      <c r="G84" s="91"/>
-      <c r="H84" s="91"/>
-      <c r="I84" s="91"/>
-      <c r="J84" s="91"/>
-      <c r="K84" s="91"/>
-      <c r="L84" s="91"/>
+      <c r="C84" s="126"/>
+      <c r="D84" s="126"/>
+      <c r="E84" s="126"/>
+      <c r="F84" s="126"/>
+      <c r="G84" s="126"/>
+      <c r="H84" s="126"/>
+      <c r="I84" s="126"/>
+      <c r="J84" s="126"/>
+      <c r="K84" s="126"/>
+      <c r="L84" s="126"/>
     </row>
     <row r="85" spans="1:12">
-      <c r="B85" s="91" t="s">
+      <c r="B85" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="C85" s="91"/>
-      <c r="D85" s="91"/>
-      <c r="E85" s="91"/>
-      <c r="F85" s="91"/>
-      <c r="G85" s="91"/>
-      <c r="H85" s="91"/>
-      <c r="I85" s="91"/>
-      <c r="J85" s="91"/>
-      <c r="K85" s="91"/>
-      <c r="L85" s="91"/>
+      <c r="C85" s="126"/>
+      <c r="D85" s="126"/>
+      <c r="E85" s="126"/>
+      <c r="F85" s="126"/>
+      <c r="G85" s="126"/>
+      <c r="H85" s="126"/>
+      <c r="I85" s="126"/>
+      <c r="J85" s="126"/>
+      <c r="K85" s="126"/>
+      <c r="L85" s="126"/>
     </row>
     <row r="86" spans="1:12">
-      <c r="B86" s="91" t="s">
+      <c r="B86" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="C86" s="91"/>
-      <c r="D86" s="91"/>
-      <c r="E86" s="91"/>
-      <c r="F86" s="91"/>
-      <c r="G86" s="91"/>
-      <c r="H86" s="91"/>
-      <c r="I86" s="91"/>
-      <c r="J86" s="91"/>
-      <c r="K86" s="91"/>
-      <c r="L86" s="91"/>
+      <c r="C86" s="126"/>
+      <c r="D86" s="126"/>
+      <c r="E86" s="126"/>
+      <c r="F86" s="126"/>
+      <c r="G86" s="126"/>
+      <c r="H86" s="126"/>
+      <c r="I86" s="126"/>
+      <c r="J86" s="126"/>
+      <c r="K86" s="126"/>
+      <c r="L86" s="126"/>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="85"/>
-      <c r="B90" s="103" t="s">
+      <c r="B90" s="127" t="s">
         <v>84</v>
       </c>
-      <c r="C90" s="103"/>
-      <c r="D90" s="103"/>
-      <c r="E90" s="103"/>
-      <c r="F90" s="103"/>
-      <c r="G90" s="103"/>
-      <c r="H90" s="103"/>
-      <c r="I90" s="103"/>
-      <c r="J90" s="103"/>
-      <c r="K90" s="103"/>
-      <c r="L90" s="103"/>
+      <c r="C90" s="127"/>
+      <c r="D90" s="127"/>
+      <c r="E90" s="127"/>
+      <c r="F90" s="127"/>
+      <c r="G90" s="127"/>
+      <c r="H90" s="127"/>
+      <c r="I90" s="127"/>
+      <c r="J90" s="127"/>
+      <c r="K90" s="127"/>
+      <c r="L90" s="127"/>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="85"/>
-      <c r="B91" s="91" t="s">
+      <c r="B91" s="126" t="s">
         <v>85</v>
       </c>
-      <c r="C91" s="91"/>
-      <c r="D91" s="91"/>
-      <c r="E91" s="91"/>
-      <c r="F91" s="91"/>
-      <c r="G91" s="91"/>
-      <c r="H91" s="91"/>
-      <c r="I91" s="91"/>
-      <c r="J91" s="91"/>
-      <c r="K91" s="91"/>
-      <c r="L91" s="91"/>
+      <c r="C91" s="126"/>
+      <c r="D91" s="126"/>
+      <c r="E91" s="126"/>
+      <c r="F91" s="126"/>
+      <c r="G91" s="126"/>
+      <c r="H91" s="126"/>
+      <c r="I91" s="126"/>
+      <c r="J91" s="126"/>
+      <c r="K91" s="126"/>
+      <c r="L91" s="126"/>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="85"/>
-      <c r="B92" s="103" t="s">
+      <c r="B92" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="C92" s="103"/>
-      <c r="D92" s="103"/>
-      <c r="E92" s="103"/>
-      <c r="F92" s="103"/>
-      <c r="G92" s="103"/>
-      <c r="H92" s="103"/>
-      <c r="I92" s="103"/>
-      <c r="J92" s="103"/>
-      <c r="K92" s="103"/>
-      <c r="L92" s="103"/>
+      <c r="C92" s="127"/>
+      <c r="D92" s="127"/>
+      <c r="E92" s="127"/>
+      <c r="F92" s="127"/>
+      <c r="G92" s="127"/>
+      <c r="H92" s="127"/>
+      <c r="I92" s="127"/>
+      <c r="J92" s="127"/>
+      <c r="K92" s="127"/>
+      <c r="L92" s="127"/>
     </row>
     <row r="94" spans="1:12">
-      <c r="C94" s="92"/>
-      <c r="D94" s="92"/>
-      <c r="E94" s="92"/>
-      <c r="F94" s="92"/>
-      <c r="G94" s="92"/>
-      <c r="H94" s="92"/>
-      <c r="I94" s="92"/>
+      <c r="C94" s="91"/>
+      <c r="D94" s="91"/>
+      <c r="E94" s="91"/>
+      <c r="F94" s="91"/>
+      <c r="G94" s="91"/>
+      <c r="H94" s="91"/>
+      <c r="I94" s="91"/>
     </row>
     <row r="95" spans="1:12">
-      <c r="C95" s="92"/>
-      <c r="D95" s="92"/>
-      <c r="E95" s="92"/>
-      <c r="F95" s="92"/>
-      <c r="G95" s="92"/>
-      <c r="H95" s="92"/>
-      <c r="I95" s="92"/>
+      <c r="C95" s="91"/>
+      <c r="D95" s="91"/>
+      <c r="E95" s="91"/>
+      <c r="F95" s="91"/>
+      <c r="G95" s="91"/>
+      <c r="H95" s="91"/>
+      <c r="I95" s="91"/>
     </row>
     <row r="96" spans="1:12">
-      <c r="C96" s="92"/>
-      <c r="D96" s="92"/>
-      <c r="E96" s="92"/>
-      <c r="F96" s="92"/>
-      <c r="G96" s="92"/>
-      <c r="H96" s="92"/>
-      <c r="I96" s="92"/>
+      <c r="C96" s="91"/>
+      <c r="D96" s="91"/>
+      <c r="E96" s="91"/>
+      <c r="F96" s="91"/>
+      <c r="G96" s="91"/>
+      <c r="H96" s="91"/>
+      <c r="I96" s="91"/>
     </row>
     <row r="97" spans="3:9">
-      <c r="C97" s="92"/>
-      <c r="D97" s="92"/>
-      <c r="E97" s="92"/>
-      <c r="F97" s="92"/>
-      <c r="G97" s="92"/>
-      <c r="H97" s="92"/>
-      <c r="I97" s="92"/>
+      <c r="C97" s="91"/>
+      <c r="D97" s="91"/>
+      <c r="E97" s="91"/>
+      <c r="F97" s="91"/>
+      <c r="G97" s="91"/>
+      <c r="H97" s="91"/>
+      <c r="I97" s="91"/>
     </row>
     <row r="98" spans="3:9">
-      <c r="C98" s="92"/>
-      <c r="D98" s="92"/>
-      <c r="E98" s="92"/>
-      <c r="F98" s="92"/>
-      <c r="G98" s="92"/>
-      <c r="H98" s="92"/>
-      <c r="I98" s="92"/>
+      <c r="C98" s="91"/>
+      <c r="D98" s="91"/>
+      <c r="E98" s="91"/>
+      <c r="F98" s="91"/>
+      <c r="G98" s="91"/>
+      <c r="H98" s="91"/>
+      <c r="I98" s="91"/>
     </row>
     <row r="99" spans="3:9">
-      <c r="C99" s="92"/>
-      <c r="D99" s="92"/>
-      <c r="E99" s="92"/>
-      <c r="F99" s="92"/>
-      <c r="G99" s="92"/>
-      <c r="H99" s="92"/>
-      <c r="I99" s="92"/>
+      <c r="C99" s="91"/>
+      <c r="D99" s="91"/>
+      <c r="E99" s="91"/>
+      <c r="F99" s="91"/>
+      <c r="G99" s="91"/>
+      <c r="H99" s="91"/>
+      <c r="I99" s="91"/>
     </row>
     <row r="100" spans="3:9">
-      <c r="C100" s="92"/>
-      <c r="D100" s="92"/>
-      <c r="E100" s="92"/>
-      <c r="F100" s="92"/>
-      <c r="G100" s="92"/>
-      <c r="H100" s="92"/>
-      <c r="I100" s="92"/>
+      <c r="C100" s="91"/>
+      <c r="D100" s="91"/>
+      <c r="E100" s="91"/>
+      <c r="F100" s="91"/>
+      <c r="G100" s="91"/>
+      <c r="H100" s="91"/>
+      <c r="I100" s="91"/>
     </row>
     <row r="101" spans="3:9" ht="15.6" customHeight="1">
-      <c r="C101" s="92"/>
-      <c r="D101" s="92"/>
-      <c r="E101" s="92"/>
-      <c r="F101" s="92"/>
-      <c r="G101" s="92"/>
-      <c r="H101" s="92"/>
-      <c r="I101" s="92"/>
+      <c r="C101" s="91"/>
+      <c r="D101" s="91"/>
+      <c r="E101" s="91"/>
+      <c r="F101" s="91"/>
+      <c r="G101" s="91"/>
+      <c r="H101" s="91"/>
+      <c r="I101" s="91"/>
     </row>
     <row r="102" spans="3:9" ht="15.6" customHeight="1">
-      <c r="C102" s="92"/>
-      <c r="D102" s="92"/>
-      <c r="E102" s="92"/>
-      <c r="F102" s="92"/>
-      <c r="G102" s="92"/>
-      <c r="H102" s="92"/>
-      <c r="I102" s="92"/>
+      <c r="C102" s="91"/>
+      <c r="D102" s="91"/>
+      <c r="E102" s="91"/>
+      <c r="F102" s="91"/>
+      <c r="G102" s="91"/>
+      <c r="H102" s="91"/>
+      <c r="I102" s="91"/>
     </row>
     <row r="103" spans="3:9">
-      <c r="C103" s="92"/>
-      <c r="D103" s="92"/>
-      <c r="E103" s="92"/>
-      <c r="F103" s="92"/>
-      <c r="G103" s="92"/>
-      <c r="H103" s="92"/>
-      <c r="I103" s="92"/>
+      <c r="C103" s="91"/>
+      <c r="D103" s="91"/>
+      <c r="E103" s="91"/>
+      <c r="F103" s="91"/>
+      <c r="G103" s="91"/>
+      <c r="H103" s="91"/>
+      <c r="I103" s="91"/>
     </row>
     <row r="109" spans="3:9" ht="15.6" customHeight="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="90">
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="B2:C6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B79:L79"/>
+    <mergeCell ref="B80:L80"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="B61:L61"/>
+    <mergeCell ref="B56:L56"/>
+    <mergeCell ref="B47:L47"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="B43:L43"/>
+    <mergeCell ref="B59:L59"/>
+    <mergeCell ref="B72:L72"/>
+    <mergeCell ref="B73:L73"/>
+    <mergeCell ref="B60:L60"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="B92:L92"/>
+    <mergeCell ref="B69:L69"/>
+    <mergeCell ref="B70:L70"/>
+    <mergeCell ref="B71:L71"/>
+    <mergeCell ref="B62:L62"/>
+    <mergeCell ref="B63:L63"/>
+    <mergeCell ref="B64:L64"/>
+    <mergeCell ref="B65:L65"/>
+    <mergeCell ref="B66:L66"/>
+    <mergeCell ref="B67:L67"/>
+    <mergeCell ref="B68:L68"/>
+    <mergeCell ref="B76:L76"/>
+    <mergeCell ref="B77:L77"/>
+    <mergeCell ref="B78:L78"/>
+    <mergeCell ref="B91:L91"/>
+    <mergeCell ref="B90:L90"/>
+    <mergeCell ref="B86:L86"/>
+    <mergeCell ref="B81:L81"/>
+    <mergeCell ref="B82:L82"/>
+    <mergeCell ref="B83:L83"/>
+    <mergeCell ref="B84:L84"/>
+    <mergeCell ref="B85:L85"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="B49:C54"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B55:L55"/>
+    <mergeCell ref="B45:L45"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B33:L33"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B15:J15"/>
     <mergeCell ref="C94:I103"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="E2:L2"/>
@@ -3744,74 +3923,12 @@
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="B46:L46"/>
     <mergeCell ref="B44:L44"/>
-    <mergeCell ref="B45:L45"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B33:L33"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="B49:C54"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B55:L55"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B86:L86"/>
-    <mergeCell ref="B81:L81"/>
-    <mergeCell ref="B82:L82"/>
-    <mergeCell ref="B83:L83"/>
-    <mergeCell ref="B84:L84"/>
-    <mergeCell ref="B85:L85"/>
-    <mergeCell ref="B92:L92"/>
-    <mergeCell ref="B69:L69"/>
-    <mergeCell ref="B70:L70"/>
-    <mergeCell ref="B71:L71"/>
-    <mergeCell ref="B62:L62"/>
-    <mergeCell ref="B63:L63"/>
-    <mergeCell ref="B64:L64"/>
-    <mergeCell ref="B65:L65"/>
-    <mergeCell ref="B66:L66"/>
-    <mergeCell ref="B67:L67"/>
-    <mergeCell ref="B68:L68"/>
-    <mergeCell ref="B76:L76"/>
-    <mergeCell ref="B77:L77"/>
-    <mergeCell ref="B78:L78"/>
-    <mergeCell ref="B91:L91"/>
-    <mergeCell ref="B90:L90"/>
-    <mergeCell ref="B79:L79"/>
-    <mergeCell ref="B80:L80"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="B61:L61"/>
-    <mergeCell ref="B56:L56"/>
-    <mergeCell ref="B47:L47"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="B43:L43"/>
-    <mergeCell ref="B59:L59"/>
-    <mergeCell ref="B72:L72"/>
-    <mergeCell ref="B73:L73"/>
-    <mergeCell ref="B60:L60"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="B2:C6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F8:G8"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="VERIFICAR NÚMERO DE TELEFONO" error="Verifica que tenga 9 digitos sin espacio" sqref="J8:L8" xr:uid="{CC0405B2-A74A-4E8F-BF03-C34BEE695B67}">
@@ -3863,14 +3980,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:32">
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
     </row>
     <row r="6" spans="2:32" ht="15" customHeight="1">
       <c r="B6" s="70" t="s">
@@ -3920,14 +4037,14 @@
         <f>SUM(C8:E8)</f>
         <v>116</v>
       </c>
-      <c r="J8" s="129" t="s">
+      <c r="J8" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="K8" s="129"/>
-      <c r="M8" s="129" t="s">
+      <c r="K8" s="131"/>
+      <c r="M8" s="131" t="s">
         <v>109</v>
       </c>
-      <c r="N8" s="129"/>
+      <c r="N8" s="131"/>
     </row>
     <row r="9" spans="2:32" ht="15" customHeight="1">
       <c r="B9" s="5" t="s">
@@ -4400,14 +4517,14 @@
       </c>
     </row>
     <row r="23" spans="1:33">
-      <c r="B23" s="130" t="s">
+      <c r="B23" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="130"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
     </row>
     <row r="24" spans="1:33">
       <c r="J24" s="9" t="s">
@@ -4656,14 +4773,14 @@
       <c r="AF34"/>
     </row>
     <row r="35" spans="1:32">
-      <c r="B35" s="132" t="s">
+      <c r="B35" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="132"/>
-      <c r="D35" s="132"/>
-      <c r="E35" s="132"/>
-      <c r="F35" s="132"/>
-      <c r="G35" s="132"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="134"/>
     </row>
     <row r="37" spans="1:32">
       <c r="C37" s="21">

--- a/assets/downloads/Boleta_Template.xlsx
+++ b/assets/downloads/Boleta_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\probusinees-intranet\assets\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76BA5F1-EDE3-4BEB-8052-852A82637DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C12892D-93C6-48CE-A85E-C979C5E4FF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -570,9 +570,6 @@
     <t>COTIZACION N002</t>
   </si>
   <si>
-    <t>RUC: 20603287721</t>
-  </si>
-  <si>
     <t>MEDIDA:</t>
   </si>
   <si>
@@ -580,6 +577,9 @@
   </si>
   <si>
     <t>GRUPO PROBUSINESS S.A.C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          RUC: 20603287721</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1055,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1256,10 +1256,90 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="171" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1271,90 +1351,9 @@
     <xf numFmtId="14" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1367,6 +1366,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Millares" xfId="3" builtinId="3"/>
@@ -2000,9 +2003,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>500743</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>206828</xdr:rowOff>
+      <xdr:colOff>511628</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1209675" cy="1190625"/>
     <xdr:pic>
@@ -2026,7 +2029,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="990600" y="9339942"/>
+          <a:off x="1001485" y="9557656"/>
           <a:ext cx="1209675" cy="1190625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2342,10 +2345,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:L109"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50:L50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49:M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4"/>
@@ -2366,82 +2369,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1">
-      <c r="A1" s="95"/>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
+      <c r="A1" s="94"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
     </row>
     <row r="3" spans="1:12" ht="25.8">
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="E3" s="101" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="E3" s="116" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
     </row>
     <row r="4" spans="1:12" ht="25.8">
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="E4" s="102" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="E4" s="117" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
       <c r="K4" s="35"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
       <c r="D5" s="89"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
       <c r="D6" s="53"/>
       <c r="F6" s="53"/>
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="E7" s="92" t="s">
+      <c r="A7" s="92"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="E7" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="30" t="s">
@@ -2454,20 +2457,20 @@
       <c r="E8" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="97" t="s">
+      <c r="F8" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="98"/>
+      <c r="G8" s="129"/>
       <c r="H8" s="86"/>
       <c r="I8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="112">
+      <c r="J8" s="121">
         <f>+'2'!F7</f>
         <v>8</v>
       </c>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="30" t="s">
@@ -2480,21 +2483,21 @@
       <c r="E9" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="93">
+      <c r="F9" s="125">
         <f ca="1">+TODAY()</f>
         <v>45460</v>
       </c>
-      <c r="G9" s="94"/>
+      <c r="G9" s="126"/>
       <c r="H9" s="86"/>
       <c r="I9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="90">
+      <c r="J9" s="123">
         <f>+'2'!F8</f>
         <v>116</v>
       </c>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="30" t="s">
@@ -2507,19 +2510,19 @@
       <c r="E10" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="95" t="s">
+      <c r="F10" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="96"/>
+      <c r="G10" s="127"/>
       <c r="H10" s="86"/>
       <c r="I10" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J10" s="113">
+        <v>121</v>
+      </c>
+      <c r="J10" s="122">
         <v>0</v>
       </c>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="30" t="s">
@@ -2532,44 +2535,44 @@
       <c r="E11" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="115"/>
-      <c r="G11" s="116"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="110"/>
       <c r="H11" s="86"/>
       <c r="I11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="130">
+      <c r="J11" s="103">
         <f>+'2'!F9</f>
         <v>1.1879999999999999</v>
       </c>
-      <c r="K11" s="130"/>
-      <c r="L11" s="130"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="103"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
       <c r="K13" s="32" t="s">
         <v>34</v>
       </c>
@@ -2578,17 +2581,17 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="124"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
       <c r="K14" s="37">
         <f>'2'!F13</f>
         <v>944.03</v>
@@ -2598,17 +2601,17 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="125"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
       <c r="K15" s="38">
         <f>'2'!F16+'2'!F19</f>
         <v>299.47999999999996</v>
@@ -2618,17 +2621,17 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="B16" s="119" t="s">
+      <c r="B16" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
       <c r="K16" s="37">
         <f>SUM(K14:K15)</f>
         <v>1243.51</v>
@@ -2664,13 +2667,13 @@
       <c r="L18" s="29"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="121" t="s">
+      <c r="B19" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
@@ -2685,16 +2688,16 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
       <c r="J20" s="47">
         <f>MAX('2'!C26:E26)</f>
         <v>0.04</v>
@@ -2708,16 +2711,16 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
       <c r="J21" s="47">
         <v>0.16</v>
       </c>
@@ -2730,16 +2733,16 @@
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="115" t="s">
+      <c r="B22" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
       <c r="J22" s="47">
         <v>0.02</v>
       </c>
@@ -2752,16 +2755,16 @@
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="119" t="s">
+      <c r="B23" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
       <c r="J23" s="75"/>
       <c r="K23" s="76">
         <f>SUM(K20:K22)</f>
@@ -2772,29 +2775,29 @@
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="117"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
       <c r="J24" s="2"/>
       <c r="K24" s="33"/>
       <c r="L24" s="31"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="115" t="s">
+      <c r="B25" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="109"/>
       <c r="J25" s="48" t="s">
         <v>76</v>
       </c>
@@ -2807,16 +2810,16 @@
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="119" t="s">
+      <c r="B26" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
       <c r="K26" s="37">
         <f>K23+K25</f>
         <v>316.1151070046609</v>
@@ -2826,27 +2829,27 @@
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
     </row>
     <row r="28" spans="2:12" ht="15.6">
-      <c r="B28" s="120" t="s">
+      <c r="B28" s="112" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="120"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="112"/>
       <c r="K28" s="60" t="s">
         <v>34</v>
       </c>
@@ -2855,17 +2858,17 @@
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="117" t="s">
+      <c r="B29" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="117"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="117"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="117"/>
-      <c r="H29" s="117"/>
-      <c r="I29" s="117"/>
-      <c r="J29" s="117"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
       <c r="K29" s="37">
         <f>K14</f>
         <v>944.03</v>
@@ -2875,17 +2878,17 @@
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="117" t="s">
+      <c r="B30" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="117"/>
-      <c r="I30" s="117"/>
-      <c r="J30" s="117"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
       <c r="K30" s="37">
         <f>+'2'!K22</f>
         <v>415.79999999999995</v>
@@ -2895,17 +2898,17 @@
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="115" t="s">
+      <c r="B31" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="115"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
       <c r="K31" s="38">
         <f>K26</f>
         <v>316.1151070046609</v>
@@ -2915,17 +2918,17 @@
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="119" t="s">
+      <c r="B32" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="119"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
       <c r="K32" s="37">
         <f>SUM(K29:K31)</f>
         <v>1675.9451070046607</v>
@@ -2935,79 +2938,79 @@
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="118"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="118"/>
-      <c r="K33" s="118"/>
-      <c r="L33" s="118"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="111"/>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="109" t="s">
+      <c r="B34" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="110"/>
-      <c r="I34" s="110"/>
-      <c r="J34" s="110"/>
-      <c r="K34" s="110"/>
-      <c r="L34" s="111"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="119"/>
+      <c r="H34" s="119"/>
+      <c r="I34" s="119"/>
+      <c r="J34" s="119"/>
+      <c r="K34" s="119"/>
+      <c r="L34" s="120"/>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="104" t="s">
+      <c r="C35" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="105"/>
-      <c r="E35" s="106"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="98"/>
       <c r="F35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="104" t="s">
+      <c r="G35" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="H35" s="106"/>
+      <c r="H35" s="98"/>
       <c r="I35" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J35" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="103" t="s">
+      <c r="K35" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="L35" s="103"/>
+      <c r="L35" s="107"/>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="46">
         <v>1</v>
       </c>
-      <c r="C36" s="104" t="str">
+      <c r="C36" s="96" t="str">
         <f>+'2'!$C$6</f>
         <v xml:space="preserve">Kids Car Seat Belt Pillow </v>
       </c>
-      <c r="D36" s="105"/>
-      <c r="E36" s="106"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="98"/>
       <c r="F36" s="7">
         <f>+'2'!$C$45</f>
         <v>100</v>
       </c>
-      <c r="G36" s="107">
+      <c r="G36" s="101">
         <f>+'2'!$C$10</f>
         <v>6.36</v>
       </c>
-      <c r="H36" s="108"/>
+      <c r="H36" s="102"/>
       <c r="I36" s="55">
         <f>+'2'!$C$46</f>
         <v>11.424505892807643</v>
@@ -3016,31 +3019,31 @@
         <f t="shared" ref="J36:J38" si="0">+F36*I36</f>
         <v>1142.4505892807642</v>
       </c>
-      <c r="K36" s="103">
+      <c r="K36" s="107">
         <f t="shared" ref="K36" si="1">I36*3.7</f>
         <v>42.270671803388282</v>
       </c>
-      <c r="L36" s="103"/>
+      <c r="L36" s="107"/>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="46">
         <v>2</v>
       </c>
-      <c r="C37" s="104" t="str">
+      <c r="C37" s="96" t="str">
         <f>+'2'!$D$6</f>
         <v>Car Headrest</v>
       </c>
-      <c r="D37" s="105"/>
-      <c r="E37" s="106"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="98"/>
       <c r="F37" s="7">
         <f>+'2'!$D$45</f>
         <v>1</v>
       </c>
-      <c r="G37" s="107">
+      <c r="G37" s="101">
         <f>+'2'!$D$10</f>
         <v>8.0299999999999994</v>
       </c>
-      <c r="H37" s="108"/>
+      <c r="H37" s="102"/>
       <c r="I37" s="55">
         <f>+'2'!$D$46</f>
         <v>13.907609574791055</v>
@@ -3049,31 +3052,31 @@
         <f t="shared" si="0"/>
         <v>13.907609574791055</v>
       </c>
-      <c r="K37" s="103">
+      <c r="K37" s="107">
         <f t="shared" ref="K37:K38" si="2">I37*3.7</f>
         <v>51.458155426726904</v>
       </c>
-      <c r="L37" s="103"/>
+      <c r="L37" s="107"/>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="46">
         <v>3</v>
       </c>
-      <c r="C38" s="104" t="str">
+      <c r="C38" s="96" t="str">
         <f>+'2'!$E$6</f>
         <v>Bluetooth sleep mask</v>
       </c>
-      <c r="D38" s="105"/>
-      <c r="E38" s="106"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="98"/>
       <c r="F38" s="7">
         <f>+'2'!$E$45</f>
         <v>50</v>
       </c>
-      <c r="G38" s="107">
+      <c r="G38" s="101">
         <f>+'2'!$E$10</f>
         <v>6</v>
       </c>
-      <c r="H38" s="108"/>
+      <c r="H38" s="102"/>
       <c r="I38" s="55">
         <f>+'2'!$E$46</f>
         <v>10.391738162982108</v>
@@ -3082,11 +3085,11 @@
         <f t="shared" si="0"/>
         <v>519.5869081491054</v>
       </c>
-      <c r="K38" s="128">
+      <c r="K38" s="99">
         <f t="shared" si="2"/>
         <v>38.449431203033804</v>
       </c>
-      <c r="L38" s="129"/>
+      <c r="L38" s="100"/>
     </row>
     <row r="39" spans="2:12" ht="15.6">
       <c r="B39" s="49" t="s">
@@ -3148,79 +3151,79 @@
       <c r="K42" s="29"/>
     </row>
     <row r="43" spans="2:12" ht="18">
-      <c r="B43" s="114" t="s">
+      <c r="B43" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="114"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="114"/>
-      <c r="F43" s="114"/>
-      <c r="G43" s="114"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="114"/>
-      <c r="J43" s="114"/>
-      <c r="K43" s="114"/>
-      <c r="L43" s="114"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
     </row>
     <row r="44" spans="2:12" ht="18">
-      <c r="B44" s="114" t="s">
+      <c r="B44" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="114"/>
-      <c r="F44" s="114"/>
-      <c r="G44" s="114"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="114"/>
-      <c r="J44" s="114"/>
-      <c r="K44" s="114"/>
-      <c r="L44" s="114"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="95"/>
+      <c r="L44" s="95"/>
     </row>
     <row r="45" spans="2:12" ht="18">
-      <c r="B45" s="114" t="s">
+      <c r="B45" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="114"/>
-      <c r="K45" s="114"/>
-      <c r="L45" s="114"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="95"/>
+      <c r="K45" s="95"/>
+      <c r="L45" s="95"/>
     </row>
     <row r="46" spans="2:12" ht="18">
-      <c r="B46" s="114" t="s">
+      <c r="B46" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="114"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="114"/>
-      <c r="J46" s="114"/>
-      <c r="K46" s="114"/>
-      <c r="L46" s="114"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="95"/>
+      <c r="K46" s="95"/>
+      <c r="L46" s="95"/>
     </row>
     <row r="47" spans="2:12" ht="18">
-      <c r="B47" s="114" t="s">
+      <c r="B47" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="114"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="114"/>
-      <c r="G47" s="114"/>
-      <c r="H47" s="114"/>
-      <c r="I47" s="114"/>
-      <c r="J47" s="114"/>
-      <c r="K47" s="114"/>
-      <c r="L47" s="114"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="95"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="95"/>
+      <c r="L47" s="95"/>
     </row>
     <row r="48" spans="2:12">
       <c r="B48" s="29"/>
@@ -3235,610 +3238,695 @@
       <c r="K48" s="29"/>
       <c r="L48" s="29"/>
     </row>
-    <row r="49" spans="2:12" ht="9" customHeight="1">
-      <c r="B49" s="91"/>
-      <c r="C49" s="91"/>
-    </row>
-    <row r="50" spans="2:12" ht="31.8" customHeight="1">
-      <c r="B50" s="91"/>
-      <c r="C50" s="91"/>
-      <c r="D50" s="99" t="s">
+    <row r="49" spans="2:13" ht="9" customHeight="1">
+      <c r="B49" s="92"/>
+      <c r="C49" s="92"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="92"/>
+      <c r="H49" s="92"/>
+      <c r="I49" s="92"/>
+      <c r="J49" s="92"/>
+      <c r="K49" s="92"/>
+      <c r="L49" s="92"/>
+      <c r="M49" s="92"/>
+    </row>
+    <row r="50" spans="2:13" ht="31.8" customHeight="1">
+      <c r="B50" s="92"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="134" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" s="134"/>
+      <c r="F50" s="134"/>
+      <c r="G50" s="134"/>
+      <c r="H50" s="134"/>
+      <c r="I50" s="134"/>
+      <c r="J50" s="134"/>
+      <c r="K50" s="134"/>
+      <c r="L50" s="134"/>
+      <c r="M50" s="134"/>
+    </row>
+    <row r="51" spans="2:13" ht="18" customHeight="1">
+      <c r="B51" s="92"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="115" t="s">
         <v>124</v>
       </c>
-      <c r="E50" s="99"/>
-      <c r="F50" s="99"/>
-      <c r="G50" s="99"/>
-      <c r="H50" s="99"/>
-      <c r="I50" s="99"/>
-      <c r="J50" s="99"/>
-      <c r="K50" s="99"/>
-      <c r="L50" s="99"/>
-    </row>
-    <row r="51" spans="2:12" ht="18" customHeight="1">
-      <c r="B51" s="91"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="100" t="s">
-        <v>121</v>
-      </c>
-      <c r="E51" s="100"/>
-      <c r="F51" s="100"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="100"/>
-      <c r="I51" s="100"/>
-      <c r="J51" s="91"/>
-      <c r="K51" s="91"/>
-      <c r="L51" s="91"/>
-    </row>
-    <row r="52" spans="2:12">
-      <c r="B52" s="91"/>
-      <c r="C52" s="91"/>
-    </row>
-    <row r="53" spans="2:12">
-      <c r="B53" s="91"/>
-      <c r="C53" s="91"/>
-    </row>
-    <row r="54" spans="2:12">
-      <c r="B54" s="91"/>
-      <c r="C54" s="91"/>
-    </row>
-    <row r="55" spans="2:12" ht="21">
-      <c r="B55" s="122" t="s">
+      <c r="E51" s="115"/>
+      <c r="F51" s="115"/>
+      <c r="G51" s="115"/>
+      <c r="H51" s="115"/>
+      <c r="I51" s="115"/>
+      <c r="J51" s="135"/>
+      <c r="K51" s="135"/>
+      <c r="L51" s="135"/>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="B52" s="92"/>
+      <c r="C52" s="92"/>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="B53" s="92"/>
+      <c r="C53" s="92"/>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="B54" s="92"/>
+      <c r="C54" s="92"/>
+    </row>
+    <row r="55" spans="2:13" ht="21">
+      <c r="B55" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="122"/>
-      <c r="D55" s="122"/>
-      <c r="E55" s="122"/>
-      <c r="F55" s="122"/>
-      <c r="G55" s="122"/>
-      <c r="H55" s="122"/>
-      <c r="I55" s="122"/>
-      <c r="J55" s="122"/>
-      <c r="K55" s="122"/>
-      <c r="L55" s="122"/>
-    </row>
-    <row r="56" spans="2:12">
-      <c r="B56" s="95"/>
-      <c r="C56" s="95"/>
-      <c r="D56" s="95"/>
-      <c r="E56" s="95"/>
-      <c r="F56" s="95"/>
-      <c r="G56" s="95"/>
-      <c r="H56" s="95"/>
-      <c r="I56" s="95"/>
-      <c r="J56" s="95"/>
-      <c r="K56" s="95"/>
-      <c r="L56" s="95"/>
-    </row>
-    <row r="59" spans="2:12">
-      <c r="B59" s="126" t="s">
+      <c r="C55" s="106"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="106"/>
+      <c r="F55" s="106"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="106"/>
+      <c r="I55" s="106"/>
+      <c r="J55" s="106"/>
+      <c r="K55" s="106"/>
+      <c r="L55" s="106"/>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56" s="94"/>
+      <c r="C56" s="94"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="94"/>
+      <c r="F56" s="94"/>
+      <c r="G56" s="94"/>
+      <c r="H56" s="94"/>
+      <c r="I56" s="94"/>
+      <c r="J56" s="94"/>
+      <c r="K56" s="94"/>
+      <c r="L56" s="94"/>
+    </row>
+    <row r="59" spans="2:13">
+      <c r="B59" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="126"/>
-      <c r="D59" s="126"/>
-      <c r="E59" s="126"/>
-      <c r="F59" s="126"/>
-      <c r="G59" s="126"/>
-      <c r="H59" s="126"/>
-      <c r="I59" s="126"/>
-      <c r="J59" s="126"/>
-      <c r="K59" s="126"/>
-      <c r="L59" s="126"/>
-    </row>
-    <row r="60" spans="2:12">
-      <c r="B60" s="126" t="s">
+      <c r="C59" s="91"/>
+      <c r="D59" s="91"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="91"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="91"/>
+      <c r="I59" s="91"/>
+      <c r="J59" s="91"/>
+      <c r="K59" s="91"/>
+      <c r="L59" s="91"/>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="B60" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="126"/>
-      <c r="D60" s="126"/>
-      <c r="E60" s="126"/>
-      <c r="F60" s="126"/>
-      <c r="G60" s="126"/>
-      <c r="H60" s="126"/>
-      <c r="I60" s="126"/>
-      <c r="J60" s="126"/>
-      <c r="K60" s="126"/>
-      <c r="L60" s="126"/>
-    </row>
-    <row r="61" spans="2:12">
-      <c r="B61" s="117" t="s">
+      <c r="C60" s="91"/>
+      <c r="D60" s="91"/>
+      <c r="E60" s="91"/>
+      <c r="F60" s="91"/>
+      <c r="G60" s="91"/>
+      <c r="H60" s="91"/>
+      <c r="I60" s="91"/>
+      <c r="J60" s="91"/>
+      <c r="K60" s="91"/>
+      <c r="L60" s="91"/>
+    </row>
+    <row r="61" spans="2:13">
+      <c r="B61" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="117"/>
-      <c r="D61" s="117"/>
-      <c r="E61" s="117"/>
-      <c r="F61" s="117"/>
-      <c r="G61" s="117"/>
-      <c r="H61" s="117"/>
-      <c r="I61" s="117"/>
-      <c r="J61" s="117"/>
-      <c r="K61" s="117"/>
-      <c r="L61" s="117"/>
-    </row>
-    <row r="62" spans="2:12">
-      <c r="B62" s="126" t="s">
+      <c r="C61" s="93"/>
+      <c r="D61" s="93"/>
+      <c r="E61" s="93"/>
+      <c r="F61" s="93"/>
+      <c r="G61" s="93"/>
+      <c r="H61" s="93"/>
+      <c r="I61" s="93"/>
+      <c r="J61" s="93"/>
+      <c r="K61" s="93"/>
+      <c r="L61" s="93"/>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="B62" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="126"/>
-      <c r="D62" s="126"/>
-      <c r="E62" s="126"/>
-      <c r="F62" s="126"/>
-      <c r="G62" s="126"/>
-      <c r="H62" s="126"/>
-      <c r="I62" s="126"/>
-      <c r="J62" s="126"/>
-      <c r="K62" s="126"/>
-      <c r="L62" s="126"/>
-    </row>
-    <row r="63" spans="2:12">
-      <c r="B63" s="126" t="s">
+      <c r="C62" s="91"/>
+      <c r="D62" s="91"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="91"/>
+      <c r="G62" s="91"/>
+      <c r="H62" s="91"/>
+      <c r="I62" s="91"/>
+      <c r="J62" s="91"/>
+      <c r="K62" s="91"/>
+      <c r="L62" s="91"/>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="B63" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="126"/>
-      <c r="D63" s="126"/>
-      <c r="E63" s="126"/>
-      <c r="F63" s="126"/>
-      <c r="G63" s="126"/>
-      <c r="H63" s="126"/>
-      <c r="I63" s="126"/>
-      <c r="J63" s="126"/>
-      <c r="K63" s="126"/>
-      <c r="L63" s="126"/>
-    </row>
-    <row r="64" spans="2:12">
-      <c r="B64" s="117" t="s">
+      <c r="C63" s="91"/>
+      <c r="D63" s="91"/>
+      <c r="E63" s="91"/>
+      <c r="F63" s="91"/>
+      <c r="G63" s="91"/>
+      <c r="H63" s="91"/>
+      <c r="I63" s="91"/>
+      <c r="J63" s="91"/>
+      <c r="K63" s="91"/>
+      <c r="L63" s="91"/>
+    </row>
+    <row r="64" spans="2:13">
+      <c r="B64" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="117"/>
-      <c r="D64" s="117"/>
-      <c r="E64" s="117"/>
-      <c r="F64" s="117"/>
-      <c r="G64" s="117"/>
-      <c r="H64" s="117"/>
-      <c r="I64" s="117"/>
-      <c r="J64" s="117"/>
-      <c r="K64" s="117"/>
-      <c r="L64" s="117"/>
+      <c r="C64" s="93"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="93"/>
+      <c r="F64" s="93"/>
+      <c r="G64" s="93"/>
+      <c r="H64" s="93"/>
+      <c r="I64" s="93"/>
+      <c r="J64" s="93"/>
+      <c r="K64" s="93"/>
+      <c r="L64" s="93"/>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="126" t="s">
+      <c r="B65" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C65" s="126"/>
-      <c r="D65" s="126"/>
-      <c r="E65" s="126"/>
-      <c r="F65" s="126"/>
-      <c r="G65" s="126"/>
-      <c r="H65" s="126"/>
-      <c r="I65" s="126"/>
-      <c r="J65" s="126"/>
-      <c r="K65" s="126"/>
-      <c r="L65" s="126"/>
+      <c r="C65" s="91"/>
+      <c r="D65" s="91"/>
+      <c r="E65" s="91"/>
+      <c r="F65" s="91"/>
+      <c r="G65" s="91"/>
+      <c r="H65" s="91"/>
+      <c r="I65" s="91"/>
+      <c r="J65" s="91"/>
+      <c r="K65" s="91"/>
+      <c r="L65" s="91"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="126" t="s">
+      <c r="B66" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="126"/>
-      <c r="D66" s="126"/>
-      <c r="E66" s="126"/>
-      <c r="F66" s="126"/>
-      <c r="G66" s="126"/>
-      <c r="H66" s="126"/>
-      <c r="I66" s="126"/>
-      <c r="J66" s="126"/>
-      <c r="K66" s="126"/>
-      <c r="L66" s="126"/>
+      <c r="C66" s="91"/>
+      <c r="D66" s="91"/>
+      <c r="E66" s="91"/>
+      <c r="F66" s="91"/>
+      <c r="G66" s="91"/>
+      <c r="H66" s="91"/>
+      <c r="I66" s="91"/>
+      <c r="J66" s="91"/>
+      <c r="K66" s="91"/>
+      <c r="L66" s="91"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="126" t="s">
+      <c r="B67" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="126"/>
-      <c r="D67" s="126"/>
-      <c r="E67" s="126"/>
-      <c r="F67" s="126"/>
-      <c r="G67" s="126"/>
-      <c r="H67" s="126"/>
-      <c r="I67" s="126"/>
-      <c r="J67" s="126"/>
-      <c r="K67" s="126"/>
-      <c r="L67" s="126"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="91"/>
+      <c r="E67" s="91"/>
+      <c r="F67" s="91"/>
+      <c r="G67" s="91"/>
+      <c r="H67" s="91"/>
+      <c r="I67" s="91"/>
+      <c r="J67" s="91"/>
+      <c r="K67" s="91"/>
+      <c r="L67" s="91"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="126" t="s">
+      <c r="B68" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="126"/>
-      <c r="D68" s="126"/>
-      <c r="E68" s="126"/>
-      <c r="F68" s="126"/>
-      <c r="G68" s="126"/>
-      <c r="H68" s="126"/>
-      <c r="I68" s="126"/>
-      <c r="J68" s="126"/>
-      <c r="K68" s="126"/>
-      <c r="L68" s="126"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="91"/>
+      <c r="E68" s="91"/>
+      <c r="F68" s="91"/>
+      <c r="G68" s="91"/>
+      <c r="H68" s="91"/>
+      <c r="I68" s="91"/>
+      <c r="J68" s="91"/>
+      <c r="K68" s="91"/>
+      <c r="L68" s="91"/>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="126" t="s">
+      <c r="B69" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="126"/>
-      <c r="D69" s="126"/>
-      <c r="E69" s="126"/>
-      <c r="F69" s="126"/>
-      <c r="G69" s="126"/>
-      <c r="H69" s="126"/>
-      <c r="I69" s="126"/>
-      <c r="J69" s="126"/>
-      <c r="K69" s="126"/>
-      <c r="L69" s="126"/>
+      <c r="C69" s="91"/>
+      <c r="D69" s="91"/>
+      <c r="E69" s="91"/>
+      <c r="F69" s="91"/>
+      <c r="G69" s="91"/>
+      <c r="H69" s="91"/>
+      <c r="I69" s="91"/>
+      <c r="J69" s="91"/>
+      <c r="K69" s="91"/>
+      <c r="L69" s="91"/>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="126" t="s">
+      <c r="B70" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="C70" s="126"/>
-      <c r="D70" s="126"/>
-      <c r="E70" s="126"/>
-      <c r="F70" s="126"/>
-      <c r="G70" s="126"/>
-      <c r="H70" s="126"/>
-      <c r="I70" s="126"/>
-      <c r="J70" s="126"/>
-      <c r="K70" s="126"/>
-      <c r="L70" s="126"/>
+      <c r="C70" s="91"/>
+      <c r="D70" s="91"/>
+      <c r="E70" s="91"/>
+      <c r="F70" s="91"/>
+      <c r="G70" s="91"/>
+      <c r="H70" s="91"/>
+      <c r="I70" s="91"/>
+      <c r="J70" s="91"/>
+      <c r="K70" s="91"/>
+      <c r="L70" s="91"/>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="126" t="s">
+      <c r="B71" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="C71" s="126"/>
-      <c r="D71" s="126"/>
-      <c r="E71" s="126"/>
-      <c r="F71" s="126"/>
-      <c r="G71" s="126"/>
-      <c r="H71" s="126"/>
-      <c r="I71" s="126"/>
-      <c r="J71" s="126"/>
-      <c r="K71" s="126"/>
-      <c r="L71" s="126"/>
+      <c r="C71" s="91"/>
+      <c r="D71" s="91"/>
+      <c r="E71" s="91"/>
+      <c r="F71" s="91"/>
+      <c r="G71" s="91"/>
+      <c r="H71" s="91"/>
+      <c r="I71" s="91"/>
+      <c r="J71" s="91"/>
+      <c r="K71" s="91"/>
+      <c r="L71" s="91"/>
     </row>
     <row r="72" spans="2:12">
-      <c r="B72" s="126" t="s">
+      <c r="B72" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="C72" s="126"/>
-      <c r="D72" s="126"/>
-      <c r="E72" s="126"/>
-      <c r="F72" s="126"/>
-      <c r="G72" s="126"/>
-      <c r="H72" s="126"/>
-      <c r="I72" s="126"/>
-      <c r="J72" s="126"/>
-      <c r="K72" s="126"/>
-      <c r="L72" s="126"/>
+      <c r="C72" s="91"/>
+      <c r="D72" s="91"/>
+      <c r="E72" s="91"/>
+      <c r="F72" s="91"/>
+      <c r="G72" s="91"/>
+      <c r="H72" s="91"/>
+      <c r="I72" s="91"/>
+      <c r="J72" s="91"/>
+      <c r="K72" s="91"/>
+      <c r="L72" s="91"/>
     </row>
     <row r="73" spans="2:12">
-      <c r="B73" s="95"/>
-      <c r="C73" s="95"/>
-      <c r="D73" s="95"/>
-      <c r="E73" s="95"/>
-      <c r="F73" s="95"/>
-      <c r="G73" s="95"/>
-      <c r="H73" s="95"/>
-      <c r="I73" s="95"/>
-      <c r="J73" s="95"/>
-      <c r="K73" s="95"/>
-      <c r="L73" s="95"/>
+      <c r="B73" s="94"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="94"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="94"/>
+      <c r="H73" s="94"/>
+      <c r="I73" s="94"/>
+      <c r="J73" s="94"/>
+      <c r="K73" s="94"/>
+      <c r="L73" s="94"/>
     </row>
     <row r="76" spans="2:12">
-      <c r="B76" s="126" t="s">
+      <c r="B76" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="C76" s="126"/>
-      <c r="D76" s="126"/>
-      <c r="E76" s="126"/>
-      <c r="F76" s="126"/>
-      <c r="G76" s="126"/>
-      <c r="H76" s="126"/>
-      <c r="I76" s="126"/>
-      <c r="J76" s="126"/>
-      <c r="K76" s="126"/>
-      <c r="L76" s="126"/>
+      <c r="C76" s="91"/>
+      <c r="D76" s="91"/>
+      <c r="E76" s="91"/>
+      <c r="F76" s="91"/>
+      <c r="G76" s="91"/>
+      <c r="H76" s="91"/>
+      <c r="I76" s="91"/>
+      <c r="J76" s="91"/>
+      <c r="K76" s="91"/>
+      <c r="L76" s="91"/>
     </row>
     <row r="77" spans="2:12">
-      <c r="B77" s="126" t="s">
+      <c r="B77" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="C77" s="126"/>
-      <c r="D77" s="126"/>
-      <c r="E77" s="126"/>
-      <c r="F77" s="126"/>
-      <c r="G77" s="126"/>
-      <c r="H77" s="126"/>
-      <c r="I77" s="126"/>
-      <c r="J77" s="126"/>
-      <c r="K77" s="126"/>
-      <c r="L77" s="126"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="91"/>
+      <c r="E77" s="91"/>
+      <c r="F77" s="91"/>
+      <c r="G77" s="91"/>
+      <c r="H77" s="91"/>
+      <c r="I77" s="91"/>
+      <c r="J77" s="91"/>
+      <c r="K77" s="91"/>
+      <c r="L77" s="91"/>
     </row>
     <row r="78" spans="2:12">
-      <c r="B78" s="126" t="s">
+      <c r="B78" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="C78" s="126"/>
-      <c r="D78" s="126"/>
-      <c r="E78" s="126"/>
-      <c r="F78" s="126"/>
-      <c r="G78" s="126"/>
-      <c r="H78" s="126"/>
-      <c r="I78" s="126"/>
-      <c r="J78" s="126"/>
-      <c r="K78" s="126"/>
-      <c r="L78" s="126"/>
+      <c r="C78" s="91"/>
+      <c r="D78" s="91"/>
+      <c r="E78" s="91"/>
+      <c r="F78" s="91"/>
+      <c r="G78" s="91"/>
+      <c r="H78" s="91"/>
+      <c r="I78" s="91"/>
+      <c r="J78" s="91"/>
+      <c r="K78" s="91"/>
+      <c r="L78" s="91"/>
     </row>
     <row r="79" spans="2:12">
-      <c r="B79" s="124" t="s">
+      <c r="B79" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="C79" s="124"/>
-      <c r="D79" s="124"/>
-      <c r="E79" s="124"/>
-      <c r="F79" s="124"/>
-      <c r="G79" s="124"/>
-      <c r="H79" s="124"/>
-      <c r="I79" s="124"/>
-      <c r="J79" s="124"/>
-      <c r="K79" s="124"/>
-      <c r="L79" s="124"/>
+      <c r="C79" s="90"/>
+      <c r="D79" s="90"/>
+      <c r="E79" s="90"/>
+      <c r="F79" s="90"/>
+      <c r="G79" s="90"/>
+      <c r="H79" s="90"/>
+      <c r="I79" s="90"/>
+      <c r="J79" s="90"/>
+      <c r="K79" s="90"/>
+      <c r="L79" s="90"/>
     </row>
     <row r="80" spans="2:12">
-      <c r="B80" s="126" t="s">
+      <c r="B80" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="C80" s="126"/>
-      <c r="D80" s="126"/>
-      <c r="E80" s="126"/>
-      <c r="F80" s="126"/>
-      <c r="G80" s="126"/>
-      <c r="H80" s="126"/>
-      <c r="I80" s="126"/>
-      <c r="J80" s="126"/>
-      <c r="K80" s="126"/>
-      <c r="L80" s="126"/>
+      <c r="C80" s="91"/>
+      <c r="D80" s="91"/>
+      <c r="E80" s="91"/>
+      <c r="F80" s="91"/>
+      <c r="G80" s="91"/>
+      <c r="H80" s="91"/>
+      <c r="I80" s="91"/>
+      <c r="J80" s="91"/>
+      <c r="K80" s="91"/>
+      <c r="L80" s="91"/>
     </row>
     <row r="81" spans="1:12">
-      <c r="B81" s="124" t="s">
+      <c r="B81" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="C81" s="124"/>
-      <c r="D81" s="124"/>
-      <c r="E81" s="124"/>
-      <c r="F81" s="124"/>
-      <c r="G81" s="124"/>
-      <c r="H81" s="124"/>
-      <c r="I81" s="124"/>
-      <c r="J81" s="124"/>
-      <c r="K81" s="124"/>
-      <c r="L81" s="124"/>
+      <c r="C81" s="90"/>
+      <c r="D81" s="90"/>
+      <c r="E81" s="90"/>
+      <c r="F81" s="90"/>
+      <c r="G81" s="90"/>
+      <c r="H81" s="90"/>
+      <c r="I81" s="90"/>
+      <c r="J81" s="90"/>
+      <c r="K81" s="90"/>
+      <c r="L81" s="90"/>
     </row>
     <row r="82" spans="1:12">
-      <c r="B82" s="126" t="s">
+      <c r="B82" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="C82" s="126"/>
-      <c r="D82" s="126"/>
-      <c r="E82" s="126"/>
-      <c r="F82" s="126"/>
-      <c r="G82" s="126"/>
-      <c r="H82" s="126"/>
-      <c r="I82" s="126"/>
-      <c r="J82" s="126"/>
-      <c r="K82" s="126"/>
-      <c r="L82" s="126"/>
+      <c r="C82" s="91"/>
+      <c r="D82" s="91"/>
+      <c r="E82" s="91"/>
+      <c r="F82" s="91"/>
+      <c r="G82" s="91"/>
+      <c r="H82" s="91"/>
+      <c r="I82" s="91"/>
+      <c r="J82" s="91"/>
+      <c r="K82" s="91"/>
+      <c r="L82" s="91"/>
     </row>
     <row r="83" spans="1:12">
-      <c r="B83" s="126" t="s">
+      <c r="B83" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="C83" s="126"/>
-      <c r="D83" s="126"/>
-      <c r="E83" s="126"/>
-      <c r="F83" s="126"/>
-      <c r="G83" s="126"/>
-      <c r="H83" s="126"/>
-      <c r="I83" s="126"/>
-      <c r="J83" s="126"/>
-      <c r="K83" s="126"/>
-      <c r="L83" s="126"/>
+      <c r="C83" s="91"/>
+      <c r="D83" s="91"/>
+      <c r="E83" s="91"/>
+      <c r="F83" s="91"/>
+      <c r="G83" s="91"/>
+      <c r="H83" s="91"/>
+      <c r="I83" s="91"/>
+      <c r="J83" s="91"/>
+      <c r="K83" s="91"/>
+      <c r="L83" s="91"/>
     </row>
     <row r="84" spans="1:12">
-      <c r="B84" s="126" t="s">
+      <c r="B84" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="C84" s="126"/>
-      <c r="D84" s="126"/>
-      <c r="E84" s="126"/>
-      <c r="F84" s="126"/>
-      <c r="G84" s="126"/>
-      <c r="H84" s="126"/>
-      <c r="I84" s="126"/>
-      <c r="J84" s="126"/>
-      <c r="K84" s="126"/>
-      <c r="L84" s="126"/>
+      <c r="C84" s="91"/>
+      <c r="D84" s="91"/>
+      <c r="E84" s="91"/>
+      <c r="F84" s="91"/>
+      <c r="G84" s="91"/>
+      <c r="H84" s="91"/>
+      <c r="I84" s="91"/>
+      <c r="J84" s="91"/>
+      <c r="K84" s="91"/>
+      <c r="L84" s="91"/>
     </row>
     <row r="85" spans="1:12">
-      <c r="B85" s="126" t="s">
+      <c r="B85" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="C85" s="126"/>
-      <c r="D85" s="126"/>
-      <c r="E85" s="126"/>
-      <c r="F85" s="126"/>
-      <c r="G85" s="126"/>
-      <c r="H85" s="126"/>
-      <c r="I85" s="126"/>
-      <c r="J85" s="126"/>
-      <c r="K85" s="126"/>
-      <c r="L85" s="126"/>
+      <c r="C85" s="91"/>
+      <c r="D85" s="91"/>
+      <c r="E85" s="91"/>
+      <c r="F85" s="91"/>
+      <c r="G85" s="91"/>
+      <c r="H85" s="91"/>
+      <c r="I85" s="91"/>
+      <c r="J85" s="91"/>
+      <c r="K85" s="91"/>
+      <c r="L85" s="91"/>
     </row>
     <row r="86" spans="1:12">
-      <c r="B86" s="126" t="s">
+      <c r="B86" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="C86" s="126"/>
-      <c r="D86" s="126"/>
-      <c r="E86" s="126"/>
-      <c r="F86" s="126"/>
-      <c r="G86" s="126"/>
-      <c r="H86" s="126"/>
-      <c r="I86" s="126"/>
-      <c r="J86" s="126"/>
-      <c r="K86" s="126"/>
-      <c r="L86" s="126"/>
+      <c r="C86" s="91"/>
+      <c r="D86" s="91"/>
+      <c r="E86" s="91"/>
+      <c r="F86" s="91"/>
+      <c r="G86" s="91"/>
+      <c r="H86" s="91"/>
+      <c r="I86" s="91"/>
+      <c r="J86" s="91"/>
+      <c r="K86" s="91"/>
+      <c r="L86" s="91"/>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="85"/>
-      <c r="B90" s="127" t="s">
+      <c r="B90" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="C90" s="127"/>
-      <c r="D90" s="127"/>
-      <c r="E90" s="127"/>
-      <c r="F90" s="127"/>
-      <c r="G90" s="127"/>
-      <c r="H90" s="127"/>
-      <c r="I90" s="127"/>
-      <c r="J90" s="127"/>
-      <c r="K90" s="127"/>
-      <c r="L90" s="127"/>
+      <c r="C90" s="104"/>
+      <c r="D90" s="104"/>
+      <c r="E90" s="104"/>
+      <c r="F90" s="104"/>
+      <c r="G90" s="104"/>
+      <c r="H90" s="104"/>
+      <c r="I90" s="104"/>
+      <c r="J90" s="104"/>
+      <c r="K90" s="104"/>
+      <c r="L90" s="104"/>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="85"/>
-      <c r="B91" s="126" t="s">
+      <c r="B91" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="C91" s="126"/>
-      <c r="D91" s="126"/>
-      <c r="E91" s="126"/>
-      <c r="F91" s="126"/>
-      <c r="G91" s="126"/>
-      <c r="H91" s="126"/>
-      <c r="I91" s="126"/>
-      <c r="J91" s="126"/>
-      <c r="K91" s="126"/>
-      <c r="L91" s="126"/>
+      <c r="C91" s="91"/>
+      <c r="D91" s="91"/>
+      <c r="E91" s="91"/>
+      <c r="F91" s="91"/>
+      <c r="G91" s="91"/>
+      <c r="H91" s="91"/>
+      <c r="I91" s="91"/>
+      <c r="J91" s="91"/>
+      <c r="K91" s="91"/>
+      <c r="L91" s="91"/>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="85"/>
-      <c r="B92" s="127" t="s">
+      <c r="B92" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="C92" s="127"/>
-      <c r="D92" s="127"/>
-      <c r="E92" s="127"/>
-      <c r="F92" s="127"/>
-      <c r="G92" s="127"/>
-      <c r="H92" s="127"/>
-      <c r="I92" s="127"/>
-      <c r="J92" s="127"/>
-      <c r="K92" s="127"/>
-      <c r="L92" s="127"/>
+      <c r="C92" s="104"/>
+      <c r="D92" s="104"/>
+      <c r="E92" s="104"/>
+      <c r="F92" s="104"/>
+      <c r="G92" s="104"/>
+      <c r="H92" s="104"/>
+      <c r="I92" s="104"/>
+      <c r="J92" s="104"/>
+      <c r="K92" s="104"/>
+      <c r="L92" s="104"/>
     </row>
     <row r="94" spans="1:12">
-      <c r="C94" s="91"/>
-      <c r="D94" s="91"/>
-      <c r="E94" s="91"/>
-      <c r="F94" s="91"/>
-      <c r="G94" s="91"/>
-      <c r="H94" s="91"/>
-      <c r="I94" s="91"/>
+      <c r="C94" s="92"/>
+      <c r="D94" s="92"/>
+      <c r="E94" s="92"/>
+      <c r="F94" s="92"/>
+      <c r="G94" s="92"/>
+      <c r="H94" s="92"/>
+      <c r="I94" s="92"/>
     </row>
     <row r="95" spans="1:12">
-      <c r="C95" s="91"/>
-      <c r="D95" s="91"/>
-      <c r="E95" s="91"/>
-      <c r="F95" s="91"/>
-      <c r="G95" s="91"/>
-      <c r="H95" s="91"/>
-      <c r="I95" s="91"/>
+      <c r="C95" s="92"/>
+      <c r="D95" s="92"/>
+      <c r="E95" s="92"/>
+      <c r="F95" s="92"/>
+      <c r="G95" s="92"/>
+      <c r="H95" s="92"/>
+      <c r="I95" s="92"/>
     </row>
     <row r="96" spans="1:12">
-      <c r="C96" s="91"/>
-      <c r="D96" s="91"/>
-      <c r="E96" s="91"/>
-      <c r="F96" s="91"/>
-      <c r="G96" s="91"/>
-      <c r="H96" s="91"/>
-      <c r="I96" s="91"/>
+      <c r="C96" s="92"/>
+      <c r="D96" s="92"/>
+      <c r="E96" s="92"/>
+      <c r="F96" s="92"/>
+      <c r="G96" s="92"/>
+      <c r="H96" s="92"/>
+      <c r="I96" s="92"/>
     </row>
     <row r="97" spans="3:9">
-      <c r="C97" s="91"/>
-      <c r="D97" s="91"/>
-      <c r="E97" s="91"/>
-      <c r="F97" s="91"/>
-      <c r="G97" s="91"/>
-      <c r="H97" s="91"/>
-      <c r="I97" s="91"/>
+      <c r="C97" s="92"/>
+      <c r="D97" s="92"/>
+      <c r="E97" s="92"/>
+      <c r="F97" s="92"/>
+      <c r="G97" s="92"/>
+      <c r="H97" s="92"/>
+      <c r="I97" s="92"/>
     </row>
     <row r="98" spans="3:9">
-      <c r="C98" s="91"/>
-      <c r="D98" s="91"/>
-      <c r="E98" s="91"/>
-      <c r="F98" s="91"/>
-      <c r="G98" s="91"/>
-      <c r="H98" s="91"/>
-      <c r="I98" s="91"/>
+      <c r="C98" s="92"/>
+      <c r="D98" s="92"/>
+      <c r="E98" s="92"/>
+      <c r="F98" s="92"/>
+      <c r="G98" s="92"/>
+      <c r="H98" s="92"/>
+      <c r="I98" s="92"/>
     </row>
     <row r="99" spans="3:9">
-      <c r="C99" s="91"/>
-      <c r="D99" s="91"/>
-      <c r="E99" s="91"/>
-      <c r="F99" s="91"/>
-      <c r="G99" s="91"/>
-      <c r="H99" s="91"/>
-      <c r="I99" s="91"/>
+      <c r="C99" s="92"/>
+      <c r="D99" s="92"/>
+      <c r="E99" s="92"/>
+      <c r="F99" s="92"/>
+      <c r="G99" s="92"/>
+      <c r="H99" s="92"/>
+      <c r="I99" s="92"/>
     </row>
     <row r="100" spans="3:9">
-      <c r="C100" s="91"/>
-      <c r="D100" s="91"/>
-      <c r="E100" s="91"/>
-      <c r="F100" s="91"/>
-      <c r="G100" s="91"/>
-      <c r="H100" s="91"/>
-      <c r="I100" s="91"/>
+      <c r="C100" s="92"/>
+      <c r="D100" s="92"/>
+      <c r="E100" s="92"/>
+      <c r="F100" s="92"/>
+      <c r="G100" s="92"/>
+      <c r="H100" s="92"/>
+      <c r="I100" s="92"/>
     </row>
     <row r="101" spans="3:9" ht="15.6" customHeight="1">
-      <c r="C101" s="91"/>
-      <c r="D101" s="91"/>
-      <c r="E101" s="91"/>
-      <c r="F101" s="91"/>
-      <c r="G101" s="91"/>
-      <c r="H101" s="91"/>
-      <c r="I101" s="91"/>
+      <c r="C101" s="92"/>
+      <c r="D101" s="92"/>
+      <c r="E101" s="92"/>
+      <c r="F101" s="92"/>
+      <c r="G101" s="92"/>
+      <c r="H101" s="92"/>
+      <c r="I101" s="92"/>
     </row>
     <row r="102" spans="3:9" ht="15.6" customHeight="1">
-      <c r="C102" s="91"/>
-      <c r="D102" s="91"/>
-      <c r="E102" s="91"/>
-      <c r="F102" s="91"/>
-      <c r="G102" s="91"/>
-      <c r="H102" s="91"/>
-      <c r="I102" s="91"/>
+      <c r="C102" s="92"/>
+      <c r="D102" s="92"/>
+      <c r="E102" s="92"/>
+      <c r="F102" s="92"/>
+      <c r="G102" s="92"/>
+      <c r="H102" s="92"/>
+      <c r="I102" s="92"/>
     </row>
     <row r="103" spans="3:9">
-      <c r="C103" s="91"/>
-      <c r="D103" s="91"/>
-      <c r="E103" s="91"/>
-      <c r="F103" s="91"/>
-      <c r="G103" s="91"/>
-      <c r="H103" s="91"/>
-      <c r="I103" s="91"/>
+      <c r="C103" s="92"/>
+      <c r="D103" s="92"/>
+      <c r="E103" s="92"/>
+      <c r="F103" s="92"/>
+      <c r="G103" s="92"/>
+      <c r="H103" s="92"/>
+      <c r="I103" s="92"/>
     </row>
     <row r="109" spans="3:9" ht="15.6" customHeight="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="90">
+  <mergeCells count="91">
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="E49:M49"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="B2:C6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="C94:I103"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="D51:I51"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="B34:L34"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="B46:L46"/>
+    <mergeCell ref="B44:L44"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B33:L33"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B49:C54"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B55:L55"/>
+    <mergeCell ref="B45:L45"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="B86:L86"/>
+    <mergeCell ref="B81:L81"/>
+    <mergeCell ref="B82:L82"/>
+    <mergeCell ref="B83:L83"/>
+    <mergeCell ref="B84:L84"/>
+    <mergeCell ref="B85:L85"/>
+    <mergeCell ref="B92:L92"/>
+    <mergeCell ref="B69:L69"/>
+    <mergeCell ref="B70:L70"/>
+    <mergeCell ref="B71:L71"/>
+    <mergeCell ref="B62:L62"/>
+    <mergeCell ref="B63:L63"/>
+    <mergeCell ref="B64:L64"/>
+    <mergeCell ref="B65:L65"/>
+    <mergeCell ref="B66:L66"/>
+    <mergeCell ref="B67:L67"/>
+    <mergeCell ref="B68:L68"/>
+    <mergeCell ref="B76:L76"/>
+    <mergeCell ref="B77:L77"/>
+    <mergeCell ref="B78:L78"/>
+    <mergeCell ref="B91:L91"/>
+    <mergeCell ref="B90:L90"/>
     <mergeCell ref="B79:L79"/>
     <mergeCell ref="B80:L80"/>
     <mergeCell ref="A7:C7"/>
@@ -3855,80 +3943,6 @@
     <mergeCell ref="B60:L60"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="J11:L11"/>
-    <mergeCell ref="B92:L92"/>
-    <mergeCell ref="B69:L69"/>
-    <mergeCell ref="B70:L70"/>
-    <mergeCell ref="B71:L71"/>
-    <mergeCell ref="B62:L62"/>
-    <mergeCell ref="B63:L63"/>
-    <mergeCell ref="B64:L64"/>
-    <mergeCell ref="B65:L65"/>
-    <mergeCell ref="B66:L66"/>
-    <mergeCell ref="B67:L67"/>
-    <mergeCell ref="B68:L68"/>
-    <mergeCell ref="B76:L76"/>
-    <mergeCell ref="B77:L77"/>
-    <mergeCell ref="B78:L78"/>
-    <mergeCell ref="B91:L91"/>
-    <mergeCell ref="B90:L90"/>
-    <mergeCell ref="B86:L86"/>
-    <mergeCell ref="B81:L81"/>
-    <mergeCell ref="B82:L82"/>
-    <mergeCell ref="B83:L83"/>
-    <mergeCell ref="B84:L84"/>
-    <mergeCell ref="B85:L85"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="B49:C54"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B55:L55"/>
-    <mergeCell ref="B45:L45"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B33:L33"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="C94:I103"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="D50:L50"/>
-    <mergeCell ref="D51:I51"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="B34:L34"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="B46:L46"/>
-    <mergeCell ref="B44:L44"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="B2:C6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F8:G8"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="VERIFICAR NÚMERO DE TELEFONO" error="Verifica que tenga 9 digitos sin espacio" sqref="J8:L8" xr:uid="{CC0405B2-A74A-4E8F-BF03-C34BEE695B67}">
@@ -3980,14 +3994,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:32">
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
     </row>
     <row r="6" spans="2:32" ht="15" customHeight="1">
       <c r="B6" s="70" t="s">
@@ -4037,14 +4051,14 @@
         <f>SUM(C8:E8)</f>
         <v>116</v>
       </c>
-      <c r="J8" s="131" t="s">
+      <c r="J8" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="K8" s="131"/>
-      <c r="M8" s="131" t="s">
+      <c r="K8" s="130"/>
+      <c r="M8" s="130" t="s">
         <v>109</v>
       </c>
-      <c r="N8" s="131"/>
+      <c r="N8" s="130"/>
     </row>
     <row r="9" spans="2:32" ht="15" customHeight="1">
       <c r="B9" s="5" t="s">
@@ -4517,14 +4531,14 @@
       </c>
     </row>
     <row r="23" spans="1:33">
-      <c r="B23" s="132" t="s">
+      <c r="B23" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="132"/>
-      <c r="D23" s="132"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="132"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
     </row>
     <row r="24" spans="1:33">
       <c r="J24" s="9" t="s">
@@ -4773,14 +4787,14 @@
       <c r="AF34"/>
     </row>
     <row r="35" spans="1:32">
-      <c r="B35" s="134" t="s">
+      <c r="B35" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="134"/>
-      <c r="D35" s="134"/>
-      <c r="E35" s="134"/>
-      <c r="F35" s="134"/>
-      <c r="G35" s="134"/>
+      <c r="C35" s="133"/>
+      <c r="D35" s="133"/>
+      <c r="E35" s="133"/>
+      <c r="F35" s="133"/>
+      <c r="G35" s="133"/>
     </row>
     <row r="37" spans="1:32">
       <c r="C37" s="21">

--- a/assets/downloads/Boleta_Template.xlsx
+++ b/assets/downloads/Boleta_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\probusinees-intranet\assets\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C12892D-93C6-48CE-A85E-C979C5E4FF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EFFF1A-EA59-4AF6-A11D-9FEE0EDD9BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -573,13 +573,13 @@
     <t>MEDIDA:</t>
   </si>
   <si>
-    <t xml:space="preserve">         RUC: 20603287721</t>
-  </si>
-  <si>
-    <t>GRUPO PROBUSINESS S.A.C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          RUC: 20603287721</t>
+    <t>PRO MUNDO COMEX S.A.C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       RUC: 20612452432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         RUC: 20612452432</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1055,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1256,87 +1256,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="171" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1351,9 +1274,89 @@
     <xf numFmtId="14" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1366,10 +1369,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Millares" xfId="3" builtinId="3"/>
@@ -2347,8 +2346,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49:M49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4"/>
@@ -2369,82 +2368,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1">
-      <c r="A1" s="94"/>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
+      <c r="A1" s="96"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
     </row>
     <row r="3" spans="1:12" ht="25.8">
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="E3" s="116" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="E3" s="101" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
     </row>
     <row r="4" spans="1:12" ht="25.8">
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="E4" s="117" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="E4" s="102" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
       <c r="K4" s="35"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="89"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="53"/>
       <c r="F6" s="53"/>
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="92"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="E7" s="124" t="s">
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="E7" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="30" t="s">
@@ -2457,20 +2456,20 @@
       <c r="E8" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="128" t="s">
+      <c r="F8" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="129"/>
+      <c r="G8" s="99"/>
       <c r="H8" s="86"/>
       <c r="I8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="121">
+      <c r="J8" s="112">
         <f>+'2'!F7</f>
         <v>8</v>
       </c>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="30" t="s">
@@ -2483,21 +2482,21 @@
       <c r="E9" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="125">
+      <c r="F9" s="94">
         <f ca="1">+TODAY()</f>
-        <v>45460</v>
-      </c>
-      <c r="G9" s="126"/>
+        <v>45482</v>
+      </c>
+      <c r="G9" s="95"/>
       <c r="H9" s="86"/>
       <c r="I9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="123">
+      <c r="J9" s="92">
         <f>+'2'!F8</f>
         <v>116</v>
       </c>
-      <c r="K9" s="123"/>
-      <c r="L9" s="123"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="30" t="s">
@@ -2510,19 +2509,19 @@
       <c r="E10" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="94" t="s">
+      <c r="F10" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="127"/>
+      <c r="G10" s="97"/>
       <c r="H10" s="86"/>
       <c r="I10" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="J10" s="122">
+      <c r="J10" s="113">
         <v>0</v>
       </c>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="113"/>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="30" t="s">
@@ -2535,44 +2534,44 @@
       <c r="E11" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="109"/>
-      <c r="G11" s="110"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="116"/>
       <c r="H11" s="86"/>
       <c r="I11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="103">
+      <c r="J11" s="130">
         <f>+'2'!F9</f>
         <v>1.1879999999999999</v>
       </c>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="130"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
       <c r="K13" s="32" t="s">
         <v>34</v>
       </c>
@@ -2581,17 +2580,17 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
       <c r="K14" s="37">
         <f>'2'!F13</f>
         <v>944.03</v>
@@ -2601,17 +2600,17 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
       <c r="K15" s="38">
         <f>'2'!F16+'2'!F19</f>
         <v>299.47999999999996</v>
@@ -2621,17 +2620,17 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
       <c r="K16" s="37">
         <f>SUM(K14:K15)</f>
         <v>1243.51</v>
@@ -2667,13 +2666,13 @@
       <c r="L18" s="29"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="105" t="s">
+      <c r="B19" s="124" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="124"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
@@ -2688,16 +2687,16 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
       <c r="J20" s="47">
         <f>MAX('2'!C26:E26)</f>
         <v>0.04</v>
@@ -2711,16 +2710,16 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
       <c r="J21" s="47">
         <v>0.16</v>
       </c>
@@ -2733,16 +2732,16 @@
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="109" t="s">
+      <c r="B22" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
       <c r="J22" s="47">
         <v>0.02</v>
       </c>
@@ -2755,16 +2754,16 @@
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="108" t="s">
+      <c r="B23" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
       <c r="J23" s="75"/>
       <c r="K23" s="76">
         <f>SUM(K20:K22)</f>
@@ -2775,29 +2774,29 @@
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
       <c r="J24" s="2"/>
       <c r="K24" s="33"/>
       <c r="L24" s="31"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="109" t="s">
+      <c r="B25" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="109"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
       <c r="J25" s="48" t="s">
         <v>76</v>
       </c>
@@ -2810,16 +2809,16 @@
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="108" t="s">
+      <c r="B26" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="108"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="119"/>
       <c r="K26" s="37">
         <f>K23+K25</f>
         <v>316.1151070046609</v>
@@ -2829,27 +2828,27 @@
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="96"/>
     </row>
     <row r="28" spans="2:12" ht="15.6">
-      <c r="B28" s="112" t="s">
+      <c r="B28" s="120" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="112"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="120"/>
       <c r="K28" s="60" t="s">
         <v>34</v>
       </c>
@@ -2858,17 +2857,17 @@
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="93" t="s">
+      <c r="B29" s="117" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="93"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="117"/>
       <c r="K29" s="37">
         <f>K14</f>
         <v>944.03</v>
@@ -2878,17 +2877,17 @@
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="93" t="s">
+      <c r="B30" s="117" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="117"/>
       <c r="K30" s="37">
         <f>+'2'!K22</f>
         <v>415.79999999999995</v>
@@ -2898,17 +2897,17 @@
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="109" t="s">
+      <c r="B31" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="115"/>
+      <c r="J31" s="115"/>
       <c r="K31" s="38">
         <f>K26</f>
         <v>316.1151070046609</v>
@@ -2918,17 +2917,17 @@
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="108" t="s">
+      <c r="B32" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="108"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="119"/>
+      <c r="J32" s="119"/>
       <c r="K32" s="37">
         <f>SUM(K29:K31)</f>
         <v>1675.9451070046607</v>
@@ -2938,79 +2937,79 @@
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="111"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="111"/>
-      <c r="J33" s="111"/>
-      <c r="K33" s="111"/>
-      <c r="L33" s="111"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="118"/>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="118" t="s">
+      <c r="B34" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="119"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="119"/>
-      <c r="K34" s="119"/>
-      <c r="L34" s="120"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="110"/>
+      <c r="L34" s="111"/>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="96" t="s">
+      <c r="C35" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="97"/>
-      <c r="E35" s="98"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="106"/>
       <c r="F35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="96" t="s">
+      <c r="G35" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="H35" s="98"/>
+      <c r="H35" s="106"/>
       <c r="I35" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J35" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="107" t="s">
+      <c r="K35" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="L35" s="107"/>
+      <c r="L35" s="103"/>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="46">
         <v>1</v>
       </c>
-      <c r="C36" s="96" t="str">
+      <c r="C36" s="104" t="str">
         <f>+'2'!$C$6</f>
         <v xml:space="preserve">Kids Car Seat Belt Pillow </v>
       </c>
-      <c r="D36" s="97"/>
-      <c r="E36" s="98"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="106"/>
       <c r="F36" s="7">
         <f>+'2'!$C$45</f>
         <v>100</v>
       </c>
-      <c r="G36" s="101">
+      <c r="G36" s="107">
         <f>+'2'!$C$10</f>
         <v>6.36</v>
       </c>
-      <c r="H36" s="102"/>
+      <c r="H36" s="108"/>
       <c r="I36" s="55">
         <f>+'2'!$C$46</f>
         <v>11.424505892807643</v>
@@ -3019,31 +3018,31 @@
         <f t="shared" ref="J36:J38" si="0">+F36*I36</f>
         <v>1142.4505892807642</v>
       </c>
-      <c r="K36" s="107">
+      <c r="K36" s="103">
         <f t="shared" ref="K36" si="1">I36*3.7</f>
         <v>42.270671803388282</v>
       </c>
-      <c r="L36" s="107"/>
+      <c r="L36" s="103"/>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="46">
         <v>2</v>
       </c>
-      <c r="C37" s="96" t="str">
+      <c r="C37" s="104" t="str">
         <f>+'2'!$D$6</f>
         <v>Car Headrest</v>
       </c>
-      <c r="D37" s="97"/>
-      <c r="E37" s="98"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="106"/>
       <c r="F37" s="7">
         <f>+'2'!$D$45</f>
         <v>1</v>
       </c>
-      <c r="G37" s="101">
+      <c r="G37" s="107">
         <f>+'2'!$D$10</f>
         <v>8.0299999999999994</v>
       </c>
-      <c r="H37" s="102"/>
+      <c r="H37" s="108"/>
       <c r="I37" s="55">
         <f>+'2'!$D$46</f>
         <v>13.907609574791055</v>
@@ -3052,31 +3051,31 @@
         <f t="shared" si="0"/>
         <v>13.907609574791055</v>
       </c>
-      <c r="K37" s="107">
+      <c r="K37" s="103">
         <f t="shared" ref="K37:K38" si="2">I37*3.7</f>
         <v>51.458155426726904</v>
       </c>
-      <c r="L37" s="107"/>
+      <c r="L37" s="103"/>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="46">
         <v>3</v>
       </c>
-      <c r="C38" s="96" t="str">
+      <c r="C38" s="104" t="str">
         <f>+'2'!$E$6</f>
         <v>Bluetooth sleep mask</v>
       </c>
-      <c r="D38" s="97"/>
-      <c r="E38" s="98"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="106"/>
       <c r="F38" s="7">
         <f>+'2'!$E$45</f>
         <v>50</v>
       </c>
-      <c r="G38" s="101">
+      <c r="G38" s="107">
         <f>+'2'!$E$10</f>
         <v>6</v>
       </c>
-      <c r="H38" s="102"/>
+      <c r="H38" s="108"/>
       <c r="I38" s="55">
         <f>+'2'!$E$46</f>
         <v>10.391738162982108</v>
@@ -3085,11 +3084,11 @@
         <f t="shared" si="0"/>
         <v>519.5869081491054</v>
       </c>
-      <c r="K38" s="99">
+      <c r="K38" s="128">
         <f t="shared" si="2"/>
         <v>38.449431203033804</v>
       </c>
-      <c r="L38" s="100"/>
+      <c r="L38" s="129"/>
     </row>
     <row r="39" spans="2:12" ht="15.6">
       <c r="B39" s="49" t="s">
@@ -3151,79 +3150,79 @@
       <c r="K42" s="29"/>
     </row>
     <row r="43" spans="2:12" ht="18">
-      <c r="B43" s="95" t="s">
+      <c r="B43" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="95"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="95"/>
-      <c r="H43" s="95"/>
-      <c r="I43" s="95"/>
-      <c r="J43" s="95"/>
-      <c r="K43" s="95"/>
-      <c r="L43" s="95"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="114"/>
     </row>
     <row r="44" spans="2:12" ht="18">
-      <c r="B44" s="95" t="s">
+      <c r="B44" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="95"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="114"/>
+      <c r="K44" s="114"/>
+      <c r="L44" s="114"/>
     </row>
     <row r="45" spans="2:12" ht="18">
-      <c r="B45" s="95" t="s">
+      <c r="B45" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="95"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="95"/>
-      <c r="H45" s="95"/>
-      <c r="I45" s="95"/>
-      <c r="J45" s="95"/>
-      <c r="K45" s="95"/>
-      <c r="L45" s="95"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114"/>
+      <c r="K45" s="114"/>
+      <c r="L45" s="114"/>
     </row>
     <row r="46" spans="2:12" ht="18">
-      <c r="B46" s="95" t="s">
+      <c r="B46" s="114" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="95"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="95"/>
-      <c r="G46" s="95"/>
-      <c r="H46" s="95"/>
-      <c r="I46" s="95"/>
-      <c r="J46" s="95"/>
-      <c r="K46" s="95"/>
-      <c r="L46" s="95"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="114"/>
+      <c r="K46" s="114"/>
+      <c r="L46" s="114"/>
     </row>
     <row r="47" spans="2:12" ht="18">
-      <c r="B47" s="95" t="s">
+      <c r="B47" s="114" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="95"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="95"/>
-      <c r="H47" s="95"/>
-      <c r="I47" s="95"/>
-      <c r="J47" s="95"/>
-      <c r="K47" s="95"/>
-      <c r="L47" s="95"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="114"/>
+      <c r="J47" s="114"/>
+      <c r="K47" s="114"/>
+      <c r="L47" s="114"/>
     </row>
     <row r="48" spans="2:12">
       <c r="B48" s="29"/>
@@ -3239,627 +3238,675 @@
       <c r="L48" s="29"/>
     </row>
     <row r="49" spans="2:13" ht="9" customHeight="1">
-      <c r="B49" s="92"/>
-      <c r="C49" s="92"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="92"/>
-      <c r="G49" s="92"/>
-      <c r="H49" s="92"/>
-      <c r="I49" s="92"/>
-      <c r="J49" s="92"/>
-      <c r="K49" s="92"/>
-      <c r="L49" s="92"/>
-      <c r="M49" s="92"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="91"/>
+      <c r="E49" s="91"/>
+      <c r="F49" s="91"/>
+      <c r="G49" s="91"/>
+      <c r="H49" s="91"/>
+      <c r="I49" s="91"/>
+      <c r="J49" s="91"/>
+      <c r="K49" s="91"/>
+      <c r="L49" s="91"/>
+      <c r="M49" s="91"/>
     </row>
     <row r="50" spans="2:13" ht="31.8" customHeight="1">
-      <c r="B50" s="92"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="134" t="s">
+      <c r="B50" s="91"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="90" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" s="90"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="90"/>
+      <c r="H50" s="90"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="90"/>
+      <c r="K50" s="90"/>
+      <c r="L50" s="90"/>
+      <c r="M50" s="90"/>
+    </row>
+    <row r="51" spans="2:13" ht="18" customHeight="1">
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="E50" s="134"/>
-      <c r="F50" s="134"/>
-      <c r="G50" s="134"/>
-      <c r="H50" s="134"/>
-      <c r="I50" s="134"/>
-      <c r="J50" s="134"/>
-      <c r="K50" s="134"/>
-      <c r="L50" s="134"/>
-      <c r="M50" s="134"/>
-    </row>
-    <row r="51" spans="2:13" ht="18" customHeight="1">
-      <c r="B51" s="92"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="115" t="s">
-        <v>124</v>
-      </c>
-      <c r="E51" s="115"/>
-      <c r="F51" s="115"/>
-      <c r="G51" s="115"/>
-      <c r="H51" s="115"/>
-      <c r="I51" s="115"/>
-      <c r="J51" s="135"/>
-      <c r="K51" s="135"/>
-      <c r="L51" s="135"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="100"/>
     </row>
     <row r="52" spans="2:13">
-      <c r="B52" s="92"/>
-      <c r="C52" s="92"/>
+      <c r="B52" s="91"/>
+      <c r="C52" s="91"/>
     </row>
     <row r="53" spans="2:13">
-      <c r="B53" s="92"/>
-      <c r="C53" s="92"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
     </row>
     <row r="54" spans="2:13">
-      <c r="B54" s="92"/>
-      <c r="C54" s="92"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="91"/>
     </row>
     <row r="55" spans="2:13" ht="21">
-      <c r="B55" s="106" t="s">
+      <c r="B55" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="106"/>
-      <c r="D55" s="106"/>
-      <c r="E55" s="106"/>
-      <c r="F55" s="106"/>
-      <c r="G55" s="106"/>
-      <c r="H55" s="106"/>
-      <c r="I55" s="106"/>
-      <c r="J55" s="106"/>
-      <c r="K55" s="106"/>
-      <c r="L55" s="106"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="125"/>
+      <c r="E55" s="125"/>
+      <c r="F55" s="125"/>
+      <c r="G55" s="125"/>
+      <c r="H55" s="125"/>
+      <c r="I55" s="125"/>
+      <c r="J55" s="125"/>
+      <c r="K55" s="125"/>
+      <c r="L55" s="125"/>
     </row>
     <row r="56" spans="2:13">
-      <c r="B56" s="94"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="94"/>
-      <c r="G56" s="94"/>
-      <c r="H56" s="94"/>
-      <c r="I56" s="94"/>
-      <c r="J56" s="94"/>
-      <c r="K56" s="94"/>
-      <c r="L56" s="94"/>
+      <c r="B56" s="96"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="96"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="96"/>
+      <c r="H56" s="96"/>
+      <c r="I56" s="96"/>
+      <c r="J56" s="96"/>
+      <c r="K56" s="96"/>
+      <c r="L56" s="96"/>
     </row>
     <row r="59" spans="2:13">
-      <c r="B59" s="91" t="s">
+      <c r="B59" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="91"/>
-      <c r="D59" s="91"/>
-      <c r="E59" s="91"/>
-      <c r="F59" s="91"/>
-      <c r="G59" s="91"/>
-      <c r="H59" s="91"/>
-      <c r="I59" s="91"/>
-      <c r="J59" s="91"/>
-      <c r="K59" s="91"/>
-      <c r="L59" s="91"/>
+      <c r="C59" s="126"/>
+      <c r="D59" s="126"/>
+      <c r="E59" s="126"/>
+      <c r="F59" s="126"/>
+      <c r="G59" s="126"/>
+      <c r="H59" s="126"/>
+      <c r="I59" s="126"/>
+      <c r="J59" s="126"/>
+      <c r="K59" s="126"/>
+      <c r="L59" s="126"/>
     </row>
     <row r="60" spans="2:13">
-      <c r="B60" s="91" t="s">
+      <c r="B60" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="91"/>
-      <c r="D60" s="91"/>
-      <c r="E60" s="91"/>
-      <c r="F60" s="91"/>
-      <c r="G60" s="91"/>
-      <c r="H60" s="91"/>
-      <c r="I60" s="91"/>
-      <c r="J60" s="91"/>
-      <c r="K60" s="91"/>
-      <c r="L60" s="91"/>
+      <c r="C60" s="126"/>
+      <c r="D60" s="126"/>
+      <c r="E60" s="126"/>
+      <c r="F60" s="126"/>
+      <c r="G60" s="126"/>
+      <c r="H60" s="126"/>
+      <c r="I60" s="126"/>
+      <c r="J60" s="126"/>
+      <c r="K60" s="126"/>
+      <c r="L60" s="126"/>
     </row>
     <row r="61" spans="2:13">
-      <c r="B61" s="93" t="s">
+      <c r="B61" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="93"/>
-      <c r="D61" s="93"/>
-      <c r="E61" s="93"/>
-      <c r="F61" s="93"/>
-      <c r="G61" s="93"/>
-      <c r="H61" s="93"/>
-      <c r="I61" s="93"/>
-      <c r="J61" s="93"/>
-      <c r="K61" s="93"/>
-      <c r="L61" s="93"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="117"/>
+      <c r="E61" s="117"/>
+      <c r="F61" s="117"/>
+      <c r="G61" s="117"/>
+      <c r="H61" s="117"/>
+      <c r="I61" s="117"/>
+      <c r="J61" s="117"/>
+      <c r="K61" s="117"/>
+      <c r="L61" s="117"/>
     </row>
     <row r="62" spans="2:13">
-      <c r="B62" s="91" t="s">
+      <c r="B62" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="91"/>
-      <c r="D62" s="91"/>
-      <c r="E62" s="91"/>
-      <c r="F62" s="91"/>
-      <c r="G62" s="91"/>
-      <c r="H62" s="91"/>
-      <c r="I62" s="91"/>
-      <c r="J62" s="91"/>
-      <c r="K62" s="91"/>
-      <c r="L62" s="91"/>
+      <c r="C62" s="126"/>
+      <c r="D62" s="126"/>
+      <c r="E62" s="126"/>
+      <c r="F62" s="126"/>
+      <c r="G62" s="126"/>
+      <c r="H62" s="126"/>
+      <c r="I62" s="126"/>
+      <c r="J62" s="126"/>
+      <c r="K62" s="126"/>
+      <c r="L62" s="126"/>
     </row>
     <row r="63" spans="2:13">
-      <c r="B63" s="91" t="s">
+      <c r="B63" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="91"/>
-      <c r="D63" s="91"/>
-      <c r="E63" s="91"/>
-      <c r="F63" s="91"/>
-      <c r="G63" s="91"/>
-      <c r="H63" s="91"/>
-      <c r="I63" s="91"/>
-      <c r="J63" s="91"/>
-      <c r="K63" s="91"/>
-      <c r="L63" s="91"/>
+      <c r="C63" s="126"/>
+      <c r="D63" s="126"/>
+      <c r="E63" s="126"/>
+      <c r="F63" s="126"/>
+      <c r="G63" s="126"/>
+      <c r="H63" s="126"/>
+      <c r="I63" s="126"/>
+      <c r="J63" s="126"/>
+      <c r="K63" s="126"/>
+      <c r="L63" s="126"/>
     </row>
     <row r="64" spans="2:13">
-      <c r="B64" s="93" t="s">
+      <c r="B64" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="93"/>
-      <c r="D64" s="93"/>
-      <c r="E64" s="93"/>
-      <c r="F64" s="93"/>
-      <c r="G64" s="93"/>
-      <c r="H64" s="93"/>
-      <c r="I64" s="93"/>
-      <c r="J64" s="93"/>
-      <c r="K64" s="93"/>
-      <c r="L64" s="93"/>
+      <c r="C64" s="117"/>
+      <c r="D64" s="117"/>
+      <c r="E64" s="117"/>
+      <c r="F64" s="117"/>
+      <c r="G64" s="117"/>
+      <c r="H64" s="117"/>
+      <c r="I64" s="117"/>
+      <c r="J64" s="117"/>
+      <c r="K64" s="117"/>
+      <c r="L64" s="117"/>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="91" t="s">
+      <c r="B65" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="C65" s="91"/>
-      <c r="D65" s="91"/>
-      <c r="E65" s="91"/>
-      <c r="F65" s="91"/>
-      <c r="G65" s="91"/>
-      <c r="H65" s="91"/>
-      <c r="I65" s="91"/>
-      <c r="J65" s="91"/>
-      <c r="K65" s="91"/>
-      <c r="L65" s="91"/>
+      <c r="C65" s="126"/>
+      <c r="D65" s="126"/>
+      <c r="E65" s="126"/>
+      <c r="F65" s="126"/>
+      <c r="G65" s="126"/>
+      <c r="H65" s="126"/>
+      <c r="I65" s="126"/>
+      <c r="J65" s="126"/>
+      <c r="K65" s="126"/>
+      <c r="L65" s="126"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="91" t="s">
+      <c r="B66" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="91"/>
-      <c r="D66" s="91"/>
-      <c r="E66" s="91"/>
-      <c r="F66" s="91"/>
-      <c r="G66" s="91"/>
-      <c r="H66" s="91"/>
-      <c r="I66" s="91"/>
-      <c r="J66" s="91"/>
-      <c r="K66" s="91"/>
-      <c r="L66" s="91"/>
+      <c r="C66" s="126"/>
+      <c r="D66" s="126"/>
+      <c r="E66" s="126"/>
+      <c r="F66" s="126"/>
+      <c r="G66" s="126"/>
+      <c r="H66" s="126"/>
+      <c r="I66" s="126"/>
+      <c r="J66" s="126"/>
+      <c r="K66" s="126"/>
+      <c r="L66" s="126"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="91" t="s">
+      <c r="B67" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="91"/>
-      <c r="D67" s="91"/>
-      <c r="E67" s="91"/>
-      <c r="F67" s="91"/>
-      <c r="G67" s="91"/>
-      <c r="H67" s="91"/>
-      <c r="I67" s="91"/>
-      <c r="J67" s="91"/>
-      <c r="K67" s="91"/>
-      <c r="L67" s="91"/>
+      <c r="C67" s="126"/>
+      <c r="D67" s="126"/>
+      <c r="E67" s="126"/>
+      <c r="F67" s="126"/>
+      <c r="G67" s="126"/>
+      <c r="H67" s="126"/>
+      <c r="I67" s="126"/>
+      <c r="J67" s="126"/>
+      <c r="K67" s="126"/>
+      <c r="L67" s="126"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="91" t="s">
+      <c r="B68" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="91"/>
-      <c r="D68" s="91"/>
-      <c r="E68" s="91"/>
-      <c r="F68" s="91"/>
-      <c r="G68" s="91"/>
-      <c r="H68" s="91"/>
-      <c r="I68" s="91"/>
-      <c r="J68" s="91"/>
-      <c r="K68" s="91"/>
-      <c r="L68" s="91"/>
+      <c r="C68" s="126"/>
+      <c r="D68" s="126"/>
+      <c r="E68" s="126"/>
+      <c r="F68" s="126"/>
+      <c r="G68" s="126"/>
+      <c r="H68" s="126"/>
+      <c r="I68" s="126"/>
+      <c r="J68" s="126"/>
+      <c r="K68" s="126"/>
+      <c r="L68" s="126"/>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="91" t="s">
+      <c r="B69" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="91"/>
-      <c r="D69" s="91"/>
-      <c r="E69" s="91"/>
-      <c r="F69" s="91"/>
-      <c r="G69" s="91"/>
-      <c r="H69" s="91"/>
-      <c r="I69" s="91"/>
-      <c r="J69" s="91"/>
-      <c r="K69" s="91"/>
-      <c r="L69" s="91"/>
+      <c r="C69" s="126"/>
+      <c r="D69" s="126"/>
+      <c r="E69" s="126"/>
+      <c r="F69" s="126"/>
+      <c r="G69" s="126"/>
+      <c r="H69" s="126"/>
+      <c r="I69" s="126"/>
+      <c r="J69" s="126"/>
+      <c r="K69" s="126"/>
+      <c r="L69" s="126"/>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="91" t="s">
+      <c r="B70" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="C70" s="91"/>
-      <c r="D70" s="91"/>
-      <c r="E70" s="91"/>
-      <c r="F70" s="91"/>
-      <c r="G70" s="91"/>
-      <c r="H70" s="91"/>
-      <c r="I70" s="91"/>
-      <c r="J70" s="91"/>
-      <c r="K70" s="91"/>
-      <c r="L70" s="91"/>
+      <c r="C70" s="126"/>
+      <c r="D70" s="126"/>
+      <c r="E70" s="126"/>
+      <c r="F70" s="126"/>
+      <c r="G70" s="126"/>
+      <c r="H70" s="126"/>
+      <c r="I70" s="126"/>
+      <c r="J70" s="126"/>
+      <c r="K70" s="126"/>
+      <c r="L70" s="126"/>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="91" t="s">
+      <c r="B71" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="C71" s="91"/>
-      <c r="D71" s="91"/>
-      <c r="E71" s="91"/>
-      <c r="F71" s="91"/>
-      <c r="G71" s="91"/>
-      <c r="H71" s="91"/>
-      <c r="I71" s="91"/>
-      <c r="J71" s="91"/>
-      <c r="K71" s="91"/>
-      <c r="L71" s="91"/>
+      <c r="C71" s="126"/>
+      <c r="D71" s="126"/>
+      <c r="E71" s="126"/>
+      <c r="F71" s="126"/>
+      <c r="G71" s="126"/>
+      <c r="H71" s="126"/>
+      <c r="I71" s="126"/>
+      <c r="J71" s="126"/>
+      <c r="K71" s="126"/>
+      <c r="L71" s="126"/>
     </row>
     <row r="72" spans="2:12">
-      <c r="B72" s="91" t="s">
+      <c r="B72" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="C72" s="91"/>
-      <c r="D72" s="91"/>
-      <c r="E72" s="91"/>
-      <c r="F72" s="91"/>
-      <c r="G72" s="91"/>
-      <c r="H72" s="91"/>
-      <c r="I72" s="91"/>
-      <c r="J72" s="91"/>
-      <c r="K72" s="91"/>
-      <c r="L72" s="91"/>
+      <c r="C72" s="126"/>
+      <c r="D72" s="126"/>
+      <c r="E72" s="126"/>
+      <c r="F72" s="126"/>
+      <c r="G72" s="126"/>
+      <c r="H72" s="126"/>
+      <c r="I72" s="126"/>
+      <c r="J72" s="126"/>
+      <c r="K72" s="126"/>
+      <c r="L72" s="126"/>
     </row>
     <row r="73" spans="2:12">
-      <c r="B73" s="94"/>
-      <c r="C73" s="94"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="94"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="94"/>
-      <c r="H73" s="94"/>
-      <c r="I73" s="94"/>
-      <c r="J73" s="94"/>
-      <c r="K73" s="94"/>
-      <c r="L73" s="94"/>
+      <c r="B73" s="96"/>
+      <c r="C73" s="96"/>
+      <c r="D73" s="96"/>
+      <c r="E73" s="96"/>
+      <c r="F73" s="96"/>
+      <c r="G73" s="96"/>
+      <c r="H73" s="96"/>
+      <c r="I73" s="96"/>
+      <c r="J73" s="96"/>
+      <c r="K73" s="96"/>
+      <c r="L73" s="96"/>
     </row>
     <row r="76" spans="2:12">
-      <c r="B76" s="91" t="s">
+      <c r="B76" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="C76" s="91"/>
-      <c r="D76" s="91"/>
-      <c r="E76" s="91"/>
-      <c r="F76" s="91"/>
-      <c r="G76" s="91"/>
-      <c r="H76" s="91"/>
-      <c r="I76" s="91"/>
-      <c r="J76" s="91"/>
-      <c r="K76" s="91"/>
-      <c r="L76" s="91"/>
+      <c r="C76" s="126"/>
+      <c r="D76" s="126"/>
+      <c r="E76" s="126"/>
+      <c r="F76" s="126"/>
+      <c r="G76" s="126"/>
+      <c r="H76" s="126"/>
+      <c r="I76" s="126"/>
+      <c r="J76" s="126"/>
+      <c r="K76" s="126"/>
+      <c r="L76" s="126"/>
     </row>
     <row r="77" spans="2:12">
-      <c r="B77" s="91" t="s">
+      <c r="B77" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="C77" s="91"/>
-      <c r="D77" s="91"/>
-      <c r="E77" s="91"/>
-      <c r="F77" s="91"/>
-      <c r="G77" s="91"/>
-      <c r="H77" s="91"/>
-      <c r="I77" s="91"/>
-      <c r="J77" s="91"/>
-      <c r="K77" s="91"/>
-      <c r="L77" s="91"/>
+      <c r="C77" s="126"/>
+      <c r="D77" s="126"/>
+      <c r="E77" s="126"/>
+      <c r="F77" s="126"/>
+      <c r="G77" s="126"/>
+      <c r="H77" s="126"/>
+      <c r="I77" s="126"/>
+      <c r="J77" s="126"/>
+      <c r="K77" s="126"/>
+      <c r="L77" s="126"/>
     </row>
     <row r="78" spans="2:12">
-      <c r="B78" s="91" t="s">
+      <c r="B78" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="C78" s="91"/>
-      <c r="D78" s="91"/>
-      <c r="E78" s="91"/>
-      <c r="F78" s="91"/>
-      <c r="G78" s="91"/>
-      <c r="H78" s="91"/>
-      <c r="I78" s="91"/>
-      <c r="J78" s="91"/>
-      <c r="K78" s="91"/>
-      <c r="L78" s="91"/>
+      <c r="C78" s="126"/>
+      <c r="D78" s="126"/>
+      <c r="E78" s="126"/>
+      <c r="F78" s="126"/>
+      <c r="G78" s="126"/>
+      <c r="H78" s="126"/>
+      <c r="I78" s="126"/>
+      <c r="J78" s="126"/>
+      <c r="K78" s="126"/>
+      <c r="L78" s="126"/>
     </row>
     <row r="79" spans="2:12">
-      <c r="B79" s="90" t="s">
+      <c r="B79" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="C79" s="90"/>
-      <c r="D79" s="90"/>
-      <c r="E79" s="90"/>
-      <c r="F79" s="90"/>
-      <c r="G79" s="90"/>
-      <c r="H79" s="90"/>
-      <c r="I79" s="90"/>
-      <c r="J79" s="90"/>
-      <c r="K79" s="90"/>
-      <c r="L79" s="90"/>
+      <c r="C79" s="122"/>
+      <c r="D79" s="122"/>
+      <c r="E79" s="122"/>
+      <c r="F79" s="122"/>
+      <c r="G79" s="122"/>
+      <c r="H79" s="122"/>
+      <c r="I79" s="122"/>
+      <c r="J79" s="122"/>
+      <c r="K79" s="122"/>
+      <c r="L79" s="122"/>
     </row>
     <row r="80" spans="2:12">
-      <c r="B80" s="91" t="s">
+      <c r="B80" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="C80" s="91"/>
-      <c r="D80" s="91"/>
-      <c r="E80" s="91"/>
-      <c r="F80" s="91"/>
-      <c r="G80" s="91"/>
-      <c r="H80" s="91"/>
-      <c r="I80" s="91"/>
-      <c r="J80" s="91"/>
-      <c r="K80" s="91"/>
-      <c r="L80" s="91"/>
+      <c r="C80" s="126"/>
+      <c r="D80" s="126"/>
+      <c r="E80" s="126"/>
+      <c r="F80" s="126"/>
+      <c r="G80" s="126"/>
+      <c r="H80" s="126"/>
+      <c r="I80" s="126"/>
+      <c r="J80" s="126"/>
+      <c r="K80" s="126"/>
+      <c r="L80" s="126"/>
     </row>
     <row r="81" spans="1:12">
-      <c r="B81" s="90" t="s">
+      <c r="B81" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="C81" s="90"/>
-      <c r="D81" s="90"/>
-      <c r="E81" s="90"/>
-      <c r="F81" s="90"/>
-      <c r="G81" s="90"/>
-      <c r="H81" s="90"/>
-      <c r="I81" s="90"/>
-      <c r="J81" s="90"/>
-      <c r="K81" s="90"/>
-      <c r="L81" s="90"/>
+      <c r="C81" s="122"/>
+      <c r="D81" s="122"/>
+      <c r="E81" s="122"/>
+      <c r="F81" s="122"/>
+      <c r="G81" s="122"/>
+      <c r="H81" s="122"/>
+      <c r="I81" s="122"/>
+      <c r="J81" s="122"/>
+      <c r="K81" s="122"/>
+      <c r="L81" s="122"/>
     </row>
     <row r="82" spans="1:12">
-      <c r="B82" s="91" t="s">
+      <c r="B82" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="C82" s="91"/>
-      <c r="D82" s="91"/>
-      <c r="E82" s="91"/>
-      <c r="F82" s="91"/>
-      <c r="G82" s="91"/>
-      <c r="H82" s="91"/>
-      <c r="I82" s="91"/>
-      <c r="J82" s="91"/>
-      <c r="K82" s="91"/>
-      <c r="L82" s="91"/>
+      <c r="C82" s="126"/>
+      <c r="D82" s="126"/>
+      <c r="E82" s="126"/>
+      <c r="F82" s="126"/>
+      <c r="G82" s="126"/>
+      <c r="H82" s="126"/>
+      <c r="I82" s="126"/>
+      <c r="J82" s="126"/>
+      <c r="K82" s="126"/>
+      <c r="L82" s="126"/>
     </row>
     <row r="83" spans="1:12">
-      <c r="B83" s="91" t="s">
+      <c r="B83" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="C83" s="91"/>
-      <c r="D83" s="91"/>
-      <c r="E83" s="91"/>
-      <c r="F83" s="91"/>
-      <c r="G83" s="91"/>
-      <c r="H83" s="91"/>
-      <c r="I83" s="91"/>
-      <c r="J83" s="91"/>
-      <c r="K83" s="91"/>
-      <c r="L83" s="91"/>
+      <c r="C83" s="126"/>
+      <c r="D83" s="126"/>
+      <c r="E83" s="126"/>
+      <c r="F83" s="126"/>
+      <c r="G83" s="126"/>
+      <c r="H83" s="126"/>
+      <c r="I83" s="126"/>
+      <c r="J83" s="126"/>
+      <c r="K83" s="126"/>
+      <c r="L83" s="126"/>
     </row>
     <row r="84" spans="1:12">
-      <c r="B84" s="91" t="s">
+      <c r="B84" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="C84" s="91"/>
-      <c r="D84" s="91"/>
-      <c r="E84" s="91"/>
-      <c r="F84" s="91"/>
-      <c r="G84" s="91"/>
-      <c r="H84" s="91"/>
-      <c r="I84" s="91"/>
-      <c r="J84" s="91"/>
-      <c r="K84" s="91"/>
-      <c r="L84" s="91"/>
+      <c r="C84" s="126"/>
+      <c r="D84" s="126"/>
+      <c r="E84" s="126"/>
+      <c r="F84" s="126"/>
+      <c r="G84" s="126"/>
+      <c r="H84" s="126"/>
+      <c r="I84" s="126"/>
+      <c r="J84" s="126"/>
+      <c r="K84" s="126"/>
+      <c r="L84" s="126"/>
     </row>
     <row r="85" spans="1:12">
-      <c r="B85" s="91" t="s">
+      <c r="B85" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="C85" s="91"/>
-      <c r="D85" s="91"/>
-      <c r="E85" s="91"/>
-      <c r="F85" s="91"/>
-      <c r="G85" s="91"/>
-      <c r="H85" s="91"/>
-      <c r="I85" s="91"/>
-      <c r="J85" s="91"/>
-      <c r="K85" s="91"/>
-      <c r="L85" s="91"/>
+      <c r="C85" s="126"/>
+      <c r="D85" s="126"/>
+      <c r="E85" s="126"/>
+      <c r="F85" s="126"/>
+      <c r="G85" s="126"/>
+      <c r="H85" s="126"/>
+      <c r="I85" s="126"/>
+      <c r="J85" s="126"/>
+      <c r="K85" s="126"/>
+      <c r="L85" s="126"/>
     </row>
     <row r="86" spans="1:12">
-      <c r="B86" s="91" t="s">
+      <c r="B86" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="C86" s="91"/>
-      <c r="D86" s="91"/>
-      <c r="E86" s="91"/>
-      <c r="F86" s="91"/>
-      <c r="G86" s="91"/>
-      <c r="H86" s="91"/>
-      <c r="I86" s="91"/>
-      <c r="J86" s="91"/>
-      <c r="K86" s="91"/>
-      <c r="L86" s="91"/>
+      <c r="C86" s="126"/>
+      <c r="D86" s="126"/>
+      <c r="E86" s="126"/>
+      <c r="F86" s="126"/>
+      <c r="G86" s="126"/>
+      <c r="H86" s="126"/>
+      <c r="I86" s="126"/>
+      <c r="J86" s="126"/>
+      <c r="K86" s="126"/>
+      <c r="L86" s="126"/>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="85"/>
-      <c r="B90" s="104" t="s">
+      <c r="B90" s="127" t="s">
         <v>84</v>
       </c>
-      <c r="C90" s="104"/>
-      <c r="D90" s="104"/>
-      <c r="E90" s="104"/>
-      <c r="F90" s="104"/>
-      <c r="G90" s="104"/>
-      <c r="H90" s="104"/>
-      <c r="I90" s="104"/>
-      <c r="J90" s="104"/>
-      <c r="K90" s="104"/>
-      <c r="L90" s="104"/>
+      <c r="C90" s="127"/>
+      <c r="D90" s="127"/>
+      <c r="E90" s="127"/>
+      <c r="F90" s="127"/>
+      <c r="G90" s="127"/>
+      <c r="H90" s="127"/>
+      <c r="I90" s="127"/>
+      <c r="J90" s="127"/>
+      <c r="K90" s="127"/>
+      <c r="L90" s="127"/>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="85"/>
-      <c r="B91" s="91" t="s">
+      <c r="B91" s="126" t="s">
         <v>85</v>
       </c>
-      <c r="C91" s="91"/>
-      <c r="D91" s="91"/>
-      <c r="E91" s="91"/>
-      <c r="F91" s="91"/>
-      <c r="G91" s="91"/>
-      <c r="H91" s="91"/>
-      <c r="I91" s="91"/>
-      <c r="J91" s="91"/>
-      <c r="K91" s="91"/>
-      <c r="L91" s="91"/>
+      <c r="C91" s="126"/>
+      <c r="D91" s="126"/>
+      <c r="E91" s="126"/>
+      <c r="F91" s="126"/>
+      <c r="G91" s="126"/>
+      <c r="H91" s="126"/>
+      <c r="I91" s="126"/>
+      <c r="J91" s="126"/>
+      <c r="K91" s="126"/>
+      <c r="L91" s="126"/>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="85"/>
-      <c r="B92" s="104" t="s">
+      <c r="B92" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="C92" s="104"/>
-      <c r="D92" s="104"/>
-      <c r="E92" s="104"/>
-      <c r="F92" s="104"/>
-      <c r="G92" s="104"/>
-      <c r="H92" s="104"/>
-      <c r="I92" s="104"/>
-      <c r="J92" s="104"/>
-      <c r="K92" s="104"/>
-      <c r="L92" s="104"/>
+      <c r="C92" s="127"/>
+      <c r="D92" s="127"/>
+      <c r="E92" s="127"/>
+      <c r="F92" s="127"/>
+      <c r="G92" s="127"/>
+      <c r="H92" s="127"/>
+      <c r="I92" s="127"/>
+      <c r="J92" s="127"/>
+      <c r="K92" s="127"/>
+      <c r="L92" s="127"/>
     </row>
     <row r="94" spans="1:12">
-      <c r="C94" s="92"/>
-      <c r="D94" s="92"/>
-      <c r="E94" s="92"/>
-      <c r="F94" s="92"/>
-      <c r="G94" s="92"/>
-      <c r="H94" s="92"/>
-      <c r="I94" s="92"/>
+      <c r="C94" s="91"/>
+      <c r="D94" s="91"/>
+      <c r="E94" s="91"/>
+      <c r="F94" s="91"/>
+      <c r="G94" s="91"/>
+      <c r="H94" s="91"/>
+      <c r="I94" s="91"/>
     </row>
     <row r="95" spans="1:12">
-      <c r="C95" s="92"/>
-      <c r="D95" s="92"/>
-      <c r="E95" s="92"/>
-      <c r="F95" s="92"/>
-      <c r="G95" s="92"/>
-      <c r="H95" s="92"/>
-      <c r="I95" s="92"/>
+      <c r="C95" s="91"/>
+      <c r="D95" s="91"/>
+      <c r="E95" s="91"/>
+      <c r="F95" s="91"/>
+      <c r="G95" s="91"/>
+      <c r="H95" s="91"/>
+      <c r="I95" s="91"/>
     </row>
     <row r="96" spans="1:12">
-      <c r="C96" s="92"/>
-      <c r="D96" s="92"/>
-      <c r="E96" s="92"/>
-      <c r="F96" s="92"/>
-      <c r="G96" s="92"/>
-      <c r="H96" s="92"/>
-      <c r="I96" s="92"/>
+      <c r="C96" s="91"/>
+      <c r="D96" s="91"/>
+      <c r="E96" s="91"/>
+      <c r="F96" s="91"/>
+      <c r="G96" s="91"/>
+      <c r="H96" s="91"/>
+      <c r="I96" s="91"/>
     </row>
     <row r="97" spans="3:9">
-      <c r="C97" s="92"/>
-      <c r="D97" s="92"/>
-      <c r="E97" s="92"/>
-      <c r="F97" s="92"/>
-      <c r="G97" s="92"/>
-      <c r="H97" s="92"/>
-      <c r="I97" s="92"/>
+      <c r="C97" s="91"/>
+      <c r="D97" s="91"/>
+      <c r="E97" s="91"/>
+      <c r="F97" s="91"/>
+      <c r="G97" s="91"/>
+      <c r="H97" s="91"/>
+      <c r="I97" s="91"/>
     </row>
     <row r="98" spans="3:9">
-      <c r="C98" s="92"/>
-      <c r="D98" s="92"/>
-      <c r="E98" s="92"/>
-      <c r="F98" s="92"/>
-      <c r="G98" s="92"/>
-      <c r="H98" s="92"/>
-      <c r="I98" s="92"/>
+      <c r="C98" s="91"/>
+      <c r="D98" s="91"/>
+      <c r="E98" s="91"/>
+      <c r="F98" s="91"/>
+      <c r="G98" s="91"/>
+      <c r="H98" s="91"/>
+      <c r="I98" s="91"/>
     </row>
     <row r="99" spans="3:9">
-      <c r="C99" s="92"/>
-      <c r="D99" s="92"/>
-      <c r="E99" s="92"/>
-      <c r="F99" s="92"/>
-      <c r="G99" s="92"/>
-      <c r="H99" s="92"/>
-      <c r="I99" s="92"/>
+      <c r="C99" s="91"/>
+      <c r="D99" s="91"/>
+      <c r="E99" s="91"/>
+      <c r="F99" s="91"/>
+      <c r="G99" s="91"/>
+      <c r="H99" s="91"/>
+      <c r="I99" s="91"/>
     </row>
     <row r="100" spans="3:9">
-      <c r="C100" s="92"/>
-      <c r="D100" s="92"/>
-      <c r="E100" s="92"/>
-      <c r="F100" s="92"/>
-      <c r="G100" s="92"/>
-      <c r="H100" s="92"/>
-      <c r="I100" s="92"/>
+      <c r="C100" s="91"/>
+      <c r="D100" s="91"/>
+      <c r="E100" s="91"/>
+      <c r="F100" s="91"/>
+      <c r="G100" s="91"/>
+      <c r="H100" s="91"/>
+      <c r="I100" s="91"/>
     </row>
     <row r="101" spans="3:9" ht="15.6" customHeight="1">
-      <c r="C101" s="92"/>
-      <c r="D101" s="92"/>
-      <c r="E101" s="92"/>
-      <c r="F101" s="92"/>
-      <c r="G101" s="92"/>
-      <c r="H101" s="92"/>
-      <c r="I101" s="92"/>
+      <c r="C101" s="91"/>
+      <c r="D101" s="91"/>
+      <c r="E101" s="91"/>
+      <c r="F101" s="91"/>
+      <c r="G101" s="91"/>
+      <c r="H101" s="91"/>
+      <c r="I101" s="91"/>
     </row>
     <row r="102" spans="3:9" ht="15.6" customHeight="1">
-      <c r="C102" s="92"/>
-      <c r="D102" s="92"/>
-      <c r="E102" s="92"/>
-      <c r="F102" s="92"/>
-      <c r="G102" s="92"/>
-      <c r="H102" s="92"/>
-      <c r="I102" s="92"/>
+      <c r="C102" s="91"/>
+      <c r="D102" s="91"/>
+      <c r="E102" s="91"/>
+      <c r="F102" s="91"/>
+      <c r="G102" s="91"/>
+      <c r="H102" s="91"/>
+      <c r="I102" s="91"/>
     </row>
     <row r="103" spans="3:9">
-      <c r="C103" s="92"/>
-      <c r="D103" s="92"/>
-      <c r="E103" s="92"/>
-      <c r="F103" s="92"/>
-      <c r="G103" s="92"/>
-      <c r="H103" s="92"/>
-      <c r="I103" s="92"/>
+      <c r="C103" s="91"/>
+      <c r="D103" s="91"/>
+      <c r="E103" s="91"/>
+      <c r="F103" s="91"/>
+      <c r="G103" s="91"/>
+      <c r="H103" s="91"/>
+      <c r="I103" s="91"/>
     </row>
     <row r="109" spans="3:9" ht="15.6" customHeight="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="91">
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="E49:M49"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="B2:C6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B79:L79"/>
+    <mergeCell ref="B80:L80"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="B61:L61"/>
+    <mergeCell ref="B56:L56"/>
+    <mergeCell ref="B47:L47"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="B43:L43"/>
+    <mergeCell ref="B59:L59"/>
+    <mergeCell ref="B72:L72"/>
+    <mergeCell ref="B73:L73"/>
+    <mergeCell ref="B60:L60"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="B92:L92"/>
+    <mergeCell ref="B69:L69"/>
+    <mergeCell ref="B70:L70"/>
+    <mergeCell ref="B71:L71"/>
+    <mergeCell ref="B62:L62"/>
+    <mergeCell ref="B63:L63"/>
+    <mergeCell ref="B64:L64"/>
+    <mergeCell ref="B65:L65"/>
+    <mergeCell ref="B66:L66"/>
+    <mergeCell ref="B67:L67"/>
+    <mergeCell ref="B68:L68"/>
+    <mergeCell ref="B76:L76"/>
+    <mergeCell ref="B77:L77"/>
+    <mergeCell ref="B78:L78"/>
+    <mergeCell ref="B91:L91"/>
+    <mergeCell ref="B90:L90"/>
+    <mergeCell ref="B86:L86"/>
+    <mergeCell ref="B81:L81"/>
+    <mergeCell ref="B82:L82"/>
+    <mergeCell ref="B83:L83"/>
+    <mergeCell ref="B84:L84"/>
+    <mergeCell ref="B85:L85"/>
+    <mergeCell ref="B49:C54"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B55:L55"/>
+    <mergeCell ref="B45:L45"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B15:J15"/>
     <mergeCell ref="C94:I103"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="E2:L2"/>
@@ -3876,6 +3923,14 @@
     <mergeCell ref="B46:L46"/>
     <mergeCell ref="B44:L44"/>
     <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="E49:M49"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="B2:C6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="K35:L35"/>
     <mergeCell ref="B25:I25"/>
     <mergeCell ref="B24:I24"/>
@@ -3884,65 +3939,6 @@
     <mergeCell ref="B28:J28"/>
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B49:C54"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B55:L55"/>
-    <mergeCell ref="B45:L45"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="B86:L86"/>
-    <mergeCell ref="B81:L81"/>
-    <mergeCell ref="B82:L82"/>
-    <mergeCell ref="B83:L83"/>
-    <mergeCell ref="B84:L84"/>
-    <mergeCell ref="B85:L85"/>
-    <mergeCell ref="B92:L92"/>
-    <mergeCell ref="B69:L69"/>
-    <mergeCell ref="B70:L70"/>
-    <mergeCell ref="B71:L71"/>
-    <mergeCell ref="B62:L62"/>
-    <mergeCell ref="B63:L63"/>
-    <mergeCell ref="B64:L64"/>
-    <mergeCell ref="B65:L65"/>
-    <mergeCell ref="B66:L66"/>
-    <mergeCell ref="B67:L67"/>
-    <mergeCell ref="B68:L68"/>
-    <mergeCell ref="B76:L76"/>
-    <mergeCell ref="B77:L77"/>
-    <mergeCell ref="B78:L78"/>
-    <mergeCell ref="B91:L91"/>
-    <mergeCell ref="B90:L90"/>
-    <mergeCell ref="B79:L79"/>
-    <mergeCell ref="B80:L80"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="B61:L61"/>
-    <mergeCell ref="B56:L56"/>
-    <mergeCell ref="B47:L47"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="B43:L43"/>
-    <mergeCell ref="B59:L59"/>
-    <mergeCell ref="B72:L72"/>
-    <mergeCell ref="B73:L73"/>
-    <mergeCell ref="B60:L60"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="J11:L11"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="VERIFICAR NÚMERO DE TELEFONO" error="Verifica que tenga 9 digitos sin espacio" sqref="J8:L8" xr:uid="{CC0405B2-A74A-4E8F-BF03-C34BEE695B67}">
@@ -3994,14 +3990,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:32">
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
     </row>
     <row r="6" spans="2:32" ht="15" customHeight="1">
       <c r="B6" s="70" t="s">
@@ -4051,14 +4047,14 @@
         <f>SUM(C8:E8)</f>
         <v>116</v>
       </c>
-      <c r="J8" s="130" t="s">
+      <c r="J8" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="K8" s="130"/>
-      <c r="M8" s="130" t="s">
+      <c r="K8" s="131"/>
+      <c r="M8" s="131" t="s">
         <v>109</v>
       </c>
-      <c r="N8" s="130"/>
+      <c r="N8" s="131"/>
     </row>
     <row r="9" spans="2:32" ht="15" customHeight="1">
       <c r="B9" s="5" t="s">
@@ -4531,14 +4527,14 @@
       </c>
     </row>
     <row r="23" spans="1:33">
-      <c r="B23" s="131" t="s">
+      <c r="B23" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="131"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
     </row>
     <row r="24" spans="1:33">
       <c r="J24" s="9" t="s">
@@ -4787,14 +4783,14 @@
       <c r="AF34"/>
     </row>
     <row r="35" spans="1:32">
-      <c r="B35" s="133" t="s">
+      <c r="B35" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="133"/>
-      <c r="D35" s="133"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="133"/>
-      <c r="G35" s="133"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="134"/>
     </row>
     <row r="37" spans="1:32">
       <c r="C37" s="21">

--- a/assets/downloads/Boleta_Template.xlsx
+++ b/assets/downloads/Boleta_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\probusinees-intranet\assets\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EFFF1A-EA59-4AF6-A11D-9FEE0EDD9BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F1F04B-74DA-4D8C-AD1C-227EFA7C3939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1256,12 +1256,88 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1274,88 +1350,12 @@
     <xf numFmtId="14" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2346,7 +2346,7 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
@@ -2368,82 +2368,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1">
-      <c r="A1" s="96"/>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
+      <c r="A1" s="94"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
     </row>
     <row r="3" spans="1:12" ht="25.8">
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="E3" s="101" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="E3" s="114" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
     </row>
     <row r="4" spans="1:12" ht="25.8">
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="E4" s="102" t="s">
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="E4" s="115" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
       <c r="K4" s="35"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
       <c r="D5" s="89"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
       <c r="D6" s="53"/>
       <c r="F6" s="53"/>
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="E7" s="93" t="s">
+      <c r="A7" s="92"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="E7" s="123" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="30" t="s">
@@ -2456,20 +2456,20 @@
       <c r="E8" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="98" t="s">
+      <c r="F8" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="99"/>
+      <c r="G8" s="128"/>
       <c r="H8" s="86"/>
       <c r="I8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="112">
+      <c r="J8" s="119">
         <f>+'2'!F7</f>
         <v>8</v>
       </c>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="30" t="s">
@@ -2482,21 +2482,21 @@
       <c r="E9" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="94">
+      <c r="F9" s="124">
         <f ca="1">+TODAY()</f>
         <v>45482</v>
       </c>
-      <c r="G9" s="95"/>
+      <c r="G9" s="125"/>
       <c r="H9" s="86"/>
       <c r="I9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="92">
+      <c r="J9" s="122">
         <f>+'2'!F8</f>
         <v>116</v>
       </c>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="122"/>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="30" t="s">
@@ -2509,19 +2509,19 @@
       <c r="E10" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="96" t="s">
+      <c r="F10" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="97"/>
+      <c r="G10" s="126"/>
       <c r="H10" s="86"/>
       <c r="I10" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="J10" s="113">
+      <c r="J10" s="120">
         <v>0</v>
       </c>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="30" t="s">
@@ -2534,44 +2534,44 @@
       <c r="E11" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="115"/>
-      <c r="G11" s="116"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="121"/>
       <c r="H11" s="86"/>
       <c r="I11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="130">
+      <c r="J11" s="103">
         <f>+'2'!F9</f>
         <v>1.1879999999999999</v>
       </c>
-      <c r="K11" s="130"/>
-      <c r="L11" s="130"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="103"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13" s="121" t="s">
+      <c r="B13" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
       <c r="K13" s="32" t="s">
         <v>34</v>
       </c>
@@ -2580,17 +2580,17 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="B14" s="122" t="s">
+      <c r="B14" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="122"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
       <c r="K14" s="37">
         <f>'2'!F13</f>
         <v>944.03</v>
@@ -2600,17 +2600,17 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
       <c r="K15" s="38">
         <f>'2'!F16+'2'!F19</f>
         <v>299.47999999999996</v>
@@ -2620,17 +2620,17 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="B16" s="119" t="s">
+      <c r="B16" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
       <c r="K16" s="37">
         <f>SUM(K14:K15)</f>
         <v>1243.51</v>
@@ -2666,13 +2666,13 @@
       <c r="L18" s="29"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="124"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
@@ -2687,16 +2687,16 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
       <c r="J20" s="47">
         <f>MAX('2'!C26:E26)</f>
         <v>0.04</v>
@@ -2710,16 +2710,16 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
       <c r="J21" s="47">
         <v>0.16</v>
       </c>
@@ -2732,16 +2732,16 @@
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="115" t="s">
+      <c r="B22" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
       <c r="J22" s="47">
         <v>0.02</v>
       </c>
@@ -2754,16 +2754,16 @@
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="119" t="s">
+      <c r="B23" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
       <c r="J23" s="75"/>
       <c r="K23" s="76">
         <f>SUM(K20:K22)</f>
@@ -2774,29 +2774,29 @@
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="117"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
       <c r="J24" s="2"/>
       <c r="K24" s="33"/>
       <c r="L24" s="31"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="115" t="s">
+      <c r="B25" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="109"/>
       <c r="J25" s="48" t="s">
         <v>76</v>
       </c>
@@ -2809,16 +2809,16 @@
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="119" t="s">
+      <c r="B26" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
       <c r="K26" s="37">
         <f>K23+K25</f>
         <v>316.1151070046609</v>
@@ -2828,27 +2828,27 @@
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="96"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
     </row>
     <row r="28" spans="2:12" ht="15.6">
-      <c r="B28" s="120" t="s">
+      <c r="B28" s="130" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="120"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="130"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="130"/>
       <c r="K28" s="60" t="s">
         <v>34</v>
       </c>
@@ -2857,17 +2857,17 @@
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="117" t="s">
+      <c r="B29" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="117"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="117"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="117"/>
-      <c r="H29" s="117"/>
-      <c r="I29" s="117"/>
-      <c r="J29" s="117"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
       <c r="K29" s="37">
         <f>K14</f>
         <v>944.03</v>
@@ -2877,17 +2877,17 @@
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="117" t="s">
+      <c r="B30" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="117"/>
-      <c r="I30" s="117"/>
-      <c r="J30" s="117"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
       <c r="K30" s="37">
         <f>+'2'!K22</f>
         <v>415.79999999999995</v>
@@ -2897,17 +2897,17 @@
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="115" t="s">
+      <c r="B31" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="115"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
       <c r="K31" s="38">
         <f>K26</f>
         <v>316.1151070046609</v>
@@ -2917,17 +2917,17 @@
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="119" t="s">
+      <c r="B32" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="119"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
       <c r="K32" s="37">
         <f>SUM(K29:K31)</f>
         <v>1675.9451070046607</v>
@@ -2937,79 +2937,79 @@
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="118"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="118"/>
-      <c r="K33" s="118"/>
-      <c r="L33" s="118"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="129"/>
+      <c r="J33" s="129"/>
+      <c r="K33" s="129"/>
+      <c r="L33" s="129"/>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="109" t="s">
+      <c r="B34" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="110"/>
-      <c r="I34" s="110"/>
-      <c r="J34" s="110"/>
-      <c r="K34" s="110"/>
-      <c r="L34" s="111"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="117"/>
+      <c r="L34" s="118"/>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="104" t="s">
+      <c r="C35" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="105"/>
-      <c r="E35" s="106"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="98"/>
       <c r="F35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="104" t="s">
+      <c r="G35" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="H35" s="106"/>
+      <c r="H35" s="98"/>
       <c r="I35" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J35" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="103" t="s">
+      <c r="K35" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="L35" s="103"/>
+      <c r="L35" s="107"/>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="46">
         <v>1</v>
       </c>
-      <c r="C36" s="104" t="str">
+      <c r="C36" s="96" t="str">
         <f>+'2'!$C$6</f>
         <v xml:space="preserve">Kids Car Seat Belt Pillow </v>
       </c>
-      <c r="D36" s="105"/>
-      <c r="E36" s="106"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="98"/>
       <c r="F36" s="7">
         <f>+'2'!$C$45</f>
         <v>100</v>
       </c>
-      <c r="G36" s="107">
+      <c r="G36" s="101">
         <f>+'2'!$C$10</f>
         <v>6.36</v>
       </c>
-      <c r="H36" s="108"/>
+      <c r="H36" s="102"/>
       <c r="I36" s="55">
         <f>+'2'!$C$46</f>
         <v>11.424505892807643</v>
@@ -3018,31 +3018,31 @@
         <f t="shared" ref="J36:J38" si="0">+F36*I36</f>
         <v>1142.4505892807642</v>
       </c>
-      <c r="K36" s="103">
+      <c r="K36" s="107">
         <f t="shared" ref="K36" si="1">I36*3.7</f>
         <v>42.270671803388282</v>
       </c>
-      <c r="L36" s="103"/>
+      <c r="L36" s="107"/>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="46">
         <v>2</v>
       </c>
-      <c r="C37" s="104" t="str">
+      <c r="C37" s="96" t="str">
         <f>+'2'!$D$6</f>
         <v>Car Headrest</v>
       </c>
-      <c r="D37" s="105"/>
-      <c r="E37" s="106"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="98"/>
       <c r="F37" s="7">
         <f>+'2'!$D$45</f>
         <v>1</v>
       </c>
-      <c r="G37" s="107">
+      <c r="G37" s="101">
         <f>+'2'!$D$10</f>
         <v>8.0299999999999994</v>
       </c>
-      <c r="H37" s="108"/>
+      <c r="H37" s="102"/>
       <c r="I37" s="55">
         <f>+'2'!$D$46</f>
         <v>13.907609574791055</v>
@@ -3051,31 +3051,31 @@
         <f t="shared" si="0"/>
         <v>13.907609574791055</v>
       </c>
-      <c r="K37" s="103">
+      <c r="K37" s="107">
         <f t="shared" ref="K37:K38" si="2">I37*3.7</f>
         <v>51.458155426726904</v>
       </c>
-      <c r="L37" s="103"/>
+      <c r="L37" s="107"/>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="46">
         <v>3</v>
       </c>
-      <c r="C38" s="104" t="str">
+      <c r="C38" s="96" t="str">
         <f>+'2'!$E$6</f>
         <v>Bluetooth sleep mask</v>
       </c>
-      <c r="D38" s="105"/>
-      <c r="E38" s="106"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="98"/>
       <c r="F38" s="7">
         <f>+'2'!$E$45</f>
         <v>50</v>
       </c>
-      <c r="G38" s="107">
+      <c r="G38" s="101">
         <f>+'2'!$E$10</f>
         <v>6</v>
       </c>
-      <c r="H38" s="108"/>
+      <c r="H38" s="102"/>
       <c r="I38" s="55">
         <f>+'2'!$E$46</f>
         <v>10.391738162982108</v>
@@ -3084,11 +3084,11 @@
         <f t="shared" si="0"/>
         <v>519.5869081491054</v>
       </c>
-      <c r="K38" s="128">
+      <c r="K38" s="99">
         <f t="shared" si="2"/>
         <v>38.449431203033804</v>
       </c>
-      <c r="L38" s="129"/>
+      <c r="L38" s="100"/>
     </row>
     <row r="39" spans="2:12" ht="15.6">
       <c r="B39" s="49" t="s">
@@ -3150,79 +3150,79 @@
       <c r="K42" s="29"/>
     </row>
     <row r="43" spans="2:12" ht="18">
-      <c r="B43" s="114" t="s">
+      <c r="B43" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="114"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="114"/>
-      <c r="F43" s="114"/>
-      <c r="G43" s="114"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="114"/>
-      <c r="J43" s="114"/>
-      <c r="K43" s="114"/>
-      <c r="L43" s="114"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
     </row>
     <row r="44" spans="2:12" ht="18">
-      <c r="B44" s="114" t="s">
+      <c r="B44" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="114"/>
-      <c r="F44" s="114"/>
-      <c r="G44" s="114"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="114"/>
-      <c r="J44" s="114"/>
-      <c r="K44" s="114"/>
-      <c r="L44" s="114"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="95"/>
+      <c r="L44" s="95"/>
     </row>
     <row r="45" spans="2:12" ht="18">
-      <c r="B45" s="114" t="s">
+      <c r="B45" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="114"/>
-      <c r="K45" s="114"/>
-      <c r="L45" s="114"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="95"/>
+      <c r="K45" s="95"/>
+      <c r="L45" s="95"/>
     </row>
     <row r="46" spans="2:12" ht="18">
-      <c r="B46" s="114" t="s">
+      <c r="B46" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="114"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="114"/>
-      <c r="J46" s="114"/>
-      <c r="K46" s="114"/>
-      <c r="L46" s="114"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="95"/>
+      <c r="K46" s="95"/>
+      <c r="L46" s="95"/>
     </row>
     <row r="47" spans="2:12" ht="18">
-      <c r="B47" s="114" t="s">
+      <c r="B47" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="114"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="114"/>
-      <c r="G47" s="114"/>
-      <c r="H47" s="114"/>
-      <c r="I47" s="114"/>
-      <c r="J47" s="114"/>
-      <c r="K47" s="114"/>
-      <c r="L47" s="114"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="95"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="95"/>
+      <c r="L47" s="95"/>
     </row>
     <row r="48" spans="2:12">
       <c r="B48" s="29"/>
@@ -3238,616 +3238,691 @@
       <c r="L48" s="29"/>
     </row>
     <row r="49" spans="2:13" ht="9" customHeight="1">
-      <c r="B49" s="91"/>
-      <c r="C49" s="91"/>
-      <c r="E49" s="91"/>
-      <c r="F49" s="91"/>
-      <c r="G49" s="91"/>
-      <c r="H49" s="91"/>
-      <c r="I49" s="91"/>
-      <c r="J49" s="91"/>
-      <c r="K49" s="91"/>
-      <c r="L49" s="91"/>
-      <c r="M49" s="91"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="92"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="92"/>
+      <c r="H49" s="92"/>
+      <c r="I49" s="92"/>
+      <c r="J49" s="92"/>
+      <c r="K49" s="92"/>
+      <c r="L49" s="92"/>
+      <c r="M49" s="92"/>
     </row>
     <row r="50" spans="2:13" ht="31.8" customHeight="1">
-      <c r="B50" s="91"/>
-      <c r="C50" s="91"/>
-      <c r="D50" s="90" t="s">
+      <c r="B50" s="92"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="110" t="s">
         <v>122</v>
       </c>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="90"/>
-      <c r="I50" s="90"/>
-      <c r="J50" s="90"/>
-      <c r="K50" s="90"/>
-      <c r="L50" s="90"/>
-      <c r="M50" s="90"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="110"/>
+      <c r="I50" s="110"/>
+      <c r="J50" s="110"/>
+      <c r="K50" s="110"/>
+      <c r="L50" s="110"/>
+      <c r="M50" s="110"/>
     </row>
     <row r="51" spans="2:13" ht="18" customHeight="1">
-      <c r="B51" s="91"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="100" t="s">
+      <c r="B51" s="92"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="113" t="s">
         <v>123</v>
       </c>
-      <c r="E51" s="100"/>
-      <c r="F51" s="100"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="100"/>
-      <c r="I51" s="100"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="113"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="113"/>
+      <c r="I51" s="113"/>
     </row>
     <row r="52" spans="2:13">
-      <c r="B52" s="91"/>
-      <c r="C52" s="91"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="92"/>
     </row>
     <row r="53" spans="2:13">
-      <c r="B53" s="91"/>
-      <c r="C53" s="91"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="92"/>
     </row>
     <row r="54" spans="2:13">
-      <c r="B54" s="91"/>
-      <c r="C54" s="91"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="92"/>
     </row>
     <row r="55" spans="2:13" ht="21">
-      <c r="B55" s="125" t="s">
+      <c r="B55" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="125"/>
-      <c r="D55" s="125"/>
-      <c r="E55" s="125"/>
-      <c r="F55" s="125"/>
-      <c r="G55" s="125"/>
-      <c r="H55" s="125"/>
-      <c r="I55" s="125"/>
-      <c r="J55" s="125"/>
-      <c r="K55" s="125"/>
-      <c r="L55" s="125"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="106"/>
+      <c r="F55" s="106"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="106"/>
+      <c r="I55" s="106"/>
+      <c r="J55" s="106"/>
+      <c r="K55" s="106"/>
+      <c r="L55" s="106"/>
     </row>
     <row r="56" spans="2:13">
-      <c r="B56" s="96"/>
-      <c r="C56" s="96"/>
-      <c r="D56" s="96"/>
-      <c r="E56" s="96"/>
-      <c r="F56" s="96"/>
-      <c r="G56" s="96"/>
-      <c r="H56" s="96"/>
-      <c r="I56" s="96"/>
-      <c r="J56" s="96"/>
-      <c r="K56" s="96"/>
-      <c r="L56" s="96"/>
+      <c r="B56" s="94"/>
+      <c r="C56" s="94"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="94"/>
+      <c r="F56" s="94"/>
+      <c r="G56" s="94"/>
+      <c r="H56" s="94"/>
+      <c r="I56" s="94"/>
+      <c r="J56" s="94"/>
+      <c r="K56" s="94"/>
+      <c r="L56" s="94"/>
     </row>
     <row r="59" spans="2:13">
-      <c r="B59" s="126" t="s">
+      <c r="B59" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="126"/>
-      <c r="D59" s="126"/>
-      <c r="E59" s="126"/>
-      <c r="F59" s="126"/>
-      <c r="G59" s="126"/>
-      <c r="H59" s="126"/>
-      <c r="I59" s="126"/>
-      <c r="J59" s="126"/>
-      <c r="K59" s="126"/>
-      <c r="L59" s="126"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="91"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="91"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="91"/>
+      <c r="I59" s="91"/>
+      <c r="J59" s="91"/>
+      <c r="K59" s="91"/>
+      <c r="L59" s="91"/>
     </row>
     <row r="60" spans="2:13">
-      <c r="B60" s="126" t="s">
+      <c r="B60" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="126"/>
-      <c r="D60" s="126"/>
-      <c r="E60" s="126"/>
-      <c r="F60" s="126"/>
-      <c r="G60" s="126"/>
-      <c r="H60" s="126"/>
-      <c r="I60" s="126"/>
-      <c r="J60" s="126"/>
-      <c r="K60" s="126"/>
-      <c r="L60" s="126"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="91"/>
+      <c r="E60" s="91"/>
+      <c r="F60" s="91"/>
+      <c r="G60" s="91"/>
+      <c r="H60" s="91"/>
+      <c r="I60" s="91"/>
+      <c r="J60" s="91"/>
+      <c r="K60" s="91"/>
+      <c r="L60" s="91"/>
     </row>
     <row r="61" spans="2:13">
-      <c r="B61" s="117" t="s">
+      <c r="B61" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="117"/>
-      <c r="D61" s="117"/>
-      <c r="E61" s="117"/>
-      <c r="F61" s="117"/>
-      <c r="G61" s="117"/>
-      <c r="H61" s="117"/>
-      <c r="I61" s="117"/>
-      <c r="J61" s="117"/>
-      <c r="K61" s="117"/>
-      <c r="L61" s="117"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="93"/>
+      <c r="E61" s="93"/>
+      <c r="F61" s="93"/>
+      <c r="G61" s="93"/>
+      <c r="H61" s="93"/>
+      <c r="I61" s="93"/>
+      <c r="J61" s="93"/>
+      <c r="K61" s="93"/>
+      <c r="L61" s="93"/>
     </row>
     <row r="62" spans="2:13">
-      <c r="B62" s="126" t="s">
+      <c r="B62" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="126"/>
-      <c r="D62" s="126"/>
-      <c r="E62" s="126"/>
-      <c r="F62" s="126"/>
-      <c r="G62" s="126"/>
-      <c r="H62" s="126"/>
-      <c r="I62" s="126"/>
-      <c r="J62" s="126"/>
-      <c r="K62" s="126"/>
-      <c r="L62" s="126"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="91"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="91"/>
+      <c r="G62" s="91"/>
+      <c r="H62" s="91"/>
+      <c r="I62" s="91"/>
+      <c r="J62" s="91"/>
+      <c r="K62" s="91"/>
+      <c r="L62" s="91"/>
     </row>
     <row r="63" spans="2:13">
-      <c r="B63" s="126" t="s">
+      <c r="B63" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="126"/>
-      <c r="D63" s="126"/>
-      <c r="E63" s="126"/>
-      <c r="F63" s="126"/>
-      <c r="G63" s="126"/>
-      <c r="H63" s="126"/>
-      <c r="I63" s="126"/>
-      <c r="J63" s="126"/>
-      <c r="K63" s="126"/>
-      <c r="L63" s="126"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="91"/>
+      <c r="E63" s="91"/>
+      <c r="F63" s="91"/>
+      <c r="G63" s="91"/>
+      <c r="H63" s="91"/>
+      <c r="I63" s="91"/>
+      <c r="J63" s="91"/>
+      <c r="K63" s="91"/>
+      <c r="L63" s="91"/>
     </row>
     <row r="64" spans="2:13">
-      <c r="B64" s="117" t="s">
+      <c r="B64" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="117"/>
-      <c r="D64" s="117"/>
-      <c r="E64" s="117"/>
-      <c r="F64" s="117"/>
-      <c r="G64" s="117"/>
-      <c r="H64" s="117"/>
-      <c r="I64" s="117"/>
-      <c r="J64" s="117"/>
-      <c r="K64" s="117"/>
-      <c r="L64" s="117"/>
+      <c r="C64" s="93"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="93"/>
+      <c r="F64" s="93"/>
+      <c r="G64" s="93"/>
+      <c r="H64" s="93"/>
+      <c r="I64" s="93"/>
+      <c r="J64" s="93"/>
+      <c r="K64" s="93"/>
+      <c r="L64" s="93"/>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="126" t="s">
+      <c r="B65" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C65" s="126"/>
-      <c r="D65" s="126"/>
-      <c r="E65" s="126"/>
-      <c r="F65" s="126"/>
-      <c r="G65" s="126"/>
-      <c r="H65" s="126"/>
-      <c r="I65" s="126"/>
-      <c r="J65" s="126"/>
-      <c r="K65" s="126"/>
-      <c r="L65" s="126"/>
+      <c r="C65" s="91"/>
+      <c r="D65" s="91"/>
+      <c r="E65" s="91"/>
+      <c r="F65" s="91"/>
+      <c r="G65" s="91"/>
+      <c r="H65" s="91"/>
+      <c r="I65" s="91"/>
+      <c r="J65" s="91"/>
+      <c r="K65" s="91"/>
+      <c r="L65" s="91"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="126" t="s">
+      <c r="B66" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="126"/>
-      <c r="D66" s="126"/>
-      <c r="E66" s="126"/>
-      <c r="F66" s="126"/>
-      <c r="G66" s="126"/>
-      <c r="H66" s="126"/>
-      <c r="I66" s="126"/>
-      <c r="J66" s="126"/>
-      <c r="K66" s="126"/>
-      <c r="L66" s="126"/>
+      <c r="C66" s="91"/>
+      <c r="D66" s="91"/>
+      <c r="E66" s="91"/>
+      <c r="F66" s="91"/>
+      <c r="G66" s="91"/>
+      <c r="H66" s="91"/>
+      <c r="I66" s="91"/>
+      <c r="J66" s="91"/>
+      <c r="K66" s="91"/>
+      <c r="L66" s="91"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="126" t="s">
+      <c r="B67" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="126"/>
-      <c r="D67" s="126"/>
-      <c r="E67" s="126"/>
-      <c r="F67" s="126"/>
-      <c r="G67" s="126"/>
-      <c r="H67" s="126"/>
-      <c r="I67" s="126"/>
-      <c r="J67" s="126"/>
-      <c r="K67" s="126"/>
-      <c r="L67" s="126"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="91"/>
+      <c r="E67" s="91"/>
+      <c r="F67" s="91"/>
+      <c r="G67" s="91"/>
+      <c r="H67" s="91"/>
+      <c r="I67" s="91"/>
+      <c r="J67" s="91"/>
+      <c r="K67" s="91"/>
+      <c r="L67" s="91"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="126" t="s">
+      <c r="B68" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="126"/>
-      <c r="D68" s="126"/>
-      <c r="E68" s="126"/>
-      <c r="F68" s="126"/>
-      <c r="G68" s="126"/>
-      <c r="H68" s="126"/>
-      <c r="I68" s="126"/>
-      <c r="J68" s="126"/>
-      <c r="K68" s="126"/>
-      <c r="L68" s="126"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="91"/>
+      <c r="E68" s="91"/>
+      <c r="F68" s="91"/>
+      <c r="G68" s="91"/>
+      <c r="H68" s="91"/>
+      <c r="I68" s="91"/>
+      <c r="J68" s="91"/>
+      <c r="K68" s="91"/>
+      <c r="L68" s="91"/>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="126" t="s">
+      <c r="B69" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="126"/>
-      <c r="D69" s="126"/>
-      <c r="E69" s="126"/>
-      <c r="F69" s="126"/>
-      <c r="G69" s="126"/>
-      <c r="H69" s="126"/>
-      <c r="I69" s="126"/>
-      <c r="J69" s="126"/>
-      <c r="K69" s="126"/>
-      <c r="L69" s="126"/>
+      <c r="C69" s="91"/>
+      <c r="D69" s="91"/>
+      <c r="E69" s="91"/>
+      <c r="F69" s="91"/>
+      <c r="G69" s="91"/>
+      <c r="H69" s="91"/>
+      <c r="I69" s="91"/>
+      <c r="J69" s="91"/>
+      <c r="K69" s="91"/>
+      <c r="L69" s="91"/>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="126" t="s">
+      <c r="B70" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="C70" s="126"/>
-      <c r="D70" s="126"/>
-      <c r="E70" s="126"/>
-      <c r="F70" s="126"/>
-      <c r="G70" s="126"/>
-      <c r="H70" s="126"/>
-      <c r="I70" s="126"/>
-      <c r="J70" s="126"/>
-      <c r="K70" s="126"/>
-      <c r="L70" s="126"/>
+      <c r="C70" s="91"/>
+      <c r="D70" s="91"/>
+      <c r="E70" s="91"/>
+      <c r="F70" s="91"/>
+      <c r="G70" s="91"/>
+      <c r="H70" s="91"/>
+      <c r="I70" s="91"/>
+      <c r="J70" s="91"/>
+      <c r="K70" s="91"/>
+      <c r="L70" s="91"/>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="126" t="s">
+      <c r="B71" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="C71" s="126"/>
-      <c r="D71" s="126"/>
-      <c r="E71" s="126"/>
-      <c r="F71" s="126"/>
-      <c r="G71" s="126"/>
-      <c r="H71" s="126"/>
-      <c r="I71" s="126"/>
-      <c r="J71" s="126"/>
-      <c r="K71" s="126"/>
-      <c r="L71" s="126"/>
+      <c r="C71" s="91"/>
+      <c r="D71" s="91"/>
+      <c r="E71" s="91"/>
+      <c r="F71" s="91"/>
+      <c r="G71" s="91"/>
+      <c r="H71" s="91"/>
+      <c r="I71" s="91"/>
+      <c r="J71" s="91"/>
+      <c r="K71" s="91"/>
+      <c r="L71" s="91"/>
     </row>
     <row r="72" spans="2:12">
-      <c r="B72" s="126" t="s">
+      <c r="B72" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="C72" s="126"/>
-      <c r="D72" s="126"/>
-      <c r="E72" s="126"/>
-      <c r="F72" s="126"/>
-      <c r="G72" s="126"/>
-      <c r="H72" s="126"/>
-      <c r="I72" s="126"/>
-      <c r="J72" s="126"/>
-      <c r="K72" s="126"/>
-      <c r="L72" s="126"/>
+      <c r="C72" s="91"/>
+      <c r="D72" s="91"/>
+      <c r="E72" s="91"/>
+      <c r="F72" s="91"/>
+      <c r="G72" s="91"/>
+      <c r="H72" s="91"/>
+      <c r="I72" s="91"/>
+      <c r="J72" s="91"/>
+      <c r="K72" s="91"/>
+      <c r="L72" s="91"/>
     </row>
     <row r="73" spans="2:12">
-      <c r="B73" s="96"/>
-      <c r="C73" s="96"/>
-      <c r="D73" s="96"/>
-      <c r="E73" s="96"/>
-      <c r="F73" s="96"/>
-      <c r="G73" s="96"/>
-      <c r="H73" s="96"/>
-      <c r="I73" s="96"/>
-      <c r="J73" s="96"/>
-      <c r="K73" s="96"/>
-      <c r="L73" s="96"/>
+      <c r="B73" s="94"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="94"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="94"/>
+      <c r="H73" s="94"/>
+      <c r="I73" s="94"/>
+      <c r="J73" s="94"/>
+      <c r="K73" s="94"/>
+      <c r="L73" s="94"/>
     </row>
     <row r="76" spans="2:12">
-      <c r="B76" s="126" t="s">
+      <c r="B76" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="C76" s="126"/>
-      <c r="D76" s="126"/>
-      <c r="E76" s="126"/>
-      <c r="F76" s="126"/>
-      <c r="G76" s="126"/>
-      <c r="H76" s="126"/>
-      <c r="I76" s="126"/>
-      <c r="J76" s="126"/>
-      <c r="K76" s="126"/>
-      <c r="L76" s="126"/>
+      <c r="C76" s="91"/>
+      <c r="D76" s="91"/>
+      <c r="E76" s="91"/>
+      <c r="F76" s="91"/>
+      <c r="G76" s="91"/>
+      <c r="H76" s="91"/>
+      <c r="I76" s="91"/>
+      <c r="J76" s="91"/>
+      <c r="K76" s="91"/>
+      <c r="L76" s="91"/>
     </row>
     <row r="77" spans="2:12">
-      <c r="B77" s="126" t="s">
+      <c r="B77" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="C77" s="126"/>
-      <c r="D77" s="126"/>
-      <c r="E77" s="126"/>
-      <c r="F77" s="126"/>
-      <c r="G77" s="126"/>
-      <c r="H77" s="126"/>
-      <c r="I77" s="126"/>
-      <c r="J77" s="126"/>
-      <c r="K77" s="126"/>
-      <c r="L77" s="126"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="91"/>
+      <c r="E77" s="91"/>
+      <c r="F77" s="91"/>
+      <c r="G77" s="91"/>
+      <c r="H77" s="91"/>
+      <c r="I77" s="91"/>
+      <c r="J77" s="91"/>
+      <c r="K77" s="91"/>
+      <c r="L77" s="91"/>
     </row>
     <row r="78" spans="2:12">
-      <c r="B78" s="126" t="s">
+      <c r="B78" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="C78" s="126"/>
-      <c r="D78" s="126"/>
-      <c r="E78" s="126"/>
-      <c r="F78" s="126"/>
-      <c r="G78" s="126"/>
-      <c r="H78" s="126"/>
-      <c r="I78" s="126"/>
-      <c r="J78" s="126"/>
-      <c r="K78" s="126"/>
-      <c r="L78" s="126"/>
+      <c r="C78" s="91"/>
+      <c r="D78" s="91"/>
+      <c r="E78" s="91"/>
+      <c r="F78" s="91"/>
+      <c r="G78" s="91"/>
+      <c r="H78" s="91"/>
+      <c r="I78" s="91"/>
+      <c r="J78" s="91"/>
+      <c r="K78" s="91"/>
+      <c r="L78" s="91"/>
     </row>
     <row r="79" spans="2:12">
-      <c r="B79" s="122" t="s">
+      <c r="B79" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="C79" s="122"/>
-      <c r="D79" s="122"/>
-      <c r="E79" s="122"/>
-      <c r="F79" s="122"/>
-      <c r="G79" s="122"/>
-      <c r="H79" s="122"/>
-      <c r="I79" s="122"/>
-      <c r="J79" s="122"/>
-      <c r="K79" s="122"/>
-      <c r="L79" s="122"/>
+      <c r="C79" s="90"/>
+      <c r="D79" s="90"/>
+      <c r="E79" s="90"/>
+      <c r="F79" s="90"/>
+      <c r="G79" s="90"/>
+      <c r="H79" s="90"/>
+      <c r="I79" s="90"/>
+      <c r="J79" s="90"/>
+      <c r="K79" s="90"/>
+      <c r="L79" s="90"/>
     </row>
     <row r="80" spans="2:12">
-      <c r="B80" s="126" t="s">
+      <c r="B80" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="C80" s="126"/>
-      <c r="D80" s="126"/>
-      <c r="E80" s="126"/>
-      <c r="F80" s="126"/>
-      <c r="G80" s="126"/>
-      <c r="H80" s="126"/>
-      <c r="I80" s="126"/>
-      <c r="J80" s="126"/>
-      <c r="K80" s="126"/>
-      <c r="L80" s="126"/>
+      <c r="C80" s="91"/>
+      <c r="D80" s="91"/>
+      <c r="E80" s="91"/>
+      <c r="F80" s="91"/>
+      <c r="G80" s="91"/>
+      <c r="H80" s="91"/>
+      <c r="I80" s="91"/>
+      <c r="J80" s="91"/>
+      <c r="K80" s="91"/>
+      <c r="L80" s="91"/>
     </row>
     <row r="81" spans="1:12">
-      <c r="B81" s="122" t="s">
+      <c r="B81" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="C81" s="122"/>
-      <c r="D81" s="122"/>
-      <c r="E81" s="122"/>
-      <c r="F81" s="122"/>
-      <c r="G81" s="122"/>
-      <c r="H81" s="122"/>
-      <c r="I81" s="122"/>
-      <c r="J81" s="122"/>
-      <c r="K81" s="122"/>
-      <c r="L81" s="122"/>
+      <c r="C81" s="90"/>
+      <c r="D81" s="90"/>
+      <c r="E81" s="90"/>
+      <c r="F81" s="90"/>
+      <c r="G81" s="90"/>
+      <c r="H81" s="90"/>
+      <c r="I81" s="90"/>
+      <c r="J81" s="90"/>
+      <c r="K81" s="90"/>
+      <c r="L81" s="90"/>
     </row>
     <row r="82" spans="1:12">
-      <c r="B82" s="126" t="s">
+      <c r="B82" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="C82" s="126"/>
-      <c r="D82" s="126"/>
-      <c r="E82" s="126"/>
-      <c r="F82" s="126"/>
-      <c r="G82" s="126"/>
-      <c r="H82" s="126"/>
-      <c r="I82" s="126"/>
-      <c r="J82" s="126"/>
-      <c r="K82" s="126"/>
-      <c r="L82" s="126"/>
+      <c r="C82" s="91"/>
+      <c r="D82" s="91"/>
+      <c r="E82" s="91"/>
+      <c r="F82" s="91"/>
+      <c r="G82" s="91"/>
+      <c r="H82" s="91"/>
+      <c r="I82" s="91"/>
+      <c r="J82" s="91"/>
+      <c r="K82" s="91"/>
+      <c r="L82" s="91"/>
     </row>
     <row r="83" spans="1:12">
-      <c r="B83" s="126" t="s">
+      <c r="B83" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="C83" s="126"/>
-      <c r="D83" s="126"/>
-      <c r="E83" s="126"/>
-      <c r="F83" s="126"/>
-      <c r="G83" s="126"/>
-      <c r="H83" s="126"/>
-      <c r="I83" s="126"/>
-      <c r="J83" s="126"/>
-      <c r="K83" s="126"/>
-      <c r="L83" s="126"/>
+      <c r="C83" s="91"/>
+      <c r="D83" s="91"/>
+      <c r="E83" s="91"/>
+      <c r="F83" s="91"/>
+      <c r="G83" s="91"/>
+      <c r="H83" s="91"/>
+      <c r="I83" s="91"/>
+      <c r="J83" s="91"/>
+      <c r="K83" s="91"/>
+      <c r="L83" s="91"/>
     </row>
     <row r="84" spans="1:12">
-      <c r="B84" s="126" t="s">
+      <c r="B84" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="C84" s="126"/>
-      <c r="D84" s="126"/>
-      <c r="E84" s="126"/>
-      <c r="F84" s="126"/>
-      <c r="G84" s="126"/>
-      <c r="H84" s="126"/>
-      <c r="I84" s="126"/>
-      <c r="J84" s="126"/>
-      <c r="K84" s="126"/>
-      <c r="L84" s="126"/>
+      <c r="C84" s="91"/>
+      <c r="D84" s="91"/>
+      <c r="E84" s="91"/>
+      <c r="F84" s="91"/>
+      <c r="G84" s="91"/>
+      <c r="H84" s="91"/>
+      <c r="I84" s="91"/>
+      <c r="J84" s="91"/>
+      <c r="K84" s="91"/>
+      <c r="L84" s="91"/>
     </row>
     <row r="85" spans="1:12">
-      <c r="B85" s="126" t="s">
+      <c r="B85" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="C85" s="126"/>
-      <c r="D85" s="126"/>
-      <c r="E85" s="126"/>
-      <c r="F85" s="126"/>
-      <c r="G85" s="126"/>
-      <c r="H85" s="126"/>
-      <c r="I85" s="126"/>
-      <c r="J85" s="126"/>
-      <c r="K85" s="126"/>
-      <c r="L85" s="126"/>
+      <c r="C85" s="91"/>
+      <c r="D85" s="91"/>
+      <c r="E85" s="91"/>
+      <c r="F85" s="91"/>
+      <c r="G85" s="91"/>
+      <c r="H85" s="91"/>
+      <c r="I85" s="91"/>
+      <c r="J85" s="91"/>
+      <c r="K85" s="91"/>
+      <c r="L85" s="91"/>
     </row>
     <row r="86" spans="1:12">
-      <c r="B86" s="126" t="s">
+      <c r="B86" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="C86" s="126"/>
-      <c r="D86" s="126"/>
-      <c r="E86" s="126"/>
-      <c r="F86" s="126"/>
-      <c r="G86" s="126"/>
-      <c r="H86" s="126"/>
-      <c r="I86" s="126"/>
-      <c r="J86" s="126"/>
-      <c r="K86" s="126"/>
-      <c r="L86" s="126"/>
+      <c r="C86" s="91"/>
+      <c r="D86" s="91"/>
+      <c r="E86" s="91"/>
+      <c r="F86" s="91"/>
+      <c r="G86" s="91"/>
+      <c r="H86" s="91"/>
+      <c r="I86" s="91"/>
+      <c r="J86" s="91"/>
+      <c r="K86" s="91"/>
+      <c r="L86" s="91"/>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="85"/>
-      <c r="B90" s="127" t="s">
+      <c r="B90" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="C90" s="127"/>
-      <c r="D90" s="127"/>
-      <c r="E90" s="127"/>
-      <c r="F90" s="127"/>
-      <c r="G90" s="127"/>
-      <c r="H90" s="127"/>
-      <c r="I90" s="127"/>
-      <c r="J90" s="127"/>
-      <c r="K90" s="127"/>
-      <c r="L90" s="127"/>
+      <c r="C90" s="104"/>
+      <c r="D90" s="104"/>
+      <c r="E90" s="104"/>
+      <c r="F90" s="104"/>
+      <c r="G90" s="104"/>
+      <c r="H90" s="104"/>
+      <c r="I90" s="104"/>
+      <c r="J90" s="104"/>
+      <c r="K90" s="104"/>
+      <c r="L90" s="104"/>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="85"/>
-      <c r="B91" s="126" t="s">
+      <c r="B91" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="C91" s="126"/>
-      <c r="D91" s="126"/>
-      <c r="E91" s="126"/>
-      <c r="F91" s="126"/>
-      <c r="G91" s="126"/>
-      <c r="H91" s="126"/>
-      <c r="I91" s="126"/>
-      <c r="J91" s="126"/>
-      <c r="K91" s="126"/>
-      <c r="L91" s="126"/>
+      <c r="C91" s="91"/>
+      <c r="D91" s="91"/>
+      <c r="E91" s="91"/>
+      <c r="F91" s="91"/>
+      <c r="G91" s="91"/>
+      <c r="H91" s="91"/>
+      <c r="I91" s="91"/>
+      <c r="J91" s="91"/>
+      <c r="K91" s="91"/>
+      <c r="L91" s="91"/>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="85"/>
-      <c r="B92" s="127" t="s">
+      <c r="B92" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="C92" s="127"/>
-      <c r="D92" s="127"/>
-      <c r="E92" s="127"/>
-      <c r="F92" s="127"/>
-      <c r="G92" s="127"/>
-      <c r="H92" s="127"/>
-      <c r="I92" s="127"/>
-      <c r="J92" s="127"/>
-      <c r="K92" s="127"/>
-      <c r="L92" s="127"/>
+      <c r="C92" s="104"/>
+      <c r="D92" s="104"/>
+      <c r="E92" s="104"/>
+      <c r="F92" s="104"/>
+      <c r="G92" s="104"/>
+      <c r="H92" s="104"/>
+      <c r="I92" s="104"/>
+      <c r="J92" s="104"/>
+      <c r="K92" s="104"/>
+      <c r="L92" s="104"/>
     </row>
     <row r="94" spans="1:12">
-      <c r="C94" s="91"/>
-      <c r="D94" s="91"/>
-      <c r="E94" s="91"/>
-      <c r="F94" s="91"/>
-      <c r="G94" s="91"/>
-      <c r="H94" s="91"/>
-      <c r="I94" s="91"/>
+      <c r="C94" s="92"/>
+      <c r="D94" s="92"/>
+      <c r="E94" s="92"/>
+      <c r="F94" s="92"/>
+      <c r="G94" s="92"/>
+      <c r="H94" s="92"/>
+      <c r="I94" s="92"/>
     </row>
     <row r="95" spans="1:12">
-      <c r="C95" s="91"/>
-      <c r="D95" s="91"/>
-      <c r="E95" s="91"/>
-      <c r="F95" s="91"/>
-      <c r="G95" s="91"/>
-      <c r="H95" s="91"/>
-      <c r="I95" s="91"/>
+      <c r="C95" s="92"/>
+      <c r="D95" s="92"/>
+      <c r="E95" s="92"/>
+      <c r="F95" s="92"/>
+      <c r="G95" s="92"/>
+      <c r="H95" s="92"/>
+      <c r="I95" s="92"/>
     </row>
     <row r="96" spans="1:12">
-      <c r="C96" s="91"/>
-      <c r="D96" s="91"/>
-      <c r="E96" s="91"/>
-      <c r="F96" s="91"/>
-      <c r="G96" s="91"/>
-      <c r="H96" s="91"/>
-      <c r="I96" s="91"/>
+      <c r="C96" s="92"/>
+      <c r="D96" s="92"/>
+      <c r="E96" s="92"/>
+      <c r="F96" s="92"/>
+      <c r="G96" s="92"/>
+      <c r="H96" s="92"/>
+      <c r="I96" s="92"/>
     </row>
     <row r="97" spans="3:9">
-      <c r="C97" s="91"/>
-      <c r="D97" s="91"/>
-      <c r="E97" s="91"/>
-      <c r="F97" s="91"/>
-      <c r="G97" s="91"/>
-      <c r="H97" s="91"/>
-      <c r="I97" s="91"/>
+      <c r="C97" s="92"/>
+      <c r="D97" s="92"/>
+      <c r="E97" s="92"/>
+      <c r="F97" s="92"/>
+      <c r="G97" s="92"/>
+      <c r="H97" s="92"/>
+      <c r="I97" s="92"/>
     </row>
     <row r="98" spans="3:9">
-      <c r="C98" s="91"/>
-      <c r="D98" s="91"/>
-      <c r="E98" s="91"/>
-      <c r="F98" s="91"/>
-      <c r="G98" s="91"/>
-      <c r="H98" s="91"/>
-      <c r="I98" s="91"/>
+      <c r="C98" s="92"/>
+      <c r="D98" s="92"/>
+      <c r="E98" s="92"/>
+      <c r="F98" s="92"/>
+      <c r="G98" s="92"/>
+      <c r="H98" s="92"/>
+      <c r="I98" s="92"/>
     </row>
     <row r="99" spans="3:9">
-      <c r="C99" s="91"/>
-      <c r="D99" s="91"/>
-      <c r="E99" s="91"/>
-      <c r="F99" s="91"/>
-      <c r="G99" s="91"/>
-      <c r="H99" s="91"/>
-      <c r="I99" s="91"/>
+      <c r="C99" s="92"/>
+      <c r="D99" s="92"/>
+      <c r="E99" s="92"/>
+      <c r="F99" s="92"/>
+      <c r="G99" s="92"/>
+      <c r="H99" s="92"/>
+      <c r="I99" s="92"/>
     </row>
     <row r="100" spans="3:9">
-      <c r="C100" s="91"/>
-      <c r="D100" s="91"/>
-      <c r="E100" s="91"/>
-      <c r="F100" s="91"/>
-      <c r="G100" s="91"/>
-      <c r="H100" s="91"/>
-      <c r="I100" s="91"/>
+      <c r="C100" s="92"/>
+      <c r="D100" s="92"/>
+      <c r="E100" s="92"/>
+      <c r="F100" s="92"/>
+      <c r="G100" s="92"/>
+      <c r="H100" s="92"/>
+      <c r="I100" s="92"/>
     </row>
     <row r="101" spans="3:9" ht="15.6" customHeight="1">
-      <c r="C101" s="91"/>
-      <c r="D101" s="91"/>
-      <c r="E101" s="91"/>
-      <c r="F101" s="91"/>
-      <c r="G101" s="91"/>
-      <c r="H101" s="91"/>
-      <c r="I101" s="91"/>
+      <c r="C101" s="92"/>
+      <c r="D101" s="92"/>
+      <c r="E101" s="92"/>
+      <c r="F101" s="92"/>
+      <c r="G101" s="92"/>
+      <c r="H101" s="92"/>
+      <c r="I101" s="92"/>
     </row>
     <row r="102" spans="3:9" ht="15.6" customHeight="1">
-      <c r="C102" s="91"/>
-      <c r="D102" s="91"/>
-      <c r="E102" s="91"/>
-      <c r="F102" s="91"/>
-      <c r="G102" s="91"/>
-      <c r="H102" s="91"/>
-      <c r="I102" s="91"/>
+      <c r="C102" s="92"/>
+      <c r="D102" s="92"/>
+      <c r="E102" s="92"/>
+      <c r="F102" s="92"/>
+      <c r="G102" s="92"/>
+      <c r="H102" s="92"/>
+      <c r="I102" s="92"/>
     </row>
     <row r="103" spans="3:9">
-      <c r="C103" s="91"/>
-      <c r="D103" s="91"/>
-      <c r="E103" s="91"/>
-      <c r="F103" s="91"/>
-      <c r="G103" s="91"/>
-      <c r="H103" s="91"/>
-      <c r="I103" s="91"/>
+      <c r="C103" s="92"/>
+      <c r="D103" s="92"/>
+      <c r="E103" s="92"/>
+      <c r="F103" s="92"/>
+      <c r="G103" s="92"/>
+      <c r="H103" s="92"/>
+      <c r="I103" s="92"/>
     </row>
     <row r="109" spans="3:9" ht="15.6" customHeight="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="91">
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="E49:M49"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="B2:C6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B33:L33"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="C94:I103"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="D51:I51"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="B34:L34"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="B46:L46"/>
+    <mergeCell ref="B44:L44"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B49:C54"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B55:L55"/>
+    <mergeCell ref="B45:L45"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B86:L86"/>
+    <mergeCell ref="B81:L81"/>
+    <mergeCell ref="B82:L82"/>
+    <mergeCell ref="B83:L83"/>
+    <mergeCell ref="B84:L84"/>
+    <mergeCell ref="B85:L85"/>
+    <mergeCell ref="B92:L92"/>
+    <mergeCell ref="B69:L69"/>
+    <mergeCell ref="B70:L70"/>
+    <mergeCell ref="B71:L71"/>
+    <mergeCell ref="B62:L62"/>
+    <mergeCell ref="B63:L63"/>
+    <mergeCell ref="B64:L64"/>
+    <mergeCell ref="B65:L65"/>
+    <mergeCell ref="B66:L66"/>
+    <mergeCell ref="B67:L67"/>
+    <mergeCell ref="B68:L68"/>
+    <mergeCell ref="B76:L76"/>
+    <mergeCell ref="B77:L77"/>
+    <mergeCell ref="B78:L78"/>
+    <mergeCell ref="B91:L91"/>
+    <mergeCell ref="B90:L90"/>
     <mergeCell ref="B79:L79"/>
     <mergeCell ref="B80:L80"/>
     <mergeCell ref="A7:C7"/>
@@ -3864,81 +3939,6 @@
     <mergeCell ref="B60:L60"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="J11:L11"/>
-    <mergeCell ref="B92:L92"/>
-    <mergeCell ref="B69:L69"/>
-    <mergeCell ref="B70:L70"/>
-    <mergeCell ref="B71:L71"/>
-    <mergeCell ref="B62:L62"/>
-    <mergeCell ref="B63:L63"/>
-    <mergeCell ref="B64:L64"/>
-    <mergeCell ref="B65:L65"/>
-    <mergeCell ref="B66:L66"/>
-    <mergeCell ref="B67:L67"/>
-    <mergeCell ref="B68:L68"/>
-    <mergeCell ref="B76:L76"/>
-    <mergeCell ref="B77:L77"/>
-    <mergeCell ref="B78:L78"/>
-    <mergeCell ref="B91:L91"/>
-    <mergeCell ref="B90:L90"/>
-    <mergeCell ref="B86:L86"/>
-    <mergeCell ref="B81:L81"/>
-    <mergeCell ref="B82:L82"/>
-    <mergeCell ref="B83:L83"/>
-    <mergeCell ref="B84:L84"/>
-    <mergeCell ref="B85:L85"/>
-    <mergeCell ref="B49:C54"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B55:L55"/>
-    <mergeCell ref="B45:L45"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="C94:I103"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="D51:I51"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="B34:L34"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="B46:L46"/>
-    <mergeCell ref="B44:L44"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="E49:M49"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="B2:C6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B33:L33"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B30:J30"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="VERIFICAR NÚMERO DE TELEFONO" error="Verifica que tenga 9 digitos sin espacio" sqref="J8:L8" xr:uid="{CC0405B2-A74A-4E8F-BF03-C34BEE695B67}">

--- a/assets/downloads/Boleta_Template.xlsx
+++ b/assets/downloads/Boleta_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\probusinees-intranet\assets\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F1F04B-74DA-4D8C-AD1C-227EFA7C3939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253E6EC3-22EF-4971-8596-CCB65E924BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2038,20 +2038,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>435428</xdr:colOff>
+      <xdr:colOff>696686</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>107313</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4152900" cy="3276600"/>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>500744</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>174173</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 5">
+        <xdr:cNvPr id="6" name="Imagen 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{798532EB-EFB3-4DA3-B19C-57E6C70BA2F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F2C9A19-FCEF-1A4B-FA39-83E9195908BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2059,24 +2064,34 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1730828" y="18124714"/>
-          <a:ext cx="4152900" cy="3276600"/>
+          <a:off x="1992086" y="18264684"/>
+          <a:ext cx="4060372" cy="3430546"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2346,8 +2361,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A78" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L101" sqref="L101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4"/>
@@ -2484,7 +2499,7 @@
       </c>
       <c r="F9" s="124">
         <f ca="1">+TODAY()</f>
-        <v>45482</v>
+        <v>45484</v>
       </c>
       <c r="G9" s="125"/>
       <c r="H9" s="86"/>
@@ -3266,7 +3281,7 @@
       <c r="L50" s="110"/>
       <c r="M50" s="110"/>
     </row>
-    <row r="51" spans="2:13" ht="18" customHeight="1">
+    <row r="51" spans="2:13" ht="21" customHeight="1">
       <c r="B51" s="92"/>
       <c r="C51" s="92"/>
       <c r="D51" s="113" t="s">

--- a/assets/downloads/Boleta_Template.xlsx
+++ b/assets/downloads/Boleta_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\probusinees-intranet\assets\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253E6EC3-22EF-4971-8596-CCB65E924BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD2163A-B822-40C2-8101-CAD3FC9DB0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="2" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$L$109</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$M$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1256,88 +1256,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1350,12 +1274,88 @@
     <xf numFmtId="14" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1407,559 +1407,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>147864</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>299357</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectángulo: esquinas redondeadas 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="57150" y="11986078"/>
-          <a:ext cx="963386" cy="260350"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="009999"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="009999"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-PE" sz="900" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7258</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>139247</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>503464</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="CuadroTexto 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7258" y="11977461"/>
-          <a:ext cx="1217385" cy="282575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>DEL</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> CLIENTE</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-PE" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>51938</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>147864</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>161126</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectángulo: esquinas redondeadas 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="51938" y="14272078"/>
-          <a:ext cx="1551545" cy="260350"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="009999"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="009999"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-PE" sz="900" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>20865</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>139247</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>258536</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="CuadroTexto 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20865" y="14263461"/>
-          <a:ext cx="1680028" cy="350610"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>DE LA IMPORTACIÓN</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>68035</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>147864</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>629124</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectángulo: esquinas redondeadas 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="68035" y="16558078"/>
-          <a:ext cx="1282268" cy="260350"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="009999"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="009999"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-PE" sz="900" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>48080</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>139248</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>462643</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>54430</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="CuadroTexto 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="48080" y="16549462"/>
-          <a:ext cx="1856920" cy="296182"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>DE</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> LA EMPRESA</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>   </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="es-PE" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2028,7 +1475,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1001485" y="9557656"/>
+          <a:off x="995722" y="9405897"/>
           <a:ext cx="1209675" cy="1190625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2042,13 +1489,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>696686</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>107313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>500744</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>174173</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2359,10 +1806,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A78" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L101" sqref="L101"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L103" sqref="L103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4"/>
@@ -2383,82 +1830,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1">
-      <c r="A1" s="94"/>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
+      <c r="A1" s="96"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
     </row>
     <row r="3" spans="1:12" ht="25.8">
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="E3" s="114" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="E3" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
     </row>
     <row r="4" spans="1:12" ht="25.8">
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="E4" s="115" t="s">
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="E4" s="108" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
       <c r="K4" s="35"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="89"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="53"/>
       <c r="F6" s="53"/>
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="92"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="E7" s="123" t="s">
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="E7" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="30" t="s">
@@ -2471,20 +1918,20 @@
       <c r="E8" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="127" t="s">
+      <c r="F8" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="128"/>
+      <c r="G8" s="99"/>
       <c r="H8" s="86"/>
       <c r="I8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="119">
+      <c r="J8" s="117">
         <f>+'2'!F7</f>
         <v>8</v>
       </c>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="30" t="s">
@@ -2497,21 +1944,21 @@
       <c r="E9" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="124">
+      <c r="F9" s="94">
         <f ca="1">+TODAY()</f>
-        <v>45484</v>
-      </c>
-      <c r="G9" s="125"/>
+        <v>45521</v>
+      </c>
+      <c r="G9" s="95"/>
       <c r="H9" s="86"/>
       <c r="I9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="122">
+      <c r="J9" s="92">
         <f>+'2'!F8</f>
         <v>116</v>
       </c>
-      <c r="K9" s="122"/>
-      <c r="L9" s="122"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="30" t="s">
@@ -2524,19 +1971,19 @@
       <c r="E10" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="94" t="s">
+      <c r="F10" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="126"/>
+      <c r="G10" s="97"/>
       <c r="H10" s="86"/>
       <c r="I10" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="J10" s="120">
+      <c r="J10" s="118">
         <v>0</v>
       </c>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="30" t="s">
@@ -2549,44 +1996,44 @@
       <c r="E11" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="109"/>
-      <c r="G11" s="121"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="120"/>
       <c r="H11" s="86"/>
       <c r="I11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="103">
+      <c r="J11" s="130">
         <f>+'2'!F9</f>
         <v>1.1879999999999999</v>
       </c>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="130"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
       <c r="K13" s="32" t="s">
         <v>34</v>
       </c>
@@ -2595,17 +2042,17 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
       <c r="K14" s="37">
         <f>'2'!F13</f>
         <v>944.03</v>
@@ -2615,17 +2062,17 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="B15" s="112" t="s">
+      <c r="B15" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="112"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
       <c r="K15" s="38">
         <f>'2'!F16+'2'!F19</f>
         <v>299.47999999999996</v>
@@ -2635,17 +2082,17 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
       <c r="K16" s="37">
         <f>SUM(K14:K15)</f>
         <v>1243.51</v>
@@ -2681,13 +2128,13 @@
       <c r="L18" s="29"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="105" t="s">
+      <c r="B19" s="124" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="124"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
@@ -2702,16 +2149,16 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
       <c r="J20" s="47">
         <f>MAX('2'!C26:E26)</f>
         <v>0.04</v>
@@ -2725,16 +2172,16 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
       <c r="J21" s="47">
         <v>0.16</v>
       </c>
@@ -2747,16 +2194,16 @@
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="109" t="s">
+      <c r="B22" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
       <c r="J22" s="47">
         <v>0.02</v>
       </c>
@@ -2769,16 +2216,16 @@
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="108" t="s">
+      <c r="B23" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
       <c r="J23" s="75"/>
       <c r="K23" s="76">
         <f>SUM(K20:K22)</f>
@@ -2789,29 +2236,29 @@
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
       <c r="J24" s="2"/>
       <c r="K24" s="33"/>
       <c r="L24" s="31"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="109" t="s">
+      <c r="B25" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="109"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
       <c r="J25" s="48" t="s">
         <v>76</v>
       </c>
@@ -2824,16 +2271,16 @@
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="108" t="s">
+      <c r="B26" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="108"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
       <c r="K26" s="37">
         <f>K23+K25</f>
         <v>316.1151070046609</v>
@@ -2843,27 +2290,27 @@
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="96"/>
     </row>
     <row r="28" spans="2:12" ht="15.6">
-      <c r="B28" s="130" t="s">
+      <c r="B28" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="130"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="130"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="105"/>
       <c r="K28" s="60" t="s">
         <v>34</v>
       </c>
@@ -2872,17 +2319,17 @@
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="93" t="s">
+      <c r="B29" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="93"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="102"/>
       <c r="K29" s="37">
         <f>K14</f>
         <v>944.03</v>
@@ -2892,17 +2339,17 @@
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="93" t="s">
+      <c r="B30" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
       <c r="K30" s="37">
         <f>+'2'!K22</f>
         <v>415.79999999999995</v>
@@ -2912,17 +2359,17 @@
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="109" t="s">
+      <c r="B31" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="101"/>
       <c r="K31" s="38">
         <f>K26</f>
         <v>316.1151070046609</v>
@@ -2932,17 +2379,17 @@
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="108" t="s">
+      <c r="B32" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="108"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
       <c r="K32" s="37">
         <f>SUM(K29:K31)</f>
         <v>1675.9451070046607</v>
@@ -2952,79 +2399,79 @@
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="129"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="129"/>
-      <c r="H33" s="129"/>
-      <c r="I33" s="129"/>
-      <c r="J33" s="129"/>
-      <c r="K33" s="129"/>
-      <c r="L33" s="129"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="103"/>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="116" t="s">
+      <c r="B34" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="117"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="117"/>
-      <c r="L34" s="118"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="116"/>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="96" t="s">
+      <c r="C35" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="97"/>
-      <c r="E35" s="98"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="111"/>
       <c r="F35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="96" t="s">
+      <c r="G35" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="H35" s="98"/>
+      <c r="H35" s="111"/>
       <c r="I35" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J35" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="107" t="s">
+      <c r="K35" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="L35" s="107"/>
+      <c r="L35" s="100"/>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="46">
         <v>1</v>
       </c>
-      <c r="C36" s="96" t="str">
+      <c r="C36" s="109" t="str">
         <f>+'2'!$C$6</f>
         <v xml:space="preserve">Kids Car Seat Belt Pillow </v>
       </c>
-      <c r="D36" s="97"/>
-      <c r="E36" s="98"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="111"/>
       <c r="F36" s="7">
         <f>+'2'!$C$45</f>
         <v>100</v>
       </c>
-      <c r="G36" s="101">
+      <c r="G36" s="112">
         <f>+'2'!$C$10</f>
         <v>6.36</v>
       </c>
-      <c r="H36" s="102"/>
+      <c r="H36" s="113"/>
       <c r="I36" s="55">
         <f>+'2'!$C$46</f>
         <v>11.424505892807643</v>
@@ -3033,31 +2480,31 @@
         <f t="shared" ref="J36:J38" si="0">+F36*I36</f>
         <v>1142.4505892807642</v>
       </c>
-      <c r="K36" s="107">
+      <c r="K36" s="100">
         <f t="shared" ref="K36" si="1">I36*3.7</f>
         <v>42.270671803388282</v>
       </c>
-      <c r="L36" s="107"/>
+      <c r="L36" s="100"/>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="46">
         <v>2</v>
       </c>
-      <c r="C37" s="96" t="str">
+      <c r="C37" s="109" t="str">
         <f>+'2'!$D$6</f>
         <v>Car Headrest</v>
       </c>
-      <c r="D37" s="97"/>
-      <c r="E37" s="98"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="111"/>
       <c r="F37" s="7">
         <f>+'2'!$D$45</f>
         <v>1</v>
       </c>
-      <c r="G37" s="101">
+      <c r="G37" s="112">
         <f>+'2'!$D$10</f>
         <v>8.0299999999999994</v>
       </c>
-      <c r="H37" s="102"/>
+      <c r="H37" s="113"/>
       <c r="I37" s="55">
         <f>+'2'!$D$46</f>
         <v>13.907609574791055</v>
@@ -3066,31 +2513,31 @@
         <f t="shared" si="0"/>
         <v>13.907609574791055</v>
       </c>
-      <c r="K37" s="107">
+      <c r="K37" s="100">
         <f t="shared" ref="K37:K38" si="2">I37*3.7</f>
         <v>51.458155426726904</v>
       </c>
-      <c r="L37" s="107"/>
+      <c r="L37" s="100"/>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="46">
         <v>3</v>
       </c>
-      <c r="C38" s="96" t="str">
+      <c r="C38" s="109" t="str">
         <f>+'2'!$E$6</f>
         <v>Bluetooth sleep mask</v>
       </c>
-      <c r="D38" s="97"/>
-      <c r="E38" s="98"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="111"/>
       <c r="F38" s="7">
         <f>+'2'!$E$45</f>
         <v>50</v>
       </c>
-      <c r="G38" s="101">
+      <c r="G38" s="112">
         <f>+'2'!$E$10</f>
         <v>6</v>
       </c>
-      <c r="H38" s="102"/>
+      <c r="H38" s="113"/>
       <c r="I38" s="55">
         <f>+'2'!$E$46</f>
         <v>10.391738162982108</v>
@@ -3099,11 +2546,11 @@
         <f t="shared" si="0"/>
         <v>519.5869081491054</v>
       </c>
-      <c r="K38" s="99">
+      <c r="K38" s="128">
         <f t="shared" si="2"/>
         <v>38.449431203033804</v>
       </c>
-      <c r="L38" s="100"/>
+      <c r="L38" s="129"/>
     </row>
     <row r="39" spans="2:12" ht="15.6">
       <c r="B39" s="49" t="s">
@@ -3165,79 +2612,79 @@
       <c r="K42" s="29"/>
     </row>
     <row r="43" spans="2:12" ht="18">
-      <c r="B43" s="95" t="s">
+      <c r="B43" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="95"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="95"/>
-      <c r="H43" s="95"/>
-      <c r="I43" s="95"/>
-      <c r="J43" s="95"/>
-      <c r="K43" s="95"/>
-      <c r="L43" s="95"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="119"/>
+      <c r="F43" s="119"/>
+      <c r="G43" s="119"/>
+      <c r="H43" s="119"/>
+      <c r="I43" s="119"/>
+      <c r="J43" s="119"/>
+      <c r="K43" s="119"/>
+      <c r="L43" s="119"/>
     </row>
     <row r="44" spans="2:12" ht="18">
-      <c r="B44" s="95" t="s">
+      <c r="B44" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="95"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="119"/>
+      <c r="F44" s="119"/>
+      <c r="G44" s="119"/>
+      <c r="H44" s="119"/>
+      <c r="I44" s="119"/>
+      <c r="J44" s="119"/>
+      <c r="K44" s="119"/>
+      <c r="L44" s="119"/>
     </row>
     <row r="45" spans="2:12" ht="18">
-      <c r="B45" s="95" t="s">
+      <c r="B45" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="95"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="95"/>
-      <c r="H45" s="95"/>
-      <c r="I45" s="95"/>
-      <c r="J45" s="95"/>
-      <c r="K45" s="95"/>
-      <c r="L45" s="95"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="119"/>
+      <c r="F45" s="119"/>
+      <c r="G45" s="119"/>
+      <c r="H45" s="119"/>
+      <c r="I45" s="119"/>
+      <c r="J45" s="119"/>
+      <c r="K45" s="119"/>
+      <c r="L45" s="119"/>
     </row>
     <row r="46" spans="2:12" ht="18">
-      <c r="B46" s="95" t="s">
+      <c r="B46" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="95"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="95"/>
-      <c r="G46" s="95"/>
-      <c r="H46" s="95"/>
-      <c r="I46" s="95"/>
-      <c r="J46" s="95"/>
-      <c r="K46" s="95"/>
-      <c r="L46" s="95"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="119"/>
+      <c r="E46" s="119"/>
+      <c r="F46" s="119"/>
+      <c r="G46" s="119"/>
+      <c r="H46" s="119"/>
+      <c r="I46" s="119"/>
+      <c r="J46" s="119"/>
+      <c r="K46" s="119"/>
+      <c r="L46" s="119"/>
     </row>
     <row r="47" spans="2:12" ht="18">
-      <c r="B47" s="95" t="s">
+      <c r="B47" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="95"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="95"/>
-      <c r="H47" s="95"/>
-      <c r="I47" s="95"/>
-      <c r="J47" s="95"/>
-      <c r="K47" s="95"/>
-      <c r="L47" s="95"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="119"/>
+      <c r="F47" s="119"/>
+      <c r="G47" s="119"/>
+      <c r="H47" s="119"/>
+      <c r="I47" s="119"/>
+      <c r="J47" s="119"/>
+      <c r="K47" s="119"/>
+      <c r="L47" s="119"/>
     </row>
     <row r="48" spans="2:12">
       <c r="B48" s="29"/>
@@ -3253,448 +2700,493 @@
       <c r="L48" s="29"/>
     </row>
     <row r="49" spans="2:13" ht="9" customHeight="1">
-      <c r="B49" s="92"/>
-      <c r="C49" s="92"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="92"/>
-      <c r="G49" s="92"/>
-      <c r="H49" s="92"/>
-      <c r="I49" s="92"/>
-      <c r="J49" s="92"/>
-      <c r="K49" s="92"/>
-      <c r="L49" s="92"/>
-      <c r="M49" s="92"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="91"/>
+      <c r="E49" s="91"/>
+      <c r="F49" s="91"/>
+      <c r="G49" s="91"/>
+      <c r="H49" s="91"/>
+      <c r="I49" s="91"/>
+      <c r="J49" s="91"/>
+      <c r="K49" s="91"/>
+      <c r="L49" s="91"/>
+      <c r="M49" s="91"/>
     </row>
     <row r="50" spans="2:13" ht="31.8" customHeight="1">
-      <c r="B50" s="92"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="110" t="s">
+      <c r="B50" s="91"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="E50" s="110"/>
-      <c r="F50" s="110"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="110"/>
-      <c r="I50" s="110"/>
-      <c r="J50" s="110"/>
-      <c r="K50" s="110"/>
-      <c r="L50" s="110"/>
-      <c r="M50" s="110"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="90"/>
+      <c r="H50" s="90"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="90"/>
+      <c r="K50" s="90"/>
+      <c r="L50" s="90"/>
+      <c r="M50" s="90"/>
     </row>
     <row r="51" spans="2:13" ht="21" customHeight="1">
-      <c r="B51" s="92"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="113" t="s">
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="E51" s="113"/>
-      <c r="F51" s="113"/>
-      <c r="G51" s="113"/>
-      <c r="H51" s="113"/>
-      <c r="I51" s="113"/>
+      <c r="E51" s="106"/>
+      <c r="F51" s="106"/>
+      <c r="G51" s="106"/>
+      <c r="H51" s="106"/>
+      <c r="I51" s="106"/>
     </row>
     <row r="52" spans="2:13">
-      <c r="B52" s="92"/>
-      <c r="C52" s="92"/>
+      <c r="B52" s="91"/>
+      <c r="C52" s="91"/>
     </row>
     <row r="53" spans="2:13">
-      <c r="B53" s="92"/>
-      <c r="C53" s="92"/>
-    </row>
-    <row r="54" spans="2:13">
-      <c r="B54" s="92"/>
-      <c r="C54" s="92"/>
-    </row>
-    <row r="55" spans="2:13" ht="21">
-      <c r="B55" s="106" t="s">
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
+    </row>
+    <row r="54" spans="2:13" ht="21">
+      <c r="B54" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="106"/>
-      <c r="D55" s="106"/>
-      <c r="E55" s="106"/>
-      <c r="F55" s="106"/>
-      <c r="G55" s="106"/>
-      <c r="H55" s="106"/>
-      <c r="I55" s="106"/>
-      <c r="J55" s="106"/>
-      <c r="K55" s="106"/>
-      <c r="L55" s="106"/>
+      <c r="C54" s="125"/>
+      <c r="D54" s="125"/>
+      <c r="E54" s="125"/>
+      <c r="F54" s="125"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="125"/>
+      <c r="I54" s="125"/>
+      <c r="J54" s="125"/>
+      <c r="K54" s="125"/>
+      <c r="L54" s="125"/>
     </row>
     <row r="56" spans="2:13">
-      <c r="B56" s="94"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="94"/>
-      <c r="G56" s="94"/>
-      <c r="H56" s="94"/>
-      <c r="I56" s="94"/>
-      <c r="J56" s="94"/>
-      <c r="K56" s="94"/>
-      <c r="L56" s="94"/>
+      <c r="B56" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="126"/>
+      <c r="D56" s="126"/>
+      <c r="E56" s="126"/>
+      <c r="F56" s="126"/>
+      <c r="G56" s="126"/>
+      <c r="H56" s="126"/>
+      <c r="I56" s="126"/>
+      <c r="J56" s="126"/>
+      <c r="K56" s="126"/>
+      <c r="L56" s="126"/>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="B57" s="126" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="126"/>
+      <c r="D57" s="126"/>
+      <c r="E57" s="126"/>
+      <c r="F57" s="126"/>
+      <c r="G57" s="126"/>
+      <c r="H57" s="126"/>
+      <c r="I57" s="126"/>
+      <c r="J57" s="126"/>
+      <c r="K57" s="126"/>
+      <c r="L57" s="126"/>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="B58" s="102" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="102"/>
+      <c r="D58" s="102"/>
+      <c r="E58" s="102"/>
+      <c r="F58" s="102"/>
+      <c r="G58" s="102"/>
+      <c r="H58" s="102"/>
+      <c r="I58" s="102"/>
+      <c r="J58" s="102"/>
+      <c r="K58" s="102"/>
+      <c r="L58" s="102"/>
     </row>
     <row r="59" spans="2:13">
-      <c r="B59" s="91" t="s">
-        <v>46</v>
-      </c>
-      <c r="C59" s="91"/>
-      <c r="D59" s="91"/>
-      <c r="E59" s="91"/>
-      <c r="F59" s="91"/>
-      <c r="G59" s="91"/>
-      <c r="H59" s="91"/>
-      <c r="I59" s="91"/>
-      <c r="J59" s="91"/>
-      <c r="K59" s="91"/>
-      <c r="L59" s="91"/>
+      <c r="B59" s="126" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="126"/>
+      <c r="D59" s="126"/>
+      <c r="E59" s="126"/>
+      <c r="F59" s="126"/>
+      <c r="G59" s="126"/>
+      <c r="H59" s="126"/>
+      <c r="I59" s="126"/>
+      <c r="J59" s="126"/>
+      <c r="K59" s="126"/>
+      <c r="L59" s="126"/>
     </row>
     <row r="60" spans="2:13">
-      <c r="B60" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60" s="91"/>
-      <c r="D60" s="91"/>
-      <c r="E60" s="91"/>
-      <c r="F60" s="91"/>
-      <c r="G60" s="91"/>
-      <c r="H60" s="91"/>
-      <c r="I60" s="91"/>
-      <c r="J60" s="91"/>
-      <c r="K60" s="91"/>
-      <c r="L60" s="91"/>
+      <c r="B60" s="126" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="126"/>
+      <c r="D60" s="126"/>
+      <c r="E60" s="126"/>
+      <c r="F60" s="126"/>
+      <c r="G60" s="126"/>
+      <c r="H60" s="126"/>
+      <c r="I60" s="126"/>
+      <c r="J60" s="126"/>
+      <c r="K60" s="126"/>
+      <c r="L60" s="126"/>
     </row>
     <row r="61" spans="2:13">
-      <c r="B61" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="93"/>
-      <c r="D61" s="93"/>
-      <c r="E61" s="93"/>
-      <c r="F61" s="93"/>
-      <c r="G61" s="93"/>
-      <c r="H61" s="93"/>
-      <c r="I61" s="93"/>
-      <c r="J61" s="93"/>
-      <c r="K61" s="93"/>
-      <c r="L61" s="93"/>
+      <c r="B61" s="102" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="102"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="102"/>
+      <c r="G61" s="102"/>
+      <c r="H61" s="102"/>
+      <c r="I61" s="102"/>
+      <c r="J61" s="102"/>
+      <c r="K61" s="102"/>
+      <c r="L61" s="102"/>
     </row>
     <row r="62" spans="2:13">
-      <c r="B62" s="91" t="s">
-        <v>47</v>
-      </c>
-      <c r="C62" s="91"/>
-      <c r="D62" s="91"/>
-      <c r="E62" s="91"/>
-      <c r="F62" s="91"/>
-      <c r="G62" s="91"/>
-      <c r="H62" s="91"/>
-      <c r="I62" s="91"/>
-      <c r="J62" s="91"/>
-      <c r="K62" s="91"/>
-      <c r="L62" s="91"/>
+      <c r="B62" s="126" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" s="126"/>
+      <c r="D62" s="126"/>
+      <c r="E62" s="126"/>
+      <c r="F62" s="126"/>
+      <c r="G62" s="126"/>
+      <c r="H62" s="126"/>
+      <c r="I62" s="126"/>
+      <c r="J62" s="126"/>
+      <c r="K62" s="126"/>
+      <c r="L62" s="126"/>
     </row>
     <row r="63" spans="2:13">
-      <c r="B63" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63" s="91"/>
-      <c r="D63" s="91"/>
-      <c r="E63" s="91"/>
-      <c r="F63" s="91"/>
-      <c r="G63" s="91"/>
-      <c r="H63" s="91"/>
-      <c r="I63" s="91"/>
-      <c r="J63" s="91"/>
-      <c r="K63" s="91"/>
-      <c r="L63" s="91"/>
+      <c r="B63" s="126" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" s="126"/>
+      <c r="D63" s="126"/>
+      <c r="E63" s="126"/>
+      <c r="F63" s="126"/>
+      <c r="G63" s="126"/>
+      <c r="H63" s="126"/>
+      <c r="I63" s="126"/>
+      <c r="J63" s="126"/>
+      <c r="K63" s="126"/>
+      <c r="L63" s="126"/>
     </row>
     <row r="64" spans="2:13">
-      <c r="B64" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="C64" s="93"/>
-      <c r="D64" s="93"/>
-      <c r="E64" s="93"/>
-      <c r="F64" s="93"/>
-      <c r="G64" s="93"/>
-      <c r="H64" s="93"/>
-      <c r="I64" s="93"/>
-      <c r="J64" s="93"/>
-      <c r="K64" s="93"/>
-      <c r="L64" s="93"/>
+      <c r="B64" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" s="126"/>
+      <c r="D64" s="126"/>
+      <c r="E64" s="126"/>
+      <c r="F64" s="126"/>
+      <c r="G64" s="126"/>
+      <c r="H64" s="126"/>
+      <c r="I64" s="126"/>
+      <c r="J64" s="126"/>
+      <c r="K64" s="126"/>
+      <c r="L64" s="126"/>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="91" t="s">
-        <v>48</v>
-      </c>
-      <c r="C65" s="91"/>
-      <c r="D65" s="91"/>
-      <c r="E65" s="91"/>
-      <c r="F65" s="91"/>
-      <c r="G65" s="91"/>
-      <c r="H65" s="91"/>
-      <c r="I65" s="91"/>
-      <c r="J65" s="91"/>
-      <c r="K65" s="91"/>
-      <c r="L65" s="91"/>
+      <c r="B65" s="126" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="126"/>
+      <c r="D65" s="126"/>
+      <c r="E65" s="126"/>
+      <c r="F65" s="126"/>
+      <c r="G65" s="126"/>
+      <c r="H65" s="126"/>
+      <c r="I65" s="126"/>
+      <c r="J65" s="126"/>
+      <c r="K65" s="126"/>
+      <c r="L65" s="126"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="C66" s="91"/>
-      <c r="D66" s="91"/>
-      <c r="E66" s="91"/>
-      <c r="F66" s="91"/>
-      <c r="G66" s="91"/>
-      <c r="H66" s="91"/>
-      <c r="I66" s="91"/>
-      <c r="J66" s="91"/>
-      <c r="K66" s="91"/>
-      <c r="L66" s="91"/>
+      <c r="B66" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="126"/>
+      <c r="D66" s="126"/>
+      <c r="E66" s="126"/>
+      <c r="F66" s="126"/>
+      <c r="G66" s="126"/>
+      <c r="H66" s="126"/>
+      <c r="I66" s="126"/>
+      <c r="J66" s="126"/>
+      <c r="K66" s="126"/>
+      <c r="L66" s="126"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="91" t="s">
-        <v>59</v>
-      </c>
-      <c r="C67" s="91"/>
-      <c r="D67" s="91"/>
-      <c r="E67" s="91"/>
-      <c r="F67" s="91"/>
-      <c r="G67" s="91"/>
-      <c r="H67" s="91"/>
-      <c r="I67" s="91"/>
-      <c r="J67" s="91"/>
-      <c r="K67" s="91"/>
-      <c r="L67" s="91"/>
+      <c r="B67" s="126" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" s="126"/>
+      <c r="D67" s="126"/>
+      <c r="E67" s="126"/>
+      <c r="F67" s="126"/>
+      <c r="G67" s="126"/>
+      <c r="H67" s="126"/>
+      <c r="I67" s="126"/>
+      <c r="J67" s="126"/>
+      <c r="K67" s="126"/>
+      <c r="L67" s="126"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="C68" s="91"/>
-      <c r="D68" s="91"/>
-      <c r="E68" s="91"/>
-      <c r="F68" s="91"/>
-      <c r="G68" s="91"/>
-      <c r="H68" s="91"/>
-      <c r="I68" s="91"/>
-      <c r="J68" s="91"/>
-      <c r="K68" s="91"/>
-      <c r="L68" s="91"/>
+      <c r="B68" s="126" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="126"/>
+      <c r="D68" s="126"/>
+      <c r="E68" s="126"/>
+      <c r="F68" s="126"/>
+      <c r="G68" s="126"/>
+      <c r="H68" s="126"/>
+      <c r="I68" s="126"/>
+      <c r="J68" s="126"/>
+      <c r="K68" s="126"/>
+      <c r="L68" s="126"/>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="C69" s="91"/>
-      <c r="D69" s="91"/>
-      <c r="E69" s="91"/>
-      <c r="F69" s="91"/>
-      <c r="G69" s="91"/>
-      <c r="H69" s="91"/>
-      <c r="I69" s="91"/>
-      <c r="J69" s="91"/>
-      <c r="K69" s="91"/>
-      <c r="L69" s="91"/>
+      <c r="B69" s="126" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" s="126"/>
+      <c r="D69" s="126"/>
+      <c r="E69" s="126"/>
+      <c r="F69" s="126"/>
+      <c r="G69" s="126"/>
+      <c r="H69" s="126"/>
+      <c r="I69" s="126"/>
+      <c r="J69" s="126"/>
+      <c r="K69" s="126"/>
+      <c r="L69" s="126"/>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="C70" s="91"/>
-      <c r="D70" s="91"/>
-      <c r="E70" s="91"/>
-      <c r="F70" s="91"/>
-      <c r="G70" s="91"/>
-      <c r="H70" s="91"/>
-      <c r="I70" s="91"/>
-      <c r="J70" s="91"/>
-      <c r="K70" s="91"/>
-      <c r="L70" s="91"/>
+      <c r="B70" s="126" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" s="126"/>
+      <c r="D70" s="126"/>
+      <c r="E70" s="126"/>
+      <c r="F70" s="126"/>
+      <c r="G70" s="126"/>
+      <c r="H70" s="126"/>
+      <c r="I70" s="126"/>
+      <c r="J70" s="126"/>
+      <c r="K70" s="126"/>
+      <c r="L70" s="126"/>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="C71" s="91"/>
-      <c r="D71" s="91"/>
-      <c r="E71" s="91"/>
-      <c r="F71" s="91"/>
-      <c r="G71" s="91"/>
-      <c r="H71" s="91"/>
-      <c r="I71" s="91"/>
-      <c r="J71" s="91"/>
-      <c r="K71" s="91"/>
-      <c r="L71" s="91"/>
+      <c r="B71" s="126" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="126"/>
+      <c r="D71" s="126"/>
+      <c r="E71" s="126"/>
+      <c r="F71" s="126"/>
+      <c r="G71" s="126"/>
+      <c r="H71" s="126"/>
+      <c r="I71" s="126"/>
+      <c r="J71" s="126"/>
+      <c r="K71" s="126"/>
+      <c r="L71" s="126"/>
     </row>
     <row r="72" spans="2:12">
-      <c r="B72" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="C72" s="91"/>
-      <c r="D72" s="91"/>
-      <c r="E72" s="91"/>
-      <c r="F72" s="91"/>
-      <c r="G72" s="91"/>
-      <c r="H72" s="91"/>
-      <c r="I72" s="91"/>
-      <c r="J72" s="91"/>
-      <c r="K72" s="91"/>
-      <c r="L72" s="91"/>
+      <c r="B72" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="126"/>
+      <c r="D72" s="126"/>
+      <c r="E72" s="126"/>
+      <c r="F72" s="126"/>
+      <c r="G72" s="126"/>
+      <c r="H72" s="126"/>
+      <c r="I72" s="126"/>
+      <c r="J72" s="126"/>
+      <c r="K72" s="126"/>
+      <c r="L72" s="126"/>
     </row>
     <row r="73" spans="2:12">
-      <c r="B73" s="94"/>
-      <c r="C73" s="94"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="94"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="94"/>
-      <c r="H73" s="94"/>
-      <c r="I73" s="94"/>
-      <c r="J73" s="94"/>
-      <c r="K73" s="94"/>
-      <c r="L73" s="94"/>
+      <c r="B73" s="122" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73" s="122"/>
+      <c r="D73" s="122"/>
+      <c r="E73" s="122"/>
+      <c r="F73" s="122"/>
+      <c r="G73" s="122"/>
+      <c r="H73" s="122"/>
+      <c r="I73" s="122"/>
+      <c r="J73" s="122"/>
+      <c r="K73" s="122"/>
+      <c r="L73" s="122"/>
+    </row>
+    <row r="74" spans="2:12">
+      <c r="B74" s="126" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" s="126"/>
+      <c r="D74" s="126"/>
+      <c r="E74" s="126"/>
+      <c r="F74" s="126"/>
+      <c r="G74" s="126"/>
+      <c r="H74" s="126"/>
+      <c r="I74" s="126"/>
+      <c r="J74" s="126"/>
+      <c r="K74" s="126"/>
+      <c r="L74" s="126"/>
+    </row>
+    <row r="75" spans="2:12">
+      <c r="B75" s="122" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" s="122"/>
+      <c r="D75" s="122"/>
+      <c r="E75" s="122"/>
+      <c r="F75" s="122"/>
+      <c r="G75" s="122"/>
+      <c r="H75" s="122"/>
+      <c r="I75" s="122"/>
+      <c r="J75" s="122"/>
+      <c r="K75" s="122"/>
+      <c r="L75" s="122"/>
     </row>
     <row r="76" spans="2:12">
-      <c r="B76" s="91" t="s">
-        <v>64</v>
-      </c>
-      <c r="C76" s="91"/>
-      <c r="D76" s="91"/>
-      <c r="E76" s="91"/>
-      <c r="F76" s="91"/>
-      <c r="G76" s="91"/>
-      <c r="H76" s="91"/>
-      <c r="I76" s="91"/>
-      <c r="J76" s="91"/>
-      <c r="K76" s="91"/>
-      <c r="L76" s="91"/>
+      <c r="B76" s="126" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="126"/>
+      <c r="D76" s="126"/>
+      <c r="E76" s="126"/>
+      <c r="F76" s="126"/>
+      <c r="G76" s="126"/>
+      <c r="H76" s="126"/>
+      <c r="I76" s="126"/>
+      <c r="J76" s="126"/>
+      <c r="K76" s="126"/>
+      <c r="L76" s="126"/>
     </row>
     <row r="77" spans="2:12">
-      <c r="B77" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="C77" s="91"/>
-      <c r="D77" s="91"/>
-      <c r="E77" s="91"/>
-      <c r="F77" s="91"/>
-      <c r="G77" s="91"/>
-      <c r="H77" s="91"/>
-      <c r="I77" s="91"/>
-      <c r="J77" s="91"/>
-      <c r="K77" s="91"/>
-      <c r="L77" s="91"/>
+      <c r="B77" s="126" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" s="126"/>
+      <c r="D77" s="126"/>
+      <c r="E77" s="126"/>
+      <c r="F77" s="126"/>
+      <c r="G77" s="126"/>
+      <c r="H77" s="126"/>
+      <c r="I77" s="126"/>
+      <c r="J77" s="126"/>
+      <c r="K77" s="126"/>
+      <c r="L77" s="126"/>
     </row>
     <row r="78" spans="2:12">
-      <c r="B78" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="C78" s="91"/>
-      <c r="D78" s="91"/>
-      <c r="E78" s="91"/>
-      <c r="F78" s="91"/>
-      <c r="G78" s="91"/>
-      <c r="H78" s="91"/>
-      <c r="I78" s="91"/>
-      <c r="J78" s="91"/>
-      <c r="K78" s="91"/>
-      <c r="L78" s="91"/>
+      <c r="B78" s="126" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" s="126"/>
+      <c r="D78" s="126"/>
+      <c r="E78" s="126"/>
+      <c r="F78" s="126"/>
+      <c r="G78" s="126"/>
+      <c r="H78" s="126"/>
+      <c r="I78" s="126"/>
+      <c r="J78" s="126"/>
+      <c r="K78" s="126"/>
+      <c r="L78" s="126"/>
     </row>
     <row r="79" spans="2:12">
-      <c r="B79" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="C79" s="90"/>
-      <c r="D79" s="90"/>
-      <c r="E79" s="90"/>
-      <c r="F79" s="90"/>
-      <c r="G79" s="90"/>
-      <c r="H79" s="90"/>
-      <c r="I79" s="90"/>
-      <c r="J79" s="90"/>
-      <c r="K79" s="90"/>
-      <c r="L79" s="90"/>
+      <c r="B79" s="126" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="126"/>
+      <c r="D79" s="126"/>
+      <c r="E79" s="126"/>
+      <c r="F79" s="126"/>
+      <c r="G79" s="126"/>
+      <c r="H79" s="126"/>
+      <c r="I79" s="126"/>
+      <c r="J79" s="126"/>
+      <c r="K79" s="126"/>
+      <c r="L79" s="126"/>
     </row>
     <row r="80" spans="2:12">
-      <c r="B80" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="C80" s="91"/>
-      <c r="D80" s="91"/>
-      <c r="E80" s="91"/>
-      <c r="F80" s="91"/>
-      <c r="G80" s="91"/>
-      <c r="H80" s="91"/>
-      <c r="I80" s="91"/>
-      <c r="J80" s="91"/>
-      <c r="K80" s="91"/>
-      <c r="L80" s="91"/>
+      <c r="B80" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" s="126"/>
+      <c r="D80" s="126"/>
+      <c r="E80" s="126"/>
+      <c r="F80" s="126"/>
+      <c r="G80" s="126"/>
+      <c r="H80" s="126"/>
+      <c r="I80" s="126"/>
+      <c r="J80" s="126"/>
+      <c r="K80" s="126"/>
+      <c r="L80" s="126"/>
     </row>
     <row r="81" spans="1:12">
-      <c r="B81" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="C81" s="90"/>
-      <c r="D81" s="90"/>
-      <c r="E81" s="90"/>
-      <c r="F81" s="90"/>
-      <c r="G81" s="90"/>
-      <c r="H81" s="90"/>
-      <c r="I81" s="90"/>
-      <c r="J81" s="90"/>
-      <c r="K81" s="90"/>
-      <c r="L81" s="90"/>
+      <c r="A81" s="85"/>
+      <c r="B81" s="127" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" s="127"/>
+      <c r="D81" s="127"/>
+      <c r="E81" s="127"/>
+      <c r="F81" s="127"/>
+      <c r="G81" s="127"/>
+      <c r="H81" s="127"/>
+      <c r="I81" s="127"/>
+      <c r="J81" s="127"/>
+      <c r="K81" s="127"/>
+      <c r="L81" s="127"/>
     </row>
     <row r="82" spans="1:12">
-      <c r="B82" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="C82" s="91"/>
-      <c r="D82" s="91"/>
-      <c r="E82" s="91"/>
-      <c r="F82" s="91"/>
-      <c r="G82" s="91"/>
-      <c r="H82" s="91"/>
-      <c r="I82" s="91"/>
-      <c r="J82" s="91"/>
-      <c r="K82" s="91"/>
-      <c r="L82" s="91"/>
+      <c r="A82" s="85"/>
+      <c r="B82" s="126" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" s="126"/>
+      <c r="D82" s="126"/>
+      <c r="E82" s="126"/>
+      <c r="F82" s="126"/>
+      <c r="G82" s="126"/>
+      <c r="H82" s="126"/>
+      <c r="I82" s="126"/>
+      <c r="J82" s="126"/>
+      <c r="K82" s="126"/>
+      <c r="L82" s="126"/>
     </row>
     <row r="83" spans="1:12">
-      <c r="B83" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="C83" s="91"/>
-      <c r="D83" s="91"/>
-      <c r="E83" s="91"/>
-      <c r="F83" s="91"/>
-      <c r="G83" s="91"/>
-      <c r="H83" s="91"/>
-      <c r="I83" s="91"/>
-      <c r="J83" s="91"/>
-      <c r="K83" s="91"/>
-      <c r="L83" s="91"/>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="B84" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="C84" s="91"/>
-      <c r="D84" s="91"/>
-      <c r="E84" s="91"/>
-      <c r="F84" s="91"/>
-      <c r="G84" s="91"/>
-      <c r="H84" s="91"/>
-      <c r="I84" s="91"/>
-      <c r="J84" s="91"/>
-      <c r="K84" s="91"/>
-      <c r="L84" s="91"/>
+      <c r="A83" s="85"/>
+      <c r="B83" s="127" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" s="127"/>
+      <c r="D83" s="127"/>
+      <c r="E83" s="127"/>
+      <c r="F83" s="127"/>
+      <c r="G83" s="127"/>
+      <c r="H83" s="127"/>
+      <c r="I83" s="127"/>
+      <c r="J83" s="127"/>
+      <c r="K83" s="127"/>
+      <c r="L83" s="127"/>
     </row>
     <row r="85" spans="1:12">
-      <c r="B85" s="91" t="s">
-        <v>71</v>
-      </c>
       <c r="C85" s="91"/>
       <c r="D85" s="91"/>
       <c r="E85" s="91"/>
@@ -3702,14 +3194,8 @@
       <c r="G85" s="91"/>
       <c r="H85" s="91"/>
       <c r="I85" s="91"/>
-      <c r="J85" s="91"/>
-      <c r="K85" s="91"/>
-      <c r="L85" s="91"/>
     </row>
     <row r="86" spans="1:12">
-      <c r="B86" s="91" t="s">
-        <v>72</v>
-      </c>
       <c r="C86" s="91"/>
       <c r="D86" s="91"/>
       <c r="E86" s="91"/>
@@ -3717,31 +3203,44 @@
       <c r="G86" s="91"/>
       <c r="H86" s="91"/>
       <c r="I86" s="91"/>
-      <c r="J86" s="91"/>
-      <c r="K86" s="91"/>
-      <c r="L86" s="91"/>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="C87" s="91"/>
+      <c r="D87" s="91"/>
+      <c r="E87" s="91"/>
+      <c r="F87" s="91"/>
+      <c r="G87" s="91"/>
+      <c r="H87" s="91"/>
+      <c r="I87" s="91"/>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="C88" s="91"/>
+      <c r="D88" s="91"/>
+      <c r="E88" s="91"/>
+      <c r="F88" s="91"/>
+      <c r="G88" s="91"/>
+      <c r="H88" s="91"/>
+      <c r="I88" s="91"/>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="C89" s="91"/>
+      <c r="D89" s="91"/>
+      <c r="E89" s="91"/>
+      <c r="F89" s="91"/>
+      <c r="G89" s="91"/>
+      <c r="H89" s="91"/>
+      <c r="I89" s="91"/>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="85"/>
-      <c r="B90" s="104" t="s">
-        <v>84</v>
-      </c>
-      <c r="C90" s="104"/>
-      <c r="D90" s="104"/>
-      <c r="E90" s="104"/>
-      <c r="F90" s="104"/>
-      <c r="G90" s="104"/>
-      <c r="H90" s="104"/>
-      <c r="I90" s="104"/>
-      <c r="J90" s="104"/>
-      <c r="K90" s="104"/>
-      <c r="L90" s="104"/>
+      <c r="C90" s="91"/>
+      <c r="D90" s="91"/>
+      <c r="E90" s="91"/>
+      <c r="F90" s="91"/>
+      <c r="G90" s="91"/>
+      <c r="H90" s="91"/>
+      <c r="I90" s="91"/>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="85"/>
-      <c r="B91" s="91" t="s">
-        <v>85</v>
-      </c>
       <c r="C91" s="91"/>
       <c r="D91" s="91"/>
       <c r="E91" s="91"/>
@@ -3749,120 +3248,111 @@
       <c r="G91" s="91"/>
       <c r="H91" s="91"/>
       <c r="I91" s="91"/>
-      <c r="J91" s="91"/>
-      <c r="K91" s="91"/>
-      <c r="L91" s="91"/>
-    </row>
-    <row r="92" spans="1:12">
-      <c r="A92" s="85"/>
-      <c r="B92" s="104" t="s">
-        <v>86</v>
-      </c>
-      <c r="C92" s="104"/>
-      <c r="D92" s="104"/>
-      <c r="E92" s="104"/>
-      <c r="F92" s="104"/>
-      <c r="G92" s="104"/>
-      <c r="H92" s="104"/>
-      <c r="I92" s="104"/>
-      <c r="J92" s="104"/>
-      <c r="K92" s="104"/>
-      <c r="L92" s="104"/>
+    </row>
+    <row r="92" spans="1:12" ht="15.6" customHeight="1">
+      <c r="C92" s="91"/>
+      <c r="D92" s="91"/>
+      <c r="E92" s="91"/>
+      <c r="F92" s="91"/>
+      <c r="G92" s="91"/>
+      <c r="H92" s="91"/>
+      <c r="I92" s="91"/>
+    </row>
+    <row r="93" spans="1:12" ht="15.6" customHeight="1">
+      <c r="C93" s="91"/>
+      <c r="D93" s="91"/>
+      <c r="E93" s="91"/>
+      <c r="F93" s="91"/>
+      <c r="G93" s="91"/>
+      <c r="H93" s="91"/>
+      <c r="I93" s="91"/>
     </row>
     <row r="94" spans="1:12">
-      <c r="C94" s="92"/>
-      <c r="D94" s="92"/>
-      <c r="E94" s="92"/>
-      <c r="F94" s="92"/>
-      <c r="G94" s="92"/>
-      <c r="H94" s="92"/>
-      <c r="I94" s="92"/>
-    </row>
-    <row r="95" spans="1:12">
-      <c r="C95" s="92"/>
-      <c r="D95" s="92"/>
-      <c r="E95" s="92"/>
-      <c r="F95" s="92"/>
-      <c r="G95" s="92"/>
-      <c r="H95" s="92"/>
-      <c r="I95" s="92"/>
-    </row>
-    <row r="96" spans="1:12">
-      <c r="C96" s="92"/>
-      <c r="D96" s="92"/>
-      <c r="E96" s="92"/>
-      <c r="F96" s="92"/>
-      <c r="G96" s="92"/>
-      <c r="H96" s="92"/>
-      <c r="I96" s="92"/>
-    </row>
-    <row r="97" spans="3:9">
-      <c r="C97" s="92"/>
-      <c r="D97" s="92"/>
-      <c r="E97" s="92"/>
-      <c r="F97" s="92"/>
-      <c r="G97" s="92"/>
-      <c r="H97" s="92"/>
-      <c r="I97" s="92"/>
-    </row>
-    <row r="98" spans="3:9">
-      <c r="C98" s="92"/>
-      <c r="D98" s="92"/>
-      <c r="E98" s="92"/>
-      <c r="F98" s="92"/>
-      <c r="G98" s="92"/>
-      <c r="H98" s="92"/>
-      <c r="I98" s="92"/>
-    </row>
-    <row r="99" spans="3:9">
-      <c r="C99" s="92"/>
-      <c r="D99" s="92"/>
-      <c r="E99" s="92"/>
-      <c r="F99" s="92"/>
-      <c r="G99" s="92"/>
-      <c r="H99" s="92"/>
-      <c r="I99" s="92"/>
-    </row>
-    <row r="100" spans="3:9">
-      <c r="C100" s="92"/>
-      <c r="D100" s="92"/>
-      <c r="E100" s="92"/>
-      <c r="F100" s="92"/>
-      <c r="G100" s="92"/>
-      <c r="H100" s="92"/>
-      <c r="I100" s="92"/>
-    </row>
-    <row r="101" spans="3:9" ht="15.6" customHeight="1">
-      <c r="C101" s="92"/>
-      <c r="D101" s="92"/>
-      <c r="E101" s="92"/>
-      <c r="F101" s="92"/>
-      <c r="G101" s="92"/>
-      <c r="H101" s="92"/>
-      <c r="I101" s="92"/>
-    </row>
-    <row r="102" spans="3:9" ht="15.6" customHeight="1">
-      <c r="C102" s="92"/>
-      <c r="D102" s="92"/>
-      <c r="E102" s="92"/>
-      <c r="F102" s="92"/>
-      <c r="G102" s="92"/>
-      <c r="H102" s="92"/>
-      <c r="I102" s="92"/>
-    </row>
-    <row r="103" spans="3:9">
-      <c r="C103" s="92"/>
-      <c r="D103" s="92"/>
-      <c r="E103" s="92"/>
-      <c r="F103" s="92"/>
-      <c r="G103" s="92"/>
-      <c r="H103" s="92"/>
-      <c r="I103" s="92"/>
-    </row>
-    <row r="109" spans="3:9" ht="15.6" customHeight="1"/>
+      <c r="C94" s="91"/>
+      <c r="D94" s="91"/>
+      <c r="E94" s="91"/>
+      <c r="F94" s="91"/>
+      <c r="G94" s="91"/>
+      <c r="H94" s="91"/>
+      <c r="I94" s="91"/>
+    </row>
+    <row r="100" ht="15.6" customHeight="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="91">
+  <mergeCells count="89">
+    <mergeCell ref="B73:L73"/>
+    <mergeCell ref="B74:L74"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="B58:L58"/>
+    <mergeCell ref="B47:L47"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="B43:L43"/>
+    <mergeCell ref="B56:L56"/>
+    <mergeCell ref="B69:L69"/>
+    <mergeCell ref="B57:L57"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="B83:L83"/>
+    <mergeCell ref="B66:L66"/>
+    <mergeCell ref="B67:L67"/>
+    <mergeCell ref="B68:L68"/>
+    <mergeCell ref="B59:L59"/>
+    <mergeCell ref="B60:L60"/>
+    <mergeCell ref="B61:L61"/>
+    <mergeCell ref="B62:L62"/>
+    <mergeCell ref="B63:L63"/>
+    <mergeCell ref="B64:L64"/>
+    <mergeCell ref="B65:L65"/>
+    <mergeCell ref="B70:L70"/>
+    <mergeCell ref="B71:L71"/>
+    <mergeCell ref="B72:L72"/>
+    <mergeCell ref="B82:L82"/>
+    <mergeCell ref="B81:L81"/>
+    <mergeCell ref="B80:L80"/>
+    <mergeCell ref="B75:L75"/>
+    <mergeCell ref="B76:L76"/>
+    <mergeCell ref="B77:L77"/>
+    <mergeCell ref="B78:L78"/>
+    <mergeCell ref="B79:L79"/>
+    <mergeCell ref="B49:C53"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B54:L54"/>
+    <mergeCell ref="B45:L45"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="C85:I94"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="D51:I51"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="B34:L34"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="B46:L46"/>
+    <mergeCell ref="B44:L44"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="K50:M50"/>
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="J9:L9"/>
@@ -3879,81 +3369,6 @@
     <mergeCell ref="B28:J28"/>
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="B30:J30"/>
-    <mergeCell ref="C94:I103"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="D51:I51"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="B34:L34"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="B46:L46"/>
-    <mergeCell ref="B44:L44"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B49:C54"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B55:L55"/>
-    <mergeCell ref="B45:L45"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B86:L86"/>
-    <mergeCell ref="B81:L81"/>
-    <mergeCell ref="B82:L82"/>
-    <mergeCell ref="B83:L83"/>
-    <mergeCell ref="B84:L84"/>
-    <mergeCell ref="B85:L85"/>
-    <mergeCell ref="B92:L92"/>
-    <mergeCell ref="B69:L69"/>
-    <mergeCell ref="B70:L70"/>
-    <mergeCell ref="B71:L71"/>
-    <mergeCell ref="B62:L62"/>
-    <mergeCell ref="B63:L63"/>
-    <mergeCell ref="B64:L64"/>
-    <mergeCell ref="B65:L65"/>
-    <mergeCell ref="B66:L66"/>
-    <mergeCell ref="B67:L67"/>
-    <mergeCell ref="B68:L68"/>
-    <mergeCell ref="B76:L76"/>
-    <mergeCell ref="B77:L77"/>
-    <mergeCell ref="B78:L78"/>
-    <mergeCell ref="B91:L91"/>
-    <mergeCell ref="B90:L90"/>
-    <mergeCell ref="B79:L79"/>
-    <mergeCell ref="B80:L80"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="B61:L61"/>
-    <mergeCell ref="B56:L56"/>
-    <mergeCell ref="B47:L47"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="B43:L43"/>
-    <mergeCell ref="B59:L59"/>
-    <mergeCell ref="B72:L72"/>
-    <mergeCell ref="B73:L73"/>
-    <mergeCell ref="B60:L60"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="J11:L11"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="VERIFICAR NÚMERO DE TELEFONO" error="Verifica que tenga 9 digitos sin espacio" sqref="J8:L8" xr:uid="{CC0405B2-A74A-4E8F-BF03-C34BEE695B67}">
@@ -3970,7 +3385,7 @@
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="71" fitToWidth="2" fitToHeight="2" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="48" max="11" man="1"/>
+    <brk id="48" max="12" man="1"/>
   </rowBreaks>
   <cellWatches>
     <cellWatch r="K16"/>
